--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -904,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M328"/>
+  <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="K324" sqref="K324"/>
+      <selection activeCell="H327" sqref="H327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5746,6 +5746,34 @@
         <v>7.9799999999999992E-3</v>
       </c>
     </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B329" s="13">
+        <v>133086.45000000001</v>
+      </c>
+      <c r="C329">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D329" s="3">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B330" s="13">
+        <v>150484.88</v>
+      </c>
+      <c r="C330">
+        <v>13.7</v>
+      </c>
+      <c r="D330" s="3">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -904,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M330"/>
+  <dimension ref="A1:M331"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="H327" sqref="H327"/>
+      <selection activeCell="P323" sqref="P323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5774,6 +5774,20 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B331" s="13">
+        <v>164354.42000000001</v>
+      </c>
+      <c r="C331">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="D331" s="3">
+        <v>9.2200000000000004E-2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>fecha</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>127331.47</t>
+  </si>
+  <si>
+    <t>191984.67</t>
   </si>
 </sst>
 </file>
@@ -904,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M331"/>
+  <dimension ref="A1:M332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="P323" sqref="P323"/>
+      <selection activeCell="L330" sqref="L330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5788,6 +5791,20 @@
         <v>9.2200000000000004E-2</v>
       </c>
     </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B332" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="D332" s="3">
+        <v>0.1681</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>fecha</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>102104.8</t>
-  </si>
-  <si>
-    <t>127331.47</t>
-  </si>
-  <si>
-    <t>191984.67</t>
   </si>
 </sst>
 </file>
@@ -907,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M332"/>
+  <dimension ref="A1:M333"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="L330" sqref="L330"/>
+      <selection activeCell="M331" sqref="M331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,8 +5733,8 @@
       <c r="A328" s="2">
         <v>43923</v>
       </c>
-      <c r="B328" s="13" t="s">
-        <v>7</v>
+      <c r="B328" s="13">
+        <v>127331.47</v>
       </c>
       <c r="C328">
         <v>7.98</v>
@@ -5795,14 +5789,28 @@
       <c r="A332" s="2">
         <v>43929</v>
       </c>
-      <c r="B332" s="13" t="s">
-        <v>8</v>
+      <c r="B332" s="13">
+        <v>191984.67</v>
       </c>
       <c r="C332">
         <v>16.809999999999999</v>
       </c>
       <c r="D332" s="3">
         <v>0.1681</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B333" s="13">
+        <v>227597.09</v>
+      </c>
+      <c r="C333">
+        <v>18.55</v>
+      </c>
+      <c r="D333" s="3">
+        <v>0.1855</v>
       </c>
     </row>
   </sheetData>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -901,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M333"/>
+  <dimension ref="A1:M334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="M331" sqref="M331"/>
+      <selection activeCell="J331" sqref="J331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5813,6 +5813,20 @@
         <v>0.1855</v>
       </c>
     </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B334" s="13">
+        <v>249098.83</v>
+      </c>
+      <c r="C334">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D334" s="3">
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>fecha</t>
   </si>
@@ -27,29 +27,16 @@
     <t>ibc</t>
   </si>
   <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>var2</t>
-  </si>
-  <si>
-    <t>118248.5</t>
-  </si>
-  <si>
-    <t>108061.2</t>
-  </si>
-  <si>
-    <t>102104.8</t>
+    <t>variacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -187,10 +174,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -541,44 +529,20 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,4930 +865,3712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M334"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="J331" sqref="J331"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="F330" sqref="F330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="11.42578125" style="13"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="4" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>43410</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="1">
         <v>507.32</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C13" si="0">D2*100</f>
         <v>-99.9</v>
       </c>
-      <c r="D2" s="3">
-        <v>-0.999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>43411</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="1">
         <v>539.32000000000005</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
         <v>6.3100000000000005</v>
       </c>
-      <c r="D3" s="3">
-        <v>6.3100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>43412</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="1">
         <v>548.09</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
         <v>1.63</v>
       </c>
-      <c r="D4" s="3">
-        <v>1.6299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>43413</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="1">
         <v>568.16999999999996</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
         <v>3.66</v>
       </c>
-      <c r="D5" s="3">
-        <v>3.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>43416</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="1">
         <v>568.57000000000005</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="D6" s="3">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>43417</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="1">
         <v>577.1</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="D7" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>43418</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="1">
         <v>580.38</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="D8" s="3">
-        <v>5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>43419</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="1">
         <v>571.24</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
         <v>-1.5699999999999998</v>
       </c>
-      <c r="D9" s="3">
-        <v>-1.5699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>43420</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="1">
         <v>569.13</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
         <v>-0.37</v>
       </c>
-      <c r="D10" s="3">
-        <v>-3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>43423</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="1">
         <v>551.97</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
         <v>-3.02</v>
       </c>
-      <c r="D11" s="3">
-        <v>-3.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>43424</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="1">
         <v>516.41</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
         <v>-6.4399999999999995</v>
       </c>
-      <c r="D12" s="3">
-        <v>-6.4399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>43425</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="1">
         <v>512.37</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
         <v>-0.77999999999999992</v>
       </c>
-      <c r="D13" s="3">
-        <v>-7.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>43426</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="1">
         <v>510.35</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C77" si="1">D14*100</f>
         <v>-0.38999999999999996</v>
       </c>
-      <c r="D14" s="3">
-        <v>-3.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>43427</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="1">
         <v>516.85</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
         <v>1.27</v>
       </c>
-      <c r="D15" s="3">
-        <v>1.2699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>43430</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="1">
         <v>533</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
         <v>3.1199999999999997</v>
       </c>
-      <c r="D16" s="3">
-        <v>3.1199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>43431</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="1">
         <v>639.89</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
         <v>20.05</v>
       </c>
-      <c r="D17" s="3">
-        <v>0.20050000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>43432</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="1">
         <v>700.39</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
         <v>9.4499999999999993</v>
       </c>
-      <c r="D18" s="3">
-        <v>9.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>43433</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="1">
         <v>739.62</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="D19" s="3">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>43434</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="1">
         <v>818.18</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
         <v>10.620000000000001</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.1062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>43437</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="1">
         <v>884.19</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
         <v>8.07</v>
       </c>
-      <c r="D21" s="3">
-        <v>8.0699999999999994E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>43438</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="1">
         <v>854.59</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
         <v>-3.35</v>
       </c>
-      <c r="D22" s="3">
-        <v>-3.3500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>43439</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="1">
         <v>835.42</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
         <v>-2.2399999999999998</v>
       </c>
-      <c r="D23" s="3">
-        <v>-2.24E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>43440</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="1">
         <v>822.09</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
         <v>-1.6</v>
       </c>
-      <c r="D24" s="3">
-        <v>-1.6E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>43441</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="1">
         <v>776.14</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
         <v>-5.59</v>
       </c>
-      <c r="D25" s="3">
-        <v>-5.5899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>43444</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="1">
         <v>776.7</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="D26" s="3">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>43445</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="1">
         <v>767.46</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
         <v>-1.1900000000000002</v>
       </c>
-      <c r="D27" s="3">
-        <v>-1.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>43446</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="1">
         <v>754.6</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
         <v>-1.68</v>
       </c>
-      <c r="D28" s="3">
-        <v>-1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>43447</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="1">
         <v>745.22</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
         <v>-1.24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-1.24E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>43448</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="1">
         <v>747.53</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
         <v>0.31</v>
       </c>
-      <c r="D30" s="3">
-        <v>3.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>43451</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="1">
         <v>789.38</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="D31" s="3">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>43452</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="1">
         <v>805.48</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
         <v>2.04</v>
       </c>
-      <c r="D32" s="3">
-        <v>2.0400000000000001E-2</v>
-      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>43453</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="1">
         <v>822.3</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
         <v>2.09</v>
       </c>
-      <c r="D33" s="3">
-        <v>2.0899999999999998E-2</v>
-      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>43454</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="1">
         <v>818.53</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
         <v>-0.45999999999999996</v>
       </c>
-      <c r="D34" s="3">
-        <v>-4.5999999999999999E-3</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>43455</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="1">
         <v>1260.17</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
         <v>53.959999999999994</v>
       </c>
-      <c r="D35" s="3">
-        <v>0.53959999999999997</v>
-      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>43460</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="1">
         <v>1309.69</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
         <v>3.93</v>
       </c>
-      <c r="D36" s="3">
-        <v>3.9300000000000002E-2</v>
-      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>43461</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="1">
         <v>1426.49</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
         <v>8.92</v>
       </c>
-      <c r="D37" s="3">
-        <v>8.9200000000000002E-2</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>43462</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="1">
         <v>1605.26</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
         <v>12.53</v>
       </c>
-      <c r="D38" s="3">
-        <v>0.12529999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+    </row>
+    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>43467</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="1">
         <v>1621.11</v>
       </c>
-      <c r="C39" s="8">
-        <f t="shared" si="1"/>
+      <c r="C39">
         <v>0.9900000000000001</v>
       </c>
-      <c r="D39" s="9">
-        <v>9.9000000000000008E-3</v>
-      </c>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>43468</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="1">
         <v>1682.51</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
         <v>3.7900000000000005</v>
       </c>
-      <c r="D40" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>43469</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="1">
         <v>1922.37</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
         <v>14.26</v>
       </c>
-      <c r="D41" s="3">
-        <v>0.1426</v>
-      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>43472</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="1">
         <v>2367.5500000000002</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
         <v>23.16</v>
       </c>
-      <c r="D42" s="3">
-        <v>0.2316</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>43473</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="1">
         <v>2623.78</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
         <v>10.82</v>
       </c>
-      <c r="D43" s="3">
-        <v>0.1082</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>43474</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="1">
         <v>2683.91</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
         <v>2.29</v>
       </c>
-      <c r="D44" s="3">
-        <v>2.29E-2</v>
-      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>43475</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="1">
         <v>3331.68</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
         <v>24.14</v>
       </c>
-      <c r="D45" s="3">
-        <v>0.2414</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="4">
         <v>43476</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="1">
         <v>4384.79</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
         <v>31.61</v>
       </c>
-      <c r="D46" s="3">
-        <v>0.31609999999999999</v>
-      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>43479</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="1">
         <v>6023.09</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
         <v>37.36</v>
       </c>
-      <c r="D47" s="3">
-        <v>0.37359999999999999</v>
-      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>43480</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="1">
         <v>5972.39</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
         <v>-0.84</v>
       </c>
-      <c r="D48" s="3">
-        <v>-8.3999999999999995E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>43481</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="1">
         <v>6189.57</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
         <v>3.64</v>
       </c>
-      <c r="D49" s="3">
-        <v>3.6400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>43482</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="1">
         <v>5956.11</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
         <v>-3.7699999999999996</v>
       </c>
-      <c r="D50" s="3">
-        <v>-3.7699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>43483</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="1">
         <v>5836.15</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
         <v>-2.0099999999999998</v>
       </c>
-      <c r="D51" s="3">
-        <v>-2.01E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>43486</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="1">
         <v>5700.74</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
         <v>-2.3199999999999998</v>
       </c>
-      <c r="D52" s="3">
-        <v>-2.3199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>43487</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="1">
         <v>5558.23</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
-      <c r="D53" s="3">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>43488</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="1">
         <v>5734.68</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
         <v>3.17</v>
       </c>
-      <c r="D54" s="3">
-        <v>3.1699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>43489</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="1">
         <v>5827.61</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
         <v>1.6199999999999999</v>
       </c>
-      <c r="D55" s="3">
-        <v>1.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>43490</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="1">
         <v>5974.23</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
-      <c r="D56" s="3">
-        <v>2.52E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>43493</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="1">
         <v>6068.91</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
         <v>1.58</v>
       </c>
-      <c r="D57" s="3">
-        <v>1.5800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>43494</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="1">
         <v>6147.36</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
         <v>1.29</v>
       </c>
-      <c r="D58" s="3">
-        <v>1.29E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>43495</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="1">
         <v>5764.13</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
         <v>-6.23</v>
       </c>
-      <c r="D59" s="3">
-        <v>-6.2300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>43496</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="1">
         <v>5436.77</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
         <v>-5.6800000000000006</v>
       </c>
-      <c r="D60" s="3">
-        <v>-5.6800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>43497</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="1">
         <v>5286.4</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
         <v>-2.77</v>
       </c>
-      <c r="D61" s="3">
-        <v>-2.7699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>43500</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="1">
         <v>5100.2299999999996</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
         <v>-3.52</v>
       </c>
-      <c r="D62" s="3">
-        <v>-3.5200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>43501</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="1">
         <v>5580.27</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
         <v>9.41</v>
       </c>
-      <c r="D63" s="3">
-        <v>9.4100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>43502</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="1">
         <v>5566.58</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
-      <c r="D64" s="3">
-        <v>-2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>43503</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="1">
         <v>5699.8</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
         <v>2.39</v>
       </c>
-      <c r="D65" s="3">
-        <v>2.3900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>43504</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="1">
         <v>5525.24</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
         <v>-3.06</v>
       </c>
-      <c r="D66" s="3">
-        <v>-3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>43507</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="1">
         <v>5117.34</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
         <v>-7.3800000000000008</v>
       </c>
-      <c r="D67" s="3">
-        <v>-7.3800000000000004E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>43508</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="1">
         <v>4998.63</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
         <v>-2.3199999999999998</v>
       </c>
-      <c r="D68" s="3">
-        <v>-2.3199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>43509</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="1">
         <v>4812.96</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
         <v>-3.71</v>
       </c>
-      <c r="D69" s="3">
-        <v>-3.7100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>43510</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="1">
         <v>4640.24</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
         <v>-3.5900000000000003</v>
       </c>
-      <c r="D70" s="3">
-        <v>-3.5900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>43511</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="1">
         <v>5056.92</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
         <v>8.98</v>
       </c>
-      <c r="D71" s="3">
-        <v>8.9800000000000005E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
         <v>43514</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="1">
         <v>5055.88</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
-      <c r="D72" s="3">
-        <v>-2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>43515</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="1">
         <v>5232.46</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
         <v>3.49</v>
       </c>
-      <c r="D73" s="3">
-        <v>3.49E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
         <v>43516</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="1">
         <v>5314.51</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
         <v>1.5699999999999998</v>
       </c>
-      <c r="D74" s="3">
-        <v>1.5699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>43517</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="1">
         <v>5596.29</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
-      <c r="D75" s="3">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>43518</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="1">
         <v>6966.75</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
         <v>24.490000000000002</v>
       </c>
-      <c r="D76" s="3">
-        <v>0.24490000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>43521</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="1">
         <v>7839.1</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
         <v>12.520000000000001</v>
       </c>
-      <c r="D77" s="3">
-        <v>0.12520000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>43522</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="1">
         <v>9085.4</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:C141" si="2">D78*100</f>
         <v>15.9</v>
       </c>
-      <c r="D78" s="3">
-        <v>0.159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>43523</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="1">
         <v>10516.31</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
         <v>15.75</v>
       </c>
-      <c r="D79" s="3">
-        <v>0.1575</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>43524</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="1">
         <v>10516.31</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>43530</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="1">
         <v>10104.290000000001</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
         <v>-3.92</v>
       </c>
-      <c r="D81" s="3">
-        <v>-3.9199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>43531</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="1">
         <v>9837.64</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
         <v>-2.64</v>
       </c>
-      <c r="D82" s="3">
-        <v>-2.64E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>43538</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="1">
         <v>8194.59</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
         <v>-16.7</v>
       </c>
-      <c r="D83" s="3">
-        <v>-0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>43539</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="1">
         <v>8582.1299999999992</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
         <v>4.7300000000000004</v>
       </c>
-      <c r="D84" s="3">
-        <v>4.7300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>43542</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="1">
         <v>8873.44</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
         <v>3.39</v>
       </c>
-      <c r="D85" s="3">
-        <v>3.39E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>43544</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="1">
         <v>9394.7999999999993</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
         <v>5.88</v>
       </c>
-      <c r="D86" s="3">
-        <v>5.8799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>43545</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="1">
         <v>9512.15</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="D87" s="3">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
         <v>43546</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="1">
         <v>9487.81</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
         <v>-0.26</v>
       </c>
-      <c r="D88" s="3">
-        <v>-2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
         <v>43549</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="1">
         <v>8961.15</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
         <v>-5.55</v>
       </c>
-      <c r="D89" s="3">
-        <v>-5.5500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
         <v>43553</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="1">
         <v>8567.89</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
         <v>-4.3900000000000006</v>
       </c>
-      <c r="D90" s="3">
-        <v>-4.3900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
         <v>43556</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="1">
         <v>8249.07</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
         <v>-3.7199999999999998</v>
       </c>
-      <c r="D91" s="3">
-        <v>-3.7199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
         <v>43557</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="1">
         <v>8425.19</v>
       </c>
       <c r="C92">
-        <f t="shared" si="2"/>
         <v>2.1399999999999997</v>
       </c>
-      <c r="D92" s="3">
-        <v>2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>43558</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="1">
         <v>8554.7800000000007</v>
       </c>
       <c r="C93">
-        <f t="shared" si="2"/>
         <v>1.54</v>
       </c>
-      <c r="D93" s="3">
-        <v>1.54E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
         <v>43559</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="1">
         <v>8597.59</v>
       </c>
       <c r="C94">
-        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D94" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>43560</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="1">
         <v>8833.81</v>
       </c>
       <c r="C95">
-        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
-      <c r="D95" s="3">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
         <v>43563</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="1">
         <v>8683.9599999999991</v>
       </c>
       <c r="C96">
-        <f t="shared" si="2"/>
         <v>-1.7000000000000002</v>
       </c>
-      <c r="D96" s="3">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>43564</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="1">
         <v>8494.06</v>
       </c>
       <c r="C97">
-        <f t="shared" si="2"/>
         <v>-2.19</v>
       </c>
-      <c r="D97" s="3">
-        <v>-2.1899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
         <v>43565</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="1">
         <v>8667.34</v>
       </c>
       <c r="C98">
-        <f t="shared" si="2"/>
         <v>2.04</v>
       </c>
-      <c r="D98" s="3">
-        <v>2.0400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
         <v>43566</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="1">
         <v>9257.7000000000007</v>
       </c>
       <c r="C99">
-        <f t="shared" si="2"/>
         <v>6.81</v>
       </c>
-      <c r="D99" s="3">
-        <v>6.8099999999999994E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
         <v>43567</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="1">
         <v>10318.790000000001</v>
       </c>
       <c r="C100">
-        <f t="shared" si="2"/>
         <v>11.459999999999999</v>
       </c>
-      <c r="D100" s="3">
-        <v>0.11459999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
         <v>43577</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="1">
         <v>11816.82</v>
       </c>
       <c r="C101">
-        <f t="shared" si="2"/>
         <v>14.52</v>
       </c>
-      <c r="D101" s="3">
-        <v>0.1452</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
         <v>43578</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="1">
         <v>14674</v>
       </c>
       <c r="C102">
-        <f t="shared" si="2"/>
         <v>24.18</v>
       </c>
-      <c r="D102" s="3">
-        <v>0.24179999999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
         <v>43579</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="1">
         <v>14788.11</v>
       </c>
       <c r="C103">
-        <f t="shared" si="2"/>
         <v>0.77999999999999992</v>
       </c>
-      <c r="D103" s="3">
-        <v>7.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
         <v>43580</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="1">
         <v>15089.31</v>
       </c>
       <c r="C104">
-        <f t="shared" si="2"/>
         <v>2.04</v>
       </c>
-      <c r="D104" s="3">
-        <v>2.0400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
         <v>43581</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="1">
         <v>17070.18</v>
       </c>
       <c r="C105">
-        <f t="shared" si="2"/>
         <v>13.13</v>
       </c>
-      <c r="D105" s="3">
-        <v>0.1313</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
         <v>43584</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="1">
         <v>17775.650000000001</v>
       </c>
       <c r="C106">
-        <f t="shared" si="2"/>
         <v>4.1300000000000008</v>
       </c>
-      <c r="D106" s="3">
-        <v>4.1300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
         <v>43587</v>
       </c>
-      <c r="B107" s="13">
+      <c r="B107" s="1">
         <v>16942.11</v>
       </c>
       <c r="C107">
-        <f t="shared" si="2"/>
         <v>-4.6899999999999995</v>
       </c>
-      <c r="D107" s="3">
-        <v>-4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
         <v>43588</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108" s="1">
         <v>16640.990000000002</v>
       </c>
       <c r="C108">
-        <f t="shared" si="2"/>
         <v>-1.78</v>
       </c>
-      <c r="D108" s="3">
-        <v>-1.78E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
         <v>43591</v>
       </c>
-      <c r="B109" s="13">
+      <c r="B109" s="1">
         <v>15125.7</v>
       </c>
       <c r="C109">
-        <f t="shared" si="2"/>
         <v>-9.11</v>
       </c>
-      <c r="D109" s="3">
-        <v>-9.11E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
         <v>43592</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="1">
         <v>14093.18</v>
       </c>
       <c r="C110">
-        <f t="shared" si="2"/>
         <v>-6.83</v>
       </c>
-      <c r="D110" s="3">
-        <v>-6.83E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
         <v>43593</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="1">
         <v>15277.27</v>
       </c>
       <c r="C111">
-        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
-      <c r="D111" s="3">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
         <v>43594</v>
       </c>
-      <c r="B112" s="13">
+      <c r="B112" s="1">
         <v>15811.14</v>
       </c>
       <c r="C112">
-        <f t="shared" si="2"/>
         <v>3.49</v>
       </c>
-      <c r="D112" s="3">
-        <v>3.49E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
         <v>43595</v>
       </c>
-      <c r="B113" s="13">
+      <c r="B113" s="1">
         <v>16553.72</v>
       </c>
       <c r="C113">
-        <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="D113" s="3">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
         <v>43598</v>
       </c>
-      <c r="B114" s="13">
+      <c r="B114" s="1">
         <v>16148.36</v>
       </c>
       <c r="C114">
-        <f t="shared" si="2"/>
         <v>-2.4500000000000002</v>
       </c>
-      <c r="D114" s="3">
-        <v>-2.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
         <v>43599</v>
       </c>
-      <c r="B115" s="13">
+      <c r="B115" s="1">
         <v>16114.27</v>
       </c>
       <c r="C115">
-        <f t="shared" si="2"/>
         <v>-0.21</v>
       </c>
-      <c r="D115" s="3">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
         <v>43600</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116" s="1">
         <v>15976.95</v>
       </c>
       <c r="C116">
-        <f t="shared" si="2"/>
         <v>-0.85000000000000009</v>
       </c>
-      <c r="D116" s="3">
-        <v>-8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
         <v>43601</v>
       </c>
-      <c r="B117" s="13">
+      <c r="B117" s="1">
         <v>16214.23</v>
       </c>
       <c r="C117">
-        <f t="shared" si="2"/>
         <v>1.49</v>
       </c>
-      <c r="D117" s="3">
-        <v>1.49E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
         <v>43602</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118" s="1">
         <v>16473.650000000001</v>
       </c>
       <c r="C118">
-        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="D118" s="3">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
         <v>43605</v>
       </c>
-      <c r="B119" s="13">
+      <c r="B119" s="1">
         <v>17076.939999999999</v>
       </c>
       <c r="C119">
-        <f t="shared" si="2"/>
         <v>3.66</v>
       </c>
-      <c r="D119" s="3">
-        <v>3.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
         <v>43606</v>
       </c>
-      <c r="B120" s="13">
+      <c r="B120" s="1">
         <v>16465.62</v>
       </c>
       <c r="C120">
-        <f t="shared" si="2"/>
         <v>-3.58</v>
       </c>
-      <c r="D120" s="3">
-        <v>-3.5799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
         <v>43607</v>
       </c>
-      <c r="B121" s="13">
+      <c r="B121" s="1">
         <v>15737.45</v>
       </c>
       <c r="C121">
-        <f t="shared" si="2"/>
         <v>-4.42</v>
       </c>
-      <c r="D121" s="3">
-        <v>-4.4200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
         <v>43608</v>
       </c>
-      <c r="B122" s="13">
+      <c r="B122" s="1">
         <v>15541.71</v>
       </c>
       <c r="C122">
-        <f t="shared" si="2"/>
         <v>-1.24</v>
       </c>
-      <c r="D122" s="3">
-        <v>-1.24E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
         <v>43609</v>
       </c>
-      <c r="B123" s="13">
+      <c r="B123" s="1">
         <v>15665.22</v>
       </c>
       <c r="C123">
-        <f t="shared" si="2"/>
         <v>0.79</v>
       </c>
-      <c r="D123" s="3">
-        <v>7.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
         <v>43612</v>
       </c>
-      <c r="B124" s="13">
+      <c r="B124" s="1">
         <v>15753.54</v>
       </c>
       <c r="C124">
-        <f t="shared" si="2"/>
         <v>0.55999999999999994</v>
       </c>
-      <c r="D124" s="3">
-        <v>5.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
         <v>43613</v>
       </c>
-      <c r="B125" s="13">
+      <c r="B125" s="1">
         <v>15730.88</v>
       </c>
       <c r="C125">
-        <f t="shared" si="2"/>
         <v>-0.13999999999999999</v>
       </c>
-      <c r="D125" s="3">
-        <v>-1.4E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
         <v>43614</v>
       </c>
-      <c r="B126" s="13">
+      <c r="B126" s="1">
         <v>15842.46</v>
       </c>
       <c r="C126">
-        <f t="shared" si="2"/>
         <v>0.71000000000000008</v>
       </c>
-      <c r="D126" s="3">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
         <v>43615</v>
       </c>
-      <c r="B127" s="13">
+      <c r="B127" s="1">
         <v>15995.55</v>
       </c>
       <c r="C127">
-        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="D127" s="3">
-        <v>9.7000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
         <v>43616</v>
       </c>
-      <c r="B128" s="13">
+      <c r="B128" s="1">
         <v>15791.62</v>
       </c>
       <c r="C128">
-        <f t="shared" si="2"/>
         <v>-1.27</v>
       </c>
-      <c r="D128" s="3">
-        <v>-1.2699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
         <v>43620</v>
       </c>
-      <c r="B129" s="13">
+      <c r="B129" s="1">
         <v>15581.13</v>
       </c>
       <c r="C129">
-        <f t="shared" si="2"/>
         <v>-1.3299999999999998</v>
       </c>
-      <c r="D129" s="3">
-        <v>-1.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
         <v>43621</v>
       </c>
-      <c r="B130" s="13">
+      <c r="B130" s="1">
         <v>14938.76</v>
       </c>
       <c r="C130">
-        <f t="shared" si="2"/>
         <v>-4.12</v>
       </c>
-      <c r="D130" s="3">
-        <v>-4.1200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
         <v>43622</v>
       </c>
-      <c r="B131" s="13">
+      <c r="B131" s="1">
         <v>14491.76</v>
       </c>
       <c r="C131">
-        <f t="shared" si="2"/>
         <v>-2.9899999999999998</v>
       </c>
-      <c r="D131" s="3">
-        <v>-2.9899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
         <v>43623</v>
       </c>
-      <c r="B132" s="13">
+      <c r="B132" s="1">
         <v>14162.87</v>
       </c>
       <c r="C132">
-        <f t="shared" si="2"/>
         <v>-2.27</v>
       </c>
-      <c r="D132" s="3">
-        <v>-2.2700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
         <v>43626</v>
       </c>
-      <c r="B133" s="13">
+      <c r="B133" s="1">
         <v>13571.37</v>
       </c>
       <c r="C133">
-        <f t="shared" si="2"/>
         <v>-4.18</v>
       </c>
-      <c r="D133" s="3">
-        <v>-4.1799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
         <v>43627</v>
       </c>
-      <c r="B134" s="13">
+      <c r="B134" s="1">
         <v>13397.89</v>
       </c>
       <c r="C134">
-        <f t="shared" si="2"/>
         <v>-1.28</v>
       </c>
-      <c r="D134" s="3">
-        <v>-1.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
         <v>43628</v>
       </c>
-      <c r="B135" s="13">
+      <c r="B135" s="1">
         <v>13746.42</v>
       </c>
       <c r="C135">
-        <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="D135" s="3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
         <v>43629</v>
       </c>
-      <c r="B136" s="13">
+      <c r="B136" s="1">
         <v>14486.28</v>
       </c>
       <c r="C136">
-        <f t="shared" si="2"/>
         <v>5.38</v>
       </c>
-      <c r="D136" s="3">
-        <v>5.3800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
         <v>43630</v>
       </c>
-      <c r="B137" s="13">
+      <c r="B137" s="1">
         <v>15250.96</v>
       </c>
       <c r="C137">
-        <f t="shared" si="2"/>
         <v>5.28</v>
       </c>
-      <c r="D137" s="3">
-        <v>5.28E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
         <v>43634</v>
       </c>
-      <c r="B138" s="13">
+      <c r="B138" s="1">
         <v>15304.96</v>
       </c>
       <c r="C138">
-        <f t="shared" si="2"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="D138" s="3">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
         <v>43635</v>
       </c>
-      <c r="B139" s="13">
+      <c r="B139" s="1">
         <v>15547.91</v>
       </c>
       <c r="C139">
-        <f t="shared" si="2"/>
         <v>1.59</v>
       </c>
-      <c r="D139" s="3">
-        <v>1.5900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>43636</v>
       </c>
-      <c r="B140" s="13">
+      <c r="B140" s="1">
         <v>15704.22</v>
       </c>
       <c r="C140">
-        <f t="shared" si="2"/>
         <v>1.01</v>
       </c>
-      <c r="D140" s="3">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
         <v>43637</v>
       </c>
-      <c r="B141" s="13">
+      <c r="B141" s="1">
         <v>16072.07</v>
       </c>
       <c r="C141">
-        <f t="shared" si="2"/>
         <v>2.34</v>
       </c>
-      <c r="D141" s="3">
-        <v>2.3400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
         <v>43641</v>
       </c>
-      <c r="B142" s="13">
+      <c r="B142" s="1">
         <v>16311.48</v>
       </c>
       <c r="C142">
-        <f t="shared" ref="C142:C205" si="3">D142*100</f>
         <v>1.49</v>
       </c>
-      <c r="D142" s="3">
-        <v>1.49E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
         <v>43642</v>
       </c>
-      <c r="B143" s="13">
+      <c r="B143" s="1">
         <v>16630.39</v>
       </c>
       <c r="C143">
-        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
-      <c r="D143" s="3">
-        <v>1.9599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
         <v>43643</v>
       </c>
-      <c r="B144" s="13">
+      <c r="B144" s="1">
         <v>17296.87</v>
       </c>
       <c r="C144">
-        <f t="shared" si="3"/>
         <v>4.01</v>
       </c>
-      <c r="D144" s="3">
-        <v>4.0099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
         <v>43644</v>
       </c>
-      <c r="B145" s="13">
+      <c r="B145" s="1">
         <v>18453.849999999999</v>
       </c>
       <c r="C145">
-        <f t="shared" si="3"/>
         <v>6.69</v>
       </c>
-      <c r="D145" s="3">
-        <v>6.6900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
         <v>43647</v>
       </c>
-      <c r="B146" s="13">
+      <c r="B146" s="1">
         <v>18614.330000000002</v>
       </c>
       <c r="C146">
-        <f t="shared" si="3"/>
         <v>0.86999999999999988</v>
       </c>
-      <c r="D146" s="3">
-        <v>8.6999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>43648</v>
       </c>
-      <c r="B147" s="13">
+      <c r="B147" s="1">
         <v>18349.7</v>
       </c>
       <c r="C147">
-        <f t="shared" si="3"/>
         <v>-1.4200000000000002</v>
       </c>
-      <c r="D147" s="3">
-        <v>-1.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
         <v>43649</v>
       </c>
-      <c r="B148" s="13">
+      <c r="B148" s="1">
         <v>19077.12</v>
       </c>
       <c r="C148">
-        <f t="shared" si="3"/>
         <v>3.9600000000000004</v>
       </c>
-      <c r="D148" s="3">
-        <v>3.9600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
         <v>43650</v>
       </c>
-      <c r="B149" s="13">
+      <c r="B149" s="1">
         <v>19086.849999999999</v>
       </c>
       <c r="C149">
-        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="D149" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
         <v>43654</v>
       </c>
-      <c r="B150" s="13">
+      <c r="B150" s="1">
         <v>19190.189999999999</v>
       </c>
       <c r="C150">
-        <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
-      <c r="D150" s="3">
-        <v>5.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
         <v>43655</v>
       </c>
-      <c r="B151" s="13">
+      <c r="B151" s="1">
         <v>19516.099999999999</v>
       </c>
       <c r="C151">
-        <f t="shared" si="3"/>
         <v>1.7000000000000002</v>
       </c>
-      <c r="D151" s="3">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
         <v>43656</v>
       </c>
-      <c r="B152" s="13">
+      <c r="B152" s="1">
         <v>19513.84</v>
       </c>
       <c r="C152">
-        <f t="shared" si="3"/>
         <v>-0.01</v>
       </c>
-      <c r="D152" s="3">
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
         <v>43657</v>
       </c>
-      <c r="B153" s="13">
+      <c r="B153" s="1">
         <v>19976.560000000001</v>
       </c>
       <c r="C153">
-        <f t="shared" si="3"/>
         <v>2.37</v>
       </c>
-      <c r="D153" s="3">
-        <v>2.3699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
         <v>43658</v>
       </c>
-      <c r="B154" s="13">
+      <c r="B154" s="1">
         <v>20300.759999999998</v>
       </c>
       <c r="C154">
-        <f t="shared" si="3"/>
         <v>1.6199999999999999</v>
       </c>
-      <c r="D154" s="3">
-        <v>1.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
         <v>43661</v>
       </c>
-      <c r="B155" s="13">
+      <c r="B155" s="1">
         <v>20625.669999999998</v>
       </c>
       <c r="C155">
-        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="D155" s="3">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
         <v>43662</v>
       </c>
-      <c r="B156" s="13">
+      <c r="B156" s="1">
         <v>21859.15</v>
       </c>
       <c r="C156">
-        <f t="shared" si="3"/>
         <v>5.9799999999999995</v>
       </c>
-      <c r="D156" s="3">
-        <v>5.9799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
         <v>43663</v>
       </c>
-      <c r="B157" s="13">
+      <c r="B157" s="1">
         <v>24200</v>
       </c>
       <c r="C157">
-        <f t="shared" si="3"/>
         <v>10.71</v>
       </c>
-      <c r="D157" s="3">
-        <v>0.1071</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
         <v>43664</v>
       </c>
-      <c r="B158" s="13">
+      <c r="B158" s="1">
         <v>24404.82</v>
       </c>
       <c r="C158">
-        <f t="shared" si="3"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="D158" s="3">
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
         <v>43665</v>
       </c>
-      <c r="B159" s="13">
+      <c r="B159" s="1">
         <v>24235.119999999999</v>
       </c>
       <c r="C159">
-        <f t="shared" si="3"/>
         <v>-0.70000000000000007</v>
       </c>
-      <c r="D159" s="3">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
         <v>43668</v>
       </c>
-      <c r="B160" s="13">
+      <c r="B160" s="1">
         <v>24857.84</v>
       </c>
       <c r="C160">
-        <f t="shared" si="3"/>
         <v>2.5700000000000003</v>
       </c>
-      <c r="D160" s="3">
-        <v>2.5700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
         <v>43671</v>
       </c>
-      <c r="B161" s="13">
+      <c r="B161" s="1">
         <v>24836.959999999999</v>
       </c>
       <c r="C161">
-        <f t="shared" si="3"/>
         <v>-0.08</v>
       </c>
-      <c r="D161" s="3">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
         <v>43672</v>
       </c>
-      <c r="B162" s="13">
+      <c r="B162" s="1">
         <v>25020.45</v>
       </c>
       <c r="C162">
-        <f t="shared" si="3"/>
         <v>0.74</v>
       </c>
-      <c r="D162" s="3">
-        <v>7.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
         <v>43675</v>
       </c>
-      <c r="B163" s="13">
+      <c r="B163" s="1">
         <v>24919.52</v>
       </c>
       <c r="C163">
-        <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
-      <c r="D163" s="3">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
         <v>43676</v>
       </c>
-      <c r="B164" s="13">
+      <c r="B164" s="1">
         <v>25207.59</v>
       </c>
       <c r="C164">
-        <f t="shared" si="3"/>
         <v>1.1599999999999999</v>
       </c>
-      <c r="D164" s="3">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
         <v>43677</v>
       </c>
-      <c r="B165" s="13">
+      <c r="B165" s="1">
         <v>25788.69</v>
       </c>
       <c r="C165">
-        <f t="shared" si="3"/>
         <v>2.31</v>
       </c>
-      <c r="D165" s="3">
-        <v>2.3099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
         <v>43678</v>
       </c>
-      <c r="B166" s="13">
+      <c r="B166" s="1">
         <v>26701.72</v>
       </c>
       <c r="C166">
-        <f t="shared" si="3"/>
         <v>3.54</v>
       </c>
-      <c r="D166" s="3">
-        <v>3.5400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
         <v>43679</v>
       </c>
-      <c r="B167" s="13">
+      <c r="B167" s="1">
         <v>28667.35</v>
       </c>
       <c r="C167">
-        <f t="shared" si="3"/>
         <v>7.3599999999999994</v>
       </c>
-      <c r="D167" s="3">
-        <v>7.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
         <v>43682</v>
       </c>
-      <c r="B168" s="13">
+      <c r="B168" s="1">
         <v>30443.16</v>
       </c>
       <c r="C168">
-        <f t="shared" si="3"/>
         <v>6.1899999999999995</v>
       </c>
-      <c r="D168" s="3">
-        <v>6.1899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
         <v>43683</v>
       </c>
-      <c r="B169" s="13">
+      <c r="B169" s="1">
         <v>35149.040000000001</v>
       </c>
       <c r="C169">
-        <f t="shared" si="3"/>
         <v>15.459999999999999</v>
       </c>
-      <c r="D169" s="3">
-        <v>0.15459999999999999</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
         <v>43684</v>
       </c>
-      <c r="B170" s="13">
+      <c r="B170" s="1">
         <v>36682.79</v>
       </c>
       <c r="C170">
-        <f t="shared" si="3"/>
         <v>4.3600000000000003</v>
       </c>
-      <c r="D170" s="3">
-        <v>4.36E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
         <v>43685</v>
       </c>
-      <c r="B171" s="13">
+      <c r="B171" s="1">
         <v>36716.949999999997</v>
       </c>
       <c r="C171">
-        <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
-      <c r="D171" s="3">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
         <v>43686</v>
       </c>
-      <c r="B172" s="13">
+      <c r="B172" s="1">
         <v>40439.29</v>
       </c>
       <c r="C172">
-        <f t="shared" si="3"/>
         <v>10.14</v>
       </c>
-      <c r="D172" s="3">
-        <v>0.1014</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
         <v>43689</v>
       </c>
-      <c r="B173" s="13">
+      <c r="B173" s="1">
         <v>41545.919999999998</v>
       </c>
       <c r="C173">
-        <f t="shared" si="3"/>
         <v>2.74</v>
       </c>
-      <c r="D173" s="3">
-        <v>2.7400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
         <v>43690</v>
       </c>
-      <c r="B174" s="13">
+      <c r="B174" s="1">
         <v>42701.46</v>
       </c>
       <c r="C174">
-        <f t="shared" si="3"/>
         <v>2.78</v>
       </c>
-      <c r="D174" s="3">
-        <v>2.7799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
         <v>43691</v>
       </c>
-      <c r="B175" s="13">
+      <c r="B175" s="1">
         <v>44573.02</v>
       </c>
       <c r="C175">
-        <f t="shared" si="3"/>
         <v>4.38</v>
       </c>
-      <c r="D175" s="3">
-        <v>4.3799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
         <v>43692</v>
       </c>
-      <c r="B176" s="13">
+      <c r="B176" s="1">
         <v>43454.23</v>
       </c>
       <c r="C176">
-        <f t="shared" si="3"/>
         <v>-2.5100000000000002</v>
       </c>
-      <c r="D176" s="3">
-        <v>-2.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
         <v>43693</v>
       </c>
-      <c r="B177" s="13">
+      <c r="B177" s="1">
         <v>43965.84</v>
       </c>
       <c r="C177">
-        <f t="shared" si="3"/>
         <v>1.18</v>
       </c>
-      <c r="D177" s="3">
-        <v>1.18E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
         <v>43697</v>
       </c>
-      <c r="B178" s="13">
+      <c r="B178" s="1">
         <v>44555.7</v>
       </c>
       <c r="C178">
-        <f t="shared" si="3"/>
         <v>1.34</v>
       </c>
-      <c r="D178" s="3">
-        <v>1.34E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
         <v>43698</v>
       </c>
-      <c r="B179" s="13">
+      <c r="B179" s="1">
         <v>44676.83</v>
       </c>
       <c r="C179">
-        <f t="shared" si="3"/>
         <v>0.27</v>
       </c>
-      <c r="D179" s="3">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
         <v>43699</v>
       </c>
-      <c r="B180" s="13">
+      <c r="B180" s="1">
         <v>45554.68</v>
       </c>
       <c r="C180">
-        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
-      <c r="D180" s="3">
-        <v>1.9599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
         <v>43700</v>
       </c>
-      <c r="B181" s="13">
+      <c r="B181" s="1">
         <v>45196.02</v>
       </c>
       <c r="C181">
-        <f t="shared" si="3"/>
         <v>-0.79</v>
       </c>
-      <c r="D181" s="3">
-        <v>-7.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
         <v>43703</v>
       </c>
-      <c r="B182" s="13">
+      <c r="B182" s="1">
         <v>45186.26</v>
       </c>
       <c r="C182">
-        <f t="shared" si="3"/>
         <v>-0.02</v>
       </c>
-      <c r="D182" s="3">
-        <v>-2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
         <v>43704</v>
       </c>
-      <c r="B183" s="13">
+      <c r="B183" s="1">
         <v>48540.65</v>
       </c>
       <c r="C183">
-        <f t="shared" si="3"/>
         <v>7.42</v>
       </c>
-      <c r="D183" s="3">
-        <v>7.4200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
         <v>43705</v>
       </c>
-      <c r="B184" s="13">
+      <c r="B184" s="1">
         <v>49680.5</v>
       </c>
       <c r="C184">
-        <f t="shared" si="3"/>
         <v>2.35</v>
       </c>
-      <c r="D184" s="3">
-        <v>2.35E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
         <v>43706</v>
       </c>
-      <c r="B185" s="13">
+      <c r="B185" s="1">
         <v>52340.74</v>
       </c>
       <c r="C185">
-        <f t="shared" si="3"/>
         <v>5.35</v>
       </c>
-      <c r="D185" s="3">
-        <v>5.3499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
         <v>43707</v>
       </c>
-      <c r="B186" s="13">
+      <c r="B186" s="1">
         <v>55583.02</v>
       </c>
       <c r="C186">
-        <f t="shared" si="3"/>
         <v>6.1899999999999995</v>
       </c>
-      <c r="D186" s="3">
-        <v>6.1899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
         <v>43710</v>
       </c>
-      <c r="B187" s="13">
+      <c r="B187" s="1">
         <v>56574.99</v>
       </c>
       <c r="C187">
-        <f t="shared" si="3"/>
         <v>1.78</v>
       </c>
-      <c r="D187" s="3">
-        <v>1.78E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
         <v>43711</v>
       </c>
-      <c r="B188" s="13">
+      <c r="B188" s="1">
         <v>56020.79</v>
       </c>
       <c r="C188">
-        <f t="shared" si="3"/>
         <v>-0.98</v>
       </c>
-      <c r="D188" s="3">
-        <v>-9.7999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
         <v>43712</v>
       </c>
-      <c r="B189" s="13">
+      <c r="B189" s="1">
         <v>55056.66</v>
       </c>
       <c r="C189">
-        <f t="shared" si="3"/>
         <v>-1.72</v>
       </c>
-      <c r="D189" s="3">
-        <v>-1.72E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
         <v>43713</v>
       </c>
-      <c r="B190" s="13">
+      <c r="B190" s="1">
         <v>62004.3</v>
       </c>
       <c r="C190">
-        <f t="shared" si="3"/>
         <v>12.620000000000001</v>
       </c>
-      <c r="D190" s="3">
-        <v>0.12620000000000001</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
         <v>43714</v>
       </c>
-      <c r="B191" s="13">
+      <c r="B191" s="1">
         <v>61829.11</v>
       </c>
       <c r="C191">
-        <f t="shared" si="3"/>
         <v>-0.27999999999999997</v>
       </c>
-      <c r="D191" s="3">
-        <v>-2.8E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
         <v>43717</v>
       </c>
-      <c r="B192" s="13">
+      <c r="B192" s="1">
         <v>60990.52</v>
       </c>
       <c r="C192">
-        <f t="shared" si="3"/>
         <v>-1.3599999999999999</v>
       </c>
-      <c r="D192" s="3">
-        <v>-1.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
         <v>43718</v>
       </c>
-      <c r="B193" s="13">
+      <c r="B193" s="1">
         <v>61085.03</v>
       </c>
       <c r="C193">
-        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="D193" s="3">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
         <v>43719</v>
       </c>
-      <c r="B194" s="13">
+      <c r="B194" s="1">
         <v>60554.32</v>
       </c>
       <c r="C194">
-        <f t="shared" si="3"/>
         <v>-0.86999999999999988</v>
       </c>
-      <c r="D194" s="3">
-        <v>-8.6999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
         <v>43720</v>
       </c>
-      <c r="B195" s="13">
+      <c r="B195" s="1">
         <v>59166.63</v>
       </c>
       <c r="C195">
-        <f t="shared" si="3"/>
         <v>-2.29</v>
       </c>
-      <c r="D195" s="3">
-        <v>-2.29E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
         <v>43721</v>
       </c>
-      <c r="B196" s="13">
+      <c r="B196" s="1">
         <v>55768.93</v>
       </c>
       <c r="C196">
-        <f t="shared" si="3"/>
         <v>-5.74</v>
       </c>
-      <c r="D196" s="3">
-        <v>-5.74E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
         <v>43725</v>
       </c>
-      <c r="B197" s="13">
+      <c r="B197" s="1">
         <v>53618.39</v>
       </c>
       <c r="C197">
-        <f t="shared" si="3"/>
         <v>-3.8600000000000003</v>
       </c>
-      <c r="D197" s="3">
-        <v>-3.8600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
         <v>43726</v>
       </c>
-      <c r="B198" s="13">
+      <c r="B198" s="1">
         <v>50330.5</v>
       </c>
       <c r="C198">
-        <f t="shared" si="3"/>
         <v>-6.13</v>
       </c>
-      <c r="D198" s="3">
-        <v>-6.13E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
         <v>43727</v>
       </c>
-      <c r="B199" s="13">
+      <c r="B199" s="1">
         <v>48061.26</v>
       </c>
       <c r="C199">
-        <f t="shared" si="3"/>
         <v>-4.51</v>
       </c>
-      <c r="D199" s="3">
-        <v>-4.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
         <v>43728</v>
       </c>
-      <c r="B200" s="13">
+      <c r="B200" s="1">
         <v>50094.05</v>
       </c>
       <c r="C200">
-        <f t="shared" si="3"/>
         <v>4.2299999999999995</v>
       </c>
-      <c r="D200" s="3">
-        <v>4.2299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
         <v>43731</v>
       </c>
-      <c r="B201" s="13">
+      <c r="B201" s="1">
         <v>52152.92</v>
       </c>
       <c r="C201">
-        <f t="shared" si="3"/>
         <v>4.1099999999999994</v>
       </c>
-      <c r="D201" s="3">
-        <v>4.1099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
         <v>43732</v>
       </c>
-      <c r="B202" s="13">
+      <c r="B202" s="1">
         <v>50737.74</v>
       </c>
       <c r="C202">
-        <f t="shared" si="3"/>
         <v>-2.71</v>
       </c>
-      <c r="D202" s="3">
-        <v>-2.7099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
         <v>43733</v>
       </c>
-      <c r="B203" s="13">
+      <c r="B203" s="1">
         <v>50446.36</v>
       </c>
       <c r="C203">
-        <f t="shared" si="3"/>
         <v>-0.57000000000000006</v>
       </c>
-      <c r="D203" s="3">
-        <v>-5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
         <v>43734</v>
       </c>
-      <c r="B204" s="13">
+      <c r="B204" s="1">
         <v>50027.58</v>
       </c>
       <c r="C204">
-        <f t="shared" si="3"/>
         <v>-0.83</v>
       </c>
-      <c r="D204" s="3">
-        <v>-8.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
         <v>43735</v>
       </c>
-      <c r="B205" s="13">
+      <c r="B205" s="1">
         <v>50041.31</v>
       </c>
       <c r="C205">
-        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="D205" s="3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
         <v>43738</v>
       </c>
-      <c r="B206" s="13">
+      <c r="B206" s="1">
         <v>48856.03</v>
       </c>
       <c r="C206">
-        <f t="shared" ref="C206:C223" si="4">D206*100</f>
         <v>-2.37</v>
       </c>
-      <c r="D206" s="3">
-        <v>-2.3699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
         <v>43739</v>
       </c>
-      <c r="B207" s="13">
+      <c r="B207" s="1">
         <v>48701.24</v>
       </c>
       <c r="C207">
-        <f t="shared" si="4"/>
         <v>-0.32</v>
       </c>
-      <c r="D207" s="3">
-        <v>-3.2000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
         <v>43740</v>
       </c>
-      <c r="B208" s="13">
+      <c r="B208" s="1">
         <v>47532.78</v>
       </c>
       <c r="C208">
-        <f t="shared" si="4"/>
         <v>-2.4</v>
       </c>
-      <c r="D208" s="3">
-        <v>-2.4E-2</v>
-      </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+      <c r="A209" s="4">
         <v>43741</v>
       </c>
-      <c r="B209" s="13">
+      <c r="B209" s="1">
         <v>47289.88</v>
       </c>
       <c r="C209">
-        <f t="shared" si="4"/>
         <v>-0.51</v>
       </c>
-      <c r="D209" s="3">
-        <v>-5.1000000000000004E-3</v>
-      </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+      <c r="A210" s="4">
         <v>43742</v>
       </c>
-      <c r="B210" s="13">
+      <c r="B210" s="1">
         <v>49080.14</v>
       </c>
       <c r="C210">
-        <f t="shared" si="4"/>
         <v>3.7900000000000005</v>
       </c>
-      <c r="D210" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+      <c r="A211" s="4">
         <v>43745</v>
       </c>
-      <c r="B211" s="13">
+      <c r="B211" s="1">
         <v>49633.87</v>
       </c>
       <c r="C211">
-        <f t="shared" si="4"/>
         <v>1.1299999999999999</v>
       </c>
-      <c r="D211" s="3">
-        <v>1.1299999999999999E-2</v>
-      </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+      <c r="A212" s="4">
         <v>43746</v>
       </c>
-      <c r="B212" s="13">
+      <c r="B212" s="1">
         <v>50718.06</v>
       </c>
       <c r="C212">
-        <f t="shared" si="4"/>
         <v>2.1800000000000002</v>
       </c>
-      <c r="D212" s="3">
-        <v>2.18E-2</v>
-      </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+      <c r="A213" s="4">
         <v>43747</v>
       </c>
-      <c r="B213" s="13">
+      <c r="B213" s="1">
         <v>52777.46</v>
       </c>
       <c r="C213">
-        <f t="shared" si="4"/>
         <v>4.0599999999999996</v>
       </c>
-      <c r="D213" s="3">
-        <v>4.0599999999999997E-2</v>
-      </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+      <c r="A214" s="4">
         <v>43748</v>
       </c>
-      <c r="B214" s="13">
+      <c r="B214" s="1">
         <v>52693.42</v>
       </c>
       <c r="C214">
-        <f t="shared" si="4"/>
         <v>-0.16</v>
       </c>
-      <c r="D214" s="3">
-        <v>-1.6000000000000001E-3</v>
-      </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+      <c r="A215" s="4">
         <v>43749</v>
       </c>
-      <c r="B215" s="13">
+      <c r="B215" s="1">
         <v>51782.03</v>
       </c>
       <c r="C215">
-        <f t="shared" si="4"/>
         <v>-1.73</v>
       </c>
-      <c r="D215" s="3">
-        <v>-1.7299999999999999E-2</v>
-      </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+      <c r="A216" s="4">
         <v>43752</v>
       </c>
-      <c r="B216" s="13">
+      <c r="B216" s="1">
         <v>51182.02</v>
       </c>
       <c r="C216">
-        <f t="shared" si="4"/>
         <v>-1.1599999999999999</v>
       </c>
-      <c r="D216" s="3">
-        <v>-1.1599999999999999E-2</v>
-      </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+      <c r="A217" s="4">
         <v>43753</v>
       </c>
-      <c r="B217" s="13">
+      <c r="B217" s="1">
         <v>51073.71</v>
       </c>
       <c r="C217">
-        <f t="shared" si="4"/>
         <v>-0.21</v>
       </c>
-      <c r="D217" s="3">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-      <c r="L217" s="1"/>
-      <c r="M217" s="5"/>
+      <c r="L217" s="7"/>
+      <c r="M217" s="8"/>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+      <c r="A218" s="4">
         <v>43754</v>
       </c>
-      <c r="B218" s="13">
+      <c r="B218" s="1">
         <v>50027.360000000001</v>
       </c>
       <c r="C218">
-        <f t="shared" si="4"/>
         <v>-2.0500000000000003</v>
       </c>
-      <c r="D218" s="3">
-        <v>-2.0500000000000001E-2</v>
-      </c>
-      <c r="L218" s="1"/>
-      <c r="M218" s="5"/>
+      <c r="L218" s="7"/>
+      <c r="M218" s="8"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+      <c r="A219" s="4">
         <v>43755</v>
       </c>
-      <c r="B219" s="13">
+      <c r="B219" s="1">
         <v>49011.3</v>
       </c>
       <c r="C219">
-        <f t="shared" si="4"/>
         <v>-2.0299999999999998</v>
       </c>
-      <c r="D219" s="3">
-        <v>-2.0299999999999999E-2</v>
-      </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+      <c r="A220" s="4">
         <v>43756</v>
       </c>
-      <c r="B220" s="13">
+      <c r="B220" s="1">
         <v>46665.85</v>
       </c>
       <c r="C220">
-        <f t="shared" si="4"/>
         <v>-4.79</v>
       </c>
-      <c r="D220" s="3">
-        <v>-4.7899999999999998E-2</v>
-      </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+      <c r="A221" s="4">
         <v>43759</v>
       </c>
-      <c r="B221" s="13">
+      <c r="B221" s="1">
         <v>46005.59</v>
       </c>
       <c r="C221">
-        <f t="shared" si="4"/>
         <v>-1.41</v>
       </c>
-      <c r="D221" s="3">
-        <v>-1.41E-2</v>
-      </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+      <c r="A222" s="4">
         <v>43760</v>
       </c>
-      <c r="B222" s="13">
+      <c r="B222" s="1">
         <v>45008.61</v>
       </c>
       <c r="C222">
-        <f t="shared" si="4"/>
         <v>-2.17</v>
       </c>
-      <c r="D222" s="3">
-        <v>-2.1700000000000001E-2</v>
-      </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+      <c r="A223" s="4">
         <v>43761</v>
       </c>
-      <c r="B223" s="13">
+      <c r="B223" s="1">
         <v>47219.16</v>
       </c>
       <c r="C223">
-        <f t="shared" si="4"/>
         <v>4.91</v>
       </c>
-      <c r="D223" s="3">
-        <v>4.9099999999999998E-2</v>
-      </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+      <c r="A224" s="4">
         <v>43762</v>
       </c>
-      <c r="B224" s="13">
+      <c r="B224" s="1">
         <v>48282.33</v>
       </c>
       <c r="C224">
         <v>2.25</v>
       </c>
-      <c r="D224" s="3">
-        <v>2.5000000000000001E-2</v>
-      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+      <c r="A225" s="4">
         <v>43763</v>
       </c>
-      <c r="B225" s="16">
+      <c r="B225" s="1">
         <v>48929</v>
       </c>
       <c r="C225">
         <v>1.34</v>
       </c>
-      <c r="D225">
-        <v>1.34E-2</v>
-      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+      <c r="A226" s="4">
         <v>43766</v>
       </c>
-      <c r="B226" s="16">
+      <c r="B226" s="1">
         <v>48363.06</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="D226" s="3">
-        <v>-1.1599999999999999E-2</v>
-      </c>
-      <c r="F226" s="3"/>
+      <c r="F226" s="9"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+      <c r="A227" s="4">
         <v>43767</v>
       </c>
-      <c r="B227" s="16">
+      <c r="B227" s="1">
         <v>50903.59</v>
       </c>
       <c r="C227">
         <v>5.25</v>
       </c>
-      <c r="D227" s="3">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="F227" s="3"/>
+      <c r="F227" s="9"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+      <c r="A228" s="4">
         <v>43768</v>
       </c>
-      <c r="B228" s="16">
+      <c r="B228" s="1">
         <v>51203.09</v>
       </c>
       <c r="C228">
         <v>0.59</v>
       </c>
-      <c r="D228" s="3">
-        <v>5.8999999999999999E-3</v>
-      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+      <c r="A229" s="4">
         <v>43769</v>
       </c>
-      <c r="B229" s="13">
+      <c r="B229" s="1">
         <v>47772.07</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229">
         <v>-6.7</v>
       </c>
-      <c r="D229" s="6">
-        <v>-6.7000000000000004E-2</v>
-      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+      <c r="A230" s="4">
         <v>43770</v>
       </c>
-      <c r="B230" s="13">
+      <c r="B230" s="1">
         <v>47448.6</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230">
         <v>-0.68</v>
       </c>
-      <c r="D230" s="6">
-        <v>-6.7999999999999996E-3</v>
-      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+      <c r="A231" s="4">
         <v>43774</v>
       </c>
-      <c r="B231" s="13">
+      <c r="B231" s="1">
         <v>48124.21</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231">
         <v>1.42</v>
       </c>
-      <c r="D231">
-        <v>1.4200000000000001E-2</v>
-      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+      <c r="A232" s="4">
         <v>43775</v>
       </c>
-      <c r="B232" s="13">
+      <c r="B232" s="1">
         <v>48085.34</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232">
         <v>0.08</v>
       </c>
-      <c r="D232">
-        <v>-8.0000000000000004E-4</v>
-      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+      <c r="A233" s="4">
         <v>43776</v>
       </c>
-      <c r="B233" s="13">
+      <c r="B233" s="1">
         <v>51582.28</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233">
         <v>7.27</v>
       </c>
-      <c r="D233">
-        <v>7.2700000000000001E-2</v>
-      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+      <c r="A234" s="4">
         <v>43777</v>
       </c>
-      <c r="B234" s="13">
+      <c r="B234" s="1">
         <v>53039.07</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234">
         <v>2.82</v>
       </c>
-      <c r="D234">
-        <v>2.8199999999999999E-2</v>
-      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+      <c r="A235" s="4">
         <v>43780</v>
       </c>
-      <c r="B235" s="13">
+      <c r="B235" s="1">
         <v>57077.23</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235">
         <v>7.61</v>
       </c>
-      <c r="D235" s="3">
-        <v>7.6100000000000001E-2</v>
-      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
+      <c r="A236" s="4">
         <v>43781</v>
       </c>
-      <c r="B236" s="16">
+      <c r="B236" s="1">
         <v>58379.67</v>
       </c>
-      <c r="C236" s="10">
+      <c r="C236">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D236" s="3">
-        <v>2.8E-3</v>
-      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+      <c r="A237" s="4">
         <v>43782</v>
       </c>
-      <c r="B237" s="13">
+      <c r="B237" s="1">
         <v>60671.38</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237">
         <v>3.93</v>
       </c>
-      <c r="D237" s="3">
-        <v>3.9300000000000003E-3</v>
-      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+      <c r="A238" s="4">
         <v>43783</v>
       </c>
-      <c r="B238" s="13">
+      <c r="B238" s="1">
         <v>59444.04</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238">
         <v>-2.02</v>
       </c>
-      <c r="D238" s="3">
-        <v>-2.0199999999999999E-2</v>
-      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+      <c r="A239" s="4">
         <v>43784</v>
       </c>
-      <c r="B239" s="13">
+      <c r="B239" s="1">
         <v>59196.79</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239">
         <v>-0.42</v>
       </c>
-      <c r="D239" s="3">
-        <v>-4.1999999999999997E-3</v>
-      </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+      <c r="A240" s="4">
         <v>43787</v>
       </c>
-      <c r="B240" s="13">
+      <c r="B240" s="1">
         <v>60337.760000000002</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240">
         <v>1.93</v>
       </c>
-      <c r="D240" s="3">
-        <v>1.9300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
         <v>43788</v>
       </c>
-      <c r="B241" s="13">
+      <c r="B241" s="1">
         <v>61523.12</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241">
         <v>1.96</v>
       </c>
-      <c r="D241" s="3">
-        <v>1.9599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
         <v>43789</v>
       </c>
-      <c r="B242" s="13">
+      <c r="B242" s="1">
         <v>61699.1</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D242" s="3">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
         <v>43790</v>
       </c>
-      <c r="B243" s="13">
+      <c r="B243" s="1">
         <v>60854.879999999997</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243">
         <v>-1.37</v>
       </c>
-      <c r="D243" s="3">
-        <v>-1.37E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
         <v>43791</v>
       </c>
-      <c r="B244" s="13">
+      <c r="B244" s="1">
         <v>61855.6</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244">
         <v>1.64</v>
       </c>
-      <c r="D244" s="3">
-        <v>1.6400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
         <v>43794</v>
       </c>
-      <c r="B245" s="13">
+      <c r="B245" s="1">
         <v>61620.72</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245">
         <v>-0.38</v>
       </c>
-      <c r="D245" s="3">
-        <v>-3.8E-3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
         <v>43795</v>
       </c>
-      <c r="B246" s="13">
+      <c r="B246" s="1">
         <v>60293.5</v>
       </c>
-      <c r="C246" s="4">
+      <c r="C246">
         <v>-2.15</v>
       </c>
-      <c r="D246" s="3">
-        <v>-2.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
         <v>43796</v>
       </c>
-      <c r="B247" s="13">
+      <c r="B247" s="1">
         <v>64030.82</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247">
         <v>6.2</v>
       </c>
-      <c r="D247" s="3">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
         <v>43797</v>
       </c>
-      <c r="B248" s="13">
+      <c r="B248" s="1">
         <v>65851.19</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248">
         <v>2.84</v>
       </c>
-      <c r="D248" s="3">
-        <v>2.8400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
         <v>43798</v>
       </c>
-      <c r="B249" s="13">
+      <c r="B249" s="1">
         <v>69894.880000000005</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249">
         <v>6.14</v>
       </c>
-      <c r="D249" s="3">
-        <v>6.1400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
         <v>43801</v>
       </c>
-      <c r="B250" s="13">
+      <c r="B250" s="1">
         <v>70507.73</v>
       </c>
-      <c r="C250" s="4">
+      <c r="C250">
         <v>0.88</v>
       </c>
-      <c r="D250" s="3">
-        <v>8.8000000000000005E-3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
         <v>43802</v>
       </c>
-      <c r="B251" s="16">
+      <c r="B251" s="1">
         <v>70876.3</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251">
         <v>0.52</v>
       </c>
-      <c r="D251">
-        <v>5.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
         <v>43803</v>
       </c>
-      <c r="B252" s="16">
+      <c r="B252" s="1">
         <v>71167.77</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C252">
         <v>0.41</v>
       </c>
-      <c r="D252">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
         <v>43804</v>
       </c>
-      <c r="B253" s="16">
+      <c r="B253" s="1">
         <v>70514.509999999995</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C253">
         <v>-0.92</v>
       </c>
-      <c r="D253">
-        <v>-9.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
         <v>43805</v>
       </c>
-      <c r="B254" s="16">
+      <c r="B254" s="1">
         <v>70997.36</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C254">
         <v>0.68</v>
       </c>
-      <c r="D254">
-        <v>6.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
         <v>43808</v>
       </c>
-      <c r="B255" s="13">
+      <c r="B255" s="1">
         <v>67582.929999999993</v>
       </c>
       <c r="C255">
         <v>-4.8099999999999996</v>
       </c>
-      <c r="D255">
-        <v>-4.8099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
         <v>43809</v>
       </c>
-      <c r="B256" s="13">
+      <c r="B256" s="1">
         <v>66208.62</v>
       </c>
       <c r="C256">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="D256">
-        <v>-2.0299999999999999E-2</v>
-      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+      <c r="A257" s="4">
         <v>43810</v>
       </c>
-      <c r="B257" s="13">
+      <c r="B257" s="1">
         <v>61917.54</v>
       </c>
       <c r="C257">
         <v>-6.4799999999999995</v>
       </c>
-      <c r="D257">
-        <v>-6.4799999999999996E-2</v>
-      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+      <c r="A258" s="4">
         <v>43811</v>
       </c>
-      <c r="B258" s="13">
+      <c r="B258" s="1">
         <v>61124.75</v>
       </c>
       <c r="C258">
         <v>-1.28</v>
       </c>
-      <c r="D258">
-        <v>-1.2800000000000001E-2</v>
-      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+      <c r="A259" s="4">
         <v>43812</v>
       </c>
-      <c r="B259" s="13">
+      <c r="B259" s="1">
         <v>62022.46</v>
       </c>
       <c r="C259">
         <v>1.47</v>
       </c>
-      <c r="D259">
-        <v>1.47E-2</v>
-      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+      <c r="A260" s="4">
         <v>43815</v>
       </c>
-      <c r="B260" s="13">
+      <c r="B260" s="1">
         <v>62060.32</v>
       </c>
       <c r="C260">
         <v>0.06</v>
       </c>
-      <c r="D260">
-        <v>5.9999999999999995E-4</v>
-      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+      <c r="A261" s="4">
         <v>43816</v>
       </c>
-      <c r="B261" s="13">
+      <c r="B261" s="1">
         <v>60502.85</v>
       </c>
       <c r="C261">
         <v>-2.5100000000000002</v>
       </c>
-      <c r="D261">
-        <v>-2.5100000000000001E-2</v>
-      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+      <c r="A262" s="4">
         <v>43817</v>
       </c>
-      <c r="B262" s="13">
+      <c r="B262" s="1">
         <v>63308.93</v>
       </c>
       <c r="C262">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D262">
-        <v>4.6399999999999997E-2</v>
-      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+      <c r="A263" s="4">
         <v>43818</v>
       </c>
-      <c r="B263" s="13">
+      <c r="B263" s="1">
         <v>71401.289999999994</v>
       </c>
       <c r="C263">
         <v>12.78</v>
       </c>
-      <c r="D263">
-        <v>0.1278</v>
-      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+      <c r="A264" s="4">
         <v>43819</v>
       </c>
-      <c r="B264" s="13">
+      <c r="B264" s="1">
         <v>79344.83</v>
       </c>
       <c r="C264">
         <v>11.129999999999999</v>
       </c>
-      <c r="D264">
-        <v>0.1113</v>
-      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+      <c r="A265" s="4">
         <v>43822</v>
       </c>
-      <c r="B265" s="13">
+      <c r="B265" s="1">
         <v>79749.66</v>
       </c>
       <c r="C265">
         <v>0.51</v>
       </c>
-      <c r="D265">
-        <v>5.1000000000000004E-3</v>
-      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+      <c r="A266" s="4">
         <v>43825</v>
       </c>
-      <c r="B266" s="13">
+      <c r="B266" s="1">
         <v>80655.960000000006</v>
       </c>
       <c r="C266">
         <v>1.1400000000000001</v>
       </c>
-      <c r="D266">
-        <v>1.14E-2</v>
-      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+      <c r="A267" s="4">
         <v>43826</v>
       </c>
-      <c r="B267" s="13">
+      <c r="B267" s="1">
         <v>83188.06</v>
       </c>
       <c r="C267">
         <v>3.14</v>
       </c>
-      <c r="D267">
-        <v>3.1399999999999997E-2</v>
-      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+      <c r="A268" s="4">
         <v>43829</v>
       </c>
-      <c r="B268" s="13">
+      <c r="B268" s="1">
         <v>90224.09</v>
       </c>
       <c r="C268">
         <v>8.4600000000000009</v>
       </c>
-      <c r="D268">
-        <v>8.4599999999999995E-2</v>
-      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+      <c r="A269" s="4">
         <v>43832</v>
       </c>
-      <c r="B269" s="13">
+      <c r="B269" s="1">
         <v>93048.36</v>
       </c>
       <c r="C269">
         <v>3.13</v>
       </c>
-      <c r="D269">
-        <v>3.1300000000000001E-2</v>
-      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+      <c r="A270" s="4">
         <v>43833</v>
       </c>
-      <c r="B270" s="13">
+      <c r="B270" s="1">
         <v>98580.19</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270">
         <v>5.95</v>
       </c>
-      <c r="D270" s="6">
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="E270" s="11"/>
+      <c r="E270" s="10"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+      <c r="A271" s="4">
         <v>43837</v>
       </c>
-      <c r="B271" s="13">
+      <c r="B271" s="1">
         <v>101804.2</v>
       </c>
       <c r="C271">
         <v>3.27</v>
       </c>
-      <c r="D271" s="3">
-        <v>3.27E-2</v>
-      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+      <c r="A272" s="4">
         <v>43838</v>
       </c>
-      <c r="B272" s="13">
+      <c r="B272" s="1">
         <v>107456.7</v>
       </c>
       <c r="C272">
         <v>5.55</v>
       </c>
-      <c r="D272" s="12">
-        <v>5.5500000000000001E-2</v>
-      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
+      <c r="A273" s="4">
         <v>43839</v>
       </c>
-      <c r="B273" s="13">
+      <c r="B273" s="1">
         <v>112346.45</v>
       </c>
       <c r="C273">
         <v>4.55</v>
       </c>
-      <c r="D273" s="12">
-        <v>4.5499999999999999E-2</v>
-      </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+      <c r="A274" s="4">
         <v>43840</v>
       </c>
-      <c r="B274" s="13">
+      <c r="B274" s="1">
         <v>119242.96</v>
       </c>
       <c r="C274">
         <v>6.14</v>
       </c>
-      <c r="D274" s="12">
-        <v>6.1400000000000003E-2</v>
-      </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+      <c r="A275" s="4">
         <v>43843</v>
       </c>
-      <c r="B275" s="16">
+      <c r="B275" s="1">
         <v>123483.57</v>
       </c>
       <c r="C275">
         <v>3.56</v>
       </c>
-      <c r="D275">
-        <v>3.56E-2</v>
-      </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+      <c r="A276" s="4">
         <v>43845</v>
       </c>
-      <c r="B276" s="13">
+      <c r="B276" s="1">
         <v>124789.33</v>
       </c>
       <c r="C276">
         <v>1.06</v>
       </c>
-      <c r="D276">
-        <v>1.06E-2</v>
-      </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+      <c r="A277" s="4">
         <v>43846</v>
       </c>
-      <c r="B277" s="13">
+      <c r="B277" s="1">
         <v>124068.72</v>
       </c>
       <c r="C277">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="D277">
-        <v>-5.7999999999999996E-3</v>
-      </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+      <c r="A278" s="4">
         <v>43847</v>
       </c>
-      <c r="B278" s="17">
+      <c r="B278" s="1">
         <v>122897.51</v>
       </c>
       <c r="C278">
         <v>-0.94</v>
       </c>
-      <c r="D278" s="3">
-        <v>-9.4000000000000004E-3</v>
-      </c>
-      <c r="F278" s="5"/>
+      <c r="F278" s="8"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+      <c r="A279" s="4">
         <v>43851</v>
       </c>
-      <c r="B279" s="17">
+      <c r="B279" s="1">
         <v>118617.38</v>
       </c>
       <c r="C279">
         <v>-3.48</v>
       </c>
-      <c r="D279" s="3">
-        <v>-3.4799999999999998E-2</v>
-      </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
+      <c r="A280" s="4">
         <v>43852</v>
       </c>
-      <c r="B280" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C280" s="14">
+      <c r="B280" s="1">
+        <v>118248.5</v>
+      </c>
+      <c r="C280">
         <v>-0.31</v>
       </c>
-      <c r="D280" s="3">
-        <v>-3.0999999999999999E-3</v>
-      </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
+      <c r="A281" s="4">
         <v>43853</v>
       </c>
-      <c r="B281" s="17">
+      <c r="B281" s="1">
         <v>116643.96</v>
       </c>
       <c r="C281">
         <v>-1.36</v>
       </c>
-      <c r="D281" s="10">
-        <v>-1.3599999999999999E-2</v>
-      </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
+      <c r="A282" s="4">
         <v>43854</v>
       </c>
-      <c r="B282" s="17">
+      <c r="B282" s="1">
         <v>108272.44</v>
       </c>
       <c r="C282">
         <v>-7.18</v>
       </c>
-      <c r="D282" s="3">
-        <v>-7.1800000000000003E-2</v>
-      </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
+      <c r="A283" s="4">
         <v>43857</v>
       </c>
-      <c r="B283" s="13" t="s">
-        <v>5</v>
+      <c r="B283" s="1">
+        <v>108061.2</v>
       </c>
       <c r="C283">
         <v>-0.2</v>
       </c>
-      <c r="D283" s="3">
-        <v>-2.0000000000000001E-4</v>
-      </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
+      <c r="A284" s="4">
         <v>43858</v>
       </c>
-      <c r="B284" s="13" t="s">
-        <v>6</v>
+      <c r="B284" s="1">
+        <v>102104.8</v>
       </c>
       <c r="C284">
         <v>-5.51</v>
       </c>
-      <c r="D284" s="3">
-        <v>-5.5100000000000003E-2</v>
-      </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
+      <c r="A285" s="4">
         <v>43859</v>
       </c>
-      <c r="B285" s="17">
+      <c r="B285" s="1">
         <v>110867.91</v>
       </c>
       <c r="C285">
         <v>8.58</v>
       </c>
-      <c r="D285" s="3">
-        <v>8.5800000000000008E-3</v>
-      </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
+      <c r="A286" s="4">
         <v>43860</v>
       </c>
-      <c r="B286" s="18">
+      <c r="B286" s="1">
         <v>121755.22</v>
       </c>
       <c r="C286">
         <v>9.82</v>
       </c>
-      <c r="D286" s="3">
-        <v>9.8199999999999996E-2</v>
-      </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
+      <c r="A287" s="4">
         <v>43861</v>
       </c>
-      <c r="B287" s="18">
+      <c r="B287" s="1">
         <v>129541.1</v>
       </c>
       <c r="C287">
         <v>6.39</v>
       </c>
-      <c r="D287" s="3">
-        <v>6.3899999999999998E-2</v>
-      </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
+      <c r="A288" s="4">
         <v>43864</v>
       </c>
-      <c r="B288" s="19">
+      <c r="B288" s="1">
         <v>127671.45</v>
       </c>
       <c r="C288">
         <v>-1.44</v>
       </c>
-      <c r="D288" s="3">
-        <v>1.44E-2</v>
-      </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
+      <c r="A289" s="4">
         <v>43865</v>
       </c>
-      <c r="B289" s="18">
+      <c r="B289" s="1">
         <v>125936.38</v>
       </c>
       <c r="C289">
         <v>-1.36</v>
       </c>
-      <c r="D289" s="3">
-        <v>-1.3599999999999999E-2</v>
-      </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
+      <c r="A290" s="4">
         <v>43866</v>
       </c>
-      <c r="B290" s="19">
+      <c r="B290" s="1">
         <v>125568.41</v>
       </c>
       <c r="C290">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="D290" s="3">
-        <v>-2.8999999999999998E-3</v>
-      </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
+      <c r="A291" s="4">
         <v>43867</v>
       </c>
-      <c r="B291" s="17">
+      <c r="B291" s="1">
         <v>127178.88</v>
       </c>
       <c r="C291">
         <v>1.28</v>
       </c>
-      <c r="D291" s="3">
-        <v>1.2800000000000001E-2</v>
-      </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
+      <c r="A292" s="4">
         <v>43868</v>
       </c>
-      <c r="B292" s="17">
+      <c r="B292" s="1">
         <v>127152.46</v>
       </c>
       <c r="C292">
         <v>-0.02</v>
       </c>
-      <c r="D292" s="3">
-        <v>-2E-3</v>
-      </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
+      <c r="A293" s="4">
         <v>43871</v>
       </c>
-      <c r="B293" s="17">
+      <c r="B293" s="1">
         <v>128036.77</v>
       </c>
       <c r="C293">
         <v>0.7</v>
       </c>
-      <c r="D293" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
+      <c r="A294" s="4">
         <v>43872</v>
       </c>
-      <c r="B294" s="17">
+      <c r="B294" s="1">
         <v>129153.16</v>
       </c>
       <c r="C294">
         <v>0.87</v>
       </c>
-      <c r="D294" s="6">
-        <v>8.6999999999999994E-3</v>
-      </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
+      <c r="A295" s="4">
         <v>43873</v>
       </c>
-      <c r="B295" s="17">
+      <c r="B295" s="1">
         <v>128255.12</v>
       </c>
       <c r="C295">
         <v>-0.7</v>
       </c>
-      <c r="D295" s="6">
-        <v>-7.0000000000000001E-3</v>
-      </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
+      <c r="A296" s="4">
         <v>43874</v>
       </c>
-      <c r="B296" s="17">
+      <c r="B296" s="1">
         <v>126449.34</v>
       </c>
       <c r="C296">
         <v>-1.41</v>
       </c>
-      <c r="D296" s="6">
-        <v>-1.41E-2</v>
-      </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
+      <c r="A297" s="4">
         <v>43875</v>
       </c>
-      <c r="B297" s="17">
+      <c r="B297" s="1">
         <v>123888.89</v>
       </c>
       <c r="C297">
         <v>-2.02</v>
       </c>
-      <c r="D297" s="6">
-        <v>-2.0199999999999999E-2</v>
-      </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
+      <c r="A298" s="4">
         <v>43878</v>
       </c>
-      <c r="B298" s="17">
+      <c r="B298" s="1">
         <v>127325.07</v>
       </c>
       <c r="C298">
         <v>2.77</v>
       </c>
-      <c r="D298" s="6">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="G298" s="5"/>
+      <c r="G298" s="8"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
+      <c r="A299" s="4">
         <v>43879</v>
       </c>
-      <c r="B299" s="17">
+      <c r="B299" s="1">
         <v>124524.61</v>
       </c>
       <c r="C299">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="D299" s="6">
-        <v>-2.1999999999999999E-2</v>
-      </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
+      <c r="A300" s="4">
         <v>43880</v>
       </c>
-      <c r="B300" s="17">
+      <c r="B300" s="1">
         <v>121804.44</v>
       </c>
       <c r="C300">
         <v>-2.1800000000000002</v>
       </c>
-      <c r="D300" s="6">
-        <v>-2.18E-2</v>
-      </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+      <c r="A301" s="4">
         <v>43881</v>
       </c>
-      <c r="B301" s="17">
+      <c r="B301" s="1">
         <v>118910.82</v>
       </c>
       <c r="C301">
         <v>-2.38</v>
       </c>
-      <c r="D301" s="6">
-        <v>-2.3800000000000002E-2</v>
-      </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
+      <c r="A302" s="4">
         <v>43882</v>
       </c>
-      <c r="B302" s="20">
+      <c r="B302" s="1">
         <v>118337.43</v>
       </c>
       <c r="C302">
-        <f>D302*100</f>
         <v>-0.48</v>
       </c>
-      <c r="D302">
-        <v>-4.7999999999999996E-3</v>
-      </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
+      <c r="A303" s="4">
         <v>43887</v>
       </c>
-      <c r="B303" s="20">
+      <c r="B303" s="1">
         <v>111216.76</v>
       </c>
       <c r="C303">
-        <f t="shared" ref="C303:C307" si="5">D303*100</f>
         <v>-6.02</v>
       </c>
-      <c r="D303">
-        <v>-6.0199999999999997E-2</v>
-      </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
+      <c r="A304" s="4">
         <v>43888</v>
       </c>
-      <c r="B304" s="20">
+      <c r="B304" s="1">
         <v>108292.73</v>
       </c>
       <c r="C304">
-        <f t="shared" si="5"/>
         <v>-2.63</v>
       </c>
-      <c r="D304">
-        <v>-2.63E-2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
         <v>43889</v>
       </c>
-      <c r="B305" s="20">
+      <c r="B305" s="1">
         <v>108771.66</v>
       </c>
       <c r="C305">
-        <f t="shared" si="5"/>
         <v>0.44</v>
       </c>
-      <c r="D305">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="4">
         <v>43892</v>
       </c>
-      <c r="B306" s="20">
+      <c r="B306" s="1">
         <v>104721.4</v>
       </c>
       <c r="C306">
-        <f t="shared" si="5"/>
         <v>-3.7199999999999998</v>
       </c>
-      <c r="D306">
-        <v>-3.7199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
         <v>43893</v>
       </c>
-      <c r="B307" s="20">
+      <c r="B307" s="1">
         <v>103306.75</v>
       </c>
       <c r="C307">
-        <f t="shared" si="5"/>
         <v>-1.35</v>
       </c>
-      <c r="D307">
-        <v>-1.35E-2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
         <v>43894</v>
       </c>
-      <c r="B308" s="13">
+      <c r="B308" s="1">
         <v>104211.84</v>
       </c>
       <c r="C308">
         <v>0.88</v>
       </c>
-      <c r="D308" s="3">
-        <v>8.8000000000000005E-3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
         <v>43895</v>
       </c>
-      <c r="B309" s="13">
+      <c r="B309" s="1">
         <v>104630.66</v>
       </c>
       <c r="C309">
         <v>0.4</v>
       </c>
-      <c r="D309">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
         <v>43896</v>
       </c>
-      <c r="B310" s="13">
+      <c r="B310" s="1">
         <v>108196.83</v>
       </c>
       <c r="C310">
         <v>3.41</v>
       </c>
-      <c r="D310" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
         <v>43899</v>
       </c>
-      <c r="B311" s="13">
+      <c r="B311" s="1">
         <v>103906.3</v>
       </c>
       <c r="C311">
         <v>-3.97</v>
       </c>
-      <c r="D311" s="3">
-        <v>-3.9699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
         <v>43900</v>
       </c>
-      <c r="B312" s="13">
+      <c r="B312" s="1">
         <v>104392.3</v>
       </c>
       <c r="C312">
         <v>0.47</v>
       </c>
-      <c r="D312" s="3">
-        <v>4.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
         <v>43901</v>
       </c>
-      <c r="B313" s="13">
+      <c r="B313" s="1">
         <v>103457.46</v>
       </c>
       <c r="C313">
         <v>-0.9</v>
       </c>
-      <c r="D313" s="3">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="4">
         <v>43902</v>
       </c>
-      <c r="B314" s="13">
+      <c r="B314" s="1">
         <v>105710.6</v>
       </c>
       <c r="C314">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D314" s="3">
-        <v>2.1800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
         <v>43903</v>
       </c>
-      <c r="B315" s="13">
+      <c r="B315" s="1">
         <v>105807.64</v>
       </c>
       <c r="C315">
         <v>0.09</v>
       </c>
-      <c r="D315" s="3">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
         <v>43906</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="1">
         <v>103887.72</v>
       </c>
       <c r="C316">
         <v>-1.81</v>
       </c>
-      <c r="D316" s="3">
-        <v>1.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
         <v>43907</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="1">
         <v>104070.67</v>
       </c>
       <c r="C317">
         <v>0.18</v>
       </c>
-      <c r="D317" s="3">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="4">
         <v>43908</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="1">
         <v>101251.93</v>
       </c>
       <c r="C318">
         <v>-2.71</v>
       </c>
-      <c r="D318" s="3">
-        <v>-2.7099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
         <v>43910</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="1">
         <v>98326.88</v>
       </c>
       <c r="C319">
         <v>-2.89</v>
       </c>
-      <c r="D319" s="3">
-        <v>-2.8899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
         <v>43913</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="1">
         <v>92347.48</v>
       </c>
       <c r="C320">
         <v>-6.08</v>
       </c>
-      <c r="D320" s="3">
-        <v>-6.08E-2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
         <v>43914</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="1">
         <v>90145.86</v>
       </c>
       <c r="C321">
         <v>-2.38</v>
       </c>
-      <c r="D321" s="3">
-        <v>-2.3800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
         <v>43915</v>
       </c>
-      <c r="B322" s="13">
+      <c r="B322" s="1">
         <v>89857.35</v>
       </c>
       <c r="C322">
         <v>-0.32</v>
       </c>
-      <c r="D322" s="3">
-        <v>-3.2000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
         <v>43916</v>
       </c>
-      <c r="B323" s="13">
+      <c r="B323" s="1">
         <v>88548.06</v>
       </c>
       <c r="C323">
         <v>-1.46</v>
       </c>
-      <c r="D323" s="3">
-        <v>-1.4599999999999999E-3</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="4">
         <v>43917</v>
       </c>
-      <c r="B324" s="13">
+      <c r="B324" s="1">
         <v>88643.18</v>
       </c>
       <c r="C324">
         <v>0.11</v>
       </c>
-      <c r="D324" s="3">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
         <v>43920</v>
       </c>
-      <c r="B325" s="13">
+      <c r="B325" s="1">
         <v>101194.94</v>
       </c>
       <c r="C325">
         <v>14.16</v>
       </c>
-      <c r="D325" s="3">
-        <v>0.1416</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
         <v>43921</v>
       </c>
-      <c r="B326" s="17">
+      <c r="B326" s="1">
         <v>181346.41</v>
       </c>
       <c r="C326">
         <v>4.2</v>
       </c>
-      <c r="D326" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
         <v>43922</v>
       </c>
-      <c r="B327" s="13">
+      <c r="B327" s="1">
         <v>117920.12</v>
       </c>
       <c r="C327">
         <v>11.65</v>
       </c>
-      <c r="D327" s="3">
-        <v>0.11650000000000001</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
         <v>43923</v>
       </c>
-      <c r="B328" s="13">
+      <c r="B328" s="1">
         <v>127331.47</v>
       </c>
       <c r="C328">
         <v>7.98</v>
       </c>
-      <c r="D328" s="3">
-        <v>7.9799999999999992E-3</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
         <v>43924</v>
       </c>
-      <c r="B329" s="13">
+      <c r="B329" s="1">
         <v>133086.45000000001</v>
       </c>
       <c r="C329">
         <v>4.5199999999999996</v>
       </c>
-      <c r="D329" s="3">
-        <v>4.5199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
         <v>43927</v>
       </c>
-      <c r="B330" s="13">
+      <c r="B330" s="1">
         <v>150484.88</v>
       </c>
       <c r="C330">
         <v>13.7</v>
       </c>
-      <c r="D330" s="3">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
         <v>43928</v>
       </c>
-      <c r="B331" s="13">
+      <c r="B331" s="1">
         <v>164354.42000000001</v>
       </c>
       <c r="C331">
         <v>9.2200000000000006</v>
       </c>
-      <c r="D331" s="3">
-        <v>9.2200000000000004E-2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
         <v>43929</v>
       </c>
-      <c r="B332" s="13">
+      <c r="B332" s="1">
         <v>191984.67</v>
       </c>
       <c r="C332">
         <v>16.809999999999999</v>
       </c>
-      <c r="D332" s="3">
-        <v>0.1681</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
         <v>43934</v>
       </c>
-      <c r="B333" s="13">
+      <c r="B333" s="1">
         <v>227597.09</v>
       </c>
       <c r="C333">
         <v>18.55</v>
       </c>
-      <c r="D333" s="3">
-        <v>0.1855</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
         <v>43935</v>
       </c>
-      <c r="B334" s="13">
+      <c r="B334" s="1">
         <v>249098.83</v>
       </c>
       <c r="C334">
         <v>9.4499999999999993</v>
       </c>
-      <c r="D334" s="3">
-        <v>9.4500000000000001E-2</v>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
+        <v>43936</v>
+      </c>
+      <c r="B335" s="1">
+        <v>248509.91</v>
+      </c>
+      <c r="C335">
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:M336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="F330" sqref="F330"/>
+      <selection activeCell="K321" sqref="K321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4573,6 +4573,17 @@
         <v>-0.24</v>
       </c>
     </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="4">
+        <v>43937</v>
+      </c>
+      <c r="B336" s="1">
+        <v>241894.17</v>
+      </c>
+      <c r="C336">
+        <v>-2.66</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M336"/>
+  <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="K321" sqref="K321"/>
+      <selection activeCell="K317" sqref="K317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4584,6 +4584,17 @@
         <v>-2.66</v>
       </c>
     </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
+        <v>43938</v>
+      </c>
+      <c r="B337" s="1">
+        <v>230742.89</v>
+      </c>
+      <c r="C337">
+        <v>-4.6100000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M337"/>
+  <dimension ref="A1:M338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="K317" sqref="K317"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="H335" sqref="H335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4595,6 +4595,17 @@
         <v>-4.6100000000000003</v>
       </c>
     </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B338" s="1">
+        <v>247935.91</v>
+      </c>
+      <c r="C338">
+        <v>7.45</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M338"/>
+  <dimension ref="A1:M339"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="H335" sqref="H335"/>
+      <selection activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4606,6 +4606,17 @@
         <v>7.45</v>
       </c>
     </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B339" s="1">
+        <v>255322.23</v>
+      </c>
+      <c r="C339">
+        <v>2.98</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M339"/>
+  <dimension ref="A1:M340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="D334" sqref="D334"/>
+      <selection activeCell="L325" sqref="L325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4617,6 +4617,17 @@
         <v>2.98</v>
       </c>
     </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
+        <v>43943</v>
+      </c>
+      <c r="B340" s="1">
+        <v>274761.78000000003</v>
+      </c>
+      <c r="C340">
+        <v>7.61</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M340"/>
+  <dimension ref="A1:M343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="L325" sqref="L325"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="F335" sqref="F335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4628,6 +4628,39 @@
         <v>7.61</v>
       </c>
     </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B341" s="1">
+        <v>293792.44</v>
+      </c>
+      <c r="C341">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="4">
+        <v>43945</v>
+      </c>
+      <c r="B342" s="1">
+        <v>286273.03000000003</v>
+      </c>
+      <c r="C342">
+        <v>-2.56</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
+        <v>43948</v>
+      </c>
+      <c r="B343" s="1">
+        <v>282383.09000000003</v>
+      </c>
+      <c r="C343">
+        <v>-1.36</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M343"/>
+  <dimension ref="A1:M344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="F335" sqref="F335"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="G335" sqref="G335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4661,6 +4661,17 @@
         <v>-1.36</v>
       </c>
     </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="4">
+        <v>43949</v>
+      </c>
+      <c r="B344" s="1">
+        <v>279952.12</v>
+      </c>
+      <c r="C344">
+        <v>-0.86</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M344"/>
+  <dimension ref="A1:M345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="G335" sqref="G335"/>
+      <selection activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4672,6 +4672,17 @@
         <v>-0.86</v>
       </c>
     </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
+        <v>43950</v>
+      </c>
+      <c r="B345" s="1">
+        <v>284439.19</v>
+      </c>
+      <c r="C345">
+        <v>1.6</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M345"/>
+  <dimension ref="A1:M346"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="E342" sqref="E342"/>
+      <selection activeCell="L347" sqref="L347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,6 +4683,17 @@
         <v>1.6</v>
       </c>
     </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B346" s="1">
+        <v>289324.75</v>
+      </c>
+      <c r="C346">
+        <v>1.72</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M346"/>
+  <dimension ref="A1:M348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="L347" sqref="L347"/>
+      <selection activeCell="H342" sqref="G342:H342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4694,6 +4694,28 @@
         <v>1.72</v>
       </c>
     </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B347" s="1">
+        <v>297137.44</v>
+      </c>
+      <c r="C347">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="4">
+        <v>43956</v>
+      </c>
+      <c r="B348" s="1">
+        <v>303715.69</v>
+      </c>
+      <c r="C348">
+        <v>2.21</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M348"/>
+  <dimension ref="A1:M349"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="H342" sqref="G342:H342"/>
+      <selection activeCell="I344" sqref="I344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4716,6 +4716,17 @@
         <v>2.21</v>
       </c>
     </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
+        <v>43957</v>
+      </c>
+      <c r="B349" s="1">
+        <v>309885.15999999997</v>
+      </c>
+      <c r="C349">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M349"/>
+  <dimension ref="A1:M352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="I344" sqref="I344"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="G346" sqref="G346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,6 +4727,39 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B350" s="1">
+        <v>316485.06</v>
+      </c>
+      <c r="C350">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
+        <v>43959</v>
+      </c>
+      <c r="B351" s="1">
+        <v>327382.90999999997</v>
+      </c>
+      <c r="C351">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
+        <v>43962</v>
+      </c>
+      <c r="B352" s="1">
+        <v>326819.12</v>
+      </c>
+      <c r="C352">
+        <v>-0.17</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -529,7 +529,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -543,6 +543,7 @@
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -865,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M352"/>
+  <dimension ref="A1:M358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="G346" sqref="G346"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="F358" sqref="F358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4760,6 +4761,72 @@
         <v>-0.17</v>
       </c>
     </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <v>43963</v>
+      </c>
+      <c r="B353" s="1">
+        <v>324304.78000000003</v>
+      </c>
+      <c r="C353">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B354" s="1">
+        <v>312238.59000000003</v>
+      </c>
+      <c r="C354">
+        <v>-3.72</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
+        <v>43965</v>
+      </c>
+      <c r="B355" s="1">
+        <v>288638.25</v>
+      </c>
+      <c r="C355" s="11">
+        <v>-7.56</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B356" s="1">
+        <v>293502.88</v>
+      </c>
+      <c r="C356">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
+        <v>43969</v>
+      </c>
+      <c r="B357" s="1">
+        <v>295525.06</v>
+      </c>
+      <c r="C357">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
+        <v>43970</v>
+      </c>
+      <c r="B358" s="1">
+        <v>298249.65999999997</v>
+      </c>
+      <c r="C358">
+        <v>0.92</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -866,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M358"/>
+  <dimension ref="A1:M360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="F358" sqref="F358"/>
+      <selection activeCell="K357" sqref="K357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,6 +4827,28 @@
         <v>0.92</v>
       </c>
     </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
+        <v>43971</v>
+      </c>
+      <c r="B359" s="1">
+        <v>297625.84000000003</v>
+      </c>
+      <c r="C359">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B360" s="1">
+        <v>306374.12</v>
+      </c>
+      <c r="C360">
+        <v>2.94</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -866,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M360"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="K357" sqref="K357"/>
+      <selection activeCell="G362" sqref="G362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4832,10 +4832,10 @@
         <v>43971</v>
       </c>
       <c r="B359" s="1">
-        <v>297625.84000000003</v>
+        <v>300028.75</v>
       </c>
       <c r="C359">
-        <v>-0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4843,9 +4843,20 @@
         <v>43972</v>
       </c>
       <c r="B360" s="1">
+        <v>297625.84000000003</v>
+      </c>
+      <c r="C360">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
+        <v>43973</v>
+      </c>
+      <c r="B361" s="1">
         <v>306374.12</v>
       </c>
-      <c r="C360">
+      <c r="C361">
         <v>2.94</v>
       </c>
     </row>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -529,7 +529,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -544,6 +544,8 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -866,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M361"/>
+  <dimension ref="A1:M370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="G362" sqref="G362"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="F367" sqref="F367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4860,6 +4862,105 @@
         <v>2.94</v>
       </c>
     </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B362" s="12">
+        <v>297063.81</v>
+      </c>
+      <c r="C362" s="13">
+        <v>-3.04E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B363" s="12">
+        <v>303685.34000000003</v>
+      </c>
+      <c r="C363" s="13">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
+        <v>43979</v>
+      </c>
+      <c r="B364" s="12">
+        <v>323765.90999999997</v>
+      </c>
+      <c r="C364" s="13">
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
+        <v>43980</v>
+      </c>
+      <c r="B365" s="12">
+        <v>324240</v>
+      </c>
+      <c r="C365" s="13">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B366" s="12">
+        <v>330021.69</v>
+      </c>
+      <c r="C366" s="13">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
+        <v>43984</v>
+      </c>
+      <c r="B367" s="12">
+        <v>343088.66</v>
+      </c>
+      <c r="C367" s="13">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B368" s="12">
+        <v>346890.28</v>
+      </c>
+      <c r="C368" s="13">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <v>43986</v>
+      </c>
+      <c r="B369" s="1">
+        <v>346862.03</v>
+      </c>
+      <c r="C369" s="13">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="4">
+        <v>43987</v>
+      </c>
+      <c r="B370" s="1">
+        <v>344397.62</v>
+      </c>
+      <c r="C370" s="13">
+        <v>-0.71</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M370"/>
+  <dimension ref="A1:M371"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="F367" sqref="F367"/>
+      <selection activeCell="L369" sqref="L369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4961,6 +4961,17 @@
         <v>-0.71</v>
       </c>
     </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B371" s="1">
+        <v>337855.94</v>
+      </c>
+      <c r="C371" s="13">
+        <v>-1.9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M371"/>
+  <dimension ref="A1:M376"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="L369" sqref="L369"/>
+      <selection activeCell="H369" sqref="H369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4972,6 +4972,61 @@
         <v>-1.9</v>
       </c>
     </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="4">
+        <v>43991</v>
+      </c>
+      <c r="B372" s="1">
+        <v>332013.12</v>
+      </c>
+      <c r="C372" s="13">
+        <v>-1.73</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B373" s="1">
+        <v>329633.12</v>
+      </c>
+      <c r="C373" s="13">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B374" s="1">
+        <v>328490.09000000003</v>
+      </c>
+      <c r="C374">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B375" s="1">
+        <v>330454.56</v>
+      </c>
+      <c r="C375">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B376" s="1">
+        <v>325844.53000000003</v>
+      </c>
+      <c r="C376">
+        <v>1.4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M376"/>
+  <dimension ref="A1:M382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="H369" sqref="H369"/>
+      <selection activeCell="E374" sqref="E374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5027,6 +5027,72 @@
         <v>1.4</v>
       </c>
     </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B377" s="1">
+        <v>322375.84000000003</v>
+      </c>
+      <c r="C377">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B378" s="1">
+        <v>323282.31</v>
+      </c>
+      <c r="C378">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="4">
+        <v>44001</v>
+      </c>
+      <c r="B379" s="1">
+        <v>321308.34000000003</v>
+      </c>
+      <c r="C379">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B380" s="1">
+        <v>320724.19</v>
+      </c>
+      <c r="C380">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B381" s="1">
+        <v>325185.46999999997</v>
+      </c>
+      <c r="C381">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="4">
+        <v>44007</v>
+      </c>
+      <c r="B382" s="1">
+        <v>312097.40000000002</v>
+      </c>
+      <c r="C382">
+        <v>-4.0199999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M382"/>
+  <dimension ref="A1:M388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="E374" sqref="E374"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="J382" sqref="J382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5093,6 +5093,72 @@
         <v>-4.0199999999999996</v>
       </c>
     </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B383" s="1">
+        <v>321057.81</v>
+      </c>
+      <c r="C383">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B384" s="1">
+        <v>317726</v>
+      </c>
+      <c r="C384">
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B385" s="1">
+        <v>313413.25</v>
+      </c>
+      <c r="C385">
+        <v>-1.36</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="4">
+        <v>44015</v>
+      </c>
+      <c r="B386" s="1">
+        <v>301778.38</v>
+      </c>
+      <c r="C386">
+        <v>-3.71</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="4">
+        <v>44018</v>
+      </c>
+      <c r="B387" s="1">
+        <v>305579.15999999997</v>
+      </c>
+      <c r="C387">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="4">
+        <v>44019</v>
+      </c>
+      <c r="B388" s="1">
+        <v>333876.53000000003</v>
+      </c>
+      <c r="C388">
+        <v>9.26</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M388"/>
+  <dimension ref="A1:M389"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="J382" sqref="J382"/>
+      <selection activeCell="D386" sqref="D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5159,6 +5159,17 @@
         <v>9.26</v>
       </c>
     </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="4">
+        <v>44020</v>
+      </c>
+      <c r="B389" s="1">
+        <v>328014.44</v>
+      </c>
+      <c r="C389">
+        <v>-1.76</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M389"/>
+  <dimension ref="A1:M397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="D386" sqref="D386"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="F393" sqref="F393:G393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5170,6 +5170,94 @@
         <v>-1.76</v>
       </c>
     </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="4">
+        <v>44021</v>
+      </c>
+      <c r="B390" s="1">
+        <v>323604.71999999997</v>
+      </c>
+      <c r="C390" s="11">
+        <v>-1.1339999999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="4">
+        <v>44022</v>
+      </c>
+      <c r="B391" s="1">
+        <v>333994.31</v>
+      </c>
+      <c r="C391" s="11">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="4">
+        <v>44025</v>
+      </c>
+      <c r="B392" s="1">
+        <v>320322.59000000003</v>
+      </c>
+      <c r="C392">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="4">
+        <v>44026</v>
+      </c>
+      <c r="B393" s="1">
+        <v>316887.5</v>
+      </c>
+      <c r="C393">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="4">
+        <v>44027</v>
+      </c>
+      <c r="B394" s="1">
+        <v>316864.88</v>
+      </c>
+      <c r="C394">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="4">
+        <v>44028</v>
+      </c>
+      <c r="B395" s="1">
+        <v>317448.84000000003</v>
+      </c>
+      <c r="C395">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="4">
+        <v>44029</v>
+      </c>
+      <c r="B396" s="1">
+        <v>319082.25</v>
+      </c>
+      <c r="C396">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="4">
+        <v>44032</v>
+      </c>
+      <c r="B397" s="1">
+        <v>324307.34000000003</v>
+      </c>
+      <c r="C397">
+        <v>1.64</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M397"/>
+  <dimension ref="A1:M400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="F393" sqref="F393:G393"/>
+      <selection activeCell="E394" sqref="E394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5258,6 +5258,39 @@
         <v>1.64</v>
       </c>
     </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="4">
+        <v>44033</v>
+      </c>
+      <c r="B398" s="1">
+        <v>326973.15999999997</v>
+      </c>
+      <c r="C398">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="4">
+        <v>44034</v>
+      </c>
+      <c r="B399" s="1">
+        <v>335868.47</v>
+      </c>
+      <c r="C399">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="4">
+        <v>44035</v>
+      </c>
+      <c r="B400" s="1">
+        <v>352332.44</v>
+      </c>
+      <c r="C400">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M400"/>
+  <dimension ref="A1:M411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="E394" sqref="E394"/>
+    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="I398" sqref="I398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5291,6 +5291,127 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="4">
+        <v>44039</v>
+      </c>
+      <c r="B401" s="1">
+        <v>350557.12</v>
+      </c>
+      <c r="C401">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="4">
+        <v>44040</v>
+      </c>
+      <c r="B402" s="1">
+        <v>351751.44</v>
+      </c>
+      <c r="C402">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="4">
+        <v>44041</v>
+      </c>
+      <c r="B403" s="1">
+        <v>353319.28</v>
+      </c>
+      <c r="C403">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="4">
+        <v>44042</v>
+      </c>
+      <c r="B404" s="1">
+        <v>363143.91</v>
+      </c>
+      <c r="C404">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B405" s="1">
+        <v>374208.25</v>
+      </c>
+      <c r="C405">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="4">
+        <v>44046</v>
+      </c>
+      <c r="B406" s="1">
+        <v>386805.69</v>
+      </c>
+      <c r="C406">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="4">
+        <v>44047</v>
+      </c>
+      <c r="B407" s="1">
+        <v>399219.75</v>
+      </c>
+      <c r="C407">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="4">
+        <v>44048</v>
+      </c>
+      <c r="B408" s="1">
+        <v>406865.03</v>
+      </c>
+      <c r="C408">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="4">
+        <v>44049</v>
+      </c>
+      <c r="B409" s="1">
+        <v>418496.28</v>
+      </c>
+      <c r="C409">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="4">
+        <v>44050</v>
+      </c>
+      <c r="B410" s="1">
+        <v>466698.66</v>
+      </c>
+      <c r="C410">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="4">
+        <v>44053</v>
+      </c>
+      <c r="B411" s="1">
+        <v>479024.22</v>
+      </c>
+      <c r="C411">
+        <v>2.64</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M411"/>
+  <dimension ref="A1:M428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="I398" sqref="I398"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,6 +5412,193 @@
         <v>2.64</v>
       </c>
     </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="4">
+        <v>44054</v>
+      </c>
+      <c r="B412" s="1">
+        <v>450683.81</v>
+      </c>
+      <c r="C412">
+        <v>-5.92</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="4">
+        <v>44055</v>
+      </c>
+      <c r="B413" s="1">
+        <v>463802.47</v>
+      </c>
+      <c r="C413">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="4">
+        <v>44056</v>
+      </c>
+      <c r="B414" s="1">
+        <v>491593.56</v>
+      </c>
+      <c r="C414">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="4">
+        <v>44057</v>
+      </c>
+      <c r="B415" s="1">
+        <v>497343.88</v>
+      </c>
+      <c r="C415">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="4">
+        <v>44060</v>
+      </c>
+      <c r="B416" s="1">
+        <v>487795.19</v>
+      </c>
+      <c r="C416">
+        <v>-1.92</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="4">
+        <v>44061</v>
+      </c>
+      <c r="B417" s="1">
+        <v>486442.09</v>
+      </c>
+      <c r="C417">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="4">
+        <v>44062</v>
+      </c>
+      <c r="B418" s="1">
+        <v>490779.88</v>
+      </c>
+      <c r="C418">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="4">
+        <v>44063</v>
+      </c>
+      <c r="B419" s="1">
+        <v>498633.72</v>
+      </c>
+      <c r="C419">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="4">
+        <v>44064</v>
+      </c>
+      <c r="B420" s="1">
+        <v>502578.91</v>
+      </c>
+      <c r="C420">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="4">
+        <v>44067</v>
+      </c>
+      <c r="B421" s="1">
+        <v>508911.78</v>
+      </c>
+      <c r="C421">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="4">
+        <v>44068</v>
+      </c>
+      <c r="B422" s="1">
+        <v>515316.41</v>
+      </c>
+      <c r="C422">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="4">
+        <v>44069</v>
+      </c>
+      <c r="B423" s="1">
+        <v>515882.72</v>
+      </c>
+      <c r="C423">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="4">
+        <v>44070</v>
+      </c>
+      <c r="B424" s="1">
+        <v>513620.69</v>
+      </c>
+      <c r="C424">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="4">
+        <v>44071</v>
+      </c>
+      <c r="B425" s="1">
+        <v>523875.56</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B426" s="1">
+        <v>522587.56</v>
+      </c>
+      <c r="C426">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="4">
+        <v>44075</v>
+      </c>
+      <c r="B427" s="1">
+        <v>518570.84</v>
+      </c>
+      <c r="C427">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="4">
+        <v>44076</v>
+      </c>
+      <c r="B428" s="1">
+        <v>517866.72</v>
+      </c>
+      <c r="C428">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -5,38 +5,96 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analista04\Documents\R\grupointeraval.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\25 APP GRUPO INTERAVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="ibc" sheetId="1" r:id="rId1"/>
+    <sheet name="IBC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>fecha</t>
+    <t>522,114.50</t>
   </si>
   <si>
-    <t>ibc</t>
+    <t>520,968.38</t>
   </si>
   <si>
-    <t>variacion</t>
+    <t>518,466.53</t>
+  </si>
+  <si>
+    <t>517,252.97</t>
+  </si>
+  <si>
+    <t>515,007.44</t>
+  </si>
+  <si>
+    <t>502,989.88</t>
+  </si>
+  <si>
+    <t>512,260.53</t>
+  </si>
+  <si>
+    <t>511,517.28</t>
+  </si>
+  <si>
+    <t>501,814.00</t>
+  </si>
+  <si>
+    <t>509,832.94</t>
+  </si>
+  <si>
+    <t>500,023.22</t>
+  </si>
+  <si>
+    <t>504,419.97</t>
+  </si>
+  <si>
+    <t>509,008.97</t>
+  </si>
+  <si>
+    <t>519,983.75</t>
+  </si>
+  <si>
+    <t>522,748.19</t>
+  </si>
+  <si>
+    <t>531,888.44</t>
+  </si>
+  <si>
+    <t>538,853.88</t>
+  </si>
+  <si>
+    <t>542,611.63</t>
+  </si>
+  <si>
+    <t>542,702.31</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>IBC</t>
+  </si>
+  <si>
+    <t>VARIACION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -484,7 +542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -528,8 +586,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -546,8 +605,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -584,6 +647,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="43" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -868,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M428"/>
+  <dimension ref="A1:M447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="D426" sqref="D426"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="H445" sqref="H445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,13 +947,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5467,7 +5531,7 @@
         <v>-1.92</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>44061</v>
       </c>
@@ -5478,7 +5542,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>44062</v>
       </c>
@@ -5489,7 +5553,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>44063</v>
       </c>
@@ -5500,7 +5564,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>44064</v>
       </c>
@@ -5511,7 +5575,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>44067</v>
       </c>
@@ -5522,7 +5586,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>44068</v>
       </c>
@@ -5533,7 +5597,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>44069</v>
       </c>
@@ -5544,7 +5608,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>44070</v>
       </c>
@@ -5555,7 +5619,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
         <v>44071</v>
       </c>
@@ -5566,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
         <v>44074</v>
       </c>
@@ -5577,7 +5641,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>44075</v>
       </c>
@@ -5588,7 +5652,7 @@
         <v>-0.77</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>44076</v>
       </c>
@@ -5598,6 +5662,234 @@
       <c r="C428">
         <v>-0.14000000000000001</v>
       </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="4">
+        <v>44081</v>
+      </c>
+      <c r="B429" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="D429"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="4">
+        <v>44082</v>
+      </c>
+      <c r="B430" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C430" s="15">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="D430"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="4">
+        <v>44083</v>
+      </c>
+      <c r="B431" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C431" s="15">
+        <v>-4.7999999999999996E-3</v>
+      </c>
+      <c r="D431"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="4">
+        <v>44084</v>
+      </c>
+      <c r="B432" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C432" s="15">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="D432"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="4">
+        <v>44085</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C433" s="15">
+        <v>-4.3E-3</v>
+      </c>
+      <c r="D433"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="4">
+        <v>44089</v>
+      </c>
+      <c r="B434" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434" s="15">
+        <v>-2.3300000000000001E-2</v>
+      </c>
+      <c r="D434"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435" s="15">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D435"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="4">
+        <v>44091</v>
+      </c>
+      <c r="B436" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C436" s="15">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="D436"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="4">
+        <v>44092</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C437" s="15">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="D437"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="4">
+        <v>44095</v>
+      </c>
+      <c r="B438" t="s">
+        <v>9</v>
+      </c>
+      <c r="C438" s="15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D438"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B439" t="s">
+        <v>10</v>
+      </c>
+      <c r="C439" s="15">
+        <v>-1.9199999999999998E-2</v>
+      </c>
+      <c r="D439"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="4">
+        <v>44097</v>
+      </c>
+      <c r="B440" t="s">
+        <v>11</v>
+      </c>
+      <c r="C440" s="15">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D440"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="4">
+        <v>44098</v>
+      </c>
+      <c r="B441" t="s">
+        <v>12</v>
+      </c>
+      <c r="C441" s="15">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="D441"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="4">
+        <v>44099</v>
+      </c>
+      <c r="B442" t="s">
+        <v>13</v>
+      </c>
+      <c r="C442" s="15">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="D442"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="4">
+        <v>44102</v>
+      </c>
+      <c r="B443" t="s">
+        <v>14</v>
+      </c>
+      <c r="C443" s="15">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D443"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="4">
+        <v>44103</v>
+      </c>
+      <c r="B444" t="s">
+        <v>15</v>
+      </c>
+      <c r="C444" s="15">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="D444"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B445" t="s">
+        <v>16</v>
+      </c>
+      <c r="C445" s="15">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D445"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="4">
+        <v>44105</v>
+      </c>
+      <c r="B446" t="s">
+        <v>17</v>
+      </c>
+      <c r="C446" s="15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D446"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="4">
+        <v>44106</v>
+      </c>
+      <c r="B447" t="s">
+        <v>18</v>
+      </c>
+      <c r="C447" s="15">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D447"/>
     </row>
   </sheetData>
   <sortState ref="A2:D1619">

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -92,8 +92,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
@@ -585,12 +585,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,7 +600,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -609,6 +609,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M447"/>
+  <dimension ref="A1:M451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="H445" sqref="H445"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="F456" sqref="F456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5891,6 +5895,50 @@
       </c>
       <c r="D447"/>
     </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="4">
+        <v>44109</v>
+      </c>
+      <c r="B448" s="17">
+        <v>542730.56000000006</v>
+      </c>
+      <c r="C448" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="4">
+        <v>44110</v>
+      </c>
+      <c r="B449" s="17">
+        <v>546806.88</v>
+      </c>
+      <c r="C449" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="4">
+        <v>44111</v>
+      </c>
+      <c r="B450" s="17">
+        <v>541102.56000000006</v>
+      </c>
+      <c r="C450" s="16">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="4">
+        <v>44112</v>
+      </c>
+      <c r="B451" s="17">
+        <v>546546.56000000006</v>
+      </c>
+      <c r="C451" s="16">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\25 APP GRUPO INTERAVAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analista04\Documents\R\grupointeraval.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>522,114.50</t>
   </si>
@@ -86,15 +86,47 @@
   <si>
     <t>VARIACION</t>
   </si>
+  <si>
+    <t>545,353.88</t>
+  </si>
+  <si>
+    <t>542,730.56</t>
+  </si>
+  <si>
+    <t>54,806.88</t>
+  </si>
+  <si>
+    <t>541,102.56</t>
+  </si>
+  <si>
+    <t>546,546.56</t>
+  </si>
+  <si>
+    <t>556,163.50</t>
+  </si>
+  <si>
+    <t>554,087.88</t>
+  </si>
+  <si>
+    <t>551,187.06</t>
+  </si>
+  <si>
+    <t>518,570.84</t>
+  </si>
+  <si>
+    <t>517,866.72</t>
+  </si>
+  <si>
+    <t>522587.56</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -585,34 +617,39 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -936,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M451"/>
+  <dimension ref="A1:M457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="F456" sqref="F456"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="G465" sqref="G465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,4982 +998,5058 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="13">
         <v>43410</v>
       </c>
       <c r="B2" s="1">
         <v>507.32</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="14">
         <v>-99.9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="13">
         <v>43411</v>
       </c>
       <c r="B3" s="1">
         <v>539.32000000000005</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="14">
         <v>6.3100000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="13">
         <v>43412</v>
       </c>
       <c r="B4" s="1">
         <v>548.09</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="14">
         <v>1.63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="13">
         <v>43413</v>
       </c>
       <c r="B5" s="1">
         <v>568.16999999999996</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="14">
         <v>3.66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="13">
         <v>43416</v>
       </c>
       <c r="B6" s="1">
         <v>568.57000000000005</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="13">
         <v>43417</v>
       </c>
       <c r="B7" s="1">
         <v>577.1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="13">
         <v>43418</v>
       </c>
       <c r="B8" s="1">
         <v>580.38</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>0.57000000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="13">
         <v>43419</v>
       </c>
       <c r="B9" s="1">
         <v>571.24</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="14">
         <v>-1.5699999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="13">
         <v>43420</v>
       </c>
       <c r="B10" s="1">
         <v>569.13</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="14">
         <v>-0.37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="13">
         <v>43423</v>
       </c>
       <c r="B11" s="1">
         <v>551.97</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="14">
         <v>-3.02</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="13">
         <v>43424</v>
       </c>
       <c r="B12" s="1">
         <v>516.41</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="14">
         <v>-6.4399999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="13">
         <v>43425</v>
       </c>
       <c r="B13" s="1">
         <v>512.37</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="14">
         <v>-0.77999999999999992</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="13">
         <v>43426</v>
       </c>
       <c r="B14" s="1">
         <v>510.35</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="14">
         <v>-0.38999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="13">
         <v>43427</v>
       </c>
       <c r="B15" s="1">
         <v>516.85</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="14">
         <v>1.27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="13">
         <v>43430</v>
       </c>
       <c r="B16" s="1">
         <v>533</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="14">
         <v>3.1199999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="13">
         <v>43431</v>
       </c>
       <c r="B17" s="1">
         <v>639.89</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="14">
         <v>20.05</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="13">
         <v>43432</v>
       </c>
       <c r="B18" s="1">
         <v>700.39</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="14">
         <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="13">
         <v>43433</v>
       </c>
       <c r="B19" s="1">
         <v>739.62</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="14">
         <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="13">
         <v>43434</v>
       </c>
       <c r="B20" s="1">
         <v>818.18</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="14">
         <v>10.620000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="13">
         <v>43437</v>
       </c>
       <c r="B21" s="1">
         <v>884.19</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="14">
         <v>8.07</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="13">
         <v>43438</v>
       </c>
       <c r="B22" s="1">
         <v>854.59</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="14">
         <v>-3.35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="13">
         <v>43439</v>
       </c>
       <c r="B23" s="1">
         <v>835.42</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="14">
         <v>-2.2399999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="13">
         <v>43440</v>
       </c>
       <c r="B24" s="1">
         <v>822.09</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="14">
         <v>-1.6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="13">
         <v>43441</v>
       </c>
       <c r="B25" s="1">
         <v>776.14</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="14">
         <v>-5.59</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="13">
         <v>43444</v>
       </c>
       <c r="B26" s="1">
         <v>776.7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="14">
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="13">
         <v>43445</v>
       </c>
       <c r="B27" s="1">
         <v>767.46</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="14">
         <v>-1.1900000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="13">
         <v>43446</v>
       </c>
       <c r="B28" s="1">
         <v>754.6</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="14">
         <v>-1.68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="13">
         <v>43447</v>
       </c>
       <c r="B29" s="1">
         <v>745.22</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="14">
         <v>-1.24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="13">
         <v>43448</v>
       </c>
       <c r="B30" s="1">
         <v>747.53</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="14">
         <v>0.31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="13">
         <v>43451</v>
       </c>
       <c r="B31" s="1">
         <v>789.38</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="14">
         <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="13">
         <v>43452</v>
       </c>
       <c r="B32" s="1">
         <v>805.48</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="14">
         <v>2.04</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="13">
         <v>43453</v>
       </c>
       <c r="B33" s="1">
         <v>822.3</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="14">
         <v>2.09</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="13">
         <v>43454</v>
       </c>
       <c r="B34" s="1">
         <v>818.53</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="14">
         <v>-0.45999999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="13">
         <v>43455</v>
       </c>
       <c r="B35" s="1">
         <v>1260.17</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="14">
         <v>53.959999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="13">
         <v>43460</v>
       </c>
       <c r="B36" s="1">
         <v>1309.69</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="14">
         <v>3.93</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="13">
         <v>43461</v>
       </c>
       <c r="B37" s="1">
         <v>1426.49</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="14">
         <v>8.92</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="13">
         <v>43462</v>
       </c>
       <c r="B38" s="1">
         <v>1605.26</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="14">
         <v>12.53</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
         <v>43467</v>
       </c>
       <c r="B39" s="1">
         <v>1621.11</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="14">
         <v>0.9900000000000001</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="13">
         <v>43468</v>
       </c>
       <c r="B40" s="1">
         <v>1682.51</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="14">
         <v>3.7900000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="13">
         <v>43469</v>
       </c>
       <c r="B41" s="1">
         <v>1922.37</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="14">
         <v>14.26</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="13">
         <v>43472</v>
       </c>
       <c r="B42" s="1">
         <v>2367.5500000000002</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="14">
         <v>23.16</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="13">
         <v>43473</v>
       </c>
       <c r="B43" s="1">
         <v>2623.78</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="14">
         <v>10.82</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="13">
         <v>43474</v>
       </c>
       <c r="B44" s="1">
         <v>2683.91</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="14">
         <v>2.29</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="13">
         <v>43475</v>
       </c>
       <c r="B45" s="1">
         <v>3331.68</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="14">
         <v>24.14</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="13">
         <v>43476</v>
       </c>
       <c r="B46" s="1">
         <v>4384.79</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="14">
         <v>31.61</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="13">
         <v>43479</v>
       </c>
       <c r="B47" s="1">
         <v>6023.09</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="14">
         <v>37.36</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="13">
         <v>43480</v>
       </c>
       <c r="B48" s="1">
         <v>5972.39</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="14">
         <v>-0.84</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="13">
         <v>43481</v>
       </c>
       <c r="B49" s="1">
         <v>6189.57</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="14">
         <v>3.64</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="13">
         <v>43482</v>
       </c>
       <c r="B50" s="1">
         <v>5956.11</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="14">
         <v>-3.7699999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="13">
         <v>43483</v>
       </c>
       <c r="B51" s="1">
         <v>5836.15</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="14">
         <v>-2.0099999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="13">
         <v>43486</v>
       </c>
       <c r="B52" s="1">
         <v>5700.74</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="14">
         <v>-2.3199999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="13">
         <v>43487</v>
       </c>
       <c r="B53" s="1">
         <v>5558.23</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="14">
         <v>-2.5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="13">
         <v>43488</v>
       </c>
       <c r="B54" s="1">
         <v>5734.68</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="14">
         <v>3.17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="13">
         <v>43489</v>
       </c>
       <c r="B55" s="1">
         <v>5827.61</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="14">
         <v>1.6199999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="13">
         <v>43490</v>
       </c>
       <c r="B56" s="1">
         <v>5974.23</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="14">
         <v>2.52</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="13">
         <v>43493</v>
       </c>
       <c r="B57" s="1">
         <v>6068.91</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="14">
         <v>1.58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="13">
         <v>43494</v>
       </c>
       <c r="B58" s="1">
         <v>6147.36</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="14">
         <v>1.29</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="13">
         <v>43495</v>
       </c>
       <c r="B59" s="1">
         <v>5764.13</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="14">
         <v>-6.23</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="13">
         <v>43496</v>
       </c>
       <c r="B60" s="1">
         <v>5436.77</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="14">
         <v>-5.6800000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="13">
         <v>43497</v>
       </c>
       <c r="B61" s="1">
         <v>5286.4</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="14">
         <v>-2.77</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="13">
         <v>43500</v>
       </c>
       <c r="B62" s="1">
         <v>5100.2299999999996</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="14">
         <v>-3.52</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="13">
         <v>43501</v>
       </c>
       <c r="B63" s="1">
         <v>5580.27</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="14">
         <v>9.41</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="13">
         <v>43502</v>
       </c>
       <c r="B64" s="1">
         <v>5566.58</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="14">
         <v>-0.25</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="13">
         <v>43503</v>
       </c>
       <c r="B65" s="1">
         <v>5699.8</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="14">
         <v>2.39</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="13">
         <v>43504</v>
       </c>
       <c r="B66" s="1">
         <v>5525.24</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="14">
         <v>-3.06</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="13">
         <v>43507</v>
       </c>
       <c r="B67" s="1">
         <v>5117.34</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="14">
         <v>-7.3800000000000008</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="13">
         <v>43508</v>
       </c>
       <c r="B68" s="1">
         <v>4998.63</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="14">
         <v>-2.3199999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="13">
         <v>43509</v>
       </c>
       <c r="B69" s="1">
         <v>4812.96</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="14">
         <v>-3.71</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="13">
         <v>43510</v>
       </c>
       <c r="B70" s="1">
         <v>4640.24</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="14">
         <v>-3.5900000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="13">
         <v>43511</v>
       </c>
       <c r="B71" s="1">
         <v>5056.92</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="14">
         <v>8.98</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="13">
         <v>43514</v>
       </c>
       <c r="B72" s="1">
         <v>5055.88</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="14">
         <v>-0.02</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="13">
         <v>43515</v>
       </c>
       <c r="B73" s="1">
         <v>5232.46</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="14">
         <v>3.49</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="13">
         <v>43516</v>
       </c>
       <c r="B74" s="1">
         <v>5314.51</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="14">
         <v>1.5699999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="13">
         <v>43517</v>
       </c>
       <c r="B75" s="1">
         <v>5596.29</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="14">
         <v>5.3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="13">
         <v>43518</v>
       </c>
       <c r="B76" s="1">
         <v>6966.75</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="14">
         <v>24.490000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="13">
         <v>43521</v>
       </c>
       <c r="B77" s="1">
         <v>7839.1</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="14">
         <v>12.520000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="13">
         <v>43522</v>
       </c>
       <c r="B78" s="1">
         <v>9085.4</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="14">
         <v>15.9</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="13">
         <v>43523</v>
       </c>
       <c r="B79" s="1">
         <v>10516.31</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="14">
         <v>15.75</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="13">
         <v>43524</v>
       </c>
       <c r="B80" s="1">
         <v>10516.31</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="13">
         <v>43530</v>
       </c>
       <c r="B81" s="1">
         <v>10104.290000000001</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="14">
         <v>-3.92</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="13">
         <v>43531</v>
       </c>
       <c r="B82" s="1">
         <v>9837.64</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="14">
         <v>-2.64</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="13">
         <v>43538</v>
       </c>
       <c r="B83" s="1">
         <v>8194.59</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="14">
         <v>-16.7</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="13">
         <v>43539</v>
       </c>
       <c r="B84" s="1">
         <v>8582.1299999999992</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="14">
         <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="13">
         <v>43542</v>
       </c>
       <c r="B85" s="1">
         <v>8873.44</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="14">
         <v>3.39</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="13">
         <v>43544</v>
       </c>
       <c r="B86" s="1">
         <v>9394.7999999999993</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="14">
         <v>5.88</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="13">
         <v>43545</v>
       </c>
       <c r="B87" s="1">
         <v>9512.15</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="14">
         <v>1.25</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="13">
         <v>43546</v>
       </c>
       <c r="B88" s="1">
         <v>9487.81</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="14">
         <v>-0.26</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="13">
         <v>43549</v>
       </c>
       <c r="B89" s="1">
         <v>8961.15</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="14">
         <v>-5.55</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="13">
         <v>43553</v>
       </c>
       <c r="B90" s="1">
         <v>8567.89</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="14">
         <v>-4.3900000000000006</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="13">
         <v>43556</v>
       </c>
       <c r="B91" s="1">
         <v>8249.07</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="14">
         <v>-3.7199999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="13">
         <v>43557</v>
       </c>
       <c r="B92" s="1">
         <v>8425.19</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="14">
         <v>2.1399999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="13">
         <v>43558</v>
       </c>
       <c r="B93" s="1">
         <v>8554.7800000000007</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="14">
         <v>1.54</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="13">
         <v>43559</v>
       </c>
       <c r="B94" s="1">
         <v>8597.59</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="13">
         <v>43560</v>
       </c>
       <c r="B95" s="1">
         <v>8833.81</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="14">
         <v>2.75</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="13">
         <v>43563</v>
       </c>
       <c r="B96" s="1">
         <v>8683.9599999999991</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="14">
         <v>-1.7000000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="13">
         <v>43564</v>
       </c>
       <c r="B97" s="1">
         <v>8494.06</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="14">
         <v>-2.19</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="13">
         <v>43565</v>
       </c>
       <c r="B98" s="1">
         <v>8667.34</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="14">
         <v>2.04</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="13">
         <v>43566</v>
       </c>
       <c r="B99" s="1">
         <v>9257.7000000000007</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="14">
         <v>6.81</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="13">
         <v>43567</v>
       </c>
       <c r="B100" s="1">
         <v>10318.790000000001</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="14">
         <v>11.459999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="13">
         <v>43577</v>
       </c>
       <c r="B101" s="1">
         <v>11816.82</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="14">
         <v>14.52</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="13">
         <v>43578</v>
       </c>
       <c r="B102" s="1">
         <v>14674</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="14">
         <v>24.18</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="13">
         <v>43579</v>
       </c>
       <c r="B103" s="1">
         <v>14788.11</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="14">
         <v>0.77999999999999992</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="13">
         <v>43580</v>
       </c>
       <c r="B104" s="1">
         <v>15089.31</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="14">
         <v>2.04</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="13">
         <v>43581</v>
       </c>
       <c r="B105" s="1">
         <v>17070.18</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="14">
         <v>13.13</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="13">
         <v>43584</v>
       </c>
       <c r="B106" s="1">
         <v>17775.650000000001</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="14">
         <v>4.1300000000000008</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="13">
         <v>43587</v>
       </c>
       <c r="B107" s="1">
         <v>16942.11</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="14">
         <v>-4.6899999999999995</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="13">
         <v>43588</v>
       </c>
       <c r="B108" s="1">
         <v>16640.990000000002</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="14">
         <v>-1.78</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="13">
         <v>43591</v>
       </c>
       <c r="B109" s="1">
         <v>15125.7</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="14">
         <v>-9.11</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="13">
         <v>43592</v>
       </c>
       <c r="B110" s="1">
         <v>14093.18</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="14">
         <v>-6.83</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="13">
         <v>43593</v>
       </c>
       <c r="B111" s="1">
         <v>15277.27</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="14">
         <v>8.4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+      <c r="A112" s="13">
         <v>43594</v>
       </c>
       <c r="B112" s="1">
         <v>15811.14</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="14">
         <v>3.49</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+      <c r="A113" s="13">
         <v>43595</v>
       </c>
       <c r="B113" s="1">
         <v>16553.72</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="14">
         <v>4.7</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+      <c r="A114" s="13">
         <v>43598</v>
       </c>
       <c r="B114" s="1">
         <v>16148.36</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="14">
         <v>-2.4500000000000002</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="A115" s="13">
         <v>43599</v>
       </c>
       <c r="B115" s="1">
         <v>16114.27</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="14">
         <v>-0.21</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+      <c r="A116" s="13">
         <v>43600</v>
       </c>
       <c r="B116" s="1">
         <v>15976.95</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="14">
         <v>-0.85000000000000009</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="13">
         <v>43601</v>
       </c>
       <c r="B117" s="1">
         <v>16214.23</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="14">
         <v>1.49</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+      <c r="A118" s="13">
         <v>43602</v>
       </c>
       <c r="B118" s="1">
         <v>16473.650000000001</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="14">
         <v>1.6</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+      <c r="A119" s="13">
         <v>43605</v>
       </c>
       <c r="B119" s="1">
         <v>17076.939999999999</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="14">
         <v>3.66</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+      <c r="A120" s="13">
         <v>43606</v>
       </c>
       <c r="B120" s="1">
         <v>16465.62</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="14">
         <v>-3.58</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
+      <c r="A121" s="13">
         <v>43607</v>
       </c>
       <c r="B121" s="1">
         <v>15737.45</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="14">
         <v>-4.42</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
+      <c r="A122" s="13">
         <v>43608</v>
       </c>
       <c r="B122" s="1">
         <v>15541.71</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="14">
         <v>-1.24</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+      <c r="A123" s="13">
         <v>43609</v>
       </c>
       <c r="B123" s="1">
         <v>15665.22</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="14">
         <v>0.79</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="A124" s="13">
         <v>43612</v>
       </c>
       <c r="B124" s="1">
         <v>15753.54</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="14">
         <v>0.55999999999999994</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="13">
         <v>43613</v>
       </c>
       <c r="B125" s="1">
         <v>15730.88</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="14">
         <v>-0.13999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="A126" s="13">
         <v>43614</v>
       </c>
       <c r="B126" s="1">
         <v>15842.46</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="14">
         <v>0.71000000000000008</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="13">
         <v>43615</v>
       </c>
       <c r="B127" s="1">
         <v>15995.55</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="14">
         <v>0.97</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+      <c r="A128" s="13">
         <v>43616</v>
       </c>
       <c r="B128" s="1">
         <v>15791.62</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="14">
         <v>-1.27</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="A129" s="13">
         <v>43620</v>
       </c>
       <c r="B129" s="1">
         <v>15581.13</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="14">
         <v>-1.3299999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+      <c r="A130" s="13">
         <v>43621</v>
       </c>
       <c r="B130" s="1">
         <v>14938.76</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="14">
         <v>-4.12</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="A131" s="13">
         <v>43622</v>
       </c>
       <c r="B131" s="1">
         <v>14491.76</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="14">
         <v>-2.9899999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+      <c r="A132" s="13">
         <v>43623</v>
       </c>
       <c r="B132" s="1">
         <v>14162.87</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="14">
         <v>-2.27</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="A133" s="13">
         <v>43626</v>
       </c>
       <c r="B133" s="1">
         <v>13571.37</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="14">
         <v>-4.18</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="A134" s="13">
         <v>43627</v>
       </c>
       <c r="B134" s="1">
         <v>13397.89</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="14">
         <v>-1.28</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="A135" s="13">
         <v>43628</v>
       </c>
       <c r="B135" s="1">
         <v>13746.42</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="14">
         <v>2.6</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+      <c r="A136" s="13">
         <v>43629</v>
       </c>
       <c r="B136" s="1">
         <v>14486.28</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="14">
         <v>5.38</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="A137" s="13">
         <v>43630</v>
       </c>
       <c r="B137" s="1">
         <v>15250.96</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="14">
         <v>5.28</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
+      <c r="A138" s="13">
         <v>43634</v>
       </c>
       <c r="B138" s="1">
         <v>15304.96</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="14">
         <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="A139" s="13">
         <v>43635</v>
       </c>
       <c r="B139" s="1">
         <v>15547.91</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="14">
         <v>1.59</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
+      <c r="A140" s="13">
         <v>43636</v>
       </c>
       <c r="B140" s="1">
         <v>15704.22</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="14">
         <v>1.01</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
+      <c r="A141" s="13">
         <v>43637</v>
       </c>
       <c r="B141" s="1">
         <v>16072.07</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="14">
         <v>2.34</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
+      <c r="A142" s="13">
         <v>43641</v>
       </c>
       <c r="B142" s="1">
         <v>16311.48</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="14">
         <v>1.49</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
+      <c r="A143" s="13">
         <v>43642</v>
       </c>
       <c r="B143" s="1">
         <v>16630.39</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="14">
         <v>1.96</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
+      <c r="A144" s="13">
         <v>43643</v>
       </c>
       <c r="B144" s="1">
         <v>17296.87</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="14">
         <v>4.01</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
+      <c r="A145" s="13">
         <v>43644</v>
       </c>
       <c r="B145" s="1">
         <v>18453.849999999999</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="14">
         <v>6.69</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
+      <c r="A146" s="13">
         <v>43647</v>
       </c>
       <c r="B146" s="1">
         <v>18614.330000000002</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="14">
         <v>0.86999999999999988</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
+      <c r="A147" s="13">
         <v>43648</v>
       </c>
       <c r="B147" s="1">
         <v>18349.7</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="14">
         <v>-1.4200000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
+      <c r="A148" s="13">
         <v>43649</v>
       </c>
       <c r="B148" s="1">
         <v>19077.12</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="14">
         <v>3.9600000000000004</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="A149" s="13">
         <v>43650</v>
       </c>
       <c r="B149" s="1">
         <v>19086.849999999999</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="14">
         <v>0.05</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="A150" s="13">
         <v>43654</v>
       </c>
       <c r="B150" s="1">
         <v>19190.189999999999</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="14">
         <v>0.54</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
+      <c r="A151" s="13">
         <v>43655</v>
       </c>
       <c r="B151" s="1">
         <v>19516.099999999999</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="14">
         <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
+      <c r="A152" s="13">
         <v>43656</v>
       </c>
       <c r="B152" s="1">
         <v>19513.84</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="14">
         <v>-0.01</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
+      <c r="A153" s="13">
         <v>43657</v>
       </c>
       <c r="B153" s="1">
         <v>19976.560000000001</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="14">
         <v>2.37</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
+      <c r="A154" s="13">
         <v>43658</v>
       </c>
       <c r="B154" s="1">
         <v>20300.759999999998</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="14">
         <v>1.6199999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
+      <c r="A155" s="13">
         <v>43661</v>
       </c>
       <c r="B155" s="1">
         <v>20625.669999999998</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="14">
         <v>1.6</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
+      <c r="A156" s="13">
         <v>43662</v>
       </c>
       <c r="B156" s="1">
         <v>21859.15</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="14">
         <v>5.9799999999999995</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
+      <c r="A157" s="13">
         <v>43663</v>
       </c>
       <c r="B157" s="1">
         <v>24200</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="14">
         <v>10.71</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
+      <c r="A158" s="13">
         <v>43664</v>
       </c>
       <c r="B158" s="1">
         <v>24404.82</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="14">
         <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
+      <c r="A159" s="13">
         <v>43665</v>
       </c>
       <c r="B159" s="1">
         <v>24235.119999999999</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="14">
         <v>-0.70000000000000007</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
+      <c r="A160" s="13">
         <v>43668</v>
       </c>
       <c r="B160" s="1">
         <v>24857.84</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="14">
         <v>2.5700000000000003</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="4">
+      <c r="A161" s="13">
         <v>43671</v>
       </c>
       <c r="B161" s="1">
         <v>24836.959999999999</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="14">
         <v>-0.08</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
+      <c r="A162" s="13">
         <v>43672</v>
       </c>
       <c r="B162" s="1">
         <v>25020.45</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="14">
         <v>0.74</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
+      <c r="A163" s="13">
         <v>43675</v>
       </c>
       <c r="B163" s="1">
         <v>24919.52</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="14">
         <v>-0.4</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
+      <c r="A164" s="13">
         <v>43676</v>
       </c>
       <c r="B164" s="1">
         <v>25207.59</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="14">
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
+      <c r="A165" s="13">
         <v>43677</v>
       </c>
       <c r="B165" s="1">
         <v>25788.69</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="14">
         <v>2.31</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
+      <c r="A166" s="13">
         <v>43678</v>
       </c>
       <c r="B166" s="1">
         <v>26701.72</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="14">
         <v>3.54</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
+      <c r="A167" s="13">
         <v>43679</v>
       </c>
       <c r="B167" s="1">
         <v>28667.35</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="14">
         <v>7.3599999999999994</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
+      <c r="A168" s="13">
         <v>43682</v>
       </c>
       <c r="B168" s="1">
         <v>30443.16</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="14">
         <v>6.1899999999999995</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
+      <c r="A169" s="13">
         <v>43683</v>
       </c>
       <c r="B169" s="1">
         <v>35149.040000000001</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="14">
         <v>15.459999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
+      <c r="A170" s="13">
         <v>43684</v>
       </c>
       <c r="B170" s="1">
         <v>36682.79</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="14">
         <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="13">
         <v>43685</v>
       </c>
       <c r="B171" s="1">
         <v>36716.949999999997</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="14">
         <v>0.09</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
+      <c r="A172" s="13">
         <v>43686</v>
       </c>
       <c r="B172" s="1">
         <v>40439.29</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="14">
         <v>10.14</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="4">
+      <c r="A173" s="13">
         <v>43689</v>
       </c>
       <c r="B173" s="1">
         <v>41545.919999999998</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="14">
         <v>2.74</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
+      <c r="A174" s="13">
         <v>43690</v>
       </c>
       <c r="B174" s="1">
         <v>42701.46</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="14">
         <v>2.78</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="4">
+      <c r="A175" s="13">
         <v>43691</v>
       </c>
       <c r="B175" s="1">
         <v>44573.02</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="14">
         <v>4.38</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
+      <c r="A176" s="13">
         <v>43692</v>
       </c>
       <c r="B176" s="1">
         <v>43454.23</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="14">
         <v>-2.5100000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
+      <c r="A177" s="13">
         <v>43693</v>
       </c>
       <c r="B177" s="1">
         <v>43965.84</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="14">
         <v>1.18</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
+      <c r="A178" s="13">
         <v>43697</v>
       </c>
       <c r="B178" s="1">
         <v>44555.7</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="14">
         <v>1.34</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="A179" s="13">
         <v>43698</v>
       </c>
       <c r="B179" s="1">
         <v>44676.83</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="14">
         <v>0.27</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
+      <c r="A180" s="13">
         <v>43699</v>
       </c>
       <c r="B180" s="1">
         <v>45554.68</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="14">
         <v>1.96</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="4">
+      <c r="A181" s="13">
         <v>43700</v>
       </c>
       <c r="B181" s="1">
         <v>45196.02</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="14">
         <v>-0.79</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="4">
+      <c r="A182" s="13">
         <v>43703</v>
       </c>
       <c r="B182" s="1">
         <v>45186.26</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="14">
         <v>-0.02</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
+      <c r="A183" s="13">
         <v>43704</v>
       </c>
       <c r="B183" s="1">
         <v>48540.65</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="14">
         <v>7.42</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
+      <c r="A184" s="13">
         <v>43705</v>
       </c>
       <c r="B184" s="1">
         <v>49680.5</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="14">
         <v>2.35</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
+      <c r="A185" s="13">
         <v>43706</v>
       </c>
       <c r="B185" s="1">
         <v>52340.74</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="14">
         <v>5.35</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
+      <c r="A186" s="13">
         <v>43707</v>
       </c>
       <c r="B186" s="1">
         <v>55583.02</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="14">
         <v>6.1899999999999995</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
+      <c r="A187" s="13">
         <v>43710</v>
       </c>
       <c r="B187" s="1">
         <v>56574.99</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="14">
         <v>1.78</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
+      <c r="A188" s="13">
         <v>43711</v>
       </c>
       <c r="B188" s="1">
         <v>56020.79</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="14">
         <v>-0.98</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
+      <c r="A189" s="13">
         <v>43712</v>
       </c>
       <c r="B189" s="1">
         <v>55056.66</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="14">
         <v>-1.72</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
+      <c r="A190" s="13">
         <v>43713</v>
       </c>
       <c r="B190" s="1">
         <v>62004.3</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="14">
         <v>12.620000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="4">
+      <c r="A191" s="13">
         <v>43714</v>
       </c>
       <c r="B191" s="1">
         <v>61829.11</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="14">
         <v>-0.27999999999999997</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
+      <c r="A192" s="13">
         <v>43717</v>
       </c>
       <c r="B192" s="1">
         <v>60990.52</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="14">
         <v>-1.3599999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
+      <c r="A193" s="13">
         <v>43718</v>
       </c>
       <c r="B193" s="1">
         <v>61085.03</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="14">
         <v>0.15</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
+      <c r="A194" s="13">
         <v>43719</v>
       </c>
       <c r="B194" s="1">
         <v>60554.32</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="14">
         <v>-0.86999999999999988</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
+      <c r="A195" s="13">
         <v>43720</v>
       </c>
       <c r="B195" s="1">
         <v>59166.63</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="14">
         <v>-2.29</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
+      <c r="A196" s="13">
         <v>43721</v>
       </c>
       <c r="B196" s="1">
         <v>55768.93</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="14">
         <v>-5.74</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="4">
+      <c r="A197" s="13">
         <v>43725</v>
       </c>
       <c r="B197" s="1">
         <v>53618.39</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="14">
         <v>-3.8600000000000003</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="4">
+      <c r="A198" s="13">
         <v>43726</v>
       </c>
       <c r="B198" s="1">
         <v>50330.5</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="14">
         <v>-6.13</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="4">
+      <c r="A199" s="13">
         <v>43727</v>
       </c>
       <c r="B199" s="1">
         <v>48061.26</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="14">
         <v>-4.51</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="4">
+      <c r="A200" s="13">
         <v>43728</v>
       </c>
       <c r="B200" s="1">
         <v>50094.05</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="14">
         <v>4.2299999999999995</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
+      <c r="A201" s="13">
         <v>43731</v>
       </c>
       <c r="B201" s="1">
         <v>52152.92</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="14">
         <v>4.1099999999999994</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="4">
+      <c r="A202" s="13">
         <v>43732</v>
       </c>
       <c r="B202" s="1">
         <v>50737.74</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="14">
         <v>-2.71</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="4">
+      <c r="A203" s="13">
         <v>43733</v>
       </c>
       <c r="B203" s="1">
         <v>50446.36</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="14">
         <v>-0.57000000000000006</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="4">
+      <c r="A204" s="13">
         <v>43734</v>
       </c>
       <c r="B204" s="1">
         <v>50027.58</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="14">
         <v>-0.83</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="4">
+      <c r="A205" s="13">
         <v>43735</v>
       </c>
       <c r="B205" s="1">
         <v>50041.31</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="14">
         <v>0.03</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="4">
+      <c r="A206" s="13">
         <v>43738</v>
       </c>
       <c r="B206" s="1">
         <v>48856.03</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="14">
         <v>-2.37</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="4">
+      <c r="A207" s="13">
         <v>43739</v>
       </c>
       <c r="B207" s="1">
         <v>48701.24</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="14">
         <v>-0.32</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="4">
+      <c r="A208" s="13">
         <v>43740</v>
       </c>
       <c r="B208" s="1">
         <v>47532.78</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="14">
         <v>-2.4</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="4">
+      <c r="A209" s="13">
         <v>43741</v>
       </c>
       <c r="B209" s="1">
         <v>47289.88</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="14">
         <v>-0.51</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="4">
+      <c r="A210" s="13">
         <v>43742</v>
       </c>
       <c r="B210" s="1">
         <v>49080.14</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="14">
         <v>3.7900000000000005</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="4">
+      <c r="A211" s="13">
         <v>43745</v>
       </c>
       <c r="B211" s="1">
         <v>49633.87</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="14">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="4">
+      <c r="A212" s="13">
         <v>43746</v>
       </c>
       <c r="B212" s="1">
         <v>50718.06</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="14">
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="4">
+      <c r="A213" s="13">
         <v>43747</v>
       </c>
       <c r="B213" s="1">
         <v>52777.46</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="14">
         <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
+      <c r="A214" s="13">
         <v>43748</v>
       </c>
       <c r="B214" s="1">
         <v>52693.42</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="14">
         <v>-0.16</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
+      <c r="A215" s="13">
         <v>43749</v>
       </c>
       <c r="B215" s="1">
         <v>51782.03</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="14">
         <v>-1.73</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
+      <c r="A216" s="13">
         <v>43752</v>
       </c>
       <c r="B216" s="1">
         <v>51182.02</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="14">
         <v>-1.1599999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
+      <c r="A217" s="13">
         <v>43753</v>
       </c>
       <c r="B217" s="1">
         <v>51073.71</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="14">
         <v>-0.21</v>
       </c>
-      <c r="L217" s="7"/>
-      <c r="M217" s="8"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="7"/>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
+      <c r="A218" s="13">
         <v>43754</v>
       </c>
       <c r="B218" s="1">
         <v>50027.360000000001</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="14">
         <v>-2.0500000000000003</v>
       </c>
-      <c r="L218" s="7"/>
-      <c r="M218" s="8"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="7"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
+      <c r="A219" s="13">
         <v>43755</v>
       </c>
       <c r="B219" s="1">
         <v>49011.3</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="14">
         <v>-2.0299999999999998</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
+      <c r="A220" s="13">
         <v>43756</v>
       </c>
       <c r="B220" s="1">
         <v>46665.85</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="14">
         <v>-4.79</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="4">
+      <c r="A221" s="13">
         <v>43759</v>
       </c>
       <c r="B221" s="1">
         <v>46005.59</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="14">
         <v>-1.41</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="4">
+      <c r="A222" s="13">
         <v>43760</v>
       </c>
       <c r="B222" s="1">
         <v>45008.61</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="14">
         <v>-2.17</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="4">
+      <c r="A223" s="13">
         <v>43761</v>
       </c>
       <c r="B223" s="1">
         <v>47219.16</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="14">
         <v>4.91</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="4">
+      <c r="A224" s="13">
         <v>43762</v>
       </c>
       <c r="B224" s="1">
         <v>48282.33</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="14">
         <v>2.25</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="4">
+      <c r="A225" s="13">
         <v>43763</v>
       </c>
       <c r="B225" s="1">
         <v>48929</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="14">
         <v>1.34</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="4">
+      <c r="A226" s="13">
         <v>43766</v>
       </c>
       <c r="B226" s="1">
         <v>48363.06</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="14">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="F226" s="9"/>
+      <c r="F226" s="8"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="4">
+      <c r="A227" s="13">
         <v>43767</v>
       </c>
       <c r="B227" s="1">
         <v>50903.59</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="14">
         <v>5.25</v>
       </c>
-      <c r="F227" s="9"/>
+      <c r="F227" s="8"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="4">
+      <c r="A228" s="13">
         <v>43768</v>
       </c>
       <c r="B228" s="1">
         <v>51203.09</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="14">
         <v>0.59</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="4">
+      <c r="A229" s="13">
         <v>43769</v>
       </c>
       <c r="B229" s="1">
         <v>47772.07</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="14">
         <v>-6.7</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="4">
+      <c r="A230" s="13">
         <v>43770</v>
       </c>
       <c r="B230" s="1">
         <v>47448.6</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="14">
         <v>-0.68</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="4">
+      <c r="A231" s="13">
         <v>43774</v>
       </c>
       <c r="B231" s="1">
         <v>48124.21</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="14">
         <v>1.42</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="4">
+      <c r="A232" s="13">
         <v>43775</v>
       </c>
       <c r="B232" s="1">
         <v>48085.34</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="14">
         <v>0.08</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="4">
+      <c r="A233" s="13">
         <v>43776</v>
       </c>
       <c r="B233" s="1">
         <v>51582.28</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="14">
         <v>7.27</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="4">
+      <c r="A234" s="13">
         <v>43777</v>
       </c>
       <c r="B234" s="1">
         <v>53039.07</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="14">
         <v>2.82</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="4">
+      <c r="A235" s="13">
         <v>43780</v>
       </c>
       <c r="B235" s="1">
         <v>57077.23</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="14">
         <v>7.61</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="4">
+      <c r="A236" s="13">
         <v>43781</v>
       </c>
       <c r="B236" s="1">
         <v>58379.67</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="14">
         <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="4">
+      <c r="A237" s="13">
         <v>43782</v>
       </c>
       <c r="B237" s="1">
         <v>60671.38</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="14">
         <v>3.93</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="4">
+      <c r="A238" s="13">
         <v>43783</v>
       </c>
       <c r="B238" s="1">
         <v>59444.04</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="14">
         <v>-2.02</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="4">
+      <c r="A239" s="13">
         <v>43784</v>
       </c>
       <c r="B239" s="1">
         <v>59196.79</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="14">
         <v>-0.42</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="4">
+      <c r="A240" s="13">
         <v>43787</v>
       </c>
       <c r="B240" s="1">
         <v>60337.760000000002</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="14">
         <v>1.93</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="4">
+      <c r="A241" s="13">
         <v>43788</v>
       </c>
       <c r="B241" s="1">
         <v>61523.12</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="14">
         <v>1.96</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="4">
+      <c r="A242" s="13">
         <v>43789</v>
       </c>
       <c r="B242" s="1">
         <v>61699.1</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="14">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="4">
+      <c r="A243" s="13">
         <v>43790</v>
       </c>
       <c r="B243" s="1">
         <v>60854.879999999997</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="14">
         <v>-1.37</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="4">
+      <c r="A244" s="13">
         <v>43791</v>
       </c>
       <c r="B244" s="1">
         <v>61855.6</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="14">
         <v>1.64</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="4">
+      <c r="A245" s="13">
         <v>43794</v>
       </c>
       <c r="B245" s="1">
         <v>61620.72</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="14">
         <v>-0.38</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="4">
+      <c r="A246" s="13">
         <v>43795</v>
       </c>
       <c r="B246" s="1">
         <v>60293.5</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="14">
         <v>-2.15</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="4">
+      <c r="A247" s="13">
         <v>43796</v>
       </c>
       <c r="B247" s="1">
         <v>64030.82</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="14">
         <v>6.2</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="4">
+      <c r="A248" s="13">
         <v>43797</v>
       </c>
       <c r="B248" s="1">
         <v>65851.19</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="14">
         <v>2.84</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="4">
+      <c r="A249" s="13">
         <v>43798</v>
       </c>
       <c r="B249" s="1">
         <v>69894.880000000005</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="14">
         <v>6.14</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="4">
+      <c r="A250" s="13">
         <v>43801</v>
       </c>
       <c r="B250" s="1">
         <v>70507.73</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="14">
         <v>0.88</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="4">
+      <c r="A251" s="13">
         <v>43802</v>
       </c>
       <c r="B251" s="1">
         <v>70876.3</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="14">
         <v>0.52</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="4">
+      <c r="A252" s="13">
         <v>43803</v>
       </c>
       <c r="B252" s="1">
         <v>71167.77</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="14">
         <v>0.41</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="4">
+      <c r="A253" s="13">
         <v>43804</v>
       </c>
       <c r="B253" s="1">
         <v>70514.509999999995</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="14">
         <v>-0.92</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="4">
+      <c r="A254" s="13">
         <v>43805</v>
       </c>
       <c r="B254" s="1">
         <v>70997.36</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="14">
         <v>0.68</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="4">
+      <c r="A255" s="13">
         <v>43808</v>
       </c>
       <c r="B255" s="1">
         <v>67582.929999999993</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="14">
         <v>-4.8099999999999996</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="4">
+      <c r="A256" s="13">
         <v>43809</v>
       </c>
       <c r="B256" s="1">
         <v>66208.62</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="14">
         <v>-2.0299999999999998</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="4">
+      <c r="A257" s="13">
         <v>43810</v>
       </c>
       <c r="B257" s="1">
         <v>61917.54</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="14">
         <v>-6.4799999999999995</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="4">
+      <c r="A258" s="13">
         <v>43811</v>
       </c>
       <c r="B258" s="1">
         <v>61124.75</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="14">
         <v>-1.28</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="4">
+      <c r="A259" s="13">
         <v>43812</v>
       </c>
       <c r="B259" s="1">
         <v>62022.46</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="14">
         <v>1.47</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="4">
+      <c r="A260" s="13">
         <v>43815</v>
       </c>
       <c r="B260" s="1">
         <v>62060.32</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="14">
         <v>0.06</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="4">
+      <c r="A261" s="13">
         <v>43816</v>
       </c>
       <c r="B261" s="1">
         <v>60502.85</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="14">
         <v>-2.5100000000000002</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="4">
+      <c r="A262" s="13">
         <v>43817</v>
       </c>
       <c r="B262" s="1">
         <v>63308.93</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="14">
         <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="4">
+      <c r="A263" s="13">
         <v>43818</v>
       </c>
       <c r="B263" s="1">
         <v>71401.289999999994</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="14">
         <v>12.78</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="4">
+      <c r="A264" s="13">
         <v>43819</v>
       </c>
       <c r="B264" s="1">
         <v>79344.83</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="14">
         <v>11.129999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="4">
+      <c r="A265" s="13">
         <v>43822</v>
       </c>
       <c r="B265" s="1">
         <v>79749.66</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="14">
         <v>0.51</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="4">
+      <c r="A266" s="13">
         <v>43825</v>
       </c>
       <c r="B266" s="1">
         <v>80655.960000000006</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="14">
         <v>1.1400000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="4">
+      <c r="A267" s="13">
         <v>43826</v>
       </c>
       <c r="B267" s="1">
         <v>83188.06</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="14">
         <v>3.14</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="4">
+      <c r="A268" s="13">
         <v>43829</v>
       </c>
       <c r="B268" s="1">
         <v>90224.09</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="14">
         <v>8.4600000000000009</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="4">
+      <c r="A269" s="13">
         <v>43832</v>
       </c>
       <c r="B269" s="1">
         <v>93048.36</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="14">
         <v>3.13</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="4">
+      <c r="A270" s="13">
         <v>43833</v>
       </c>
       <c r="B270" s="1">
         <v>98580.19</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="14">
         <v>5.95</v>
       </c>
-      <c r="E270" s="10"/>
+      <c r="E270" s="9"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="4">
+      <c r="A271" s="13">
         <v>43837</v>
       </c>
       <c r="B271" s="1">
         <v>101804.2</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="14">
         <v>3.27</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="4">
+      <c r="A272" s="13">
         <v>43838</v>
       </c>
       <c r="B272" s="1">
         <v>107456.7</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="14">
         <v>5.55</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="4">
+      <c r="A273" s="13">
         <v>43839</v>
       </c>
       <c r="B273" s="1">
         <v>112346.45</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="14">
         <v>4.55</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="4">
+      <c r="A274" s="13">
         <v>43840</v>
       </c>
       <c r="B274" s="1">
         <v>119242.96</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="14">
         <v>6.14</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="4">
+      <c r="A275" s="13">
         <v>43843</v>
       </c>
       <c r="B275" s="1">
         <v>123483.57</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="14">
         <v>3.56</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="4">
+      <c r="A276" s="13">
         <v>43845</v>
       </c>
       <c r="B276" s="1">
         <v>124789.33</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="14">
         <v>1.06</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="4">
+      <c r="A277" s="13">
         <v>43846</v>
       </c>
       <c r="B277" s="1">
         <v>124068.72</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="14">
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="4">
+      <c r="A278" s="13">
         <v>43847</v>
       </c>
       <c r="B278" s="1">
         <v>122897.51</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="14">
         <v>-0.94</v>
       </c>
-      <c r="F278" s="8"/>
+      <c r="F278" s="7"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="4">
+      <c r="A279" s="13">
         <v>43851</v>
       </c>
       <c r="B279" s="1">
         <v>118617.38</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="14">
         <v>-3.48</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="4">
+      <c r="A280" s="13">
         <v>43852</v>
       </c>
       <c r="B280" s="1">
         <v>118248.5</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="14">
         <v>-0.31</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="4">
+      <c r="A281" s="13">
         <v>43853</v>
       </c>
       <c r="B281" s="1">
         <v>116643.96</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="14">
         <v>-1.36</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="4">
+      <c r="A282" s="13">
         <v>43854</v>
       </c>
       <c r="B282" s="1">
         <v>108272.44</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="14">
         <v>-7.18</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="4">
+      <c r="A283" s="13">
         <v>43857</v>
       </c>
       <c r="B283" s="1">
         <v>108061.2</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="14">
         <v>-0.2</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="4">
+      <c r="A284" s="13">
         <v>43858</v>
       </c>
       <c r="B284" s="1">
         <v>102104.8</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="14">
         <v>-5.51</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="4">
+      <c r="A285" s="13">
         <v>43859</v>
       </c>
       <c r="B285" s="1">
         <v>110867.91</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="14">
         <v>8.58</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="4">
+      <c r="A286" s="13">
         <v>43860</v>
       </c>
       <c r="B286" s="1">
         <v>121755.22</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="14">
         <v>9.82</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="4">
+      <c r="A287" s="13">
         <v>43861</v>
       </c>
       <c r="B287" s="1">
         <v>129541.1</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="14">
         <v>6.39</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="4">
+      <c r="A288" s="13">
         <v>43864</v>
       </c>
       <c r="B288" s="1">
         <v>127671.45</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="14">
         <v>-1.44</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="4">
+      <c r="A289" s="13">
         <v>43865</v>
       </c>
       <c r="B289" s="1">
         <v>125936.38</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="14">
         <v>-1.36</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="4">
+      <c r="A290" s="13">
         <v>43866</v>
       </c>
       <c r="B290" s="1">
         <v>125568.41</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="14">
         <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="4">
+      <c r="A291" s="13">
         <v>43867</v>
       </c>
       <c r="B291" s="1">
         <v>127178.88</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="14">
         <v>1.28</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="4">
+      <c r="A292" s="13">
         <v>43868</v>
       </c>
       <c r="B292" s="1">
         <v>127152.46</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="14">
         <v>-0.02</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="4">
+      <c r="A293" s="13">
         <v>43871</v>
       </c>
       <c r="B293" s="1">
         <v>128036.77</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="14">
         <v>0.7</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="4">
+      <c r="A294" s="13">
         <v>43872</v>
       </c>
       <c r="B294" s="1">
         <v>129153.16</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="14">
         <v>0.87</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="4">
+      <c r="A295" s="13">
         <v>43873</v>
       </c>
       <c r="B295" s="1">
         <v>128255.12</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="14">
         <v>-0.7</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="4">
+      <c r="A296" s="13">
         <v>43874</v>
       </c>
       <c r="B296" s="1">
         <v>126449.34</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="14">
         <v>-1.41</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="4">
+      <c r="A297" s="13">
         <v>43875</v>
       </c>
       <c r="B297" s="1">
         <v>123888.89</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="14">
         <v>-2.02</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="4">
+      <c r="A298" s="13">
         <v>43878</v>
       </c>
       <c r="B298" s="1">
         <v>127325.07</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="14">
         <v>2.77</v>
       </c>
-      <c r="G298" s="8"/>
+      <c r="G298" s="7"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="4">
+      <c r="A299" s="13">
         <v>43879</v>
       </c>
       <c r="B299" s="1">
         <v>124524.61</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="14">
         <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="4">
+      <c r="A300" s="13">
         <v>43880</v>
       </c>
       <c r="B300" s="1">
         <v>121804.44</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="14">
         <v>-2.1800000000000002</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="4">
+      <c r="A301" s="13">
         <v>43881</v>
       </c>
       <c r="B301" s="1">
         <v>118910.82</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="14">
         <v>-2.38</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="4">
+      <c r="A302" s="13">
         <v>43882</v>
       </c>
       <c r="B302" s="1">
         <v>118337.43</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="14">
         <v>-0.48</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="4">
+      <c r="A303" s="13">
         <v>43887</v>
       </c>
       <c r="B303" s="1">
         <v>111216.76</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="14">
         <v>-6.02</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="4">
+      <c r="A304" s="13">
         <v>43888</v>
       </c>
       <c r="B304" s="1">
         <v>108292.73</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="14">
         <v>-2.63</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="4">
+      <c r="A305" s="13">
         <v>43889</v>
       </c>
       <c r="B305" s="1">
         <v>108771.66</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="14">
         <v>0.44</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="4">
+      <c r="A306" s="13">
         <v>43892</v>
       </c>
       <c r="B306" s="1">
         <v>104721.4</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="14">
         <v>-3.7199999999999998</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="4">
+      <c r="A307" s="13">
         <v>43893</v>
       </c>
       <c r="B307" s="1">
         <v>103306.75</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="14">
         <v>-1.35</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="4">
+      <c r="A308" s="13">
         <v>43894</v>
       </c>
       <c r="B308" s="1">
         <v>104211.84</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="14">
         <v>0.88</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="4">
+      <c r="A309" s="13">
         <v>43895</v>
       </c>
       <c r="B309" s="1">
         <v>104630.66</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="4">
+      <c r="A310" s="13">
         <v>43896</v>
       </c>
       <c r="B310" s="1">
         <v>108196.83</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="14">
         <v>3.41</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="4">
+      <c r="A311" s="13">
         <v>43899</v>
       </c>
       <c r="B311" s="1">
         <v>103906.3</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="14">
         <v>-3.97</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="4">
+      <c r="A312" s="13">
         <v>43900</v>
       </c>
       <c r="B312" s="1">
         <v>104392.3</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="14">
         <v>0.47</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="4">
+      <c r="A313" s="13">
         <v>43901</v>
       </c>
       <c r="B313" s="1">
         <v>103457.46</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="14">
         <v>-0.9</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="4">
+      <c r="A314" s="13">
         <v>43902</v>
       </c>
       <c r="B314" s="1">
         <v>105710.6</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="14">
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="4">
+      <c r="A315" s="13">
         <v>43903</v>
       </c>
       <c r="B315" s="1">
         <v>105807.64</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="14">
         <v>0.09</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="4">
+      <c r="A316" s="13">
         <v>43906</v>
       </c>
       <c r="B316" s="1">
         <v>103887.72</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="14">
         <v>-1.81</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="4">
+      <c r="A317" s="13">
         <v>43907</v>
       </c>
       <c r="B317" s="1">
         <v>104070.67</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="14">
         <v>0.18</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="4">
+      <c r="A318" s="13">
         <v>43908</v>
       </c>
       <c r="B318" s="1">
         <v>101251.93</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="14">
         <v>-2.71</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="4">
+      <c r="A319" s="13">
         <v>43910</v>
       </c>
       <c r="B319" s="1">
         <v>98326.88</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="14">
         <v>-2.89</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="4">
+      <c r="A320" s="13">
         <v>43913</v>
       </c>
       <c r="B320" s="1">
         <v>92347.48</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="14">
         <v>-6.08</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="4">
+      <c r="A321" s="13">
         <v>43914</v>
       </c>
       <c r="B321" s="1">
         <v>90145.86</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="14">
         <v>-2.38</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="4">
+      <c r="A322" s="13">
         <v>43915</v>
       </c>
       <c r="B322" s="1">
         <v>89857.35</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="14">
         <v>-0.32</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="4">
+      <c r="A323" s="13">
         <v>43916</v>
       </c>
       <c r="B323" s="1">
         <v>88548.06</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="14">
         <v>-1.46</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="4">
+      <c r="A324" s="13">
         <v>43917</v>
       </c>
       <c r="B324" s="1">
         <v>88643.18</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="14">
         <v>0.11</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="4">
+      <c r="A325" s="13">
         <v>43920</v>
       </c>
       <c r="B325" s="1">
         <v>101194.94</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="14">
         <v>14.16</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="4">
+      <c r="A326" s="13">
         <v>43921</v>
       </c>
       <c r="B326" s="1">
         <v>181346.41</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="14">
         <v>4.2</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="4">
+      <c r="A327" s="13">
         <v>43922</v>
       </c>
       <c r="B327" s="1">
         <v>117920.12</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="14">
         <v>11.65</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="4">
+      <c r="A328" s="13">
         <v>43923</v>
       </c>
       <c r="B328" s="1">
         <v>127331.47</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="14">
         <v>7.98</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="4">
+      <c r="A329" s="13">
         <v>43924</v>
       </c>
       <c r="B329" s="1">
         <v>133086.45000000001</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="14">
         <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="4">
+      <c r="A330" s="13">
         <v>43927</v>
       </c>
       <c r="B330" s="1">
         <v>150484.88</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="14">
         <v>13.7</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="4">
+      <c r="A331" s="13">
         <v>43928</v>
       </c>
       <c r="B331" s="1">
         <v>164354.42000000001</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="14">
         <v>9.2200000000000006</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="4">
+      <c r="A332" s="13">
         <v>43929</v>
       </c>
       <c r="B332" s="1">
         <v>191984.67</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="14">
         <v>16.809999999999999</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="4">
+      <c r="A333" s="13">
         <v>43934</v>
       </c>
       <c r="B333" s="1">
         <v>227597.09</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="14">
         <v>18.55</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="4">
+      <c r="A334" s="13">
         <v>43935</v>
       </c>
       <c r="B334" s="1">
         <v>249098.83</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="14">
         <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="4">
+      <c r="A335" s="13">
         <v>43936</v>
       </c>
       <c r="B335" s="1">
         <v>248509.91</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="14">
         <v>-0.24</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="4">
+      <c r="A336" s="13">
         <v>43937</v>
       </c>
       <c r="B336" s="1">
         <v>241894.17</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="14">
         <v>-2.66</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="4">
+      <c r="A337" s="13">
         <v>43938</v>
       </c>
       <c r="B337" s="1">
         <v>230742.89</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="14">
         <v>-4.6100000000000003</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="4">
+      <c r="A338" s="13">
         <v>43941</v>
       </c>
       <c r="B338" s="1">
         <v>247935.91</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="14">
         <v>7.45</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="4">
+      <c r="A339" s="13">
         <v>43942</v>
       </c>
       <c r="B339" s="1">
         <v>255322.23</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="14">
         <v>2.98</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="4">
+      <c r="A340" s="13">
         <v>43943</v>
       </c>
       <c r="B340" s="1">
         <v>274761.78000000003</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="14">
         <v>7.61</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="4">
+      <c r="A341" s="13">
         <v>43944</v>
       </c>
       <c r="B341" s="1">
         <v>293792.44</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="14">
         <v>6.93</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="4">
+      <c r="A342" s="13">
         <v>43945</v>
       </c>
       <c r="B342" s="1">
         <v>286273.03000000003</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="14">
         <v>-2.56</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="4">
+      <c r="A343" s="13">
         <v>43948</v>
       </c>
       <c r="B343" s="1">
         <v>282383.09000000003</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="14">
         <v>-1.36</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="4">
+      <c r="A344" s="13">
         <v>43949</v>
       </c>
       <c r="B344" s="1">
         <v>279952.12</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="14">
         <v>-0.86</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="4">
+      <c r="A345" s="13">
         <v>43950</v>
       </c>
       <c r="B345" s="1">
         <v>284439.19</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="14">
         <v>1.6</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="4">
+      <c r="A346" s="13">
         <v>43951</v>
       </c>
       <c r="B346" s="1">
         <v>289324.75</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="14">
         <v>1.72</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="4">
+      <c r="A347" s="13">
         <v>43955</v>
       </c>
       <c r="B347" s="1">
         <v>297137.44</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="14">
         <v>2.7</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="4">
+      <c r="A348" s="13">
         <v>43956</v>
       </c>
       <c r="B348" s="1">
         <v>303715.69</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="14">
         <v>2.21</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="4">
+      <c r="A349" s="13">
         <v>43957</v>
       </c>
       <c r="B349" s="1">
         <v>309885.15999999997</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="14">
         <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="4">
+      <c r="A350" s="13">
         <v>43958</v>
       </c>
       <c r="B350" s="1">
         <v>316485.06</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="14">
         <v>2.13</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="4">
+      <c r="A351" s="13">
         <v>43959</v>
       </c>
       <c r="B351" s="1">
         <v>327382.90999999997</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="14">
         <v>3.44</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="4">
+      <c r="A352" s="13">
         <v>43962</v>
       </c>
       <c r="B352" s="1">
         <v>326819.12</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="14">
         <v>-0.17</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="4">
+      <c r="A353" s="13">
         <v>43963</v>
       </c>
       <c r="B353" s="1">
         <v>324304.78000000003</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="14">
         <v>-0.77</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="4">
+      <c r="A354" s="13">
         <v>43964</v>
       </c>
       <c r="B354" s="1">
         <v>312238.59000000003</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="14">
         <v>-3.72</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="4">
+      <c r="A355" s="13">
         <v>43965</v>
       </c>
       <c r="B355" s="1">
         <v>288638.25</v>
       </c>
-      <c r="C355" s="11">
+      <c r="C355" s="16">
         <v>-7.56</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="4">
+      <c r="A356" s="13">
         <v>43966</v>
       </c>
       <c r="B356" s="1">
         <v>293502.88</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="14">
         <v>1.69</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="4">
+      <c r="A357" s="13">
         <v>43969</v>
       </c>
       <c r="B357" s="1">
         <v>295525.06</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="14">
         <v>0.69</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="4">
+      <c r="A358" s="13">
         <v>43970</v>
       </c>
       <c r="B358" s="1">
         <v>298249.65999999997</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="14">
         <v>0.92</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="4">
+      <c r="A359" s="13">
         <v>43971</v>
       </c>
       <c r="B359" s="1">
         <v>300028.75</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="4">
+      <c r="A360" s="13">
         <v>43972</v>
       </c>
       <c r="B360" s="1">
         <v>297625.84000000003</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="14">
         <v>-0.8</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="4">
+      <c r="A361" s="13">
         <v>43973</v>
       </c>
       <c r="B361" s="1">
         <v>306374.12</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="14">
         <v>2.94</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="4">
+      <c r="A362" s="13">
         <v>43977</v>
       </c>
-      <c r="B362" s="12">
+      <c r="B362" s="17">
         <v>297063.81</v>
       </c>
-      <c r="C362" s="13">
+      <c r="C362" s="14">
         <v>-3.04E-2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="4">
+      <c r="A363" s="13">
         <v>43978</v>
       </c>
-      <c r="B363" s="12">
+      <c r="B363" s="17">
         <v>303685.34000000003</v>
       </c>
-      <c r="C363" s="13">
+      <c r="C363" s="14">
         <v>2.23E-2</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="4">
+      <c r="A364" s="13">
         <v>43979</v>
       </c>
-      <c r="B364" s="12">
+      <c r="B364" s="17">
         <v>323765.90999999997</v>
       </c>
-      <c r="C364" s="13">
+      <c r="C364" s="14">
         <v>6.6100000000000006E-2</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="4">
+      <c r="A365" s="13">
         <v>43980</v>
       </c>
-      <c r="B365" s="12">
+      <c r="B365" s="17">
         <v>324240</v>
       </c>
-      <c r="C365" s="13">
+      <c r="C365" s="14">
         <v>1.5E-3</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="4">
+      <c r="A366" s="13">
         <v>43983</v>
       </c>
-      <c r="B366" s="12">
+      <c r="B366" s="17">
         <v>330021.69</v>
       </c>
-      <c r="C366" s="13">
+      <c r="C366" s="14">
         <v>1.78E-2</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="4">
+      <c r="A367" s="13">
         <v>43984</v>
       </c>
-      <c r="B367" s="12">
+      <c r="B367" s="17">
         <v>343088.66</v>
       </c>
-      <c r="C367" s="13">
+      <c r="C367" s="14">
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="4">
+      <c r="A368" s="13">
         <v>43985</v>
       </c>
-      <c r="B368" s="12">
+      <c r="B368" s="17">
         <v>346890.28</v>
       </c>
-      <c r="C368" s="13">
+      <c r="C368" s="14">
         <v>1.11E-2</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="4">
+      <c r="A369" s="13">
         <v>43986</v>
       </c>
       <c r="B369" s="1">
         <v>346862.03</v>
       </c>
-      <c r="C369" s="13">
+      <c r="C369" s="14">
         <v>-0.01</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="4">
+      <c r="A370" s="13">
         <v>43987</v>
       </c>
       <c r="B370" s="1">
         <v>344397.62</v>
       </c>
-      <c r="C370" s="13">
+      <c r="C370" s="14">
         <v>-0.71</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="4">
+      <c r="A371" s="13">
         <v>43990</v>
       </c>
       <c r="B371" s="1">
         <v>337855.94</v>
       </c>
-      <c r="C371" s="13">
+      <c r="C371" s="14">
         <v>-1.9</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="4">
+      <c r="A372" s="13">
         <v>43991</v>
       </c>
       <c r="B372" s="1">
         <v>332013.12</v>
       </c>
-      <c r="C372" s="13">
+      <c r="C372" s="14">
         <v>-1.73</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="4">
+      <c r="A373" s="13">
         <v>43992</v>
       </c>
       <c r="B373" s="1">
         <v>329633.12</v>
       </c>
-      <c r="C373" s="13">
+      <c r="C373" s="14">
         <v>-0.72</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="4">
+      <c r="A374" s="13">
         <v>43993</v>
       </c>
       <c r="B374" s="1">
         <v>328490.09000000003</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="14">
         <v>-0.35</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="4">
+      <c r="A375" s="13">
         <v>43994</v>
       </c>
       <c r="B375" s="1">
         <v>330454.56</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="4">
+      <c r="A376" s="13">
         <v>43998</v>
       </c>
       <c r="B376" s="1">
         <v>325844.53000000003</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="14">
         <v>1.4</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="4">
+      <c r="A377" s="13">
         <v>43999</v>
       </c>
       <c r="B377" s="1">
         <v>322375.84000000003</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="14">
         <v>-1.06</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="4">
+      <c r="A378" s="13">
         <v>44000</v>
       </c>
       <c r="B378" s="1">
         <v>323282.31</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="14">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="4">
+      <c r="A379" s="13">
         <v>44001</v>
       </c>
       <c r="B379" s="1">
         <v>321308.34000000003</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="14">
         <v>-0.61</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="4">
+      <c r="A380" s="13">
         <v>44004</v>
       </c>
       <c r="B380" s="1">
         <v>320724.19</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="14">
         <v>-0.18</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="4">
+      <c r="A381" s="13">
         <v>44005</v>
       </c>
       <c r="B381" s="1">
         <v>325185.46999999997</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="14">
         <v>1.39</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="4">
+      <c r="A382" s="13">
         <v>44007</v>
       </c>
       <c r="B382" s="1">
         <v>312097.40000000002</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="14">
         <v>-4.0199999999999996</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="4">
+      <c r="A383" s="13">
         <v>44012</v>
       </c>
       <c r="B383" s="1">
         <v>321057.81</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="14">
         <v>1.87</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="4">
+      <c r="A384" s="13">
         <v>44013</v>
       </c>
       <c r="B384" s="1">
         <v>317726</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="14">
         <v>-1.04</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="4">
+      <c r="A385" s="13">
         <v>44014</v>
       </c>
       <c r="B385" s="1">
         <v>313413.25</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="14">
         <v>-1.36</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="4">
+      <c r="A386" s="13">
         <v>44015</v>
       </c>
       <c r="B386" s="1">
         <v>301778.38</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="14">
         <v>-3.71</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="4">
+      <c r="A387" s="13">
         <v>44018</v>
       </c>
       <c r="B387" s="1">
         <v>305579.15999999997</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="14">
         <v>1.26</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="4">
+      <c r="A388" s="13">
         <v>44019</v>
       </c>
       <c r="B388" s="1">
         <v>333876.53000000003</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="14">
         <v>9.26</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="4">
+      <c r="A389" s="13">
         <v>44020</v>
       </c>
       <c r="B389" s="1">
         <v>328014.44</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="14">
         <v>-1.76</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="4">
+      <c r="A390" s="13">
         <v>44021</v>
       </c>
       <c r="B390" s="1">
         <v>323604.71999999997</v>
       </c>
-      <c r="C390" s="11">
+      <c r="C390" s="16">
         <v>-1.1339999999999999</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="4">
+      <c r="A391" s="13">
         <v>44022</v>
       </c>
       <c r="B391" s="1">
         <v>333994.31</v>
       </c>
-      <c r="C391" s="11">
+      <c r="C391" s="16">
         <v>3.21</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="4">
+      <c r="A392" s="13">
         <v>44025</v>
       </c>
       <c r="B392" s="1">
         <v>320322.59000000003</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="14">
         <v>-4.09</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="4">
+      <c r="A393" s="13">
         <v>44026</v>
       </c>
       <c r="B393" s="1">
         <v>316887.5</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="14">
         <v>-1.07</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="4">
+      <c r="A394" s="13">
         <v>44027</v>
       </c>
       <c r="B394" s="1">
         <v>316864.88</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="14">
         <v>-0.01</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="4">
+      <c r="A395" s="13">
         <v>44028</v>
       </c>
       <c r="B395" s="1">
         <v>317448.84000000003</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="14">
         <v>0.18</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="4">
+      <c r="A396" s="13">
         <v>44029</v>
       </c>
       <c r="B396" s="1">
         <v>319082.25</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="14">
         <v>0.51</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="4">
+      <c r="A397" s="13">
         <v>44032</v>
       </c>
       <c r="B397" s="1">
         <v>324307.34000000003</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="14">
         <v>1.64</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="4">
+      <c r="A398" s="13">
         <v>44033</v>
       </c>
       <c r="B398" s="1">
         <v>326973.15999999997</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="14">
         <v>0.82</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="4">
+      <c r="A399" s="13">
         <v>44034</v>
       </c>
       <c r="B399" s="1">
         <v>335868.47</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="14">
         <v>2.72</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="4">
+      <c r="A400" s="13">
         <v>44035</v>
       </c>
       <c r="B400" s="1">
         <v>352332.44</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="14">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="4">
+      <c r="A401" s="13">
         <v>44039</v>
       </c>
       <c r="B401" s="1">
         <v>350557.12</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="14">
         <v>-0.5</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="4">
+      <c r="A402" s="13">
         <v>44040</v>
       </c>
       <c r="B402" s="1">
         <v>351751.44</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="14">
         <v>0.34</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="4">
+      <c r="A403" s="13">
         <v>44041</v>
       </c>
       <c r="B403" s="1">
         <v>353319.28</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="14">
         <v>0.45</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="4">
+      <c r="A404" s="13">
         <v>44042</v>
       </c>
       <c r="B404" s="1">
         <v>363143.91</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="14">
         <v>2.78</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="4">
+      <c r="A405" s="13">
         <v>44043</v>
       </c>
       <c r="B405" s="1">
         <v>374208.25</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="14">
         <v>3.05</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="4">
+      <c r="A406" s="13">
         <v>44046</v>
       </c>
       <c r="B406" s="1">
         <v>386805.69</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="14">
         <v>3.37</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="4">
+      <c r="A407" s="13">
         <v>44047</v>
       </c>
       <c r="B407" s="1">
         <v>399219.75</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="14">
         <v>3.21</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="4">
+      <c r="A408" s="13">
         <v>44048</v>
       </c>
       <c r="B408" s="1">
         <v>406865.03</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="14">
         <v>1.92</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="4">
+      <c r="A409" s="13">
         <v>44049</v>
       </c>
       <c r="B409" s="1">
         <v>418496.28</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="14">
         <v>2.86</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="4">
+      <c r="A410" s="13">
         <v>44050</v>
       </c>
       <c r="B410" s="1">
         <v>466698.66</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="14">
         <v>11.52</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="4">
+      <c r="A411" s="13">
         <v>44053</v>
       </c>
       <c r="B411" s="1">
         <v>479024.22</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="14">
         <v>2.64</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="4">
+      <c r="A412" s="13">
         <v>44054</v>
       </c>
       <c r="B412" s="1">
         <v>450683.81</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="14">
         <v>-5.92</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="4">
+      <c r="A413" s="13">
         <v>44055</v>
       </c>
       <c r="B413" s="1">
         <v>463802.47</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="14">
         <v>2.91</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="4">
+      <c r="A414" s="13">
         <v>44056</v>
       </c>
       <c r="B414" s="1">
         <v>491593.56</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="14">
         <v>5.99</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="4">
+      <c r="A415" s="13">
         <v>44057</v>
       </c>
       <c r="B415" s="1">
         <v>497343.88</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="14">
         <v>1.17</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="4">
+      <c r="A416" s="13">
         <v>44060</v>
       </c>
       <c r="B416" s="1">
         <v>487795.19</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="14">
         <v>-1.92</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="4">
+      <c r="A417" s="13">
         <v>44061</v>
       </c>
       <c r="B417" s="1">
         <v>486442.09</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="14">
         <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="4">
+      <c r="A418" s="13">
         <v>44062</v>
       </c>
       <c r="B418" s="1">
         <v>490779.88</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="14">
         <v>0.89</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="4">
+      <c r="A419" s="13">
         <v>44063</v>
       </c>
       <c r="B419" s="1">
         <v>498633.72</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="14">
         <v>1.6</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="4">
+      <c r="A420" s="13">
         <v>44064</v>
       </c>
       <c r="B420" s="1">
         <v>502578.91</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="14">
         <v>0.79</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="4">
+      <c r="A421" s="13">
         <v>44067</v>
       </c>
       <c r="B421" s="1">
         <v>508911.78</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="14">
         <v>1.26</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="4">
+      <c r="A422" s="13">
         <v>44068</v>
       </c>
       <c r="B422" s="1">
         <v>515316.41</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="14">
         <v>1.26</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="4">
+      <c r="A423" s="13">
         <v>44069</v>
       </c>
       <c r="B423" s="1">
         <v>515882.72</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="14">
         <v>0.11</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="4">
+      <c r="A424" s="13">
         <v>44070</v>
       </c>
       <c r="B424" s="1">
         <v>513620.69</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="14">
         <v>-0.44</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="4">
+      <c r="A425" s="13">
         <v>44071</v>
       </c>
       <c r="B425" s="1">
         <v>523875.56</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="4">
+      <c r="A426" s="13">
         <v>44074</v>
       </c>
-      <c r="B426" s="1">
-        <v>522587.56</v>
-      </c>
-      <c r="C426">
+      <c r="B426" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C426" s="14">
         <v>-0.25</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="4">
+      <c r="A427" s="13">
         <v>44075</v>
       </c>
-      <c r="B427" s="1">
-        <v>518570.84</v>
-      </c>
-      <c r="C427">
+      <c r="B427" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C427" s="14">
         <v>-0.77</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="4">
+      <c r="A428" s="13">
         <v>44076</v>
       </c>
-      <c r="B428" s="1">
-        <v>517866.72</v>
-      </c>
-      <c r="C428">
+      <c r="B428" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C428" s="14">
         <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="4">
+      <c r="A429" s="13">
         <v>44081</v>
       </c>
-      <c r="B429" s="14" t="s">
+      <c r="B429" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C429" s="15">
+      <c r="C429" s="10">
         <v>1E-4</v>
       </c>
       <c r="D429"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="4">
+      <c r="A430" s="13">
         <v>44082</v>
       </c>
-      <c r="B430" s="14" t="s">
+      <c r="B430" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C430" s="15">
+      <c r="C430" s="10">
         <v>-2.2000000000000001E-3</v>
       </c>
       <c r="D430"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="4">
+      <c r="A431" s="13">
         <v>44083</v>
       </c>
-      <c r="B431" s="14" t="s">
+      <c r="B431" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C431" s="15">
+      <c r="C431" s="10">
         <v>-4.7999999999999996E-3</v>
       </c>
       <c r="D431"/>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="4">
+      <c r="A432" s="13">
         <v>44084</v>
       </c>
-      <c r="B432" s="14" t="s">
+      <c r="B432" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C432" s="15">
+      <c r="C432" s="10">
         <v>-2.3E-3</v>
       </c>
       <c r="D432"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="4">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" s="13">
         <v>44085</v>
       </c>
-      <c r="B433" s="14" t="s">
+      <c r="B433" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C433" s="15">
+      <c r="C433" s="10">
         <v>-4.3E-3</v>
       </c>
       <c r="D433"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="4">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" s="13">
         <v>44089</v>
       </c>
-      <c r="B434" s="14" t="s">
+      <c r="B434" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C434" s="15">
+      <c r="C434" s="10">
         <v>-2.3300000000000001E-2</v>
       </c>
       <c r="D434"/>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="4">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" s="13">
         <v>44090</v>
       </c>
-      <c r="B435" s="14" t="s">
+      <c r="B435" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C435" s="15">
+      <c r="C435" s="10">
         <v>1.84E-2</v>
       </c>
       <c r="D435"/>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="4">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" s="13">
         <v>44091</v>
       </c>
-      <c r="B436" s="14" t="s">
+      <c r="B436" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C436" s="15">
+      <c r="C436" s="10">
         <v>-1.5E-3</v>
       </c>
       <c r="D436"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="4">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" s="13">
         <v>44092</v>
       </c>
-      <c r="B437" s="14" t="s">
+      <c r="B437" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C437" s="15">
+      <c r="C437" s="10">
         <v>-1.9E-2</v>
       </c>
       <c r="D437"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="4">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" s="13">
         <v>44095</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C438" s="15">
+      <c r="C438" s="10">
         <v>1.6E-2</v>
       </c>
       <c r="D438"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="4">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" s="13">
         <v>44096</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C439" s="15">
+      <c r="C439" s="10">
         <v>-1.9199999999999998E-2</v>
       </c>
       <c r="D439"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="4">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" s="13">
         <v>44097</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C440" s="15">
+      <c r="C440" s="10">
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="D440"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="4">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A441" s="13">
         <v>44098</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C441" s="15">
+      <c r="C441" s="10">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="D441"/>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="4">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A442" s="13">
         <v>44099</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C442" s="15">
+      <c r="C442" s="10">
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="D442"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="4">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443" s="13">
         <v>44102</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C443" s="15">
+      <c r="C443" s="10">
         <v>5.3E-3</v>
       </c>
       <c r="D443"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="4">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444" s="13">
         <v>44103</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C444" s="15">
+      <c r="C444" s="10">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D444"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="4">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445" s="13">
         <v>44104</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C445" s="15">
+      <c r="C445" s="10">
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="D445"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="4">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446" s="13">
         <v>44105</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C446" s="15">
+      <c r="C446" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D446"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="4">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447" s="13">
         <v>44106</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C447" s="15">
+      <c r="C447" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D447"/>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="4">
+      <c r="H447" s="4"/>
+      <c r="I447" s="11"/>
+      <c r="J447" s="10"/>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A448" s="13">
         <v>44109</v>
       </c>
-      <c r="B448" s="17">
-        <v>542730.56000000006</v>
-      </c>
-      <c r="C448" s="16">
+      <c r="B448" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C448" s="10">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="4">
+      <c r="H448" s="4"/>
+      <c r="I448" s="11"/>
+      <c r="J448" s="10"/>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A449" s="13">
         <v>44110</v>
       </c>
-      <c r="B449" s="17">
-        <v>546806.88</v>
-      </c>
-      <c r="C449" s="16">
+      <c r="B449" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C449" s="10">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="4">
+      <c r="H449" s="4"/>
+      <c r="I449" s="11"/>
+      <c r="J449" s="10"/>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450" s="13">
         <v>44111</v>
       </c>
-      <c r="B450" s="17">
-        <v>541102.56000000006</v>
-      </c>
-      <c r="C450" s="16">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="4">
+      <c r="B450" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C450" s="10">
+        <v>-1.04</v>
+      </c>
+      <c r="H450" s="4"/>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A451" s="13">
         <v>44112</v>
       </c>
-      <c r="B451" s="17">
-        <v>546546.56000000006</v>
-      </c>
-      <c r="C451" s="16">
+      <c r="B451" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C451" s="10">
         <v>1.02</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A452" s="13">
+        <v>44113</v>
+      </c>
+      <c r="B452" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C452" s="10">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A453" s="13">
+        <v>44117</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C453" s="10">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A454" s="13">
+        <v>44118</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C454" s="20">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A455" s="13">
+        <v>44119</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C455" s="20">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A456" s="13">
+        <v>44120</v>
+      </c>
+      <c r="B456" s="1">
+        <v>549667.5</v>
+      </c>
+      <c r="C456" s="10">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A457" s="13">
+        <v>44123</v>
+      </c>
+      <c r="B457" s="1">
+        <v>550026.75</v>
+      </c>
+      <c r="C457" s="10">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -9,124 +9,38 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7590"/>
   </bookViews>
   <sheets>
-    <sheet name="IBC" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>522,114.50</t>
-  </si>
-  <si>
-    <t>520,968.38</t>
-  </si>
-  <si>
-    <t>518,466.53</t>
-  </si>
-  <si>
-    <t>517,252.97</t>
-  </si>
-  <si>
-    <t>515,007.44</t>
-  </si>
-  <si>
-    <t>502,989.88</t>
-  </si>
-  <si>
-    <t>512,260.53</t>
-  </si>
-  <si>
-    <t>511,517.28</t>
-  </si>
-  <si>
-    <t>501,814.00</t>
-  </si>
-  <si>
-    <t>509,832.94</t>
-  </si>
-  <si>
-    <t>500,023.22</t>
-  </si>
-  <si>
-    <t>504,419.97</t>
-  </si>
-  <si>
-    <t>509,008.97</t>
-  </si>
-  <si>
-    <t>519,983.75</t>
-  </si>
-  <si>
-    <t>522,748.19</t>
-  </si>
-  <si>
-    <t>531,888.44</t>
-  </si>
-  <si>
-    <t>538,853.88</t>
-  </si>
-  <si>
-    <t>542,611.63</t>
-  </si>
-  <si>
-    <t>542,702.31</t>
+    <t>IBC</t>
   </si>
   <si>
     <t>FECHA</t>
   </si>
   <si>
-    <t>IBC</t>
-  </si>
-  <si>
     <t>VARIACION</t>
-  </si>
-  <si>
-    <t>545,353.88</t>
-  </si>
-  <si>
-    <t>542,730.56</t>
-  </si>
-  <si>
-    <t>54,806.88</t>
-  </si>
-  <si>
-    <t>541,102.56</t>
-  </si>
-  <si>
-    <t>546,546.56</t>
-  </si>
-  <si>
-    <t>556,163.50</t>
-  </si>
-  <si>
-    <t>554,087.88</t>
-  </si>
-  <si>
-    <t>551,187.06</t>
-  </si>
-  <si>
-    <t>518,570.84</t>
-  </si>
-  <si>
-    <t>517,866.72</t>
-  </si>
-  <si>
-    <t>522587.56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -271,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,12 +365,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -576,6 +484,7 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -618,84 +527,70 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Millares" xfId="42" builtinId="3"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares 2" xfId="43"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentaje" xfId="43" builtinId="5"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Salida" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -973,5090 +868,5392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M457"/>
+  <dimension ref="A1:C564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="G465" sqref="G465"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="K470" sqref="K470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="4" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="7">
         <v>43410</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>507.32</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="8">
         <v>-99.9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="7">
         <v>43411</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>539.32000000000005</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="8">
         <v>6.3100000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>43412</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>548.09</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>1.63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>43413</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>568.16999999999996</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>3.66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>43416</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>568.57000000000005</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>43417</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>577.1</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>43418</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>580.38</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="8">
         <v>0.57000000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="7">
         <v>43419</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>571.24</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="8">
         <v>-1.5699999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="7">
         <v>43420</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>569.13</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="8">
         <v>-0.37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>43423</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>551.97</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="8">
         <v>-3.02</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>43424</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>516.41</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="8">
         <v>-6.4399999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>43425</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>512.37</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="8">
         <v>-0.77999999999999992</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>43426</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>510.35</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="8">
         <v>-0.38999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="7">
         <v>43427</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>516.85</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="8">
         <v>1.27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="7">
         <v>43430</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>533</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="8">
         <v>3.1199999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="7">
         <v>43431</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>639.89</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="8">
         <v>20.05</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="7">
         <v>43432</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>700.39</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="8">
         <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="7">
         <v>43433</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>739.62</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="8">
         <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="7">
         <v>43434</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>818.18</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="8">
         <v>10.620000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="7">
         <v>43437</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>884.19</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="8">
         <v>8.07</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="7">
         <v>43438</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>854.59</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="8">
         <v>-3.35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="7">
         <v>43439</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>835.42</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="8">
         <v>-2.2399999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="7">
         <v>43440</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>822.09</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="8">
         <v>-1.6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="7">
         <v>43441</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>776.14</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="8">
         <v>-5.59</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="7">
         <v>43444</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>776.7</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="8">
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="7">
         <v>43445</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>767.46</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="8">
         <v>-1.1900000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="7">
         <v>43446</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>754.6</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="8">
         <v>-1.68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="7">
         <v>43447</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>745.22</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="8">
         <v>-1.24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="7">
         <v>43448</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>747.53</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="8">
         <v>0.31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="7">
         <v>43451</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>789.38</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="8">
         <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="7">
         <v>43452</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>805.48</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="8">
         <v>2.04</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>43453</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>822.3</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="8">
         <v>2.09</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>43454</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>818.53</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="8">
         <v>-0.45999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>43455</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>1260.17</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="8">
         <v>53.959999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>43460</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>1309.69</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="8">
         <v>3.93</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>43461</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>1426.49</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="8">
         <v>8.92</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>43462</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>1605.26</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="8">
         <v>12.53</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>43467</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>1621.11</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="8">
         <v>0.9900000000000001</v>
       </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>43468</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>1682.51</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="8">
         <v>3.7900000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>43469</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>1922.37</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="8">
         <v>14.26</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>43472</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>2367.5500000000002</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="8">
         <v>23.16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>43473</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>2623.78</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="8">
         <v>10.82</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>43474</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>2683.91</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="8">
         <v>2.29</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>43475</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>3331.68</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="8">
         <v>24.14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>43476</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>4384.79</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="8">
         <v>31.61</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>43479</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>6023.09</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="8">
         <v>37.36</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>43480</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>5972.39</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="8">
         <v>-0.84</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+      <c r="A49" s="7">
         <v>43481</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>6189.57</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="8">
         <v>3.64</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+      <c r="A50" s="7">
         <v>43482</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>5956.11</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="8">
         <v>-3.7699999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="A51" s="7">
         <v>43483</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>5836.15</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="8">
         <v>-2.0099999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+      <c r="A52" s="7">
         <v>43486</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>5700.74</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="8">
         <v>-2.3199999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="7">
         <v>43487</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>5558.23</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="8">
         <v>-2.5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+      <c r="A54" s="7">
         <v>43488</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>5734.68</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="8">
         <v>3.17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="A55" s="7">
         <v>43489</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>5827.61</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="8">
         <v>1.6199999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+      <c r="A56" s="7">
         <v>43490</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>5974.23</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="8">
         <v>2.52</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+      <c r="A57" s="7">
         <v>43493</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>6068.91</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="8">
         <v>1.58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+      <c r="A58" s="7">
         <v>43494</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>6147.36</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="8">
         <v>1.29</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
+      <c r="A59" s="7">
         <v>43495</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>5764.13</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="8">
         <v>-6.23</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="7">
         <v>43496</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>5436.77</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="8">
         <v>-5.6800000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
+      <c r="A61" s="7">
         <v>43497</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>5286.4</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="8">
         <v>-2.77</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+      <c r="A62" s="7">
         <v>43500</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>5100.2299999999996</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="8">
         <v>-3.52</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
+      <c r="A63" s="7">
         <v>43501</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>5580.27</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="8">
         <v>9.41</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="A64" s="7">
         <v>43502</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>5566.58</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="8">
         <v>-0.25</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+      <c r="A65" s="7">
         <v>43503</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>5699.8</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="8">
         <v>2.39</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+      <c r="A66" s="7">
         <v>43504</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>5525.24</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="8">
         <v>-3.06</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+      <c r="A67" s="7">
         <v>43507</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>5117.34</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="8">
         <v>-7.3800000000000008</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+      <c r="A68" s="7">
         <v>43508</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>4998.63</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="8">
         <v>-2.3199999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+      <c r="A69" s="7">
         <v>43509</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>4812.96</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="8">
         <v>-3.71</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+      <c r="A70" s="7">
         <v>43510</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>4640.24</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="8">
         <v>-3.5900000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+      <c r="A71" s="7">
         <v>43511</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>5056.92</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="8">
         <v>8.98</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+      <c r="A72" s="7">
         <v>43514</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>5055.88</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="8">
         <v>-0.02</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+      <c r="A73" s="7">
         <v>43515</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>5232.46</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="8">
         <v>3.49</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+      <c r="A74" s="7">
         <v>43516</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>5314.51</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="8">
         <v>1.5699999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+      <c r="A75" s="7">
         <v>43517</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>5596.29</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="8">
         <v>5.3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+      <c r="A76" s="7">
         <v>43518</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>6966.75</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="8">
         <v>24.490000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+      <c r="A77" s="7">
         <v>43521</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>7839.1</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="8">
         <v>12.520000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+      <c r="A78" s="7">
         <v>43522</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>9085.4</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="8">
         <v>15.9</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
+      <c r="A79" s="7">
         <v>43523</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>10516.31</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="8">
         <v>15.75</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+      <c r="A80" s="7">
         <v>43524</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>10516.31</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+      <c r="A81" s="7">
         <v>43530</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>10104.290000000001</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="8">
         <v>-3.92</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
+      <c r="A82" s="7">
         <v>43531</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>9837.64</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C82" s="8">
         <v>-2.64</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
+      <c r="A83" s="7">
         <v>43538</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>8194.59</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="8">
         <v>-16.7</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+      <c r="A84" s="7">
         <v>43539</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>8582.1299999999992</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C84" s="8">
         <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+      <c r="A85" s="7">
         <v>43542</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>8873.44</v>
       </c>
-      <c r="C85" s="14">
+      <c r="C85" s="8">
         <v>3.39</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+      <c r="A86" s="7">
         <v>43544</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>9394.7999999999993</v>
       </c>
-      <c r="C86" s="14">
+      <c r="C86" s="8">
         <v>5.88</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
+      <c r="A87" s="7">
         <v>43545</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>9512.15</v>
       </c>
-      <c r="C87" s="14">
+      <c r="C87" s="8">
         <v>1.25</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+      <c r="A88" s="7">
         <v>43546</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>9487.81</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="8">
         <v>-0.26</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
+      <c r="A89" s="7">
         <v>43549</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>8961.15</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C89" s="8">
         <v>-5.55</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
+      <c r="A90" s="7">
         <v>43553</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>8567.89</v>
       </c>
-      <c r="C90" s="14">
+      <c r="C90" s="8">
         <v>-4.3900000000000006</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
+      <c r="A91" s="7">
         <v>43556</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <v>8249.07</v>
       </c>
-      <c r="C91" s="14">
+      <c r="C91" s="8">
         <v>-3.7199999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
+      <c r="A92" s="7">
         <v>43557</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>8425.19</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C92" s="8">
         <v>2.1399999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
+      <c r="A93" s="7">
         <v>43558</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>8554.7800000000007</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="8">
         <v>1.54</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
+      <c r="A94" s="7">
         <v>43559</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>8597.59</v>
       </c>
-      <c r="C94" s="14">
+      <c r="C94" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
+      <c r="A95" s="7">
         <v>43560</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <v>8833.81</v>
       </c>
-      <c r="C95" s="14">
+      <c r="C95" s="8">
         <v>2.75</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
+      <c r="A96" s="7">
         <v>43563</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>8683.9599999999991</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C96" s="8">
         <v>-1.7000000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
+      <c r="A97" s="7">
         <v>43564</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>8494.06</v>
       </c>
-      <c r="C97" s="14">
+      <c r="C97" s="8">
         <v>-2.19</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
+      <c r="A98" s="7">
         <v>43565</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>8667.34</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="8">
         <v>2.04</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
+      <c r="A99" s="7">
         <v>43566</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <v>9257.7000000000007</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="8">
         <v>6.81</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
+      <c r="A100" s="7">
         <v>43567</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <v>10318.790000000001</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="8">
         <v>11.459999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
+      <c r="A101" s="7">
         <v>43577</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <v>11816.82</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="8">
         <v>14.52</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
+      <c r="A102" s="7">
         <v>43578</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <v>14674</v>
       </c>
-      <c r="C102" s="14">
+      <c r="C102" s="8">
         <v>24.18</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="13">
+      <c r="A103" s="7">
         <v>43579</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <v>14788.11</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="8">
         <v>0.77999999999999992</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
+      <c r="A104" s="7">
         <v>43580</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <v>15089.31</v>
       </c>
-      <c r="C104" s="14">
+      <c r="C104" s="8">
         <v>2.04</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
+      <c r="A105" s="7">
         <v>43581</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <v>17070.18</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="8">
         <v>13.13</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="13">
+      <c r="A106" s="7">
         <v>43584</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <v>17775.650000000001</v>
       </c>
-      <c r="C106" s="14">
+      <c r="C106" s="8">
         <v>4.1300000000000008</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="13">
+      <c r="A107" s="7">
         <v>43587</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>16942.11</v>
       </c>
-      <c r="C107" s="14">
+      <c r="C107" s="8">
         <v>-4.6899999999999995</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="13">
+      <c r="A108" s="7">
         <v>43588</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <v>16640.990000000002</v>
       </c>
-      <c r="C108" s="14">
+      <c r="C108" s="8">
         <v>-1.78</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="13">
+      <c r="A109" s="7">
         <v>43591</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <v>15125.7</v>
       </c>
-      <c r="C109" s="14">
+      <c r="C109" s="8">
         <v>-9.11</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="13">
+      <c r="A110" s="7">
         <v>43592</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <v>14093.18</v>
       </c>
-      <c r="C110" s="14">
+      <c r="C110" s="8">
         <v>-6.83</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="13">
+      <c r="A111" s="7">
         <v>43593</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <v>15277.27</v>
       </c>
-      <c r="C111" s="14">
+      <c r="C111" s="8">
         <v>8.4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="13">
+      <c r="A112" s="7">
         <v>43594</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <v>15811.14</v>
       </c>
-      <c r="C112" s="14">
+      <c r="C112" s="8">
         <v>3.49</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="13">
+      <c r="A113" s="7">
         <v>43595</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <v>16553.72</v>
       </c>
-      <c r="C113" s="14">
+      <c r="C113" s="8">
         <v>4.7</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="13">
+      <c r="A114" s="7">
         <v>43598</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <v>16148.36</v>
       </c>
-      <c r="C114" s="14">
+      <c r="C114" s="8">
         <v>-2.4500000000000002</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="13">
+      <c r="A115" s="7">
         <v>43599</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <v>16114.27</v>
       </c>
-      <c r="C115" s="14">
+      <c r="C115" s="8">
         <v>-0.21</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="13">
+      <c r="A116" s="7">
         <v>43600</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <v>15976.95</v>
       </c>
-      <c r="C116" s="14">
+      <c r="C116" s="8">
         <v>-0.85000000000000009</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="13">
+      <c r="A117" s="7">
         <v>43601</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="2">
         <v>16214.23</v>
       </c>
-      <c r="C117" s="14">
+      <c r="C117" s="8">
         <v>1.49</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="13">
+      <c r="A118" s="7">
         <v>43602</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="2">
         <v>16473.650000000001</v>
       </c>
-      <c r="C118" s="14">
+      <c r="C118" s="8">
         <v>1.6</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="13">
+      <c r="A119" s="7">
         <v>43605</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="2">
         <v>17076.939999999999</v>
       </c>
-      <c r="C119" s="14">
+      <c r="C119" s="8">
         <v>3.66</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="13">
+      <c r="A120" s="7">
         <v>43606</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="2">
         <v>16465.62</v>
       </c>
-      <c r="C120" s="14">
+      <c r="C120" s="8">
         <v>-3.58</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="13">
+      <c r="A121" s="7">
         <v>43607</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <v>15737.45</v>
       </c>
-      <c r="C121" s="14">
+      <c r="C121" s="8">
         <v>-4.42</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="13">
+      <c r="A122" s="7">
         <v>43608</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <v>15541.71</v>
       </c>
-      <c r="C122" s="14">
+      <c r="C122" s="8">
         <v>-1.24</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="13">
+      <c r="A123" s="7">
         <v>43609</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <v>15665.22</v>
       </c>
-      <c r="C123" s="14">
+      <c r="C123" s="8">
         <v>0.79</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="13">
+      <c r="A124" s="7">
         <v>43612</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <v>15753.54</v>
       </c>
-      <c r="C124" s="14">
+      <c r="C124" s="8">
         <v>0.55999999999999994</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="13">
+      <c r="A125" s="7">
         <v>43613</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="2">
         <v>15730.88</v>
       </c>
-      <c r="C125" s="14">
+      <c r="C125" s="8">
         <v>-0.13999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="13">
+      <c r="A126" s="7">
         <v>43614</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="2">
         <v>15842.46</v>
       </c>
-      <c r="C126" s="14">
+      <c r="C126" s="8">
         <v>0.71000000000000008</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="13">
+      <c r="A127" s="7">
         <v>43615</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="2">
         <v>15995.55</v>
       </c>
-      <c r="C127" s="14">
+      <c r="C127" s="8">
         <v>0.97</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="13">
+      <c r="A128" s="7">
         <v>43616</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="2">
         <v>15791.62</v>
       </c>
-      <c r="C128" s="14">
+      <c r="C128" s="8">
         <v>-1.27</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="13">
+      <c r="A129" s="7">
         <v>43620</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="2">
         <v>15581.13</v>
       </c>
-      <c r="C129" s="14">
+      <c r="C129" s="8">
         <v>-1.3299999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="13">
+      <c r="A130" s="7">
         <v>43621</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="2">
         <v>14938.76</v>
       </c>
-      <c r="C130" s="14">
+      <c r="C130" s="8">
         <v>-4.12</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="13">
+      <c r="A131" s="7">
         <v>43622</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="2">
         <v>14491.76</v>
       </c>
-      <c r="C131" s="14">
+      <c r="C131" s="8">
         <v>-2.9899999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="13">
+      <c r="A132" s="7">
         <v>43623</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="2">
         <v>14162.87</v>
       </c>
-      <c r="C132" s="14">
+      <c r="C132" s="8">
         <v>-2.27</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="13">
+      <c r="A133" s="7">
         <v>43626</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="2">
         <v>13571.37</v>
       </c>
-      <c r="C133" s="14">
+      <c r="C133" s="8">
         <v>-4.18</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="13">
+      <c r="A134" s="7">
         <v>43627</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="2">
         <v>13397.89</v>
       </c>
-      <c r="C134" s="14">
+      <c r="C134" s="8">
         <v>-1.28</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="13">
+      <c r="A135" s="7">
         <v>43628</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="2">
         <v>13746.42</v>
       </c>
-      <c r="C135" s="14">
+      <c r="C135" s="8">
         <v>2.6</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="13">
+      <c r="A136" s="7">
         <v>43629</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="2">
         <v>14486.28</v>
       </c>
-      <c r="C136" s="14">
+      <c r="C136" s="8">
         <v>5.38</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="13">
+      <c r="A137" s="7">
         <v>43630</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="2">
         <v>15250.96</v>
       </c>
-      <c r="C137" s="14">
+      <c r="C137" s="8">
         <v>5.28</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="13">
+      <c r="A138" s="7">
         <v>43634</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="2">
         <v>15304.96</v>
       </c>
-      <c r="C138" s="14">
+      <c r="C138" s="8">
         <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="13">
+      <c r="A139" s="7">
         <v>43635</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="2">
         <v>15547.91</v>
       </c>
-      <c r="C139" s="14">
+      <c r="C139" s="8">
         <v>1.59</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="13">
+      <c r="A140" s="7">
         <v>43636</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="2">
         <v>15704.22</v>
       </c>
-      <c r="C140" s="14">
+      <c r="C140" s="8">
         <v>1.01</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="13">
+      <c r="A141" s="7">
         <v>43637</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="2">
         <v>16072.07</v>
       </c>
-      <c r="C141" s="14">
+      <c r="C141" s="8">
         <v>2.34</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="13">
+      <c r="A142" s="7">
         <v>43641</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="2">
         <v>16311.48</v>
       </c>
-      <c r="C142" s="14">
+      <c r="C142" s="8">
         <v>1.49</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="13">
+      <c r="A143" s="7">
         <v>43642</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="2">
         <v>16630.39</v>
       </c>
-      <c r="C143" s="14">
+      <c r="C143" s="8">
         <v>1.96</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="13">
+      <c r="A144" s="7">
         <v>43643</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="2">
         <v>17296.87</v>
       </c>
-      <c r="C144" s="14">
+      <c r="C144" s="8">
         <v>4.01</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="13">
+      <c r="A145" s="7">
         <v>43644</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="2">
         <v>18453.849999999999</v>
       </c>
-      <c r="C145" s="14">
+      <c r="C145" s="8">
         <v>6.69</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="13">
+      <c r="A146" s="7">
         <v>43647</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="2">
         <v>18614.330000000002</v>
       </c>
-      <c r="C146" s="14">
+      <c r="C146" s="8">
         <v>0.86999999999999988</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="13">
+      <c r="A147" s="7">
         <v>43648</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="2">
         <v>18349.7</v>
       </c>
-      <c r="C147" s="14">
+      <c r="C147" s="8">
         <v>-1.4200000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="13">
+      <c r="A148" s="7">
         <v>43649</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="2">
         <v>19077.12</v>
       </c>
-      <c r="C148" s="14">
+      <c r="C148" s="8">
         <v>3.9600000000000004</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="13">
+      <c r="A149" s="7">
         <v>43650</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="2">
         <v>19086.849999999999</v>
       </c>
-      <c r="C149" s="14">
+      <c r="C149" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="13">
+      <c r="A150" s="7">
         <v>43654</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="2">
         <v>19190.189999999999</v>
       </c>
-      <c r="C150" s="14">
+      <c r="C150" s="8">
         <v>0.54</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="13">
+      <c r="A151" s="7">
         <v>43655</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="2">
         <v>19516.099999999999</v>
       </c>
-      <c r="C151" s="14">
+      <c r="C151" s="8">
         <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="13">
+      <c r="A152" s="7">
         <v>43656</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="2">
         <v>19513.84</v>
       </c>
-      <c r="C152" s="14">
+      <c r="C152" s="8">
         <v>-0.01</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="13">
+      <c r="A153" s="7">
         <v>43657</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="2">
         <v>19976.560000000001</v>
       </c>
-      <c r="C153" s="14">
+      <c r="C153" s="8">
         <v>2.37</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="13">
+      <c r="A154" s="7">
         <v>43658</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="2">
         <v>20300.759999999998</v>
       </c>
-      <c r="C154" s="14">
+      <c r="C154" s="8">
         <v>1.6199999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="13">
+      <c r="A155" s="7">
         <v>43661</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="2">
         <v>20625.669999999998</v>
       </c>
-      <c r="C155" s="14">
+      <c r="C155" s="8">
         <v>1.6</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="13">
+      <c r="A156" s="7">
         <v>43662</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="2">
         <v>21859.15</v>
       </c>
-      <c r="C156" s="14">
+      <c r="C156" s="8">
         <v>5.9799999999999995</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="13">
+      <c r="A157" s="7">
         <v>43663</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="2">
         <v>24200</v>
       </c>
-      <c r="C157" s="14">
+      <c r="C157" s="8">
         <v>10.71</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="13">
+      <c r="A158" s="7">
         <v>43664</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="2">
         <v>24404.82</v>
       </c>
-      <c r="C158" s="14">
+      <c r="C158" s="8">
         <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="13">
+      <c r="A159" s="7">
         <v>43665</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="2">
         <v>24235.119999999999</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C159" s="8">
         <v>-0.70000000000000007</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="13">
+      <c r="A160" s="7">
         <v>43668</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="2">
         <v>24857.84</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="8">
         <v>2.5700000000000003</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="13">
+      <c r="A161" s="7">
         <v>43671</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="2">
         <v>24836.959999999999</v>
       </c>
-      <c r="C161" s="14">
+      <c r="C161" s="8">
         <v>-0.08</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="13">
+      <c r="A162" s="7">
         <v>43672</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="2">
         <v>25020.45</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="8">
         <v>0.74</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="13">
+      <c r="A163" s="7">
         <v>43675</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="2">
         <v>24919.52</v>
       </c>
-      <c r="C163" s="14">
+      <c r="C163" s="8">
         <v>-0.4</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="13">
+      <c r="A164" s="7">
         <v>43676</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="2">
         <v>25207.59</v>
       </c>
-      <c r="C164" s="14">
+      <c r="C164" s="8">
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="13">
+      <c r="A165" s="7">
         <v>43677</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="2">
         <v>25788.69</v>
       </c>
-      <c r="C165" s="14">
+      <c r="C165" s="8">
         <v>2.31</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="13">
+      <c r="A166" s="7">
         <v>43678</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="2">
         <v>26701.72</v>
       </c>
-      <c r="C166" s="14">
+      <c r="C166" s="8">
         <v>3.54</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="13">
+      <c r="A167" s="7">
         <v>43679</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="2">
         <v>28667.35</v>
       </c>
-      <c r="C167" s="14">
+      <c r="C167" s="8">
         <v>7.3599999999999994</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="13">
+      <c r="A168" s="7">
         <v>43682</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="2">
         <v>30443.16</v>
       </c>
-      <c r="C168" s="14">
+      <c r="C168" s="8">
         <v>6.1899999999999995</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="13">
+      <c r="A169" s="7">
         <v>43683</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="2">
         <v>35149.040000000001</v>
       </c>
-      <c r="C169" s="14">
+      <c r="C169" s="8">
         <v>15.459999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="13">
+      <c r="A170" s="7">
         <v>43684</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="2">
         <v>36682.79</v>
       </c>
-      <c r="C170" s="14">
+      <c r="C170" s="8">
         <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="13">
+      <c r="A171" s="7">
         <v>43685</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="2">
         <v>36716.949999999997</v>
       </c>
-      <c r="C171" s="14">
+      <c r="C171" s="8">
         <v>0.09</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="13">
+      <c r="A172" s="7">
         <v>43686</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="2">
         <v>40439.29</v>
       </c>
-      <c r="C172" s="14">
+      <c r="C172" s="8">
         <v>10.14</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="13">
+      <c r="A173" s="7">
         <v>43689</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="2">
         <v>41545.919999999998</v>
       </c>
-      <c r="C173" s="14">
+      <c r="C173" s="8">
         <v>2.74</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="13">
+      <c r="A174" s="7">
         <v>43690</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="2">
         <v>42701.46</v>
       </c>
-      <c r="C174" s="14">
+      <c r="C174" s="8">
         <v>2.78</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="13">
+      <c r="A175" s="7">
         <v>43691</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="2">
         <v>44573.02</v>
       </c>
-      <c r="C175" s="14">
+      <c r="C175" s="8">
         <v>4.38</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="13">
+      <c r="A176" s="7">
         <v>43692</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="2">
         <v>43454.23</v>
       </c>
-      <c r="C176" s="14">
+      <c r="C176" s="8">
         <v>-2.5100000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="13">
+      <c r="A177" s="7">
         <v>43693</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="2">
         <v>43965.84</v>
       </c>
-      <c r="C177" s="14">
+      <c r="C177" s="8">
         <v>1.18</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="13">
+      <c r="A178" s="7">
         <v>43697</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="2">
         <v>44555.7</v>
       </c>
-      <c r="C178" s="14">
+      <c r="C178" s="8">
         <v>1.34</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="13">
+      <c r="A179" s="7">
         <v>43698</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="2">
         <v>44676.83</v>
       </c>
-      <c r="C179" s="14">
+      <c r="C179" s="8">
         <v>0.27</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="13">
+      <c r="A180" s="7">
         <v>43699</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="2">
         <v>45554.68</v>
       </c>
-      <c r="C180" s="14">
+      <c r="C180" s="8">
         <v>1.96</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="13">
+      <c r="A181" s="7">
         <v>43700</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="2">
         <v>45196.02</v>
       </c>
-      <c r="C181" s="14">
+      <c r="C181" s="8">
         <v>-0.79</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="13">
+      <c r="A182" s="7">
         <v>43703</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="2">
         <v>45186.26</v>
       </c>
-      <c r="C182" s="14">
+      <c r="C182" s="8">
         <v>-0.02</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="13">
+      <c r="A183" s="7">
         <v>43704</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="2">
         <v>48540.65</v>
       </c>
-      <c r="C183" s="14">
+      <c r="C183" s="8">
         <v>7.42</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="13">
+      <c r="A184" s="7">
         <v>43705</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="2">
         <v>49680.5</v>
       </c>
-      <c r="C184" s="14">
+      <c r="C184" s="8">
         <v>2.35</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="13">
+      <c r="A185" s="7">
         <v>43706</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="2">
         <v>52340.74</v>
       </c>
-      <c r="C185" s="14">
+      <c r="C185" s="8">
         <v>5.35</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="13">
+      <c r="A186" s="7">
         <v>43707</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="2">
         <v>55583.02</v>
       </c>
-      <c r="C186" s="14">
+      <c r="C186" s="8">
         <v>6.1899999999999995</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="13">
+      <c r="A187" s="7">
         <v>43710</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="2">
         <v>56574.99</v>
       </c>
-      <c r="C187" s="14">
+      <c r="C187" s="8">
         <v>1.78</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="13">
+      <c r="A188" s="7">
         <v>43711</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="2">
         <v>56020.79</v>
       </c>
-      <c r="C188" s="14">
+      <c r="C188" s="8">
         <v>-0.98</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="13">
+      <c r="A189" s="7">
         <v>43712</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="2">
         <v>55056.66</v>
       </c>
-      <c r="C189" s="14">
+      <c r="C189" s="8">
         <v>-1.72</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="13">
+      <c r="A190" s="7">
         <v>43713</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="2">
         <v>62004.3</v>
       </c>
-      <c r="C190" s="14">
+      <c r="C190" s="8">
         <v>12.620000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="13">
+      <c r="A191" s="7">
         <v>43714</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="2">
         <v>61829.11</v>
       </c>
-      <c r="C191" s="14">
+      <c r="C191" s="8">
         <v>-0.27999999999999997</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="13">
+      <c r="A192" s="7">
         <v>43717</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="2">
         <v>60990.52</v>
       </c>
-      <c r="C192" s="14">
+      <c r="C192" s="8">
         <v>-1.3599999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="13">
+      <c r="A193" s="7">
         <v>43718</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="2">
         <v>61085.03</v>
       </c>
-      <c r="C193" s="14">
+      <c r="C193" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="13">
+      <c r="A194" s="7">
         <v>43719</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="2">
         <v>60554.32</v>
       </c>
-      <c r="C194" s="14">
+      <c r="C194" s="8">
         <v>-0.86999999999999988</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="13">
+      <c r="A195" s="7">
         <v>43720</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="2">
         <v>59166.63</v>
       </c>
-      <c r="C195" s="14">
+      <c r="C195" s="8">
         <v>-2.29</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="13">
+      <c r="A196" s="7">
         <v>43721</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="2">
         <v>55768.93</v>
       </c>
-      <c r="C196" s="14">
+      <c r="C196" s="8">
         <v>-5.74</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="13">
+      <c r="A197" s="7">
         <v>43725</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="2">
         <v>53618.39</v>
       </c>
-      <c r="C197" s="14">
+      <c r="C197" s="8">
         <v>-3.8600000000000003</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="13">
+      <c r="A198" s="7">
         <v>43726</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="2">
         <v>50330.5</v>
       </c>
-      <c r="C198" s="14">
+      <c r="C198" s="8">
         <v>-6.13</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="13">
+      <c r="A199" s="7">
         <v>43727</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="2">
         <v>48061.26</v>
       </c>
-      <c r="C199" s="14">
+      <c r="C199" s="8">
         <v>-4.51</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="13">
+      <c r="A200" s="7">
         <v>43728</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="2">
         <v>50094.05</v>
       </c>
-      <c r="C200" s="14">
+      <c r="C200" s="8">
         <v>4.2299999999999995</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="13">
+      <c r="A201" s="7">
         <v>43731</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="2">
         <v>52152.92</v>
       </c>
-      <c r="C201" s="14">
+      <c r="C201" s="8">
         <v>4.1099999999999994</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="13">
+      <c r="A202" s="7">
         <v>43732</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="2">
         <v>50737.74</v>
       </c>
-      <c r="C202" s="14">
+      <c r="C202" s="8">
         <v>-2.71</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="13">
+      <c r="A203" s="7">
         <v>43733</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="2">
         <v>50446.36</v>
       </c>
-      <c r="C203" s="14">
+      <c r="C203" s="8">
         <v>-0.57000000000000006</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="13">
+      <c r="A204" s="7">
         <v>43734</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="2">
         <v>50027.58</v>
       </c>
-      <c r="C204" s="14">
+      <c r="C204" s="8">
         <v>-0.83</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="13">
+      <c r="A205" s="7">
         <v>43735</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="2">
         <v>50041.31</v>
       </c>
-      <c r="C205" s="14">
+      <c r="C205" s="8">
         <v>0.03</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="13">
+      <c r="A206" s="7">
         <v>43738</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="2">
         <v>48856.03</v>
       </c>
-      <c r="C206" s="14">
+      <c r="C206" s="8">
         <v>-2.37</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="13">
+      <c r="A207" s="7">
         <v>43739</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="2">
         <v>48701.24</v>
       </c>
-      <c r="C207" s="14">
+      <c r="C207" s="8">
         <v>-0.32</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="13">
+      <c r="A208" s="7">
         <v>43740</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="2">
         <v>47532.78</v>
       </c>
-      <c r="C208" s="14">
+      <c r="C208" s="8">
         <v>-2.4</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="13">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="7">
         <v>43741</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="2">
         <v>47289.88</v>
       </c>
-      <c r="C209" s="14">
+      <c r="C209" s="8">
         <v>-0.51</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="13">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="7">
         <v>43742</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="2">
         <v>49080.14</v>
       </c>
-      <c r="C210" s="14">
+      <c r="C210" s="8">
         <v>3.7900000000000005</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="13">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="7">
         <v>43745</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="2">
         <v>49633.87</v>
       </c>
-      <c r="C211" s="14">
+      <c r="C211" s="8">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="13">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="7">
         <v>43746</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="2">
         <v>50718.06</v>
       </c>
-      <c r="C212" s="14">
+      <c r="C212" s="8">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="13">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="7">
         <v>43747</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="2">
         <v>52777.46</v>
       </c>
-      <c r="C213" s="14">
+      <c r="C213" s="8">
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="13">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="7">
         <v>43748</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="2">
         <v>52693.42</v>
       </c>
-      <c r="C214" s="14">
+      <c r="C214" s="8">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="13">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="7">
         <v>43749</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="2">
         <v>51782.03</v>
       </c>
-      <c r="C215" s="14">
+      <c r="C215" s="8">
         <v>-1.73</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="13">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="7">
         <v>43752</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="2">
         <v>51182.02</v>
       </c>
-      <c r="C216" s="14">
+      <c r="C216" s="8">
         <v>-1.1599999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="13">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="7">
         <v>43753</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="2">
         <v>51073.71</v>
       </c>
-      <c r="C217" s="14">
+      <c r="C217" s="8">
         <v>-0.21</v>
       </c>
-      <c r="L217" s="6"/>
-      <c r="M217" s="7"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="13">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="7">
         <v>43754</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="2">
         <v>50027.360000000001</v>
       </c>
-      <c r="C218" s="14">
+      <c r="C218" s="8">
         <v>-2.0500000000000003</v>
       </c>
-      <c r="L218" s="6"/>
-      <c r="M218" s="7"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="13">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="7">
         <v>43755</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="2">
         <v>49011.3</v>
       </c>
-      <c r="C219" s="14">
+      <c r="C219" s="8">
         <v>-2.0299999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="13">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="7">
         <v>43756</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="2">
         <v>46665.85</v>
       </c>
-      <c r="C220" s="14">
+      <c r="C220" s="8">
         <v>-4.79</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="13">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="7">
         <v>43759</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="2">
         <v>46005.59</v>
       </c>
-      <c r="C221" s="14">
+      <c r="C221" s="8">
         <v>-1.41</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="13">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="7">
         <v>43760</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="2">
         <v>45008.61</v>
       </c>
-      <c r="C222" s="14">
+      <c r="C222" s="8">
         <v>-2.17</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="13">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="7">
         <v>43761</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="2">
         <v>47219.16</v>
       </c>
-      <c r="C223" s="14">
+      <c r="C223" s="8">
         <v>4.91</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="13">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="7">
         <v>43762</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="2">
         <v>48282.33</v>
       </c>
-      <c r="C224" s="14">
+      <c r="C224" s="8">
         <v>2.25</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="13">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="7">
         <v>43763</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225" s="2">
         <v>48929</v>
       </c>
-      <c r="C225" s="14">
+      <c r="C225" s="8">
         <v>1.34</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="13">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="7">
         <v>43766</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226" s="2">
         <v>48363.06</v>
       </c>
-      <c r="C226" s="14">
+      <c r="C226" s="8">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="F226" s="8"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="13">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="7">
         <v>43767</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227" s="2">
         <v>50903.59</v>
       </c>
-      <c r="C227" s="14">
+      <c r="C227" s="8">
         <v>5.25</v>
       </c>
-      <c r="F227" s="8"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="13">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="7">
         <v>43768</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228" s="2">
         <v>51203.09</v>
       </c>
-      <c r="C228" s="14">
+      <c r="C228" s="8">
         <v>0.59</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="13">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="7">
         <v>43769</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="2">
         <v>47772.07</v>
       </c>
-      <c r="C229" s="14">
+      <c r="C229" s="8">
         <v>-6.7</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="13">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="7">
         <v>43770</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230" s="2">
         <v>47448.6</v>
       </c>
-      <c r="C230" s="14">
+      <c r="C230" s="8">
         <v>-0.68</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="13">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="7">
         <v>43774</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231" s="2">
         <v>48124.21</v>
       </c>
-      <c r="C231" s="14">
+      <c r="C231" s="8">
         <v>1.42</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="13">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="7">
         <v>43775</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232" s="2">
         <v>48085.34</v>
       </c>
-      <c r="C232" s="14">
+      <c r="C232" s="8">
         <v>0.08</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="13">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="7">
         <v>43776</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233" s="2">
         <v>51582.28</v>
       </c>
-      <c r="C233" s="14">
+      <c r="C233" s="8">
         <v>7.27</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="13">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="7">
         <v>43777</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="2">
         <v>53039.07</v>
       </c>
-      <c r="C234" s="14">
+      <c r="C234" s="8">
         <v>2.82</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="13">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="7">
         <v>43780</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235" s="2">
         <v>57077.23</v>
       </c>
-      <c r="C235" s="14">
+      <c r="C235" s="8">
         <v>7.61</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="13">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="7">
         <v>43781</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236" s="2">
         <v>58379.67</v>
       </c>
-      <c r="C236" s="14">
+      <c r="C236" s="8">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="13">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="7">
         <v>43782</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237" s="2">
         <v>60671.38</v>
       </c>
-      <c r="C237" s="14">
+      <c r="C237" s="8">
         <v>3.93</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="13">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="7">
         <v>43783</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238" s="2">
         <v>59444.04</v>
       </c>
-      <c r="C238" s="14">
+      <c r="C238" s="8">
         <v>-2.02</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="13">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="7">
         <v>43784</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239" s="2">
         <v>59196.79</v>
       </c>
-      <c r="C239" s="14">
+      <c r="C239" s="8">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="13">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="7">
         <v>43787</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240" s="2">
         <v>60337.760000000002</v>
       </c>
-      <c r="C240" s="14">
+      <c r="C240" s="8">
         <v>1.93</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="13">
+      <c r="A241" s="7">
         <v>43788</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241" s="2">
         <v>61523.12</v>
       </c>
-      <c r="C241" s="14">
+      <c r="C241" s="8">
         <v>1.96</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="13">
+      <c r="A242" s="7">
         <v>43789</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242" s="2">
         <v>61699.1</v>
       </c>
-      <c r="C242" s="14">
+      <c r="C242" s="8">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="13">
+      <c r="A243" s="7">
         <v>43790</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243" s="2">
         <v>60854.879999999997</v>
       </c>
-      <c r="C243" s="14">
+      <c r="C243" s="8">
         <v>-1.37</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="13">
+      <c r="A244" s="7">
         <v>43791</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244" s="2">
         <v>61855.6</v>
       </c>
-      <c r="C244" s="14">
+      <c r="C244" s="8">
         <v>1.64</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="13">
+      <c r="A245" s="7">
         <v>43794</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245" s="2">
         <v>61620.72</v>
       </c>
-      <c r="C245" s="14">
+      <c r="C245" s="8">
         <v>-0.38</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="13">
+      <c r="A246" s="7">
         <v>43795</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246" s="2">
         <v>60293.5</v>
       </c>
-      <c r="C246" s="14">
+      <c r="C246" s="8">
         <v>-2.15</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="13">
+      <c r="A247" s="7">
         <v>43796</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247" s="2">
         <v>64030.82</v>
       </c>
-      <c r="C247" s="14">
+      <c r="C247" s="8">
         <v>6.2</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="13">
+      <c r="A248" s="7">
         <v>43797</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248" s="2">
         <v>65851.19</v>
       </c>
-      <c r="C248" s="14">
+      <c r="C248" s="8">
         <v>2.84</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="13">
+      <c r="A249" s="7">
         <v>43798</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249" s="2">
         <v>69894.880000000005</v>
       </c>
-      <c r="C249" s="14">
+      <c r="C249" s="8">
         <v>6.14</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="13">
+      <c r="A250" s="7">
         <v>43801</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250" s="2">
         <v>70507.73</v>
       </c>
-      <c r="C250" s="14">
+      <c r="C250" s="8">
         <v>0.88</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="13">
+      <c r="A251" s="7">
         <v>43802</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251" s="2">
         <v>70876.3</v>
       </c>
-      <c r="C251" s="14">
+      <c r="C251" s="8">
         <v>0.52</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="13">
+      <c r="A252" s="7">
         <v>43803</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252" s="2">
         <v>71167.77</v>
       </c>
-      <c r="C252" s="14">
+      <c r="C252" s="8">
         <v>0.41</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="13">
+      <c r="A253" s="7">
         <v>43804</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253" s="2">
         <v>70514.509999999995</v>
       </c>
-      <c r="C253" s="14">
+      <c r="C253" s="8">
         <v>-0.92</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="13">
+      <c r="A254" s="7">
         <v>43805</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254" s="2">
         <v>70997.36</v>
       </c>
-      <c r="C254" s="14">
+      <c r="C254" s="8">
         <v>0.68</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="13">
+      <c r="A255" s="7">
         <v>43808</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255" s="2">
         <v>67582.929999999993</v>
       </c>
-      <c r="C255" s="14">
+      <c r="C255" s="8">
         <v>-4.8099999999999996</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="13">
+      <c r="A256" s="7">
         <v>43809</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256" s="2">
         <v>66208.62</v>
       </c>
-      <c r="C256" s="14">
+      <c r="C256" s="8">
         <v>-2.0299999999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="13">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="7">
         <v>43810</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="2">
         <v>61917.54</v>
       </c>
-      <c r="C257" s="14">
+      <c r="C257" s="8">
         <v>-6.4799999999999995</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="13">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="7">
         <v>43811</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="2">
         <v>61124.75</v>
       </c>
-      <c r="C258" s="14">
+      <c r="C258" s="8">
         <v>-1.28</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="13">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="7">
         <v>43812</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="2">
         <v>62022.46</v>
       </c>
-      <c r="C259" s="14">
+      <c r="C259" s="8">
         <v>1.47</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="13">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="7">
         <v>43815</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="2">
         <v>62060.32</v>
       </c>
-      <c r="C260" s="14">
+      <c r="C260" s="8">
         <v>0.06</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="13">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="7">
         <v>43816</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="2">
         <v>60502.85</v>
       </c>
-      <c r="C261" s="14">
+      <c r="C261" s="8">
         <v>-2.5100000000000002</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="13">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="7">
         <v>43817</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="2">
         <v>63308.93</v>
       </c>
-      <c r="C262" s="14">
+      <c r="C262" s="8">
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="13">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="7">
         <v>43818</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="2">
         <v>71401.289999999994</v>
       </c>
-      <c r="C263" s="14">
+      <c r="C263" s="8">
         <v>12.78</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="13">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="7">
         <v>43819</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="2">
         <v>79344.83</v>
       </c>
-      <c r="C264" s="14">
+      <c r="C264" s="8">
         <v>11.129999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="13">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="7">
         <v>43822</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="2">
         <v>79749.66</v>
       </c>
-      <c r="C265" s="14">
+      <c r="C265" s="8">
         <v>0.51</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="13">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="7">
         <v>43825</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="2">
         <v>80655.960000000006</v>
       </c>
-      <c r="C266" s="14">
+      <c r="C266" s="8">
         <v>1.1400000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="13">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="7">
         <v>43826</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267" s="2">
         <v>83188.06</v>
       </c>
-      <c r="C267" s="14">
+      <c r="C267" s="8">
         <v>3.14</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="13">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="7">
         <v>43829</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268" s="2">
         <v>90224.09</v>
       </c>
-      <c r="C268" s="14">
+      <c r="C268" s="8">
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="13">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="7">
         <v>43832</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269" s="2">
         <v>93048.36</v>
       </c>
-      <c r="C269" s="14">
+      <c r="C269" s="8">
         <v>3.13</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="13">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="7">
         <v>43833</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270" s="2">
         <v>98580.19</v>
       </c>
-      <c r="C270" s="14">
+      <c r="C270" s="8">
         <v>5.95</v>
       </c>
-      <c r="E270" s="9"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="13">
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="7">
         <v>43837</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="2">
         <v>101804.2</v>
       </c>
-      <c r="C271" s="14">
+      <c r="C271" s="8">
         <v>3.27</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="13">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="7">
         <v>43838</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272" s="2">
         <v>107456.7</v>
       </c>
-      <c r="C272" s="14">
+      <c r="C272" s="8">
         <v>5.55</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="13">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="7">
         <v>43839</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273" s="2">
         <v>112346.45</v>
       </c>
-      <c r="C273" s="14">
+      <c r="C273" s="8">
         <v>4.55</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="13">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="7">
         <v>43840</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274" s="2">
         <v>119242.96</v>
       </c>
-      <c r="C274" s="14">
+      <c r="C274" s="8">
         <v>6.14</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="13">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="7">
         <v>43843</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275" s="2">
         <v>123483.57</v>
       </c>
-      <c r="C275" s="14">
+      <c r="C275" s="8">
         <v>3.56</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="13">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="7">
         <v>43845</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276" s="2">
         <v>124789.33</v>
       </c>
-      <c r="C276" s="14">
+      <c r="C276" s="8">
         <v>1.06</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="13">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="7">
         <v>43846</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277" s="2">
         <v>124068.72</v>
       </c>
-      <c r="C277" s="14">
+      <c r="C277" s="8">
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="13">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="7">
         <v>43847</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278" s="2">
         <v>122897.51</v>
       </c>
-      <c r="C278" s="14">
+      <c r="C278" s="8">
         <v>-0.94</v>
       </c>
-      <c r="F278" s="7"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="13">
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="7">
         <v>43851</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279" s="2">
         <v>118617.38</v>
       </c>
-      <c r="C279" s="14">
+      <c r="C279" s="8">
         <v>-3.48</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="13">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="7">
         <v>43852</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280" s="2">
         <v>118248.5</v>
       </c>
-      <c r="C280" s="14">
+      <c r="C280" s="8">
         <v>-0.31</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="13">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="7">
         <v>43853</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281" s="2">
         <v>116643.96</v>
       </c>
-      <c r="C281" s="14">
+      <c r="C281" s="8">
         <v>-1.36</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="13">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="7">
         <v>43854</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282" s="2">
         <v>108272.44</v>
       </c>
-      <c r="C282" s="14">
+      <c r="C282" s="8">
         <v>-7.18</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="13">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="7">
         <v>43857</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283" s="2">
         <v>108061.2</v>
       </c>
-      <c r="C283" s="14">
+      <c r="C283" s="8">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="13">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="7">
         <v>43858</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B284" s="2">
         <v>102104.8</v>
       </c>
-      <c r="C284" s="14">
+      <c r="C284" s="8">
         <v>-5.51</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="13">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="7">
         <v>43859</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B285" s="2">
         <v>110867.91</v>
       </c>
-      <c r="C285" s="14">
+      <c r="C285" s="8">
         <v>8.58</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="13">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="7">
         <v>43860</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B286" s="2">
         <v>121755.22</v>
       </c>
-      <c r="C286" s="14">
+      <c r="C286" s="8">
         <v>9.82</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="13">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="7">
         <v>43861</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B287" s="2">
         <v>129541.1</v>
       </c>
-      <c r="C287" s="14">
+      <c r="C287" s="8">
         <v>6.39</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="13">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="7">
         <v>43864</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B288" s="2">
         <v>127671.45</v>
       </c>
-      <c r="C288" s="14">
+      <c r="C288" s="8">
         <v>-1.44</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="13">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="7">
         <v>43865</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B289" s="2">
         <v>125936.38</v>
       </c>
-      <c r="C289" s="14">
+      <c r="C289" s="8">
         <v>-1.36</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="13">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="7">
         <v>43866</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290" s="2">
         <v>125568.41</v>
       </c>
-      <c r="C290" s="14">
+      <c r="C290" s="8">
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="13">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="7">
         <v>43867</v>
       </c>
-      <c r="B291" s="1">
+      <c r="B291" s="2">
         <v>127178.88</v>
       </c>
-      <c r="C291" s="14">
+      <c r="C291" s="8">
         <v>1.28</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="13">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="7">
         <v>43868</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="2">
         <v>127152.46</v>
       </c>
-      <c r="C292" s="14">
+      <c r="C292" s="8">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="13">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="7">
         <v>43871</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="2">
         <v>128036.77</v>
       </c>
-      <c r="C293" s="14">
+      <c r="C293" s="8">
         <v>0.7</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="13">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="7">
         <v>43872</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="2">
         <v>129153.16</v>
       </c>
-      <c r="C294" s="14">
+      <c r="C294" s="8">
         <v>0.87</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="13">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="7">
         <v>43873</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="2">
         <v>128255.12</v>
       </c>
-      <c r="C295" s="14">
+      <c r="C295" s="8">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="13">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="7">
         <v>43874</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="2">
         <v>126449.34</v>
       </c>
-      <c r="C296" s="14">
+      <c r="C296" s="8">
         <v>-1.41</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="13">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="7">
         <v>43875</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="2">
         <v>123888.89</v>
       </c>
-      <c r="C297" s="14">
+      <c r="C297" s="8">
         <v>-2.02</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="13">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="7">
         <v>43878</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="2">
         <v>127325.07</v>
       </c>
-      <c r="C298" s="14">
+      <c r="C298" s="8">
         <v>2.77</v>
       </c>
-      <c r="G298" s="7"/>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="13">
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="7">
         <v>43879</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="2">
         <v>124524.61</v>
       </c>
-      <c r="C299" s="14">
+      <c r="C299" s="8">
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="13">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="7">
         <v>43880</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="2">
         <v>121804.44</v>
       </c>
-      <c r="C300" s="14">
+      <c r="C300" s="8">
         <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="13">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="7">
         <v>43881</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="2">
         <v>118910.82</v>
       </c>
-      <c r="C301" s="14">
+      <c r="C301" s="8">
         <v>-2.38</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="13">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="7">
         <v>43882</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="2">
         <v>118337.43</v>
       </c>
-      <c r="C302" s="14">
+      <c r="C302" s="8">
         <v>-0.48</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="13">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="7">
         <v>43887</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="2">
         <v>111216.76</v>
       </c>
-      <c r="C303" s="14">
+      <c r="C303" s="8">
         <v>-6.02</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="13">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="7">
         <v>43888</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="2">
         <v>108292.73</v>
       </c>
-      <c r="C304" s="14">
+      <c r="C304" s="8">
         <v>-2.63</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="13">
+      <c r="A305" s="7">
         <v>43889</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="2">
         <v>108771.66</v>
       </c>
-      <c r="C305" s="14">
+      <c r="C305" s="8">
         <v>0.44</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="13">
+      <c r="A306" s="7">
         <v>43892</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="2">
         <v>104721.4</v>
       </c>
-      <c r="C306" s="14">
+      <c r="C306" s="8">
         <v>-3.7199999999999998</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="13">
+      <c r="A307" s="7">
         <v>43893</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="2">
         <v>103306.75</v>
       </c>
-      <c r="C307" s="14">
+      <c r="C307" s="8">
         <v>-1.35</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="13">
+      <c r="A308" s="7">
         <v>43894</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="2">
         <v>104211.84</v>
       </c>
-      <c r="C308" s="14">
+      <c r="C308" s="8">
         <v>0.88</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="13">
+      <c r="A309" s="7">
         <v>43895</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="2">
         <v>104630.66</v>
       </c>
-      <c r="C309" s="14">
+      <c r="C309" s="8">
         <v>0.4</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="13">
+      <c r="A310" s="7">
         <v>43896</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="2">
         <v>108196.83</v>
       </c>
-      <c r="C310" s="14">
+      <c r="C310" s="8">
         <v>3.41</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="13">
+      <c r="A311" s="7">
         <v>43899</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="2">
         <v>103906.3</v>
       </c>
-      <c r="C311" s="14">
+      <c r="C311" s="8">
         <v>-3.97</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="13">
+      <c r="A312" s="7">
         <v>43900</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="2">
         <v>104392.3</v>
       </c>
-      <c r="C312" s="14">
+      <c r="C312" s="8">
         <v>0.47</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="13">
+      <c r="A313" s="7">
         <v>43901</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="2">
         <v>103457.46</v>
       </c>
-      <c r="C313" s="14">
+      <c r="C313" s="8">
         <v>-0.9</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="13">
+      <c r="A314" s="7">
         <v>43902</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="2">
         <v>105710.6</v>
       </c>
-      <c r="C314" s="14">
+      <c r="C314" s="8">
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="13">
+      <c r="A315" s="7">
         <v>43903</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="2">
         <v>105807.64</v>
       </c>
-      <c r="C315" s="14">
+      <c r="C315" s="8">
         <v>0.09</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="13">
+      <c r="A316" s="7">
         <v>43906</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="2">
         <v>103887.72</v>
       </c>
-      <c r="C316" s="14">
+      <c r="C316" s="8">
         <v>-1.81</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="13">
+      <c r="A317" s="7">
         <v>43907</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="2">
         <v>104070.67</v>
       </c>
-      <c r="C317" s="14">
+      <c r="C317" s="8">
         <v>0.18</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="13">
+      <c r="A318" s="7">
         <v>43908</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="2">
         <v>101251.93</v>
       </c>
-      <c r="C318" s="14">
+      <c r="C318" s="8">
         <v>-2.71</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="13">
+      <c r="A319" s="7">
         <v>43910</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="2">
         <v>98326.88</v>
       </c>
-      <c r="C319" s="14">
+      <c r="C319" s="8">
         <v>-2.89</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="13">
+      <c r="A320" s="7">
         <v>43913</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="2">
         <v>92347.48</v>
       </c>
-      <c r="C320" s="14">
+      <c r="C320" s="8">
         <v>-6.08</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="13">
+      <c r="A321" s="7">
         <v>43914</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="2">
         <v>90145.86</v>
       </c>
-      <c r="C321" s="14">
+      <c r="C321" s="8">
         <v>-2.38</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="13">
+      <c r="A322" s="7">
         <v>43915</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="2">
         <v>89857.35</v>
       </c>
-      <c r="C322" s="14">
+      <c r="C322" s="8">
         <v>-0.32</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="13">
+      <c r="A323" s="7">
         <v>43916</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="2">
         <v>88548.06</v>
       </c>
-      <c r="C323" s="14">
+      <c r="C323" s="8">
         <v>-1.46</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="13">
+      <c r="A324" s="7">
         <v>43917</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="2">
         <v>88643.18</v>
       </c>
-      <c r="C324" s="14">
+      <c r="C324" s="8">
         <v>0.11</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="13">
+      <c r="A325" s="7">
         <v>43920</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="2">
         <v>101194.94</v>
       </c>
-      <c r="C325" s="14">
+      <c r="C325" s="8">
         <v>14.16</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="13">
+      <c r="A326" s="7">
         <v>43921</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="2">
         <v>181346.41</v>
       </c>
-      <c r="C326" s="14">
+      <c r="C326" s="8">
         <v>4.2</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="13">
+      <c r="A327" s="7">
         <v>43922</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="2">
         <v>117920.12</v>
       </c>
-      <c r="C327" s="14">
+      <c r="C327" s="8">
         <v>11.65</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="13">
+      <c r="A328" s="7">
         <v>43923</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="2">
         <v>127331.47</v>
       </c>
-      <c r="C328" s="14">
+      <c r="C328" s="8">
         <v>7.98</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="13">
+      <c r="A329" s="7">
         <v>43924</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="2">
         <v>133086.45000000001</v>
       </c>
-      <c r="C329" s="14">
+      <c r="C329" s="8">
         <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="13">
+      <c r="A330" s="7">
         <v>43927</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="2">
         <v>150484.88</v>
       </c>
-      <c r="C330" s="14">
+      <c r="C330" s="8">
         <v>13.7</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="13">
+      <c r="A331" s="7">
         <v>43928</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="2">
         <v>164354.42000000001</v>
       </c>
-      <c r="C331" s="14">
+      <c r="C331" s="8">
         <v>9.2200000000000006</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="13">
+      <c r="A332" s="7">
         <v>43929</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="2">
         <v>191984.67</v>
       </c>
-      <c r="C332" s="14">
+      <c r="C332" s="8">
         <v>16.809999999999999</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="13">
+      <c r="A333" s="7">
         <v>43934</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="2">
         <v>227597.09</v>
       </c>
-      <c r="C333" s="14">
+      <c r="C333" s="8">
         <v>18.55</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="13">
+      <c r="A334" s="7">
         <v>43935</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="2">
         <v>249098.83</v>
       </c>
-      <c r="C334" s="14">
+      <c r="C334" s="8">
         <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="13">
+      <c r="A335" s="7">
         <v>43936</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="2">
         <v>248509.91</v>
       </c>
-      <c r="C335" s="14">
+      <c r="C335" s="8">
         <v>-0.24</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="13">
+      <c r="A336" s="7">
         <v>43937</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="2">
         <v>241894.17</v>
       </c>
-      <c r="C336" s="14">
+      <c r="C336" s="8">
         <v>-2.66</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="13">
+      <c r="A337" s="7">
         <v>43938</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="2">
         <v>230742.89</v>
       </c>
-      <c r="C337" s="14">
+      <c r="C337" s="8">
         <v>-4.6100000000000003</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="13">
+      <c r="A338" s="7">
         <v>43941</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="2">
         <v>247935.91</v>
       </c>
-      <c r="C338" s="14">
+      <c r="C338" s="8">
         <v>7.45</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="13">
+      <c r="A339" s="7">
         <v>43942</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="2">
         <v>255322.23</v>
       </c>
-      <c r="C339" s="14">
+      <c r="C339" s="8">
         <v>2.98</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="13">
+      <c r="A340" s="7">
         <v>43943</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="2">
         <v>274761.78000000003</v>
       </c>
-      <c r="C340" s="14">
+      <c r="C340" s="8">
         <v>7.61</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="13">
+      <c r="A341" s="7">
         <v>43944</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="2">
         <v>293792.44</v>
       </c>
-      <c r="C341" s="14">
+      <c r="C341" s="8">
         <v>6.93</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="13">
+      <c r="A342" s="7">
         <v>43945</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B342" s="2">
         <v>286273.03000000003</v>
       </c>
-      <c r="C342" s="14">
+      <c r="C342" s="8">
         <v>-2.56</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="13">
+      <c r="A343" s="7">
         <v>43948</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B343" s="2">
         <v>282383.09000000003</v>
       </c>
-      <c r="C343" s="14">
+      <c r="C343" s="8">
         <v>-1.36</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="13">
+      <c r="A344" s="7">
         <v>43949</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B344" s="2">
         <v>279952.12</v>
       </c>
-      <c r="C344" s="14">
+      <c r="C344" s="8">
         <v>-0.86</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="13">
+      <c r="A345" s="7">
         <v>43950</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B345" s="2">
         <v>284439.19</v>
       </c>
-      <c r="C345" s="14">
+      <c r="C345" s="8">
         <v>1.6</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="13">
+      <c r="A346" s="7">
         <v>43951</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B346" s="2">
         <v>289324.75</v>
       </c>
-      <c r="C346" s="14">
+      <c r="C346" s="8">
         <v>1.72</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="13">
+      <c r="A347" s="7">
         <v>43955</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B347" s="2">
         <v>297137.44</v>
       </c>
-      <c r="C347" s="14">
+      <c r="C347" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="13">
+      <c r="A348" s="7">
         <v>43956</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B348" s="2">
         <v>303715.69</v>
       </c>
-      <c r="C348" s="14">
+      <c r="C348" s="8">
         <v>2.21</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="13">
+      <c r="A349" s="7">
         <v>43957</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B349" s="2">
         <v>309885.15999999997</v>
       </c>
-      <c r="C349" s="14">
+      <c r="C349" s="8">
         <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="13">
+      <c r="A350" s="7">
         <v>43958</v>
       </c>
-      <c r="B350" s="1">
+      <c r="B350" s="2">
         <v>316485.06</v>
       </c>
-      <c r="C350" s="14">
+      <c r="C350" s="8">
         <v>2.13</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="13">
+      <c r="A351" s="7">
         <v>43959</v>
       </c>
-      <c r="B351" s="1">
+      <c r="B351" s="2">
         <v>327382.90999999997</v>
       </c>
-      <c r="C351" s="14">
+      <c r="C351" s="8">
         <v>3.44</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="13">
+      <c r="A352" s="7">
         <v>43962</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B352" s="2">
         <v>326819.12</v>
       </c>
-      <c r="C352" s="14">
+      <c r="C352" s="8">
         <v>-0.17</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="13">
+      <c r="A353" s="7">
         <v>43963</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B353" s="2">
         <v>324304.78000000003</v>
       </c>
-      <c r="C353" s="14">
+      <c r="C353" s="8">
         <v>-0.77</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="13">
+      <c r="A354" s="7">
         <v>43964</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B354" s="2">
         <v>312238.59000000003</v>
       </c>
-      <c r="C354" s="14">
+      <c r="C354" s="8">
         <v>-3.72</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="13">
+      <c r="A355" s="7">
         <v>43965</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B355" s="2">
         <v>288638.25</v>
       </c>
-      <c r="C355" s="16">
+      <c r="C355" s="9">
         <v>-7.56</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="13">
+      <c r="A356" s="7">
         <v>43966</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B356" s="2">
         <v>293502.88</v>
       </c>
-      <c r="C356" s="14">
+      <c r="C356" s="8">
         <v>1.69</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="13">
+      <c r="A357" s="7">
         <v>43969</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B357" s="2">
         <v>295525.06</v>
       </c>
-      <c r="C357" s="14">
+      <c r="C357" s="8">
         <v>0.69</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="13">
+      <c r="A358" s="7">
         <v>43970</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B358" s="2">
         <v>298249.65999999997</v>
       </c>
-      <c r="C358" s="14">
+      <c r="C358" s="8">
         <v>0.92</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="13">
+      <c r="A359" s="7">
         <v>43971</v>
       </c>
-      <c r="B359" s="1">
+      <c r="B359" s="2">
         <v>300028.75</v>
       </c>
-      <c r="C359" s="14">
+      <c r="C359" s="8">
         <v>0.6</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="13">
+      <c r="A360" s="7">
         <v>43972</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B360" s="2">
         <v>297625.84000000003</v>
       </c>
-      <c r="C360" s="14">
+      <c r="C360" s="8">
         <v>-0.8</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="13">
+      <c r="A361" s="7">
         <v>43973</v>
       </c>
-      <c r="B361" s="1">
+      <c r="B361" s="2">
         <v>306374.12</v>
       </c>
-      <c r="C361" s="14">
+      <c r="C361" s="8">
         <v>2.94</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="13">
+      <c r="A362" s="7">
         <v>43977</v>
       </c>
-      <c r="B362" s="17">
+      <c r="B362" s="2">
         <v>297063.81</v>
       </c>
-      <c r="C362" s="14">
+      <c r="C362" s="8">
         <v>-3.04E-2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="13">
+      <c r="A363" s="7">
         <v>43978</v>
       </c>
-      <c r="B363" s="17">
+      <c r="B363" s="2">
         <v>303685.34000000003</v>
       </c>
-      <c r="C363" s="14">
+      <c r="C363" s="8">
         <v>2.23E-2</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="13">
+      <c r="A364" s="7">
         <v>43979</v>
       </c>
-      <c r="B364" s="17">
+      <c r="B364" s="2">
         <v>323765.90999999997</v>
       </c>
-      <c r="C364" s="14">
+      <c r="C364" s="8">
         <v>6.6100000000000006E-2</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="13">
+      <c r="A365" s="7">
         <v>43980</v>
       </c>
-      <c r="B365" s="17">
+      <c r="B365" s="2">
         <v>324240</v>
       </c>
-      <c r="C365" s="14">
+      <c r="C365" s="8">
         <v>1.5E-3</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="13">
+      <c r="A366" s="7">
         <v>43983</v>
       </c>
-      <c r="B366" s="17">
+      <c r="B366" s="2">
         <v>330021.69</v>
       </c>
-      <c r="C366" s="14">
+      <c r="C366" s="8">
         <v>1.78E-2</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="13">
+      <c r="A367" s="7">
         <v>43984</v>
       </c>
-      <c r="B367" s="17">
+      <c r="B367" s="2">
         <v>343088.66</v>
       </c>
-      <c r="C367" s="14">
+      <c r="C367" s="8">
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="13">
+      <c r="A368" s="7">
         <v>43985</v>
       </c>
-      <c r="B368" s="17">
+      <c r="B368" s="2">
         <v>346890.28</v>
       </c>
-      <c r="C368" s="14">
+      <c r="C368" s="8">
         <v>1.11E-2</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="13">
+      <c r="A369" s="7">
         <v>43986</v>
       </c>
-      <c r="B369" s="1">
+      <c r="B369" s="2">
         <v>346862.03</v>
       </c>
-      <c r="C369" s="14">
+      <c r="C369" s="8">
         <v>-0.01</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="13">
+      <c r="A370" s="7">
         <v>43987</v>
       </c>
-      <c r="B370" s="1">
+      <c r="B370" s="2">
         <v>344397.62</v>
       </c>
-      <c r="C370" s="14">
+      <c r="C370" s="8">
         <v>-0.71</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="13">
+      <c r="A371" s="7">
         <v>43990</v>
       </c>
-      <c r="B371" s="1">
+      <c r="B371" s="2">
         <v>337855.94</v>
       </c>
-      <c r="C371" s="14">
+      <c r="C371" s="8">
         <v>-1.9</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="13">
+      <c r="A372" s="7">
         <v>43991</v>
       </c>
-      <c r="B372" s="1">
+      <c r="B372" s="2">
         <v>332013.12</v>
       </c>
-      <c r="C372" s="14">
+      <c r="C372" s="8">
         <v>-1.73</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="13">
+      <c r="A373" s="7">
         <v>43992</v>
       </c>
-      <c r="B373" s="1">
+      <c r="B373" s="2">
         <v>329633.12</v>
       </c>
-      <c r="C373" s="14">
+      <c r="C373" s="8">
         <v>-0.72</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="13">
+      <c r="A374" s="7">
         <v>43993</v>
       </c>
-      <c r="B374" s="1">
+      <c r="B374" s="2">
         <v>328490.09000000003</v>
       </c>
-      <c r="C374" s="14">
+      <c r="C374" s="8">
         <v>-0.35</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="13">
+      <c r="A375" s="7">
         <v>43994</v>
       </c>
-      <c r="B375" s="1">
+      <c r="B375" s="2">
         <v>330454.56</v>
       </c>
-      <c r="C375" s="14">
+      <c r="C375" s="8">
         <v>0.6</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="13">
+      <c r="A376" s="7">
         <v>43998</v>
       </c>
-      <c r="B376" s="1">
+      <c r="B376" s="2">
         <v>325844.53000000003</v>
       </c>
-      <c r="C376" s="14">
+      <c r="C376" s="8">
         <v>1.4</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="13">
+      <c r="A377" s="7">
         <v>43999</v>
       </c>
-      <c r="B377" s="1">
+      <c r="B377" s="2">
         <v>322375.84000000003</v>
       </c>
-      <c r="C377" s="14">
+      <c r="C377" s="8">
         <v>-1.06</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="13">
+      <c r="A378" s="7">
         <v>44000</v>
       </c>
-      <c r="B378" s="1">
+      <c r="B378" s="2">
         <v>323282.31</v>
       </c>
-      <c r="C378" s="14">
+      <c r="C378" s="8">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="13">
+      <c r="A379" s="7">
         <v>44001</v>
       </c>
-      <c r="B379" s="1">
+      <c r="B379" s="2">
         <v>321308.34000000003</v>
       </c>
-      <c r="C379" s="14">
+      <c r="C379" s="8">
         <v>-0.61</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="13">
+      <c r="A380" s="7">
         <v>44004</v>
       </c>
-      <c r="B380" s="1">
+      <c r="B380" s="2">
         <v>320724.19</v>
       </c>
-      <c r="C380" s="14">
+      <c r="C380" s="8">
         <v>-0.18</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="13">
+      <c r="A381" s="7">
         <v>44005</v>
       </c>
-      <c r="B381" s="1">
+      <c r="B381" s="2">
         <v>325185.46999999997</v>
       </c>
-      <c r="C381" s="14">
+      <c r="C381" s="8">
         <v>1.39</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="13">
+      <c r="A382" s="7">
         <v>44007</v>
       </c>
-      <c r="B382" s="1">
+      <c r="B382" s="2">
         <v>312097.40000000002</v>
       </c>
-      <c r="C382" s="14">
+      <c r="C382" s="8">
         <v>-4.0199999999999996</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="13">
+      <c r="A383" s="7">
         <v>44012</v>
       </c>
-      <c r="B383" s="1">
+      <c r="B383" s="2">
         <v>321057.81</v>
       </c>
-      <c r="C383" s="14">
+      <c r="C383" s="8">
         <v>1.87</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="13">
+      <c r="A384" s="7">
         <v>44013</v>
       </c>
-      <c r="B384" s="1">
+      <c r="B384" s="2">
         <v>317726</v>
       </c>
-      <c r="C384" s="14">
+      <c r="C384" s="8">
         <v>-1.04</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="13">
+      <c r="A385" s="7">
         <v>44014</v>
       </c>
-      <c r="B385" s="1">
+      <c r="B385" s="2">
         <v>313413.25</v>
       </c>
-      <c r="C385" s="14">
+      <c r="C385" s="8">
         <v>-1.36</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="13">
+      <c r="A386" s="7">
         <v>44015</v>
       </c>
-      <c r="B386" s="1">
+      <c r="B386" s="2">
         <v>301778.38</v>
       </c>
-      <c r="C386" s="14">
+      <c r="C386" s="8">
         <v>-3.71</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="13">
+      <c r="A387" s="7">
         <v>44018</v>
       </c>
-      <c r="B387" s="1">
+      <c r="B387" s="2">
         <v>305579.15999999997</v>
       </c>
-      <c r="C387" s="14">
+      <c r="C387" s="8">
         <v>1.26</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="13">
+      <c r="A388" s="7">
         <v>44019</v>
       </c>
-      <c r="B388" s="1">
+      <c r="B388" s="2">
         <v>333876.53000000003</v>
       </c>
-      <c r="C388" s="14">
+      <c r="C388" s="8">
         <v>9.26</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="13">
+      <c r="A389" s="7">
         <v>44020</v>
       </c>
-      <c r="B389" s="1">
+      <c r="B389" s="2">
         <v>328014.44</v>
       </c>
-      <c r="C389" s="14">
+      <c r="C389" s="8">
         <v>-1.76</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="13">
+      <c r="A390" s="7">
         <v>44021</v>
       </c>
-      <c r="B390" s="1">
+      <c r="B390" s="2">
         <v>323604.71999999997</v>
       </c>
-      <c r="C390" s="16">
+      <c r="C390" s="9">
         <v>-1.1339999999999999</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="13">
+      <c r="A391" s="7">
         <v>44022</v>
       </c>
-      <c r="B391" s="1">
+      <c r="B391" s="2">
         <v>333994.31</v>
       </c>
-      <c r="C391" s="16">
+      <c r="C391" s="9">
         <v>3.21</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="13">
+      <c r="A392" s="7">
         <v>44025</v>
       </c>
-      <c r="B392" s="1">
+      <c r="B392" s="2">
         <v>320322.59000000003</v>
       </c>
-      <c r="C392" s="14">
+      <c r="C392" s="8">
         <v>-4.09</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="13">
+      <c r="A393" s="7">
         <v>44026</v>
       </c>
-      <c r="B393" s="1">
+      <c r="B393" s="2">
         <v>316887.5</v>
       </c>
-      <c r="C393" s="14">
+      <c r="C393" s="8">
         <v>-1.07</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="13">
+      <c r="A394" s="7">
         <v>44027</v>
       </c>
-      <c r="B394" s="1">
+      <c r="B394" s="2">
         <v>316864.88</v>
       </c>
-      <c r="C394" s="14">
+      <c r="C394" s="8">
         <v>-0.01</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="13">
+      <c r="A395" s="7">
         <v>44028</v>
       </c>
-      <c r="B395" s="1">
+      <c r="B395" s="2">
         <v>317448.84000000003</v>
       </c>
-      <c r="C395" s="14">
+      <c r="C395" s="8">
         <v>0.18</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="13">
+      <c r="A396" s="7">
         <v>44029</v>
       </c>
-      <c r="B396" s="1">
+      <c r="B396" s="2">
         <v>319082.25</v>
       </c>
-      <c r="C396" s="14">
+      <c r="C396" s="8">
         <v>0.51</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="13">
+      <c r="A397" s="7">
         <v>44032</v>
       </c>
-      <c r="B397" s="1">
+      <c r="B397" s="2">
         <v>324307.34000000003</v>
       </c>
-      <c r="C397" s="14">
+      <c r="C397" s="8">
         <v>1.64</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="13">
+      <c r="A398" s="7">
         <v>44033</v>
       </c>
-      <c r="B398" s="1">
+      <c r="B398" s="2">
         <v>326973.15999999997</v>
       </c>
-      <c r="C398" s="14">
+      <c r="C398" s="8">
         <v>0.82</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="13">
+      <c r="A399" s="7">
         <v>44034</v>
       </c>
-      <c r="B399" s="1">
+      <c r="B399" s="2">
         <v>335868.47</v>
       </c>
-      <c r="C399" s="14">
+      <c r="C399" s="8">
         <v>2.72</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="13">
+      <c r="A400" s="7">
         <v>44035</v>
       </c>
-      <c r="B400" s="1">
+      <c r="B400" s="2">
         <v>352332.44</v>
       </c>
-      <c r="C400" s="14">
+      <c r="C400" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="13">
+      <c r="A401" s="7">
         <v>44039</v>
       </c>
-      <c r="B401" s="1">
+      <c r="B401" s="2">
         <v>350557.12</v>
       </c>
-      <c r="C401" s="14">
+      <c r="C401" s="8">
         <v>-0.5</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="13">
+      <c r="A402" s="7">
         <v>44040</v>
       </c>
-      <c r="B402" s="1">
+      <c r="B402" s="2">
         <v>351751.44</v>
       </c>
-      <c r="C402" s="14">
+      <c r="C402" s="8">
         <v>0.34</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="13">
+      <c r="A403" s="7">
         <v>44041</v>
       </c>
-      <c r="B403" s="1">
+      <c r="B403" s="2">
         <v>353319.28</v>
       </c>
-      <c r="C403" s="14">
+      <c r="C403" s="8">
         <v>0.45</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="13">
+      <c r="A404" s="7">
         <v>44042</v>
       </c>
-      <c r="B404" s="1">
+      <c r="B404" s="2">
         <v>363143.91</v>
       </c>
-      <c r="C404" s="14">
+      <c r="C404" s="8">
         <v>2.78</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="13">
+      <c r="A405" s="7">
         <v>44043</v>
       </c>
-      <c r="B405" s="1">
+      <c r="B405" s="2">
         <v>374208.25</v>
       </c>
-      <c r="C405" s="14">
+      <c r="C405" s="8">
         <v>3.05</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="13">
+      <c r="A406" s="7">
         <v>44046</v>
       </c>
-      <c r="B406" s="1">
+      <c r="B406" s="2">
         <v>386805.69</v>
       </c>
-      <c r="C406" s="14">
+      <c r="C406" s="8">
         <v>3.37</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="13">
+      <c r="A407" s="7">
         <v>44047</v>
       </c>
-      <c r="B407" s="1">
+      <c r="B407" s="2">
         <v>399219.75</v>
       </c>
-      <c r="C407" s="14">
+      <c r="C407" s="8">
         <v>3.21</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="13">
+      <c r="A408" s="7">
         <v>44048</v>
       </c>
-      <c r="B408" s="1">
+      <c r="B408" s="2">
         <v>406865.03</v>
       </c>
-      <c r="C408" s="14">
+      <c r="C408" s="8">
         <v>1.92</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="13">
+      <c r="A409" s="7">
         <v>44049</v>
       </c>
-      <c r="B409" s="1">
+      <c r="B409" s="2">
         <v>418496.28</v>
       </c>
-      <c r="C409" s="14">
+      <c r="C409" s="8">
         <v>2.86</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="13">
+      <c r="A410" s="7">
         <v>44050</v>
       </c>
-      <c r="B410" s="1">
+      <c r="B410" s="2">
         <v>466698.66</v>
       </c>
-      <c r="C410" s="14">
+      <c r="C410" s="8">
         <v>11.52</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="13">
+      <c r="A411" s="7">
         <v>44053</v>
       </c>
-      <c r="B411" s="1">
+      <c r="B411" s="2">
         <v>479024.22</v>
       </c>
-      <c r="C411" s="14">
+      <c r="C411" s="8">
         <v>2.64</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="13">
+      <c r="A412" s="7">
         <v>44054</v>
       </c>
-      <c r="B412" s="1">
+      <c r="B412" s="2">
         <v>450683.81</v>
       </c>
-      <c r="C412" s="14">
+      <c r="C412" s="8">
         <v>-5.92</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="13">
+      <c r="A413" s="7">
         <v>44055</v>
       </c>
-      <c r="B413" s="1">
+      <c r="B413" s="2">
         <v>463802.47</v>
       </c>
-      <c r="C413" s="14">
+      <c r="C413" s="8">
         <v>2.91</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="13">
+      <c r="A414" s="7">
         <v>44056</v>
       </c>
-      <c r="B414" s="1">
+      <c r="B414" s="2">
         <v>491593.56</v>
       </c>
-      <c r="C414" s="14">
+      <c r="C414" s="8">
         <v>5.99</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="13">
+      <c r="A415" s="7">
         <v>44057</v>
       </c>
-      <c r="B415" s="1">
+      <c r="B415" s="2">
         <v>497343.88</v>
       </c>
-      <c r="C415" s="14">
+      <c r="C415" s="8">
         <v>1.17</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="13">
+      <c r="A416" s="7">
         <v>44060</v>
       </c>
-      <c r="B416" s="1">
+      <c r="B416" s="2">
         <v>487795.19</v>
       </c>
-      <c r="C416" s="14">
+      <c r="C416" s="8">
         <v>-1.92</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="13">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="7">
         <v>44061</v>
       </c>
-      <c r="B417" s="1">
+      <c r="B417" s="2">
         <v>486442.09</v>
       </c>
-      <c r="C417" s="14">
+      <c r="C417" s="8">
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="13">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="7">
         <v>44062</v>
       </c>
-      <c r="B418" s="1">
+      <c r="B418" s="2">
         <v>490779.88</v>
       </c>
-      <c r="C418" s="14">
+      <c r="C418" s="8">
         <v>0.89</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="13">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="7">
         <v>44063</v>
       </c>
-      <c r="B419" s="1">
+      <c r="B419" s="2">
         <v>498633.72</v>
       </c>
-      <c r="C419" s="14">
+      <c r="C419" s="8">
         <v>1.6</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="13">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="7">
         <v>44064</v>
       </c>
-      <c r="B420" s="1">
+      <c r="B420" s="2">
         <v>502578.91</v>
       </c>
-      <c r="C420" s="14">
+      <c r="C420" s="8">
         <v>0.79</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="13">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="7">
         <v>44067</v>
       </c>
-      <c r="B421" s="1">
+      <c r="B421" s="2">
         <v>508911.78</v>
       </c>
-      <c r="C421" s="14">
+      <c r="C421" s="8">
         <v>1.26</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="13">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="7">
         <v>44068</v>
       </c>
-      <c r="B422" s="1">
+      <c r="B422" s="2">
         <v>515316.41</v>
       </c>
-      <c r="C422" s="14">
+      <c r="C422" s="8">
         <v>1.26</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="13">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="7">
         <v>44069</v>
       </c>
-      <c r="B423" s="1">
+      <c r="B423" s="2">
         <v>515882.72</v>
       </c>
-      <c r="C423" s="14">
+      <c r="C423" s="8">
         <v>0.11</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="13">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="7">
         <v>44070</v>
       </c>
-      <c r="B424" s="1">
+      <c r="B424" s="2">
         <v>513620.69</v>
       </c>
-      <c r="C424" s="14">
+      <c r="C424" s="8">
         <v>-0.44</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="13">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="7">
         <v>44071</v>
       </c>
-      <c r="B425" s="1">
+      <c r="B425" s="2">
         <v>523875.56</v>
       </c>
-      <c r="C425" s="14">
+      <c r="C425" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="13">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="7">
         <v>44074</v>
       </c>
-      <c r="B426" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C426" s="14">
+      <c r="B426" s="2">
+        <v>522587.56</v>
+      </c>
+      <c r="C426" s="8">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="13">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="7">
         <v>44075</v>
       </c>
-      <c r="B427" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C427" s="14">
+      <c r="B427" s="2">
+        <v>518570.84</v>
+      </c>
+      <c r="C427" s="8">
         <v>-0.77</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="13">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="7">
         <v>44076</v>
       </c>
-      <c r="B428" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C428" s="14">
+      <c r="B428" s="2">
+        <v>517866.72</v>
+      </c>
+      <c r="C428" s="8">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="13">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="7">
         <v>44081</v>
       </c>
-      <c r="B429" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C429" s="10">
+      <c r="B429" s="2">
+        <v>522114.5</v>
+      </c>
+      <c r="C429" s="6">
         <v>1E-4</v>
       </c>
-      <c r="D429"/>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="13">
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="7">
         <v>44082</v>
       </c>
-      <c r="B430" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C430" s="10">
+      <c r="B430" s="2">
+        <v>520968.38</v>
+      </c>
+      <c r="C430" s="6">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="D430"/>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="13">
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="7">
         <v>44083</v>
       </c>
-      <c r="B431" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C431" s="10">
+      <c r="B431" s="2">
+        <v>518466.53</v>
+      </c>
+      <c r="C431" s="6">
         <v>-4.7999999999999996E-3</v>
       </c>
-      <c r="D431"/>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="13">
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="7">
         <v>44084</v>
       </c>
-      <c r="B432" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C432" s="10">
+      <c r="B432" s="2">
+        <v>517252.97</v>
+      </c>
+      <c r="C432" s="6">
         <v>-2.3E-3</v>
       </c>
-      <c r="D432"/>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="13">
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="7">
         <v>44085</v>
       </c>
-      <c r="B433" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C433" s="10">
+      <c r="B433" s="2">
+        <v>515007.44</v>
+      </c>
+      <c r="C433" s="6">
         <v>-4.3E-3</v>
       </c>
-      <c r="D433"/>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A434" s="13">
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="7">
         <v>44089</v>
       </c>
-      <c r="B434" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C434" s="10">
+      <c r="B434" s="2">
+        <v>502989.88</v>
+      </c>
+      <c r="C434" s="6">
         <v>-2.3300000000000001E-2</v>
       </c>
-      <c r="D434"/>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A435" s="13">
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="7">
         <v>44090</v>
       </c>
-      <c r="B435" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C435" s="10">
+      <c r="B435" s="2">
+        <v>512260.53</v>
+      </c>
+      <c r="C435" s="6">
         <v>1.84E-2</v>
       </c>
-      <c r="D435"/>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A436" s="13">
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="7">
         <v>44091</v>
       </c>
-      <c r="B436" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C436" s="10">
+      <c r="B436" s="2">
+        <v>511517.28</v>
+      </c>
+      <c r="C436" s="6">
         <v>-1.5E-3</v>
       </c>
-      <c r="D436"/>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A437" s="13">
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="7">
         <v>44092</v>
       </c>
-      <c r="B437" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C437" s="10">
+      <c r="B437" s="2">
+        <v>501814</v>
+      </c>
+      <c r="C437" s="6">
         <v>-1.9E-2</v>
       </c>
-      <c r="D437"/>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A438" s="13">
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="7">
         <v>44095</v>
       </c>
-      <c r="B438" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C438" s="10">
+      <c r="B438" s="2">
+        <v>509832.94</v>
+      </c>
+      <c r="C438" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="D438"/>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A439" s="13">
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="7">
         <v>44096</v>
       </c>
-      <c r="B439" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C439" s="10">
+      <c r="B439" s="2">
+        <v>500023.22</v>
+      </c>
+      <c r="C439" s="6">
         <v>-1.9199999999999998E-2</v>
       </c>
-      <c r="D439"/>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A440" s="13">
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="7">
         <v>44097</v>
       </c>
-      <c r="B440" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C440" s="10">
+      <c r="B440" s="2">
+        <v>504419.97</v>
+      </c>
+      <c r="C440" s="6">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D440"/>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A441" s="13">
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="7">
         <v>44098</v>
       </c>
-      <c r="B441" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C441" s="10">
+      <c r="B441" s="2">
+        <v>509008.97</v>
+      </c>
+      <c r="C441" s="6">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="D441"/>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A442" s="13">
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="7">
         <v>44099</v>
       </c>
-      <c r="B442" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C442" s="10">
+      <c r="B442" s="2">
+        <v>519983.75</v>
+      </c>
+      <c r="C442" s="6">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="D442"/>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A443" s="13">
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="7">
         <v>44102</v>
       </c>
-      <c r="B443" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C443" s="10">
+      <c r="B443" s="2">
+        <v>522748.19</v>
+      </c>
+      <c r="C443" s="6">
         <v>5.3E-3</v>
       </c>
-      <c r="D443"/>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A444" s="13">
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="7">
         <v>44103</v>
       </c>
-      <c r="B444" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C444" s="10">
+      <c r="B444" s="2">
+        <v>531888.43999999994</v>
+      </c>
+      <c r="C444" s="6">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="D444"/>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A445" s="13">
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="7">
         <v>44104</v>
       </c>
-      <c r="B445" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C445" s="10">
+      <c r="B445" s="2">
+        <v>538853.88</v>
+      </c>
+      <c r="C445" s="6">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="D445"/>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A446" s="13">
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="7">
         <v>44105</v>
       </c>
-      <c r="B446" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C446" s="10">
+      <c r="B446" s="2">
+        <v>542611.63</v>
+      </c>
+      <c r="C446" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D446"/>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A447" s="13">
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="7">
         <v>44106</v>
       </c>
-      <c r="B447" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C447" s="10">
+      <c r="B447" s="2">
+        <v>542702.31000000006</v>
+      </c>
+      <c r="C447" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D447"/>
-      <c r="H447" s="4"/>
-      <c r="I447" s="11"/>
-      <c r="J447" s="10"/>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A448" s="13">
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="7">
         <v>44109</v>
       </c>
-      <c r="B448" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C448" s="10">
+      <c r="B448" s="2">
+        <v>542730.56000000006</v>
+      </c>
+      <c r="C448" s="6">
         <v>0.01</v>
       </c>
-      <c r="H448" s="4"/>
-      <c r="I448" s="11"/>
-      <c r="J448" s="10"/>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A449" s="13">
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="7">
         <v>44110</v>
       </c>
-      <c r="B449" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C449" s="10">
+      <c r="B449" s="2">
+        <v>54806.879999999997</v>
+      </c>
+      <c r="C449" s="6">
         <v>0.75</v>
       </c>
-      <c r="H449" s="4"/>
-      <c r="I449" s="11"/>
-      <c r="J449" s="10"/>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A450" s="13">
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="7">
         <v>44111</v>
       </c>
-      <c r="B450" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C450" s="10">
+      <c r="B450" s="2">
+        <v>541102.56000000006</v>
+      </c>
+      <c r="C450" s="6">
         <v>-1.04</v>
       </c>
-      <c r="H450" s="4"/>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A451" s="13">
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="7">
         <v>44112</v>
       </c>
-      <c r="B451" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C451" s="10">
+      <c r="B451" s="2">
+        <v>546546.56000000006</v>
+      </c>
+      <c r="C451" s="6">
         <v>1.02</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A452" s="13">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="7">
         <v>44113</v>
       </c>
-      <c r="B452" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C452" s="10">
+      <c r="B452" s="2">
+        <v>545353.88</v>
+      </c>
+      <c r="C452" s="6">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A453" s="13">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="7">
         <v>44117</v>
       </c>
-      <c r="B453" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C453" s="10">
+      <c r="B453" s="2">
+        <v>556163.5</v>
+      </c>
+      <c r="C453" s="6">
         <v>1.98</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A454" s="13">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="7">
         <v>44118</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C454" s="20">
+      <c r="B454" s="2">
+        <v>554087.88</v>
+      </c>
+      <c r="C454" s="10">
         <v>0.37</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A455" s="13">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="7">
         <v>44119</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C455" s="20">
+      <c r="B455" s="2">
+        <v>551187</v>
+      </c>
+      <c r="C455" s="6">
         <v>-0.52</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A456" s="13">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="7">
         <v>44120</v>
       </c>
-      <c r="B456" s="1">
+      <c r="B456" s="2">
         <v>549667.5</v>
       </c>
-      <c r="C456" s="10">
+      <c r="C456" s="6">
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A457" s="13">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="7">
         <v>44123</v>
       </c>
-      <c r="B457" s="1">
+      <c r="B457" s="2">
         <v>550026.75</v>
       </c>
-      <c r="C457" s="10">
+      <c r="C457" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="7">
+        <v>44124</v>
+      </c>
+      <c r="B458" s="2">
+        <v>557238</v>
+      </c>
+      <c r="C458" s="6">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="7">
+        <v>44125</v>
+      </c>
+      <c r="B459" s="2">
+        <v>555263</v>
+      </c>
+      <c r="C459" s="6">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="7">
+        <v>44126</v>
+      </c>
+      <c r="B460" s="11">
+        <v>553045.88</v>
+      </c>
+      <c r="C460" s="6">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="7"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="7"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="7"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="7"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="7"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="7"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="7"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="7"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="7"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="7"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="7"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="7"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="7"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="7"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="7"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="7"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="7"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="7"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="7"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="7"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="7"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="7"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="7"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="7"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="7"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="7"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="7"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="7"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="7"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="7"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="7"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="7"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="7"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="7"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="7"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="7"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="7"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="7"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="7"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="7"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="7"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="7"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="7"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="7"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="7"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="7"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="7"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="7"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="7"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="7"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="7"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="7"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="7"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="7"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="7"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="7"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="7"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="7"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="7"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="7"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="7"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="7"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="7"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="7"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="7"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="7"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="7"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="7"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="7"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="7"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="7"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="7"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="7"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="7"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="7"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="7"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="7"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="7"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="7"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="7"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="7"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="7"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="7"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="7"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="7"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="7"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="7"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="7"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="7"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="7"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="7"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="7"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="7"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="7"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="7"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="7"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="7"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="7"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="7"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="7"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="7"/>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="7"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="7"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="7"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:D1619">
-    <sortCondition descending="1" ref="D2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="K470" sqref="K470"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="A461" sqref="A461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -871,7 +871,7 @@
   <dimension ref="A1:C564"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A461" sqref="A461"/>
+      <selection activeCell="C463" sqref="C463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,10 +5941,26 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="7"/>
+      <c r="A461" s="7">
+        <v>44127</v>
+      </c>
+      <c r="B461" s="2">
+        <v>557704.31000000006</v>
+      </c>
+      <c r="C461" s="6">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="7"/>
+      <c r="A462" s="7">
+        <v>44130</v>
+      </c>
+      <c r="B462" s="2">
+        <v>565517.25</v>
+      </c>
+      <c r="C462" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="7"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="C463" sqref="C463"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="O447" sqref="O447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5813,7 +5813,7 @@
         <v>44110</v>
       </c>
       <c r="B449" s="2">
-        <v>54806.879999999997</v>
+        <v>546806.88</v>
       </c>
       <c r="C449" s="6">
         <v>0.75</v>
@@ -5963,10 +5963,19 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
+      <c r="A463" s="7">
+        <v>44131</v>
+      </c>
+      <c r="B463" s="2">
+        <v>556011.81000000006</v>
+      </c>
+      <c r="C463" s="6">
+        <v>-1.68</v>
+      </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
+      <c r="A464"/>
+      <c r="B464"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="7"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -869,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
       <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
@@ -3047,10 +3047,26 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
+      <c r="A198" s="6">
+        <v>44133</v>
+      </c>
+      <c r="B198" s="1">
+        <v>576982.06000000006</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="6"/>
+      <c r="A199" s="6">
+        <v>44134</v>
+      </c>
+      <c r="B199" s="1">
+        <v>580091.62</v>
+      </c>
+      <c r="C199" s="5">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,7 +3069,15 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
+      <c r="A200" s="6">
+        <v>44137</v>
+      </c>
+      <c r="B200" s="1">
+        <v>576075.18999999994</v>
+      </c>
+      <c r="C200" s="5">
+        <v>-0.69</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\25 APP GRUPO INTERAVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,64 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>522,114.50</t>
-  </si>
-  <si>
-    <t>520,968.38</t>
-  </si>
-  <si>
-    <t>518,466.53</t>
-  </si>
-  <si>
-    <t>517,252.97</t>
-  </si>
-  <si>
-    <t>515,007.44</t>
-  </si>
-  <si>
-    <t>502,989.88</t>
-  </si>
-  <si>
-    <t>512,260.53</t>
-  </si>
-  <si>
-    <t>511,517.28</t>
-  </si>
-  <si>
-    <t>501,814.00</t>
-  </si>
-  <si>
-    <t>509,832.94</t>
-  </si>
-  <si>
-    <t>500,023.22</t>
-  </si>
-  <si>
-    <t>504,419.97</t>
-  </si>
-  <si>
-    <t>509,008.97</t>
-  </si>
-  <si>
-    <t>519,983.75</t>
-  </si>
-  <si>
-    <t>522,748.19</t>
-  </si>
-  <si>
-    <t>531,888.44</t>
-  </si>
-  <si>
-    <t>538,853.88</t>
-  </si>
-  <si>
-    <t>542,611.63</t>
-  </si>
-  <si>
-    <t>542,702.31</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>FECHA</t>
   </si>
@@ -96,7 +39,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +180,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0EA600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0EA600"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -588,7 +557,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -605,12 +574,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -935,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M451"/>
+  <dimension ref="A1:M469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="I459" sqref="I459"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="H430" sqref="H430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,13 +934,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5670,10 +5654,10 @@
       <c r="A429" s="4">
         <v>44081</v>
       </c>
-      <c r="B429" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C429" s="15">
+      <c r="B429" s="15">
+        <v>522114.5</v>
+      </c>
+      <c r="C429" s="14">
         <v>1E-4</v>
       </c>
       <c r="D429"/>
@@ -5682,10 +5666,10 @@
       <c r="A430" s="4">
         <v>44082</v>
       </c>
-      <c r="B430" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C430" s="15">
+      <c r="B430" s="15">
+        <v>520968.38</v>
+      </c>
+      <c r="C430" s="14">
         <v>-2.2000000000000001E-3</v>
       </c>
       <c r="D430"/>
@@ -5694,10 +5678,10 @@
       <c r="A431" s="4">
         <v>44083</v>
       </c>
-      <c r="B431" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C431" s="15">
+      <c r="B431" s="15">
+        <v>518466.53</v>
+      </c>
+      <c r="C431" s="14">
         <v>-4.7999999999999996E-3</v>
       </c>
       <c r="D431"/>
@@ -5706,10 +5690,10 @@
       <c r="A432" s="4">
         <v>44084</v>
       </c>
-      <c r="B432" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C432" s="15">
+      <c r="B432" s="15">
+        <v>517252.97</v>
+      </c>
+      <c r="C432" s="14">
         <v>-2.3E-3</v>
       </c>
       <c r="D432"/>
@@ -5718,10 +5702,10 @@
       <c r="A433" s="4">
         <v>44085</v>
       </c>
-      <c r="B433" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C433" s="15">
+      <c r="B433" s="15">
+        <v>515007.44</v>
+      </c>
+      <c r="C433" s="14">
         <v>-4.3E-3</v>
       </c>
       <c r="D433"/>
@@ -5730,10 +5714,10 @@
       <c r="A434" s="4">
         <v>44089</v>
       </c>
-      <c r="B434" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C434" s="15">
+      <c r="B434" s="15">
+        <v>502989.88</v>
+      </c>
+      <c r="C434" s="14">
         <v>-2.3300000000000001E-2</v>
       </c>
       <c r="D434"/>
@@ -5742,10 +5726,10 @@
       <c r="A435" s="4">
         <v>44090</v>
       </c>
-      <c r="B435" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C435" s="15">
+      <c r="B435" s="15">
+        <v>512260.53</v>
+      </c>
+      <c r="C435" s="14">
         <v>1.84E-2</v>
       </c>
       <c r="D435"/>
@@ -5754,10 +5738,10 @@
       <c r="A436" s="4">
         <v>44091</v>
       </c>
-      <c r="B436" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C436" s="15">
+      <c r="B436" s="15">
+        <v>511517.28</v>
+      </c>
+      <c r="C436" s="14">
         <v>-1.5E-3</v>
       </c>
       <c r="D436"/>
@@ -5766,10 +5750,10 @@
       <c r="A437" s="4">
         <v>44092</v>
       </c>
-      <c r="B437" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C437" s="15">
+      <c r="B437" s="15">
+        <v>501814</v>
+      </c>
+      <c r="C437" s="14">
         <v>-1.9E-2</v>
       </c>
       <c r="D437"/>
@@ -5778,10 +5762,10 @@
       <c r="A438" s="4">
         <v>44095</v>
       </c>
-      <c r="B438" t="s">
-        <v>9</v>
-      </c>
-      <c r="C438" s="15">
+      <c r="B438" s="12">
+        <v>509832.94</v>
+      </c>
+      <c r="C438" s="14">
         <v>1.6E-2</v>
       </c>
       <c r="D438"/>
@@ -5790,10 +5774,10 @@
       <c r="A439" s="4">
         <v>44096</v>
       </c>
-      <c r="B439" t="s">
-        <v>10</v>
-      </c>
-      <c r="C439" s="15">
+      <c r="B439" s="12">
+        <v>500023.22</v>
+      </c>
+      <c r="C439" s="14">
         <v>-1.9199999999999998E-2</v>
       </c>
       <c r="D439"/>
@@ -5802,10 +5786,10 @@
       <c r="A440" s="4">
         <v>44097</v>
       </c>
-      <c r="B440" t="s">
-        <v>11</v>
-      </c>
-      <c r="C440" s="15">
+      <c r="B440" s="12">
+        <v>504419.97</v>
+      </c>
+      <c r="C440" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="D440"/>
@@ -5814,10 +5798,10 @@
       <c r="A441" s="4">
         <v>44098</v>
       </c>
-      <c r="B441" t="s">
-        <v>12</v>
-      </c>
-      <c r="C441" s="15">
+      <c r="B441" s="12">
+        <v>509008.97</v>
+      </c>
+      <c r="C441" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="D441"/>
@@ -5826,10 +5810,10 @@
       <c r="A442" s="4">
         <v>44099</v>
       </c>
-      <c r="B442" t="s">
-        <v>13</v>
-      </c>
-      <c r="C442" s="15">
+      <c r="B442" s="12">
+        <v>519983.75</v>
+      </c>
+      <c r="C442" s="14">
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="D442"/>
@@ -5838,10 +5822,10 @@
       <c r="A443" s="4">
         <v>44102</v>
       </c>
-      <c r="B443" t="s">
-        <v>14</v>
-      </c>
-      <c r="C443" s="15">
+      <c r="B443" s="12">
+        <v>522748.19</v>
+      </c>
+      <c r="C443" s="14">
         <v>5.3E-3</v>
       </c>
       <c r="D443"/>
@@ -5850,10 +5834,10 @@
       <c r="A444" s="4">
         <v>44103</v>
       </c>
-      <c r="B444" t="s">
-        <v>15</v>
-      </c>
-      <c r="C444" s="15">
+      <c r="B444" s="12">
+        <v>531888.43999999994</v>
+      </c>
+      <c r="C444" s="14">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D444"/>
@@ -5862,10 +5846,10 @@
       <c r="A445" s="4">
         <v>44104</v>
       </c>
-      <c r="B445" t="s">
-        <v>16</v>
-      </c>
-      <c r="C445" s="15">
+      <c r="B445" s="12">
+        <v>538853.88</v>
+      </c>
+      <c r="C445" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="D445"/>
@@ -5874,10 +5858,10 @@
       <c r="A446" s="4">
         <v>44105</v>
       </c>
-      <c r="B446" t="s">
-        <v>17</v>
-      </c>
-      <c r="C446" s="15">
+      <c r="B446" s="12">
+        <v>542611.63</v>
+      </c>
+      <c r="C446" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D446"/>
@@ -5886,10 +5870,10 @@
       <c r="A447" s="4">
         <v>44106</v>
       </c>
-      <c r="B447" t="s">
-        <v>18</v>
-      </c>
-      <c r="C447" s="15">
+      <c r="B447" s="12">
+        <v>542702.31000000006</v>
+      </c>
+      <c r="C447" s="14">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D447"/>
@@ -5936,6 +5920,204 @@
       </c>
       <c r="C451">
         <v>1.02</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="4">
+        <v>44113</v>
+      </c>
+      <c r="B452" s="20">
+        <v>545353.88</v>
+      </c>
+      <c r="C452" s="17">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A453" s="4">
+        <v>44117</v>
+      </c>
+      <c r="B453" s="21">
+        <v>556163.5</v>
+      </c>
+      <c r="C453" s="18">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A454" s="4">
+        <v>44118</v>
+      </c>
+      <c r="B454" s="20">
+        <v>554087.88</v>
+      </c>
+      <c r="C454" s="19">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="4">
+        <v>44119</v>
+      </c>
+      <c r="B455" s="1">
+        <v>551187.06000000006</v>
+      </c>
+      <c r="C455">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="4">
+        <v>44120</v>
+      </c>
+      <c r="B456" s="1">
+        <v>549667.5</v>
+      </c>
+      <c r="C456">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="4">
+        <v>44124</v>
+      </c>
+      <c r="B457" s="1">
+        <v>557238.38</v>
+      </c>
+      <c r="C457">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="4">
+        <v>44125</v>
+      </c>
+      <c r="B458" s="1">
+        <v>555263.18999999994</v>
+      </c>
+      <c r="C458">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="4">
+        <v>44126</v>
+      </c>
+      <c r="B459" s="1">
+        <v>553045.88</v>
+      </c>
+      <c r="C459">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="4">
+        <v>44127</v>
+      </c>
+      <c r="B460" s="1">
+        <v>557704.31000000006</v>
+      </c>
+      <c r="C460">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="4">
+        <v>44131</v>
+      </c>
+      <c r="B461" s="1">
+        <v>556011.81000000006</v>
+      </c>
+      <c r="C461">
+        <v>-1.68</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="4">
+        <v>44132</v>
+      </c>
+      <c r="B462" s="1">
+        <v>573980.38</v>
+      </c>
+      <c r="C462">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="4">
+        <v>44133</v>
+      </c>
+      <c r="B463" s="1">
+        <v>576982.06000000006</v>
+      </c>
+      <c r="C463">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B464" s="1">
+        <v>580091.62</v>
+      </c>
+      <c r="C464">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="4">
+        <v>44137</v>
+      </c>
+      <c r="B465" s="1">
+        <v>576075.18999999994</v>
+      </c>
+      <c r="C465">
+        <v>-0.69</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="4">
+        <v>44138</v>
+      </c>
+      <c r="B466" s="1">
+        <v>579560</v>
+      </c>
+      <c r="C466">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="4">
+        <v>44139</v>
+      </c>
+      <c r="B467" s="1">
+        <v>577284</v>
+      </c>
+      <c r="C467">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="4">
+        <v>44140</v>
+      </c>
+      <c r="B468" s="1">
+        <v>580773.93999999994</v>
+      </c>
+      <c r="C468">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="4">
+        <v>44141</v>
+      </c>
+      <c r="B469" s="1">
+        <v>582302.18999999994</v>
+      </c>
+      <c r="C469">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\25 APP GRUPO INTERAVAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analista04\Documents\R\grupointeraval.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -554,12 +554,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,16 +569,16 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -919,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M469"/>
+  <dimension ref="A1:M472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="H430" sqref="H430"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6120,6 +6120,39 @@
         <v>0.26</v>
       </c>
     </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="4">
+        <v>44144</v>
+      </c>
+      <c r="B470" s="1">
+        <v>583980</v>
+      </c>
+      <c r="C470">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="4">
+        <v>44145</v>
+      </c>
+      <c r="B471" s="1">
+        <v>590654.75</v>
+      </c>
+      <c r="C471">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="4">
+        <v>44146</v>
+      </c>
+      <c r="B472" s="1">
+        <v>596108.06000000006</v>
+      </c>
+      <c r="C472">
+        <v>0.92</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -919,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M472"/>
+  <dimension ref="A1:M473"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473"/>
+      <selection activeCell="C474" sqref="C474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6153,6 +6153,17 @@
         <v>0.92</v>
       </c>
     </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="4">
+        <v>44147</v>
+      </c>
+      <c r="B473" s="1">
+        <v>609044.12</v>
+      </c>
+      <c r="C473">
+        <v>2.17</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -557,7 +557,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -594,6 +594,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -919,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M473"/>
+  <dimension ref="A1:M475"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="C474" sqref="C474"/>
+      <selection activeCell="C476" sqref="C476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6164,6 +6167,28 @@
         <v>2.17</v>
       </c>
     </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="4">
+        <v>44148</v>
+      </c>
+      <c r="B474" s="1">
+        <v>632147</v>
+      </c>
+      <c r="C474" s="22">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="4">
+        <v>44151</v>
+      </c>
+      <c r="B475" s="1">
+        <v>622016</v>
+      </c>
+      <c r="C475">
+        <v>-1.6</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FECHA</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>VARIACION</t>
+  </si>
+  <si>
+    <t>628845.38</t>
+  </si>
+  <si>
+    <t>622095.06</t>
+  </si>
+  <si>
+    <t>638019.44</t>
   </si>
 </sst>
 </file>
@@ -922,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M475"/>
+  <dimension ref="A1:M478"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="C476" sqref="C476"/>
+      <selection activeCell="C479" sqref="C479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6189,6 +6198,39 @@
         <v>-1.6</v>
       </c>
     </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="4">
+        <v>44152</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C476">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="4">
+        <v>44153</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C477">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="4">
+        <v>44154</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C478">
+        <v>1.46</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>FECHA</t>
   </si>
@@ -28,15 +28,6 @@
   </si>
   <si>
     <t>VARIACION</t>
-  </si>
-  <si>
-    <t>628845.38</t>
-  </si>
-  <si>
-    <t>622095.06</t>
-  </si>
-  <si>
-    <t>638019.44</t>
   </si>
 </sst>
 </file>
@@ -931,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M478"/>
+  <dimension ref="A1:M480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="C479" sqref="C479"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="C481" sqref="C481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6202,8 +6193,8 @@
       <c r="A476" s="4">
         <v>44152</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>4</v>
+      <c r="B476" s="1">
+        <v>622095.06000000006</v>
       </c>
       <c r="C476">
         <v>0.01</v>
@@ -6213,8 +6204,8 @@
       <c r="A477" s="4">
         <v>44153</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>3</v>
+      <c r="B477" s="1">
+        <v>628845.38</v>
       </c>
       <c r="C477">
         <v>1.0900000000000001</v>
@@ -6224,11 +6215,33 @@
       <c r="A478" s="4">
         <v>44154</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>5</v>
+      <c r="B478" s="1">
+        <v>638019.43999999994</v>
       </c>
       <c r="C478">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="4">
+        <v>44155</v>
+      </c>
+      <c r="B479" s="1">
+        <v>699912.81</v>
+      </c>
+      <c r="C479">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="4">
+        <v>44159</v>
+      </c>
+      <c r="B480" s="1">
+        <v>794039</v>
+      </c>
+      <c r="C480">
+        <v>13.45</v>
       </c>
     </row>
   </sheetData>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -922,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M480"/>
+  <dimension ref="A1:M481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="C481" sqref="C481"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="C482" sqref="C482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,6 +6244,17 @@
         <v>13.45</v>
       </c>
     </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="4">
+        <v>44160</v>
+      </c>
+      <c r="B481" s="1">
+        <v>800859.94</v>
+      </c>
+      <c r="C481">
+        <v>0.86</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -557,7 +557,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -597,6 +597,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -922,16 +925,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M481"/>
+  <dimension ref="A1:M483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="C482" sqref="C482"/>
+      <selection activeCell="C484" sqref="C484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
@@ -6253,6 +6256,28 @@
       </c>
       <c r="C481">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="4">
+        <v>44161</v>
+      </c>
+      <c r="B482" s="23">
+        <v>891463.56</v>
+      </c>
+      <c r="C482">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="4">
+        <v>44162</v>
+      </c>
+      <c r="B483" s="1">
+        <v>1142802</v>
+      </c>
+      <c r="C483">
+        <v>28.19</v>
       </c>
     </row>
   </sheetData>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M483"/>
+  <dimension ref="A1:M485"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="C484" sqref="C484"/>
+      <selection activeCell="E485" sqref="E485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6280,6 +6280,28 @@
         <v>28.19</v>
       </c>
     </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="4">
+        <v>44165</v>
+      </c>
+      <c r="B484" s="1">
+        <v>1273550.3799999999</v>
+      </c>
+      <c r="C484">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="4">
+        <v>44166</v>
+      </c>
+      <c r="B485" s="1">
+        <v>1265970.1200000001</v>
+      </c>
+      <c r="C485">
+        <v>-0.6</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M485"/>
+  <dimension ref="A1:M486"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="E485" sqref="E485"/>
+      <selection activeCell="B487" sqref="B487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6302,6 +6302,17 @@
         <v>-0.6</v>
       </c>
     </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="4">
+        <v>44167</v>
+      </c>
+      <c r="B486" s="1">
+        <v>1291285.6200000001</v>
+      </c>
+      <c r="C486">
+        <v>4.92</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M486"/>
+  <dimension ref="A1:M490"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="B487" sqref="B487"/>
+      <selection activeCell="C491" sqref="C491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6307,10 +6307,54 @@
         <v>44167</v>
       </c>
       <c r="B486" s="1">
+        <v>1230764.6200000001</v>
+      </c>
+      <c r="C486">
+        <v>-2.78</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="4">
+        <v>44168</v>
+      </c>
+      <c r="B487" s="1">
         <v>1291285.6200000001</v>
       </c>
-      <c r="C486">
+      <c r="C487">
         <v>4.92</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="4">
+        <v>44169</v>
+      </c>
+      <c r="B488" s="1">
+        <v>1376478.12</v>
+      </c>
+      <c r="C488">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="4">
+        <v>44172</v>
+      </c>
+      <c r="B489" s="1">
+        <v>1344245.5</v>
+      </c>
+      <c r="C489">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="4">
+        <v>44173</v>
+      </c>
+      <c r="B490" s="1">
+        <v>1314862</v>
+      </c>
+      <c r="C490">
+        <v>-2.19</v>
       </c>
     </row>
   </sheetData>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M490"/>
+  <dimension ref="A1:M492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="C491" sqref="C491"/>
+      <selection activeCell="F497" sqref="F497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6357,6 +6357,28 @@
         <v>-2.19</v>
       </c>
     </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="4">
+        <v>44174</v>
+      </c>
+      <c r="B491" s="1">
+        <v>1298415.3799999999</v>
+      </c>
+      <c r="C491">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="4">
+        <v>44175</v>
+      </c>
+      <c r="B492" s="1">
+        <v>1279129.75</v>
+      </c>
+      <c r="C492">
+        <v>-1.49</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M492"/>
+  <dimension ref="A1:M493"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="F497" sqref="F497"/>
+      <selection activeCell="B494" sqref="B494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6379,6 +6379,17 @@
         <v>-1.49</v>
       </c>
     </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="4">
+        <v>44176</v>
+      </c>
+      <c r="B493" s="1">
+        <v>1288431.25</v>
+      </c>
+      <c r="C493">
+        <v>0.73</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M493"/>
+  <dimension ref="A1:M494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="B494" sqref="B494"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="B495" sqref="B495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6390,6 +6390,17 @@
         <v>0.73</v>
       </c>
     </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B494" s="1">
+        <v>1331370.5</v>
+      </c>
+      <c r="C494">
+        <v>3.33</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M494"/>
+  <dimension ref="A1:M495"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="B495" sqref="B495"/>
+      <selection activeCell="B496" sqref="B496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6401,6 +6401,17 @@
         <v>3.33</v>
       </c>
     </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="4">
+        <v>44181</v>
+      </c>
+      <c r="B495" s="1">
+        <v>1322428.3799999999</v>
+      </c>
+      <c r="C495">
+        <v>-0.67</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M495"/>
+  <dimension ref="A1:M496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="B496" sqref="B496"/>
+    <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6412,6 +6412,17 @@
         <v>-0.67</v>
       </c>
     </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="4">
+        <v>44182</v>
+      </c>
+      <c r="B496" s="1">
+        <v>1270626.6200000001</v>
+      </c>
+      <c r="C496">
+        <v>-3.92</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M496"/>
+  <dimension ref="A1:M497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497"/>
+      <selection activeCell="E500" sqref="E500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6423,6 +6423,17 @@
         <v>-3.92</v>
       </c>
     </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="4">
+        <v>44183</v>
+      </c>
+      <c r="B497" s="1">
+        <v>1267251.25</v>
+      </c>
+      <c r="C497">
+        <v>-0.27</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M497"/>
+  <dimension ref="A1:M498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="E500" sqref="E500"/>
+      <selection activeCell="C499" sqref="C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6434,6 +6434,17 @@
         <v>-0.27</v>
       </c>
     </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="4">
+        <v>44186</v>
+      </c>
+      <c r="B498" s="1">
+        <v>1235117</v>
+      </c>
+      <c r="C498">
+        <v>-2.54</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M498"/>
+  <dimension ref="A1:M499"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="C499" sqref="C499"/>
+      <selection activeCell="C500" sqref="C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6445,6 +6445,17 @@
         <v>-2.54</v>
       </c>
     </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="4">
+        <v>44187</v>
+      </c>
+      <c r="B499" s="1">
+        <v>1230221.8799999999</v>
+      </c>
+      <c r="C499">
+        <v>-0.4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M499"/>
+  <dimension ref="A1:M500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="C500" sqref="C500"/>
+      <selection activeCell="C501" sqref="C501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6456,6 +6456,17 @@
         <v>-0.4</v>
       </c>
     </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="4">
+        <v>44188</v>
+      </c>
+      <c r="B500" s="1">
+        <v>1229396.3799999999</v>
+      </c>
+      <c r="C500">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M500"/>
+  <dimension ref="A1:M501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501"/>
+      <selection activeCell="C502" sqref="C502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6467,6 +6467,17 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="4">
+        <v>44193</v>
+      </c>
+      <c r="B501" s="1">
+        <v>1238367.25</v>
+      </c>
+      <c r="C501">
+        <v>0.73</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M501"/>
+  <dimension ref="A1:M502"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="C502" sqref="C502"/>
+      <selection activeCell="C503" sqref="C503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6478,6 +6478,17 @@
         <v>0.73</v>
       </c>
     </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="4">
+        <v>44194</v>
+      </c>
+      <c r="B502" s="1">
+        <v>1252254.5</v>
+      </c>
+      <c r="C502">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M502"/>
+  <dimension ref="A1:M503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="C503" sqref="C503"/>
+      <selection activeCell="C504" sqref="C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6489,6 +6489,17 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="4">
+        <v>44195</v>
+      </c>
+      <c r="B503" s="1">
+        <v>1332059.8799999999</v>
+      </c>
+      <c r="C503">
+        <v>6.37</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M503"/>
+  <dimension ref="A1:M504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="C504" sqref="C504"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="C505" sqref="C505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6500,6 +6500,17 @@
         <v>6.37</v>
       </c>
     </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="4">
+        <v>44287</v>
+      </c>
+      <c r="B504" s="1">
+        <v>1448283.62</v>
+      </c>
+      <c r="C504">
+        <v>8.73</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M504"/>
+  <dimension ref="A1:M506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="C505" sqref="C505"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="C507" sqref="C507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6502,13 +6502,35 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="4">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="B504" s="1">
         <v>1448283.62</v>
       </c>
       <c r="C504">
         <v>8.73</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="4">
+        <v>44201</v>
+      </c>
+      <c r="B505" s="1">
+        <v>1381986.75</v>
+      </c>
+      <c r="C505">
+        <v>-4.58</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="4">
+        <v>44202</v>
+      </c>
+      <c r="B506" s="1">
+        <v>1449892.5</v>
+      </c>
+      <c r="C506">
+        <v>4.91</v>
       </c>
     </row>
   </sheetData>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M506"/>
+  <dimension ref="A1:M507"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="C507" sqref="C507"/>
+      <selection activeCell="B508" sqref="B508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6533,6 +6533,17 @@
         <v>4.91</v>
       </c>
     </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="4">
+        <v>44203</v>
+      </c>
+      <c r="B507" s="1">
+        <v>1657941.12</v>
+      </c>
+      <c r="C507">
+        <v>14.35</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M507"/>
+  <dimension ref="A1:M508"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="B508" sqref="B508"/>
+      <selection activeCell="C512" sqref="C512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6544,6 +6544,17 @@
         <v>14.35</v>
       </c>
     </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="4">
+        <v>44204</v>
+      </c>
+      <c r="B508" s="1">
+        <v>1905696</v>
+      </c>
+      <c r="C508">
+        <v>14.94</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,7 +925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M508"/>
+  <dimension ref="A1:M509"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
       <selection activeCell="C512" sqref="C512"/>
@@ -6555,6 +6555,17 @@
         <v>14.94</v>
       </c>
     </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="4">
+        <v>44208</v>
+      </c>
+      <c r="B509" s="1">
+        <v>1804195.75</v>
+      </c>
+      <c r="C509">
+        <v>-5.33</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M509"/>
+  <dimension ref="A1:M510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="C512" sqref="C512"/>
+      <selection activeCell="C511" sqref="C511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6566,6 +6566,17 @@
         <v>-5.33</v>
       </c>
     </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="4">
+        <v>44209</v>
+      </c>
+      <c r="B510" s="1">
+        <v>1745892</v>
+      </c>
+      <c r="C510">
+        <v>-3.23</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M510"/>
+  <dimension ref="A1:M513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="C511" sqref="C511"/>
+      <selection activeCell="B514" sqref="B514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6577,6 +6577,39 @@
         <v>-3.23</v>
       </c>
     </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="4">
+        <v>44210</v>
+      </c>
+      <c r="B511" s="1">
+        <v>1818485.62</v>
+      </c>
+      <c r="C511">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="4">
+        <v>44211</v>
+      </c>
+      <c r="B512" s="1">
+        <v>1741966.12</v>
+      </c>
+      <c r="C512">
+        <v>-4.21</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="4">
+        <v>44215</v>
+      </c>
+      <c r="B513" s="1">
+        <v>1799541.88</v>
+      </c>
+      <c r="C513">
+        <v>3.31</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M513"/>
+  <dimension ref="A1:M515"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="B514" sqref="B514"/>
+      <selection activeCell="B516" sqref="B516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6610,6 +6610,28 @@
         <v>3.31</v>
       </c>
     </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="4">
+        <v>44216</v>
+      </c>
+      <c r="B514" s="1">
+        <v>1785018.75</v>
+      </c>
+      <c r="C514">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="4">
+        <v>44217</v>
+      </c>
+      <c r="B515" s="1">
+        <v>1925396.5</v>
+      </c>
+      <c r="C515">
+        <v>7.86</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M515"/>
+  <dimension ref="A1:M516"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="B516" sqref="B516"/>
+      <selection activeCell="B517" sqref="B517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6632,6 +6632,17 @@
         <v>7.86</v>
       </c>
     </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="4">
+        <v>44218</v>
+      </c>
+      <c r="B516" s="1">
+        <v>1997191.88</v>
+      </c>
+      <c r="C516">
+        <v>3.73</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M516"/>
+  <dimension ref="A1:M518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="B517" sqref="B517"/>
+    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="B518" sqref="B518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6643,6 +6643,28 @@
         <v>3.73</v>
       </c>
     </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="4">
+        <v>44221</v>
+      </c>
+      <c r="B517" s="1">
+        <v>1936237.25</v>
+      </c>
+      <c r="C517">
+        <v>-3.05</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="4">
+        <v>44222</v>
+      </c>
+      <c r="B518" s="1">
+        <v>1887118.88</v>
+      </c>
+      <c r="C518">
+        <v>-2.54</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M518"/>
+  <dimension ref="A1:M523"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="B518" sqref="B518"/>
+      <selection activeCell="C524" sqref="C524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6665,6 +6665,61 @@
         <v>-2.54</v>
       </c>
     </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="4">
+        <v>44223</v>
+      </c>
+      <c r="B519" s="1">
+        <v>1909861.25</v>
+      </c>
+      <c r="C519">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="4">
+        <v>44224</v>
+      </c>
+      <c r="B520" s="1">
+        <v>1921557.38</v>
+      </c>
+      <c r="C520">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="4">
+        <v>44225</v>
+      </c>
+      <c r="B521" s="1">
+        <v>1924354.75</v>
+      </c>
+      <c r="C521">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B522" s="1">
+        <v>1905502.88</v>
+      </c>
+      <c r="C522">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="4">
+        <v>44229</v>
+      </c>
+      <c r="B523" s="1">
+        <v>1887222.5</v>
+      </c>
+      <c r="C523">
+        <v>-0.96</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M523"/>
+  <dimension ref="A1:M525"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="C524" sqref="C524"/>
+      <selection activeCell="B526" sqref="B526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6720,6 +6720,28 @@
         <v>-0.96</v>
       </c>
     </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="4">
+        <v>44230</v>
+      </c>
+      <c r="B524" s="1">
+        <v>1937007.5</v>
+      </c>
+      <c r="C524">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="4">
+        <v>44231</v>
+      </c>
+      <c r="B525" s="1">
+        <v>1903205.5</v>
+      </c>
+      <c r="C525">
+        <v>-1.75</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M525"/>
+  <dimension ref="A1:M526"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="B526" sqref="B526"/>
+      <selection activeCell="B527" sqref="B527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6742,6 +6742,17 @@
         <v>-1.75</v>
       </c>
     </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="4">
+        <v>44232</v>
+      </c>
+      <c r="B526" s="1">
+        <v>1877815.75</v>
+      </c>
+      <c r="C526">
+        <v>-1.33</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M526"/>
+  <dimension ref="A1:M527"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="B527" sqref="B527"/>
+      <selection activeCell="H518" sqref="H518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6753,6 +6753,17 @@
         <v>-1.33</v>
       </c>
     </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="4">
+        <v>44235</v>
+      </c>
+      <c r="B527" s="1">
+        <v>1850033.25</v>
+      </c>
+      <c r="C527">
+        <v>-1.48</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M527"/>
+  <dimension ref="A1:M528"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="H518" sqref="H518"/>
+      <selection activeCell="B529" sqref="B529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6764,6 +6764,17 @@
         <v>-1.48</v>
       </c>
     </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="4">
+        <v>44236</v>
+      </c>
+      <c r="B528" s="1">
+        <v>1870622.38</v>
+      </c>
+      <c r="C528">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M528"/>
+  <dimension ref="A1:M529"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="B529" sqref="B529"/>
+      <selection activeCell="C530" sqref="C530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6775,6 +6775,17 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="4">
+        <v>44237</v>
+      </c>
+      <c r="B529" s="1">
+        <v>1874510.88</v>
+      </c>
+      <c r="C529">
+        <v>0.21</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M529"/>
+  <dimension ref="A1:M531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="C530" sqref="C530"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="F529" sqref="F529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6786,6 +6786,28 @@
         <v>0.21</v>
       </c>
     </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="4">
+        <v>44238</v>
+      </c>
+      <c r="B530" s="1">
+        <v>1882781.5</v>
+      </c>
+      <c r="C530">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="4">
+        <v>44239</v>
+      </c>
+      <c r="B531" s="1">
+        <v>1870964.62</v>
+      </c>
+      <c r="C531">
+        <v>-0.63</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M531"/>
+  <dimension ref="A1:M533"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="F529" sqref="F529"/>
+      <selection activeCell="C534" sqref="C534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6808,6 +6808,28 @@
         <v>-0.63</v>
       </c>
     </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="4">
+        <v>44244</v>
+      </c>
+      <c r="B532" s="1">
+        <v>1859847.62</v>
+      </c>
+      <c r="C532">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="4">
+        <v>44245</v>
+      </c>
+      <c r="B533" s="1">
+        <v>1875271</v>
+      </c>
+      <c r="C533">
+        <v>0.83</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M533"/>
+  <dimension ref="A1:M535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="C534" sqref="C534"/>
+    <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
+      <selection activeCell="B536" sqref="B536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6830,6 +6830,28 @@
         <v>0.83</v>
       </c>
     </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="4">
+        <v>44246</v>
+      </c>
+      <c r="B534" s="1">
+        <v>1908051.88</v>
+      </c>
+      <c r="C534">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="4">
+        <v>44249</v>
+      </c>
+      <c r="B535" s="1">
+        <v>2014488.62</v>
+      </c>
+      <c r="C535">
+        <v>5.58</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M535"/>
+  <dimension ref="A1:M536"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
-      <selection activeCell="B536" sqref="B536"/>
+      <selection activeCell="C537" sqref="C537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6852,6 +6852,17 @@
         <v>5.58</v>
       </c>
     </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="4">
+        <v>44250</v>
+      </c>
+      <c r="B536" s="1">
+        <v>2024784.5</v>
+      </c>
+      <c r="C536">
+        <v>0.51</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M536"/>
+  <dimension ref="A1:M537"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
-      <selection activeCell="C537" sqref="C537"/>
+      <selection activeCell="B538" sqref="B538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6863,6 +6863,17 @@
         <v>0.51</v>
       </c>
     </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="4">
+        <v>44251</v>
+      </c>
+      <c r="B537" s="1">
+        <v>2053756.75</v>
+      </c>
+      <c r="C537">
+        <v>1.43</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M537"/>
+  <dimension ref="A1:M538"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
-      <selection activeCell="B538" sqref="B538"/>
+      <selection activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6874,6 +6874,17 @@
         <v>1.43</v>
       </c>
     </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="4">
+        <v>44252</v>
+      </c>
+      <c r="B538" s="1">
+        <v>2150334</v>
+      </c>
+      <c r="C538">
+        <v>4.7</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M538"/>
+  <dimension ref="A1:M540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
-      <selection activeCell="C539" sqref="C539"/>
+      <selection activeCell="B540" sqref="B540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6885,6 +6885,28 @@
         <v>4.7</v>
       </c>
     </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="4">
+        <v>44253</v>
+      </c>
+      <c r="B539" s="1">
+        <v>2300775.75</v>
+      </c>
+      <c r="C539">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="4">
+        <v>44256</v>
+      </c>
+      <c r="B540" s="1">
+        <v>2350514.5</v>
+      </c>
+      <c r="C540">
+        <v>2.16</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M540"/>
+  <dimension ref="A1:M544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
-      <selection activeCell="B540" sqref="B540"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="H540" sqref="H540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6907,6 +6907,50 @@
         <v>2.16</v>
       </c>
     </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="4">
+        <v>44257</v>
+      </c>
+      <c r="B541" s="1">
+        <v>2493808.75</v>
+      </c>
+      <c r="C541">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="4">
+        <v>44258</v>
+      </c>
+      <c r="B542" s="1">
+        <v>2343334.5</v>
+      </c>
+      <c r="C542">
+        <v>-6.03</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="4">
+        <v>44259</v>
+      </c>
+      <c r="B543" s="1">
+        <v>2393488.5</v>
+      </c>
+      <c r="C543">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="4">
+        <v>44260</v>
+      </c>
+      <c r="B544" s="1">
+        <v>2441750</v>
+      </c>
+      <c r="C544">
+        <v>2.02</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M544"/>
+  <dimension ref="A1:M545"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="H540" sqref="H540"/>
+      <selection activeCell="E547" sqref="E547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6951,6 +6951,17 @@
         <v>2.02</v>
       </c>
     </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="4">
+        <v>44263</v>
+      </c>
+      <c r="B545" s="1">
+        <v>2511655.5</v>
+      </c>
+      <c r="C545">
+        <v>2.86</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M545"/>
+  <dimension ref="A1:M548"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="E547" sqref="E547"/>
+      <selection activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6962,6 +6962,39 @@
         <v>2.86</v>
       </c>
     </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="4">
+        <v>44264</v>
+      </c>
+      <c r="B546" s="1">
+        <v>2615668.5</v>
+      </c>
+      <c r="C546">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="4">
+        <v>44265</v>
+      </c>
+      <c r="B547" s="1">
+        <v>2576883.75</v>
+      </c>
+      <c r="C547">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="4">
+        <v>44266</v>
+      </c>
+      <c r="B548" s="1">
+        <v>2606643.75</v>
+      </c>
+      <c r="C548">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M548"/>
+  <dimension ref="A1:M550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="B549" sqref="B549"/>
+    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="C550" sqref="C550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6995,6 +6995,28 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="4">
+        <v>44267</v>
+      </c>
+      <c r="B549" s="1">
+        <v>2645283.75</v>
+      </c>
+      <c r="C549">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="4">
+        <v>44270</v>
+      </c>
+      <c r="B550" s="1">
+        <v>2668313.5</v>
+      </c>
+      <c r="C550">
+        <v>0.87</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M550"/>
+  <dimension ref="A1:M551"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="C550" sqref="C550"/>
+      <selection activeCell="B552" sqref="B552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7017,6 +7017,17 @@
         <v>0.87</v>
       </c>
     </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="4">
+        <v>44271</v>
+      </c>
+      <c r="B551" s="1">
+        <v>2699170.75</v>
+      </c>
+      <c r="C551">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M551"/>
+  <dimension ref="A1:M552"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="B552" sqref="B552"/>
+      <selection activeCell="C553" sqref="C553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7028,6 +7028,17 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="4">
+        <v>44272</v>
+      </c>
+      <c r="B552" s="1">
+        <v>2702129.5</v>
+      </c>
+      <c r="C552">
+        <v>0.11</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M552"/>
+  <dimension ref="A1:M553"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="C553" sqref="C553"/>
+      <selection activeCell="B554" sqref="B554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7039,6 +7039,17 @@
         <v>0.11</v>
       </c>
     </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="4">
+        <v>44273</v>
+      </c>
+      <c r="B553" s="1">
+        <v>2694698.25</v>
+      </c>
+      <c r="C553">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -557,7 +557,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -602,6 +602,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -925,17 +926,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M553"/>
+  <dimension ref="A1:M578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="B554" sqref="B554"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="4"/>
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="3"/>
+    <col min="4" max="6" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,7 +957,7 @@
         <v>43410</v>
       </c>
       <c r="B2" s="1">
-        <v>507.32</v>
+        <v>0.50731999999999999</v>
       </c>
       <c r="C2">
         <v>-99.9</v>
@@ -965,7 +968,7 @@
         <v>43411</v>
       </c>
       <c r="B3" s="1">
-        <v>539.32000000000005</v>
+        <v>0.53932000000000002</v>
       </c>
       <c r="C3">
         <v>6.3100000000000005</v>
@@ -976,7 +979,7 @@
         <v>43412</v>
       </c>
       <c r="B4" s="1">
-        <v>548.09</v>
+        <v>0.54809000000000008</v>
       </c>
       <c r="C4">
         <v>1.63</v>
@@ -987,7 +990,7 @@
         <v>43413</v>
       </c>
       <c r="B5" s="1">
-        <v>568.16999999999996</v>
+        <v>0.56816999999999995</v>
       </c>
       <c r="C5">
         <v>3.66</v>
@@ -998,7 +1001,7 @@
         <v>43416</v>
       </c>
       <c r="B6" s="1">
-        <v>568.57000000000005</v>
+        <v>0.56857000000000002</v>
       </c>
       <c r="C6">
         <v>6.9999999999999993E-2</v>
@@ -1009,7 +1012,7 @@
         <v>43417</v>
       </c>
       <c r="B7" s="1">
-        <v>577.1</v>
+        <v>0.57710000000000006</v>
       </c>
       <c r="C7">
         <v>1.5</v>
@@ -1020,7 +1023,7 @@
         <v>43418</v>
       </c>
       <c r="B8" s="1">
-        <v>580.38</v>
+        <v>0.58038000000000001</v>
       </c>
       <c r="C8">
         <v>0.57000000000000006</v>
@@ -1031,7 +1034,7 @@
         <v>43419</v>
       </c>
       <c r="B9" s="1">
-        <v>571.24</v>
+        <v>0.57123999999999997</v>
       </c>
       <c r="C9">
         <v>-1.5699999999999998</v>
@@ -1042,7 +1045,7 @@
         <v>43420</v>
       </c>
       <c r="B10" s="1">
-        <v>569.13</v>
+        <v>0.56913000000000002</v>
       </c>
       <c r="C10">
         <v>-0.37</v>
@@ -1053,7 +1056,7 @@
         <v>43423</v>
       </c>
       <c r="B11" s="1">
-        <v>551.97</v>
+        <v>0.55197000000000007</v>
       </c>
       <c r="C11">
         <v>-3.02</v>
@@ -1064,7 +1067,7 @@
         <v>43424</v>
       </c>
       <c r="B12" s="1">
-        <v>516.41</v>
+        <v>0.51640999999999992</v>
       </c>
       <c r="C12">
         <v>-6.4399999999999995</v>
@@ -1075,7 +1078,7 @@
         <v>43425</v>
       </c>
       <c r="B13" s="1">
-        <v>512.37</v>
+        <v>0.51236999999999999</v>
       </c>
       <c r="C13">
         <v>-0.77999999999999992</v>
@@ -1086,7 +1089,7 @@
         <v>43426</v>
       </c>
       <c r="B14" s="1">
-        <v>510.35</v>
+        <v>0.51034999999999997</v>
       </c>
       <c r="C14">
         <v>-0.38999999999999996</v>
@@ -1097,7 +1100,7 @@
         <v>43427</v>
       </c>
       <c r="B15" s="1">
-        <v>516.85</v>
+        <v>0.51685000000000003</v>
       </c>
       <c r="C15">
         <v>1.27</v>
@@ -1108,2223 +1111,2415 @@
         <v>43430</v>
       </c>
       <c r="B16" s="1">
-        <v>533</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="C16">
         <v>3.1199999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43431</v>
       </c>
       <c r="B17" s="1">
-        <v>639.89</v>
+        <v>0.63988999999999996</v>
       </c>
       <c r="C17">
         <v>20.05</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43432</v>
       </c>
       <c r="B18" s="1">
-        <v>700.39</v>
+        <v>0.70038999999999996</v>
       </c>
       <c r="C18">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43433</v>
       </c>
       <c r="B19" s="1">
-        <v>739.62</v>
+        <v>0.73962000000000006</v>
       </c>
       <c r="C19">
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43434</v>
       </c>
       <c r="B20" s="1">
-        <v>818.18</v>
+        <v>0.81817999999999991</v>
       </c>
       <c r="C20">
         <v>10.620000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43437</v>
       </c>
       <c r="B21" s="1">
-        <v>884.19</v>
+        <v>0.88419000000000003</v>
       </c>
       <c r="C21">
         <v>8.07</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43438</v>
       </c>
       <c r="B22" s="1">
-        <v>854.59</v>
+        <v>0.85459000000000007</v>
       </c>
       <c r="C22">
         <v>-3.35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43439</v>
       </c>
       <c r="B23" s="1">
-        <v>835.42</v>
+        <v>0.83541999999999994</v>
       </c>
       <c r="C23">
         <v>-2.2399999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43440</v>
       </c>
       <c r="B24" s="1">
-        <v>822.09</v>
+        <v>0.82208999999999999</v>
       </c>
       <c r="C24">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43441</v>
       </c>
       <c r="B25" s="1">
-        <v>776.14</v>
+        <v>0.77613999999999994</v>
       </c>
       <c r="C25">
         <v>-5.59</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43444</v>
       </c>
       <c r="B26" s="1">
-        <v>776.7</v>
+        <v>0.77670000000000006</v>
       </c>
       <c r="C26">
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43445</v>
       </c>
       <c r="B27" s="1">
-        <v>767.46</v>
+        <v>0.76746000000000003</v>
       </c>
       <c r="C27">
         <v>-1.1900000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43446</v>
       </c>
       <c r="B28" s="1">
-        <v>754.6</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="C28">
         <v>-1.68</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43447</v>
       </c>
       <c r="B29" s="1">
-        <v>745.22</v>
+        <v>0.74521999999999999</v>
       </c>
       <c r="C29">
         <v>-1.24</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43448</v>
       </c>
       <c r="B30" s="1">
-        <v>747.53</v>
+        <v>0.74753000000000003</v>
       </c>
       <c r="C30">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43451</v>
       </c>
       <c r="B31" s="1">
-        <v>789.38</v>
+        <v>0.78937999999999997</v>
       </c>
       <c r="C31">
         <v>5.6000000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43452</v>
       </c>
       <c r="B32" s="1">
-        <v>805.48</v>
+        <v>0.80547999999999997</v>
       </c>
       <c r="C32">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43453</v>
       </c>
       <c r="B33" s="1">
-        <v>822.3</v>
+        <v>0.82229999999999992</v>
       </c>
       <c r="C33">
         <v>2.09</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43454</v>
       </c>
       <c r="B34" s="1">
-        <v>818.53</v>
+        <v>0.81852999999999998</v>
       </c>
       <c r="C34">
         <v>-0.45999999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43455</v>
       </c>
       <c r="B35" s="1">
-        <v>1260.17</v>
+        <v>1.26017</v>
       </c>
       <c r="C35">
         <v>53.959999999999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43460</v>
       </c>
       <c r="B36" s="1">
-        <v>1309.69</v>
+        <v>1.30969</v>
       </c>
       <c r="C36">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43461</v>
       </c>
       <c r="B37" s="1">
-        <v>1426.49</v>
+        <v>1.42649</v>
       </c>
       <c r="C37">
         <v>8.92</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43462</v>
       </c>
       <c r="B38" s="1">
-        <v>1605.26</v>
+        <v>1.6052599999999999</v>
       </c>
       <c r="C38">
         <v>12.53</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43467</v>
       </c>
       <c r="B39" s="1">
-        <v>1621.11</v>
+        <v>1.6211099999999998</v>
       </c>
       <c r="C39">
         <v>0.9900000000000001</v>
       </c>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43468</v>
       </c>
       <c r="B40" s="1">
-        <v>1682.51</v>
+        <v>1.68251</v>
       </c>
       <c r="C40">
         <v>3.7900000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43469</v>
       </c>
       <c r="B41" s="1">
-        <v>1922.37</v>
+        <v>1.9223699999999999</v>
       </c>
       <c r="C41">
         <v>14.26</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43472</v>
       </c>
       <c r="B42" s="1">
-        <v>2367.5500000000002</v>
+        <v>2.36755</v>
       </c>
       <c r="C42">
         <v>23.16</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43473</v>
       </c>
       <c r="B43" s="1">
-        <v>2623.78</v>
+        <v>2.62378</v>
       </c>
       <c r="C43">
         <v>10.82</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43474</v>
       </c>
       <c r="B44" s="1">
-        <v>2683.91</v>
+        <v>2.68391</v>
       </c>
       <c r="C44">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43475</v>
       </c>
       <c r="B45" s="1">
-        <v>3331.68</v>
+        <v>3.33168</v>
       </c>
       <c r="C45">
         <v>24.14</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43476</v>
       </c>
       <c r="B46" s="1">
-        <v>4384.79</v>
+        <v>4.3847899999999997</v>
       </c>
       <c r="C46">
         <v>31.61</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43479</v>
       </c>
       <c r="B47" s="1">
-        <v>6023.09</v>
+        <v>6.0230899999999998</v>
       </c>
       <c r="C47">
         <v>37.36</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43480</v>
       </c>
       <c r="B48" s="1">
-        <v>5972.39</v>
+        <v>5.9723900000000008</v>
       </c>
       <c r="C48">
         <v>-0.84</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43481</v>
       </c>
       <c r="B49" s="1">
-        <v>6189.57</v>
+        <v>6.1895699999999998</v>
       </c>
       <c r="C49">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43482</v>
       </c>
       <c r="B50" s="1">
-        <v>5956.11</v>
+        <v>5.9561099999999998</v>
       </c>
       <c r="C50">
         <v>-3.7699999999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43483</v>
       </c>
       <c r="B51" s="1">
-        <v>5836.15</v>
+        <v>5.8361499999999999</v>
       </c>
       <c r="C51">
         <v>-2.0099999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43486</v>
       </c>
       <c r="B52" s="1">
-        <v>5700.74</v>
+        <v>5.7007399999999997</v>
       </c>
       <c r="C52">
         <v>-2.3199999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43487</v>
       </c>
       <c r="B53" s="1">
-        <v>5558.23</v>
+        <v>5.55823</v>
       </c>
       <c r="C53">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43488</v>
       </c>
       <c r="B54" s="1">
-        <v>5734.68</v>
+        <v>5.73468</v>
       </c>
       <c r="C54">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43489</v>
       </c>
       <c r="B55" s="1">
-        <v>5827.61</v>
+        <v>5.82761</v>
       </c>
       <c r="C55">
         <v>1.6199999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>43490</v>
       </c>
       <c r="B56" s="1">
-        <v>5974.23</v>
+        <v>5.9742299999999995</v>
       </c>
       <c r="C56">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43493</v>
       </c>
       <c r="B57" s="1">
-        <v>6068.91</v>
+        <v>6.0689099999999998</v>
       </c>
       <c r="C57">
         <v>1.58</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43494</v>
       </c>
       <c r="B58" s="1">
-        <v>6147.36</v>
+        <v>6.1473599999999999</v>
       </c>
       <c r="C58">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43495</v>
       </c>
       <c r="B59" s="1">
-        <v>5764.13</v>
+        <v>5.7641299999999998</v>
       </c>
       <c r="C59">
         <v>-6.23</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43496</v>
       </c>
       <c r="B60" s="1">
-        <v>5436.77</v>
+        <v>5.4367700000000001</v>
       </c>
       <c r="C60">
         <v>-5.6800000000000006</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43497</v>
       </c>
       <c r="B61" s="1">
-        <v>5286.4</v>
+        <v>5.2863999999999995</v>
       </c>
       <c r="C61">
         <v>-2.77</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43500</v>
       </c>
       <c r="B62" s="1">
-        <v>5100.2299999999996</v>
+        <v>5.1002299999999998</v>
       </c>
       <c r="C62">
         <v>-3.52</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43501</v>
       </c>
       <c r="B63" s="1">
-        <v>5580.27</v>
+        <v>5.5802700000000005</v>
       </c>
       <c r="C63">
         <v>9.41</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>43502</v>
       </c>
       <c r="B64" s="1">
-        <v>5566.58</v>
+        <v>5.5665800000000001</v>
       </c>
       <c r="C64">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>43503</v>
       </c>
       <c r="B65" s="1">
-        <v>5699.8</v>
+        <v>5.6997999999999998</v>
       </c>
       <c r="C65">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>43504</v>
       </c>
       <c r="B66" s="1">
-        <v>5525.24</v>
+        <v>5.5252400000000002</v>
       </c>
       <c r="C66">
         <v>-3.06</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>43507</v>
       </c>
       <c r="B67" s="1">
-        <v>5117.34</v>
+        <v>5.1173400000000004</v>
       </c>
       <c r="C67">
         <v>-7.3800000000000008</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>43508</v>
       </c>
       <c r="B68" s="1">
-        <v>4998.63</v>
+        <v>4.9986300000000004</v>
       </c>
       <c r="C68">
         <v>-2.3199999999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>43509</v>
       </c>
       <c r="B69" s="1">
-        <v>4812.96</v>
+        <v>4.8129600000000003</v>
       </c>
       <c r="C69">
         <v>-3.71</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>43510</v>
       </c>
       <c r="B70" s="1">
-        <v>4640.24</v>
+        <v>4.6402399999999995</v>
       </c>
       <c r="C70">
         <v>-3.5900000000000003</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>43511</v>
       </c>
       <c r="B71" s="1">
-        <v>5056.92</v>
+        <v>5.0569199999999999</v>
       </c>
       <c r="C71">
         <v>8.98</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>43514</v>
       </c>
       <c r="B72" s="1">
-        <v>5055.88</v>
+        <v>5.0558800000000002</v>
       </c>
       <c r="C72">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>43515</v>
       </c>
       <c r="B73" s="1">
-        <v>5232.46</v>
+        <v>5.2324599999999997</v>
       </c>
       <c r="C73">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>43516</v>
       </c>
       <c r="B74" s="1">
-        <v>5314.51</v>
+        <v>5.3145100000000003</v>
       </c>
       <c r="C74">
         <v>1.5699999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>43517</v>
       </c>
       <c r="B75" s="1">
-        <v>5596.29</v>
+        <v>5.5962899999999998</v>
       </c>
       <c r="C75">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>43518</v>
       </c>
       <c r="B76" s="1">
-        <v>6966.75</v>
+        <v>6.9667500000000002</v>
       </c>
       <c r="C76">
         <v>24.490000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>43521</v>
       </c>
       <c r="B77" s="1">
-        <v>7839.1</v>
+        <v>7.8391000000000002</v>
       </c>
       <c r="C77">
         <v>12.520000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>43522</v>
       </c>
       <c r="B78" s="1">
-        <v>9085.4</v>
+        <v>9.0853999999999999</v>
       </c>
       <c r="C78">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>43523</v>
       </c>
       <c r="B79" s="1">
-        <v>10516.31</v>
+        <v>10.516309999999999</v>
       </c>
       <c r="C79">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>43524</v>
       </c>
       <c r="B80" s="1">
-        <v>10516.31</v>
+        <v>10.516309999999999</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>43530</v>
       </c>
       <c r="B81" s="1">
-        <v>10104.290000000001</v>
+        <v>10.104290000000001</v>
       </c>
       <c r="C81">
         <v>-3.92</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>43531</v>
       </c>
       <c r="B82" s="1">
-        <v>9837.64</v>
+        <v>9.8376399999999986</v>
       </c>
       <c r="C82">
         <v>-2.64</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>43538</v>
       </c>
       <c r="B83" s="1">
-        <v>8194.59</v>
+        <v>8.1945899999999998</v>
       </c>
       <c r="C83">
         <v>-16.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>43539</v>
       </c>
       <c r="B84" s="1">
-        <v>8582.1299999999992</v>
+        <v>8.5821299999999994</v>
       </c>
       <c r="C84">
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>43542</v>
       </c>
       <c r="B85" s="1">
-        <v>8873.44</v>
+        <v>8.8734400000000004</v>
       </c>
       <c r="C85">
         <v>3.39</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>43544</v>
       </c>
       <c r="B86" s="1">
-        <v>9394.7999999999993</v>
+        <v>9.3948</v>
       </c>
       <c r="C86">
         <v>5.88</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>43545</v>
       </c>
       <c r="B87" s="1">
-        <v>9512.15</v>
+        <v>9.5121500000000001</v>
       </c>
       <c r="C87">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>43546</v>
       </c>
       <c r="B88" s="1">
-        <v>9487.81</v>
+        <v>9.4878099999999996</v>
       </c>
       <c r="C88">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>43549</v>
       </c>
       <c r="B89" s="1">
-        <v>8961.15</v>
+        <v>8.9611499999999999</v>
       </c>
       <c r="C89">
         <v>-5.55</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>43553</v>
       </c>
       <c r="B90" s="1">
-        <v>8567.89</v>
+        <v>8.5678900000000002</v>
       </c>
       <c r="C90">
         <v>-4.3900000000000006</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>43556</v>
       </c>
       <c r="B91" s="1">
-        <v>8249.07</v>
+        <v>8.2490699999999997</v>
       </c>
       <c r="C91">
         <v>-3.7199999999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>43557</v>
       </c>
       <c r="B92" s="1">
-        <v>8425.19</v>
+        <v>8.4251900000000006</v>
       </c>
       <c r="C92">
         <v>2.1399999999999997</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>43558</v>
       </c>
       <c r="B93" s="1">
-        <v>8554.7800000000007</v>
+        <v>8.5547800000000009</v>
       </c>
       <c r="C93">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>43559</v>
       </c>
       <c r="B94" s="1">
-        <v>8597.59</v>
+        <v>8.5975900000000003</v>
       </c>
       <c r="C94">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>43560</v>
       </c>
       <c r="B95" s="1">
-        <v>8833.81</v>
+        <v>8.8338099999999997</v>
       </c>
       <c r="C95">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>43563</v>
       </c>
       <c r="B96" s="1">
-        <v>8683.9599999999991</v>
+        <v>8.683959999999999</v>
       </c>
       <c r="C96">
         <v>-1.7000000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>43564</v>
       </c>
       <c r="B97" s="1">
-        <v>8494.06</v>
+        <v>8.4940599999999993</v>
       </c>
       <c r="C97">
         <v>-2.19</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>43565</v>
       </c>
       <c r="B98" s="1">
-        <v>8667.34</v>
+        <v>8.6673399999999994</v>
       </c>
       <c r="C98">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>43566</v>
       </c>
       <c r="B99" s="1">
-        <v>9257.7000000000007</v>
+        <v>9.2577000000000016</v>
       </c>
       <c r="C99">
         <v>6.81</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>43567</v>
       </c>
       <c r="B100" s="1">
-        <v>10318.790000000001</v>
+        <v>10.318790000000002</v>
       </c>
       <c r="C100">
         <v>11.459999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>43577</v>
       </c>
       <c r="B101" s="1">
-        <v>11816.82</v>
+        <v>11.81682</v>
       </c>
       <c r="C101">
         <v>14.52</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>43578</v>
       </c>
       <c r="B102" s="1">
-        <v>14674</v>
+        <v>14.673999999999999</v>
       </c>
       <c r="C102">
         <v>24.18</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>43579</v>
       </c>
       <c r="B103" s="1">
-        <v>14788.11</v>
+        <v>14.788110000000001</v>
       </c>
       <c r="C103">
         <v>0.77999999999999992</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>43580</v>
       </c>
       <c r="B104" s="1">
-        <v>15089.31</v>
+        <v>15.089309999999999</v>
       </c>
       <c r="C104">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>43581</v>
       </c>
       <c r="B105" s="1">
-        <v>17070.18</v>
+        <v>17.070180000000001</v>
       </c>
       <c r="C105">
         <v>13.13</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>43584</v>
       </c>
       <c r="B106" s="1">
-        <v>17775.650000000001</v>
+        <v>17.775650000000002</v>
       </c>
       <c r="C106">
         <v>4.1300000000000008</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>43587</v>
       </c>
       <c r="B107" s="1">
-        <v>16942.11</v>
+        <v>16.94211</v>
       </c>
       <c r="C107">
         <v>-4.6899999999999995</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>43588</v>
       </c>
       <c r="B108" s="1">
-        <v>16640.990000000002</v>
+        <v>16.640990000000002</v>
       </c>
       <c r="C108">
         <v>-1.78</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>43591</v>
       </c>
       <c r="B109" s="1">
-        <v>15125.7</v>
+        <v>15.1257</v>
       </c>
       <c r="C109">
         <v>-9.11</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>43592</v>
       </c>
       <c r="B110" s="1">
-        <v>14093.18</v>
+        <v>14.09318</v>
       </c>
       <c r="C110">
         <v>-6.83</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>43593</v>
       </c>
       <c r="B111" s="1">
-        <v>15277.27</v>
+        <v>15.27727</v>
       </c>
       <c r="C111">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>43594</v>
       </c>
       <c r="B112" s="1">
-        <v>15811.14</v>
+        <v>15.81114</v>
       </c>
       <c r="C112">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>43595</v>
       </c>
       <c r="B113" s="1">
-        <v>16553.72</v>
+        <v>16.553720000000002</v>
       </c>
       <c r="C113">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>43598</v>
       </c>
       <c r="B114" s="1">
-        <v>16148.36</v>
+        <v>16.14836</v>
       </c>
       <c r="C114">
         <v>-2.4500000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>43599</v>
       </c>
       <c r="B115" s="1">
-        <v>16114.27</v>
+        <v>16.114270000000001</v>
       </c>
       <c r="C115">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>43600</v>
       </c>
       <c r="B116" s="1">
-        <v>15976.95</v>
+        <v>15.97695</v>
       </c>
       <c r="C116">
         <v>-0.85000000000000009</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>43601</v>
       </c>
       <c r="B117" s="1">
-        <v>16214.23</v>
+        <v>16.214230000000001</v>
       </c>
       <c r="C117">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>43602</v>
       </c>
       <c r="B118" s="1">
-        <v>16473.650000000001</v>
+        <v>16.473650000000003</v>
       </c>
       <c r="C118">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>43605</v>
       </c>
       <c r="B119" s="1">
-        <v>17076.939999999999</v>
+        <v>17.07694</v>
       </c>
       <c r="C119">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>43606</v>
       </c>
       <c r="B120" s="1">
-        <v>16465.62</v>
+        <v>16.465619999999998</v>
       </c>
       <c r="C120">
         <v>-3.58</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>43607</v>
       </c>
       <c r="B121" s="1">
-        <v>15737.45</v>
+        <v>15.737450000000001</v>
       </c>
       <c r="C121">
         <v>-4.42</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>43608</v>
       </c>
       <c r="B122" s="1">
-        <v>15541.71</v>
+        <v>15.541709999999998</v>
       </c>
       <c r="C122">
         <v>-1.24</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>43609</v>
       </c>
       <c r="B123" s="1">
-        <v>15665.22</v>
+        <v>15.66522</v>
       </c>
       <c r="C123">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>43612</v>
       </c>
       <c r="B124" s="1">
-        <v>15753.54</v>
+        <v>15.753540000000001</v>
       </c>
       <c r="C124">
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>43613</v>
       </c>
       <c r="B125" s="1">
-        <v>15730.88</v>
+        <v>15.730879999999999</v>
       </c>
       <c r="C125">
         <v>-0.13999999999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>43614</v>
       </c>
       <c r="B126" s="1">
-        <v>15842.46</v>
+        <v>15.842459999999999</v>
       </c>
       <c r="C126">
         <v>0.71000000000000008</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>43615</v>
       </c>
       <c r="B127" s="1">
-        <v>15995.55</v>
+        <v>15.99555</v>
       </c>
       <c r="C127">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>43616</v>
       </c>
       <c r="B128" s="1">
-        <v>15791.62</v>
+        <v>15.79162</v>
       </c>
       <c r="C128">
         <v>-1.27</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>43620</v>
       </c>
       <c r="B129" s="1">
-        <v>15581.13</v>
+        <v>15.58113</v>
       </c>
       <c r="C129">
         <v>-1.3299999999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>43621</v>
       </c>
       <c r="B130" s="1">
-        <v>14938.76</v>
+        <v>14.93876</v>
       </c>
       <c r="C130">
         <v>-4.12</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>43622</v>
       </c>
       <c r="B131" s="1">
-        <v>14491.76</v>
+        <v>14.491760000000001</v>
       </c>
       <c r="C131">
         <v>-2.9899999999999998</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>43623</v>
       </c>
       <c r="B132" s="1">
-        <v>14162.87</v>
+        <v>14.162870000000002</v>
       </c>
       <c r="C132">
         <v>-2.27</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>43626</v>
       </c>
       <c r="B133" s="1">
-        <v>13571.37</v>
+        <v>13.57137</v>
       </c>
       <c r="C133">
         <v>-4.18</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>43627</v>
       </c>
       <c r="B134" s="1">
-        <v>13397.89</v>
+        <v>13.39789</v>
       </c>
       <c r="C134">
         <v>-1.28</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>43628</v>
       </c>
       <c r="B135" s="1">
-        <v>13746.42</v>
+        <v>13.746420000000001</v>
       </c>
       <c r="C135">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>43629</v>
       </c>
       <c r="B136" s="1">
-        <v>14486.28</v>
+        <v>14.486280000000001</v>
       </c>
       <c r="C136">
         <v>5.38</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>43630</v>
       </c>
       <c r="B137" s="1">
-        <v>15250.96</v>
+        <v>15.250959999999999</v>
       </c>
       <c r="C137">
         <v>5.28</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>43634</v>
       </c>
       <c r="B138" s="1">
-        <v>15304.96</v>
+        <v>15.304959999999999</v>
       </c>
       <c r="C138">
         <v>0.35000000000000003</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>43635</v>
       </c>
       <c r="B139" s="1">
-        <v>15547.91</v>
+        <v>15.54791</v>
       </c>
       <c r="C139">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>43636</v>
       </c>
       <c r="B140" s="1">
-        <v>15704.22</v>
+        <v>15.704219999999999</v>
       </c>
       <c r="C140">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>43637</v>
       </c>
       <c r="B141" s="1">
-        <v>16072.07</v>
+        <v>16.07207</v>
       </c>
       <c r="C141">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>43641</v>
       </c>
       <c r="B142" s="1">
-        <v>16311.48</v>
+        <v>16.31148</v>
       </c>
       <c r="C142">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>43642</v>
       </c>
       <c r="B143" s="1">
-        <v>16630.39</v>
+        <v>16.630389999999998</v>
       </c>
       <c r="C143">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>43643</v>
       </c>
       <c r="B144" s="1">
-        <v>17296.87</v>
+        <v>17.296869999999998</v>
       </c>
       <c r="C144">
         <v>4.01</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>43644</v>
       </c>
       <c r="B145" s="1">
-        <v>18453.849999999999</v>
+        <v>18.453849999999999</v>
       </c>
       <c r="C145">
         <v>6.69</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>43647</v>
       </c>
       <c r="B146" s="1">
-        <v>18614.330000000002</v>
+        <v>18.614330000000002</v>
       </c>
       <c r="C146">
         <v>0.86999999999999988</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>43648</v>
       </c>
       <c r="B147" s="1">
-        <v>18349.7</v>
+        <v>18.349700000000002</v>
       </c>
       <c r="C147">
         <v>-1.4200000000000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>43649</v>
       </c>
       <c r="B148" s="1">
-        <v>19077.12</v>
+        <v>19.077120000000001</v>
       </c>
       <c r="C148">
         <v>3.9600000000000004</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>43650</v>
       </c>
       <c r="B149" s="1">
-        <v>19086.849999999999</v>
+        <v>19.086849999999998</v>
       </c>
       <c r="C149">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>43654</v>
       </c>
       <c r="B150" s="1">
-        <v>19190.189999999999</v>
+        <v>19.190189999999998</v>
       </c>
       <c r="C150">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>43655</v>
       </c>
       <c r="B151" s="1">
-        <v>19516.099999999999</v>
+        <v>19.516099999999998</v>
       </c>
       <c r="C151">
         <v>1.7000000000000002</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>43656</v>
       </c>
       <c r="B152" s="1">
-        <v>19513.84</v>
+        <v>19.513840000000002</v>
       </c>
       <c r="C152">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>43657</v>
       </c>
       <c r="B153" s="1">
-        <v>19976.560000000001</v>
+        <v>19.976560000000003</v>
       </c>
       <c r="C153">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>43658</v>
       </c>
       <c r="B154" s="1">
-        <v>20300.759999999998</v>
+        <v>20.300759999999997</v>
       </c>
       <c r="C154">
         <v>1.6199999999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>43661</v>
       </c>
       <c r="B155" s="1">
-        <v>20625.669999999998</v>
+        <v>20.62567</v>
       </c>
       <c r="C155">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>43662</v>
       </c>
       <c r="B156" s="1">
-        <v>21859.15</v>
+        <v>21.859150000000003</v>
       </c>
       <c r="C156">
         <v>5.9799999999999995</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>43663</v>
       </c>
       <c r="B157" s="1">
-        <v>24200</v>
+        <v>24.2</v>
       </c>
       <c r="C157">
         <v>10.71</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>43664</v>
       </c>
       <c r="B158" s="1">
-        <v>24404.82</v>
+        <v>24.404820000000001</v>
       </c>
       <c r="C158">
         <v>0.85000000000000009</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>43665</v>
       </c>
       <c r="B159" s="1">
-        <v>24235.119999999999</v>
+        <v>24.235119999999998</v>
       </c>
       <c r="C159">
         <v>-0.70000000000000007</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>43668</v>
       </c>
       <c r="B160" s="1">
-        <v>24857.84</v>
+        <v>24.857839999999999</v>
       </c>
       <c r="C160">
         <v>2.5700000000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>43671</v>
       </c>
       <c r="B161" s="1">
-        <v>24836.959999999999</v>
+        <v>24.836959999999998</v>
       </c>
       <c r="C161">
         <v>-0.08</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>43672</v>
       </c>
       <c r="B162" s="1">
-        <v>25020.45</v>
+        <v>25.02045</v>
       </c>
       <c r="C162">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>43675</v>
       </c>
       <c r="B163" s="1">
-        <v>24919.52</v>
+        <v>24.919520000000002</v>
       </c>
       <c r="C163">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>43676</v>
       </c>
       <c r="B164" s="1">
-        <v>25207.59</v>
+        <v>25.20759</v>
       </c>
       <c r="C164">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>43677</v>
       </c>
       <c r="B165" s="1">
-        <v>25788.69</v>
+        <v>25.788689999999999</v>
       </c>
       <c r="C165">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>43678</v>
       </c>
       <c r="B166" s="1">
-        <v>26701.72</v>
+        <v>26.701720000000002</v>
       </c>
       <c r="C166">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>43679</v>
       </c>
       <c r="B167" s="1">
-        <v>28667.35</v>
+        <v>28.667349999999999</v>
       </c>
       <c r="C167">
         <v>7.3599999999999994</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>43682</v>
       </c>
       <c r="B168" s="1">
-        <v>30443.16</v>
+        <v>30.443159999999999</v>
       </c>
       <c r="C168">
         <v>6.1899999999999995</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>43683</v>
       </c>
       <c r="B169" s="1">
-        <v>35149.040000000001</v>
+        <v>35.149039999999999</v>
       </c>
       <c r="C169">
         <v>15.459999999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>43684</v>
       </c>
       <c r="B170" s="1">
-        <v>36682.79</v>
+        <v>36.682790000000004</v>
       </c>
       <c r="C170">
         <v>4.3600000000000003</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>43685</v>
       </c>
       <c r="B171" s="1">
-        <v>36716.949999999997</v>
+        <v>36.716949999999997</v>
       </c>
       <c r="C171">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>43686</v>
       </c>
       <c r="B172" s="1">
-        <v>40439.29</v>
+        <v>40.43929</v>
       </c>
       <c r="C172">
         <v>10.14</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>43689</v>
       </c>
       <c r="B173" s="1">
-        <v>41545.919999999998</v>
+        <v>41.545919999999995</v>
       </c>
       <c r="C173">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>43690</v>
       </c>
       <c r="B174" s="1">
-        <v>42701.46</v>
+        <v>42.701459999999997</v>
       </c>
       <c r="C174">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>43691</v>
       </c>
       <c r="B175" s="1">
-        <v>44573.02</v>
+        <v>44.57302</v>
       </c>
       <c r="C175">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>43692</v>
       </c>
       <c r="B176" s="1">
-        <v>43454.23</v>
+        <v>43.454230000000003</v>
       </c>
       <c r="C176">
         <v>-2.5100000000000002</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>43693</v>
       </c>
       <c r="B177" s="1">
-        <v>43965.84</v>
+        <v>43.96584</v>
       </c>
       <c r="C177">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>43697</v>
       </c>
       <c r="B178" s="1">
-        <v>44555.7</v>
+        <v>44.555699999999995</v>
       </c>
       <c r="C178">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>43698</v>
       </c>
       <c r="B179" s="1">
-        <v>44676.83</v>
+        <v>44.676830000000002</v>
       </c>
       <c r="C179">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>43699</v>
       </c>
       <c r="B180" s="1">
-        <v>45554.68</v>
+        <v>45.554679999999998</v>
       </c>
       <c r="C180">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>43700</v>
       </c>
       <c r="B181" s="1">
-        <v>45196.02</v>
+        <v>45.196019999999997</v>
       </c>
       <c r="C181">
         <v>-0.79</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>43703</v>
       </c>
       <c r="B182" s="1">
-        <v>45186.26</v>
+        <v>45.186260000000004</v>
       </c>
       <c r="C182">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>43704</v>
       </c>
       <c r="B183" s="1">
-        <v>48540.65</v>
+        <v>48.540649999999999</v>
       </c>
       <c r="C183">
         <v>7.42</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>43705</v>
       </c>
       <c r="B184" s="1">
-        <v>49680.5</v>
+        <v>49.680500000000002</v>
       </c>
       <c r="C184">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>43706</v>
       </c>
       <c r="B185" s="1">
-        <v>52340.74</v>
+        <v>52.340739999999997</v>
       </c>
       <c r="C185">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>43707</v>
       </c>
       <c r="B186" s="1">
-        <v>55583.02</v>
+        <v>55.583019999999998</v>
       </c>
       <c r="C186">
         <v>6.1899999999999995</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>43710</v>
       </c>
       <c r="B187" s="1">
-        <v>56574.99</v>
+        <v>56.57499</v>
       </c>
       <c r="C187">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>43711</v>
       </c>
       <c r="B188" s="1">
-        <v>56020.79</v>
+        <v>56.020789999999998</v>
       </c>
       <c r="C188">
         <v>-0.98</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>43712</v>
       </c>
       <c r="B189" s="1">
-        <v>55056.66</v>
+        <v>55.056660000000001</v>
       </c>
       <c r="C189">
         <v>-1.72</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>43713</v>
       </c>
       <c r="B190" s="1">
-        <v>62004.3</v>
+        <v>62.004300000000001</v>
       </c>
       <c r="C190">
         <v>12.620000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>43714</v>
       </c>
       <c r="B191" s="1">
-        <v>61829.11</v>
+        <v>61.82911</v>
       </c>
       <c r="C191">
         <v>-0.27999999999999997</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>43717</v>
       </c>
       <c r="B192" s="1">
-        <v>60990.52</v>
+        <v>60.990519999999997</v>
       </c>
       <c r="C192">
         <v>-1.3599999999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>43718</v>
       </c>
       <c r="B193" s="1">
-        <v>61085.03</v>
+        <v>61.085029999999996</v>
       </c>
       <c r="C193">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>43719</v>
       </c>
       <c r="B194" s="1">
-        <v>60554.32</v>
+        <v>60.554319999999997</v>
       </c>
       <c r="C194">
         <v>-0.86999999999999988</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>43720</v>
       </c>
       <c r="B195" s="1">
-        <v>59166.63</v>
+        <v>59.166629999999998</v>
       </c>
       <c r="C195">
         <v>-2.29</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>43721</v>
       </c>
       <c r="B196" s="1">
-        <v>55768.93</v>
+        <v>55.768929999999997</v>
       </c>
       <c r="C196">
         <v>-5.74</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>43725</v>
       </c>
       <c r="B197" s="1">
-        <v>53618.39</v>
+        <v>53.618389999999998</v>
       </c>
       <c r="C197">
         <v>-3.8600000000000003</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>43726</v>
       </c>
       <c r="B198" s="1">
-        <v>50330.5</v>
+        <v>50.330500000000001</v>
       </c>
       <c r="C198">
         <v>-6.13</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>43727</v>
       </c>
       <c r="B199" s="1">
-        <v>48061.26</v>
+        <v>48.061260000000004</v>
       </c>
       <c r="C199">
         <v>-4.51</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>43728</v>
       </c>
       <c r="B200" s="1">
-        <v>50094.05</v>
+        <v>50.094050000000003</v>
       </c>
       <c r="C200">
         <v>4.2299999999999995</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>43731</v>
       </c>
       <c r="B201" s="1">
-        <v>52152.92</v>
+        <v>52.152920000000002</v>
       </c>
       <c r="C201">
         <v>4.1099999999999994</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>43732</v>
       </c>
       <c r="B202" s="1">
-        <v>50737.74</v>
+        <v>50.737739999999995</v>
       </c>
       <c r="C202">
         <v>-2.71</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>43733</v>
       </c>
       <c r="B203" s="1">
-        <v>50446.36</v>
+        <v>50.446359999999999</v>
       </c>
       <c r="C203">
         <v>-0.57000000000000006</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>43734</v>
       </c>
       <c r="B204" s="1">
-        <v>50027.58</v>
+        <v>50.02758</v>
       </c>
       <c r="C204">
         <v>-0.83</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>43735</v>
       </c>
       <c r="B205" s="1">
-        <v>50041.31</v>
+        <v>50.041309999999996</v>
       </c>
       <c r="C205">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>43738</v>
       </c>
       <c r="B206" s="1">
-        <v>48856.03</v>
+        <v>48.856029999999997</v>
       </c>
       <c r="C206">
         <v>-2.37</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>43739</v>
       </c>
       <c r="B207" s="1">
-        <v>48701.24</v>
+        <v>48.701239999999999</v>
       </c>
       <c r="C207">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>43740</v>
       </c>
       <c r="B208" s="1">
-        <v>47532.78</v>
+        <v>47.532779999999995</v>
       </c>
       <c r="C208">
         <v>-2.4</v>
       </c>
+      <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>43741</v>
       </c>
       <c r="B209" s="1">
-        <v>47289.88</v>
+        <v>47.289879999999997</v>
       </c>
       <c r="C209">
         <v>-0.51</v>
       </c>
+      <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>43742</v>
       </c>
       <c r="B210" s="1">
-        <v>49080.14</v>
+        <v>49.08014</v>
       </c>
       <c r="C210">
         <v>3.7900000000000005</v>
       </c>
+      <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>43745</v>
       </c>
       <c r="B211" s="1">
-        <v>49633.87</v>
+        <v>49.633870000000002</v>
       </c>
       <c r="C211">
         <v>1.1299999999999999</v>
       </c>
+      <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>43746</v>
       </c>
       <c r="B212" s="1">
-        <v>50718.06</v>
+        <v>50.718059999999994</v>
       </c>
       <c r="C212">
         <v>2.1800000000000002</v>
       </c>
+      <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>43747</v>
       </c>
       <c r="B213" s="1">
-        <v>52777.46</v>
+        <v>52.777459999999998</v>
       </c>
       <c r="C213">
         <v>4.0599999999999996</v>
       </c>
+      <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>43748</v>
       </c>
       <c r="B214" s="1">
-        <v>52693.42</v>
+        <v>52.693419999999996</v>
       </c>
       <c r="C214">
         <v>-0.16</v>
       </c>
+      <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>43749</v>
       </c>
       <c r="B215" s="1">
-        <v>51782.03</v>
+        <v>51.782029999999999</v>
       </c>
       <c r="C215">
         <v>-1.73</v>
       </c>
+      <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>43752</v>
       </c>
       <c r="B216" s="1">
-        <v>51182.02</v>
+        <v>51.182019999999994</v>
       </c>
       <c r="C216">
         <v>-1.1599999999999999</v>
       </c>
+      <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>43753</v>
       </c>
       <c r="B217" s="1">
-        <v>51073.71</v>
+        <v>51.073709999999998</v>
       </c>
       <c r="C217">
         <v>-0.21</v>
       </c>
+      <c r="G217" s="1"/>
       <c r="L217" s="7"/>
       <c r="M217" s="8"/>
     </row>
@@ -3333,11 +3528,12 @@
         <v>43754</v>
       </c>
       <c r="B218" s="1">
-        <v>50027.360000000001</v>
+        <v>50.027360000000002</v>
       </c>
       <c r="C218">
         <v>-2.0500000000000003</v>
       </c>
+      <c r="G218" s="1"/>
       <c r="L218" s="7"/>
       <c r="M218" s="8"/>
     </row>
@@ -3346,3709 +3542,4145 @@
         <v>43755</v>
       </c>
       <c r="B219" s="1">
-        <v>49011.3</v>
+        <v>49.011300000000006</v>
       </c>
       <c r="C219">
         <v>-2.0299999999999998</v>
       </c>
+      <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>43756</v>
       </c>
       <c r="B220" s="1">
-        <v>46665.85</v>
+        <v>46.665849999999999</v>
       </c>
       <c r="C220">
         <v>-4.79</v>
       </c>
+      <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>43759</v>
       </c>
       <c r="B221" s="1">
-        <v>46005.59</v>
+        <v>46.005589999999998</v>
       </c>
       <c r="C221">
         <v>-1.41</v>
       </c>
+      <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>43760</v>
       </c>
       <c r="B222" s="1">
-        <v>45008.61</v>
+        <v>45.008609999999997</v>
       </c>
       <c r="C222">
         <v>-2.17</v>
       </c>
+      <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>43761</v>
       </c>
       <c r="B223" s="1">
-        <v>47219.16</v>
+        <v>47.219160000000002</v>
       </c>
       <c r="C223">
         <v>4.91</v>
       </c>
+      <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>43762</v>
       </c>
       <c r="B224" s="1">
-        <v>48282.33</v>
+        <v>48.282330000000002</v>
       </c>
       <c r="C224">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>43763</v>
       </c>
       <c r="B225" s="1">
-        <v>48929</v>
+        <v>48.929000000000002</v>
       </c>
       <c r="C225">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>43766</v>
       </c>
       <c r="B226" s="1">
-        <v>48363.06</v>
+        <v>48.363059999999997</v>
       </c>
       <c r="C226">
         <v>-1.1599999999999999</v>
       </c>
       <c r="F226" s="9"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>43767</v>
       </c>
       <c r="B227" s="1">
-        <v>50903.59</v>
+        <v>50.903589999999994</v>
       </c>
       <c r="C227">
         <v>5.25</v>
       </c>
       <c r="F227" s="9"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>43768</v>
       </c>
       <c r="B228" s="1">
-        <v>51203.09</v>
+        <v>51.203089999999996</v>
       </c>
       <c r="C228">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>43769</v>
       </c>
       <c r="B229" s="1">
-        <v>47772.07</v>
+        <v>47.772069999999999</v>
       </c>
       <c r="C229">
         <v>-6.7</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>43770</v>
       </c>
       <c r="B230" s="1">
-        <v>47448.6</v>
+        <v>47.448599999999999</v>
       </c>
       <c r="C230">
         <v>-0.68</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>43774</v>
       </c>
       <c r="B231" s="1">
-        <v>48124.21</v>
+        <v>48.124209999999998</v>
       </c>
       <c r="C231">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>43775</v>
       </c>
       <c r="B232" s="1">
-        <v>48085.34</v>
+        <v>48.085339999999995</v>
       </c>
       <c r="C232">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>43776</v>
       </c>
       <c r="B233" s="1">
-        <v>51582.28</v>
+        <v>51.582279999999997</v>
       </c>
       <c r="C233">
         <v>7.27</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>43777</v>
       </c>
       <c r="B234" s="1">
-        <v>53039.07</v>
+        <v>53.039070000000002</v>
       </c>
       <c r="C234">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>43780</v>
       </c>
       <c r="B235" s="1">
-        <v>57077.23</v>
+        <v>57.07723</v>
       </c>
       <c r="C235">
         <v>7.61</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>43781</v>
       </c>
       <c r="B236" s="1">
-        <v>58379.67</v>
+        <v>58.379669999999997</v>
       </c>
       <c r="C236">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>43782</v>
       </c>
       <c r="B237" s="1">
-        <v>60671.38</v>
+        <v>60.671379999999999</v>
       </c>
       <c r="C237">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>43783</v>
       </c>
       <c r="B238" s="1">
-        <v>59444.04</v>
+        <v>59.444040000000001</v>
       </c>
       <c r="C238">
         <v>-2.02</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>43784</v>
       </c>
       <c r="B239" s="1">
-        <v>59196.79</v>
+        <v>59.19679</v>
       </c>
       <c r="C239">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>43787</v>
       </c>
       <c r="B240" s="1">
-        <v>60337.760000000002</v>
+        <v>60.337760000000003</v>
       </c>
       <c r="C240">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>43788</v>
       </c>
       <c r="B241" s="1">
-        <v>61523.12</v>
+        <v>61.523120000000006</v>
       </c>
       <c r="C241">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>43789</v>
       </c>
       <c r="B242" s="1">
-        <v>61699.1</v>
+        <v>61.699100000000001</v>
       </c>
       <c r="C242">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>43790</v>
       </c>
       <c r="B243" s="1">
-        <v>60854.879999999997</v>
+        <v>60.854879999999994</v>
       </c>
       <c r="C243">
         <v>-1.37</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>43791</v>
       </c>
       <c r="B244" s="1">
-        <v>61855.6</v>
+        <v>61.855599999999995</v>
       </c>
       <c r="C244">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>43794</v>
       </c>
       <c r="B245" s="1">
-        <v>61620.72</v>
+        <v>61.620719999999999</v>
       </c>
       <c r="C245">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>43795</v>
       </c>
       <c r="B246" s="1">
-        <v>60293.5</v>
+        <v>60.293500000000002</v>
       </c>
       <c r="C246">
         <v>-2.15</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>43796</v>
       </c>
       <c r="B247" s="1">
-        <v>64030.82</v>
+        <v>64.030820000000006</v>
       </c>
       <c r="C247">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>43797</v>
       </c>
       <c r="B248" s="1">
-        <v>65851.19</v>
+        <v>65.851190000000003</v>
       </c>
       <c r="C248">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>43798</v>
       </c>
       <c r="B249" s="1">
-        <v>69894.880000000005</v>
+        <v>69.894880000000001</v>
       </c>
       <c r="C249">
         <v>6.14</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>43801</v>
       </c>
       <c r="B250" s="1">
-        <v>70507.73</v>
+        <v>70.507729999999995</v>
       </c>
       <c r="C250">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>43802</v>
       </c>
       <c r="B251" s="1">
-        <v>70876.3</v>
+        <v>70.876300000000001</v>
       </c>
       <c r="C251">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>43803</v>
       </c>
       <c r="B252" s="1">
-        <v>71167.77</v>
+        <v>71.167770000000004</v>
       </c>
       <c r="C252">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>43804</v>
       </c>
       <c r="B253" s="1">
-        <v>70514.509999999995</v>
+        <v>70.514510000000001</v>
       </c>
       <c r="C253">
         <v>-0.92</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>43805</v>
       </c>
       <c r="B254" s="1">
-        <v>70997.36</v>
+        <v>70.99736</v>
       </c>
       <c r="C254">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>43808</v>
       </c>
       <c r="B255" s="1">
-        <v>67582.929999999993</v>
+        <v>67.58292999999999</v>
       </c>
       <c r="C255">
         <v>-4.8099999999999996</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>43809</v>
       </c>
       <c r="B256" s="1">
-        <v>66208.62</v>
+        <v>66.208619999999996</v>
       </c>
       <c r="C256">
         <v>-2.0299999999999998</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>43810</v>
       </c>
       <c r="B257" s="1">
-        <v>61917.54</v>
+        <v>61.917540000000002</v>
       </c>
       <c r="C257">
         <v>-6.4799999999999995</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>43811</v>
       </c>
       <c r="B258" s="1">
-        <v>61124.75</v>
+        <v>61.124749999999999</v>
       </c>
       <c r="C258">
         <v>-1.28</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>43812</v>
       </c>
       <c r="B259" s="1">
-        <v>62022.46</v>
+        <v>62.022460000000002</v>
       </c>
       <c r="C259">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>43815</v>
       </c>
       <c r="B260" s="1">
-        <v>62060.32</v>
+        <v>62.060319999999997</v>
       </c>
       <c r="C260">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>43816</v>
       </c>
       <c r="B261" s="1">
-        <v>60502.85</v>
+        <v>60.502849999999995</v>
       </c>
       <c r="C261">
         <v>-2.5100000000000002</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>43817</v>
       </c>
       <c r="B262" s="1">
-        <v>63308.93</v>
+        <v>63.308930000000004</v>
       </c>
       <c r="C262">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>43818</v>
       </c>
       <c r="B263" s="1">
-        <v>71401.289999999994</v>
+        <v>71.401289999999989</v>
       </c>
       <c r="C263">
         <v>12.78</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>43819</v>
       </c>
       <c r="B264" s="1">
-        <v>79344.83</v>
+        <v>79.344830000000002</v>
       </c>
       <c r="C264">
         <v>11.129999999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>43822</v>
       </c>
       <c r="B265" s="1">
-        <v>79749.66</v>
+        <v>79.749660000000006</v>
       </c>
       <c r="C265">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>43825</v>
       </c>
       <c r="B266" s="1">
-        <v>80655.960000000006</v>
+        <v>80.655960000000007</v>
       </c>
       <c r="C266">
         <v>1.1400000000000001</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>43826</v>
       </c>
       <c r="B267" s="1">
-        <v>83188.06</v>
+        <v>83.188059999999993</v>
       </c>
       <c r="C267">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>43829</v>
       </c>
       <c r="B268" s="1">
-        <v>90224.09</v>
+        <v>90.22408999999999</v>
       </c>
       <c r="C268">
         <v>8.4600000000000009</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>43832</v>
       </c>
       <c r="B269" s="1">
-        <v>93048.36</v>
+        <v>93.048360000000002</v>
       </c>
       <c r="C269">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>43833</v>
       </c>
       <c r="B270" s="1">
-        <v>98580.19</v>
+        <v>98.580190000000002</v>
       </c>
       <c r="C270">
         <v>5.95</v>
       </c>
       <c r="E270" s="10"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>43837</v>
       </c>
       <c r="B271" s="1">
-        <v>101804.2</v>
+        <v>101.80419999999999</v>
       </c>
       <c r="C271">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>43838</v>
       </c>
       <c r="B272" s="1">
-        <v>107456.7</v>
+        <v>107.4567</v>
       </c>
       <c r="C272">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>43839</v>
       </c>
       <c r="B273" s="1">
-        <v>112346.45</v>
+        <v>112.34644999999999</v>
       </c>
       <c r="C273">
         <v>4.55</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" s="1"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>43840</v>
       </c>
       <c r="B274" s="1">
-        <v>119242.96</v>
+        <v>119.24296000000001</v>
       </c>
       <c r="C274">
         <v>6.14</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" s="1"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>43843</v>
       </c>
       <c r="B275" s="1">
-        <v>123483.57</v>
+        <v>123.48357</v>
       </c>
       <c r="C275">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" s="1"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>43845</v>
       </c>
       <c r="B276" s="1">
-        <v>124789.33</v>
+        <v>124.78933000000001</v>
       </c>
       <c r="C276">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>43846</v>
       </c>
       <c r="B277" s="1">
-        <v>124068.72</v>
+        <v>124.06872</v>
       </c>
       <c r="C277">
         <v>-5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" s="1"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>43847</v>
       </c>
       <c r="B278" s="1">
-        <v>122897.51</v>
+        <v>122.89751</v>
       </c>
       <c r="C278">
         <v>-0.94</v>
       </c>
       <c r="F278" s="8"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" s="1"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>43851</v>
       </c>
       <c r="B279" s="1">
-        <v>118617.38</v>
+        <v>118.61738000000001</v>
       </c>
       <c r="C279">
         <v>-3.48</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" s="1"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>43852</v>
       </c>
       <c r="B280" s="1">
-        <v>118248.5</v>
+        <v>118.24850000000001</v>
       </c>
       <c r="C280">
         <v>-0.31</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" s="1"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>43853</v>
       </c>
       <c r="B281" s="1">
-        <v>116643.96</v>
+        <v>116.64396000000001</v>
       </c>
       <c r="C281">
         <v>-1.36</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" s="1"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>43854</v>
       </c>
       <c r="B282" s="1">
-        <v>108272.44</v>
+        <v>108.27244</v>
       </c>
       <c r="C282">
         <v>-7.18</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" s="1"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>43857</v>
       </c>
       <c r="B283" s="1">
-        <v>108061.2</v>
+        <v>108.0612</v>
       </c>
       <c r="C283">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>43858</v>
       </c>
       <c r="B284" s="1">
-        <v>102104.8</v>
+        <v>102.1048</v>
       </c>
       <c r="C284">
         <v>-5.51</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>43859</v>
       </c>
       <c r="B285" s="1">
-        <v>110867.91</v>
+        <v>110.86791000000001</v>
       </c>
       <c r="C285">
         <v>8.58</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" s="1"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>43860</v>
       </c>
       <c r="B286" s="1">
-        <v>121755.22</v>
+        <v>121.75521999999999</v>
       </c>
       <c r="C286">
         <v>9.82</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286" s="1"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>43861</v>
       </c>
       <c r="B287" s="1">
-        <v>129541.1</v>
+        <v>129.5411</v>
       </c>
       <c r="C287">
         <v>6.39</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" s="1"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>43864</v>
       </c>
       <c r="B288" s="1">
-        <v>127671.45</v>
+        <v>127.67144999999999</v>
       </c>
       <c r="C288">
         <v>-1.44</v>
       </c>
+      <c r="G288" s="1"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>43865</v>
       </c>
       <c r="B289" s="1">
-        <v>125936.38</v>
+        <v>125.93638</v>
       </c>
       <c r="C289">
         <v>-1.36</v>
       </c>
+      <c r="G289" s="1"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>43866</v>
       </c>
       <c r="B290" s="1">
-        <v>125568.41</v>
+        <v>125.56841</v>
       </c>
       <c r="C290">
         <v>-0.28999999999999998</v>
       </c>
+      <c r="G290" s="1"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>43867</v>
       </c>
       <c r="B291" s="1">
-        <v>127178.88</v>
+        <v>127.17888000000001</v>
       </c>
       <c r="C291">
         <v>1.28</v>
       </c>
+      <c r="G291" s="1"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>43868</v>
       </c>
       <c r="B292" s="1">
-        <v>127152.46</v>
+        <v>127.15246</v>
       </c>
       <c r="C292">
         <v>-0.02</v>
       </c>
+      <c r="G292" s="1"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>43871</v>
       </c>
       <c r="B293" s="1">
-        <v>128036.77</v>
+        <v>128.03676999999999</v>
       </c>
       <c r="C293">
         <v>0.7</v>
       </c>
+      <c r="G293" s="1"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>43872</v>
       </c>
       <c r="B294" s="1">
-        <v>129153.16</v>
+        <v>129.15316000000001</v>
       </c>
       <c r="C294">
         <v>0.87</v>
       </c>
+      <c r="G294" s="1"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>43873</v>
       </c>
       <c r="B295" s="1">
-        <v>128255.12</v>
+        <v>128.25512000000001</v>
       </c>
       <c r="C295">
         <v>-0.7</v>
       </c>
+      <c r="G295" s="1"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>43874</v>
       </c>
       <c r="B296" s="1">
-        <v>126449.34</v>
+        <v>126.44933999999999</v>
       </c>
       <c r="C296">
         <v>-1.41</v>
       </c>
+      <c r="G296" s="1"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>43875</v>
       </c>
       <c r="B297" s="1">
-        <v>123888.89</v>
+        <v>123.88889</v>
       </c>
       <c r="C297">
         <v>-2.02</v>
       </c>
+      <c r="G297" s="1"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>43878</v>
       </c>
       <c r="B298" s="1">
-        <v>127325.07</v>
+        <v>127.32507000000001</v>
       </c>
       <c r="C298">
         <v>2.77</v>
       </c>
-      <c r="G298" s="8"/>
+      <c r="G298" s="1"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>43879</v>
       </c>
       <c r="B299" s="1">
-        <v>124524.61</v>
+        <v>124.52461</v>
       </c>
       <c r="C299">
         <v>-2.2000000000000002</v>
       </c>
+      <c r="G299" s="1"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>43880</v>
       </c>
       <c r="B300" s="1">
-        <v>121804.44</v>
+        <v>121.80444</v>
       </c>
       <c r="C300">
         <v>-2.1800000000000002</v>
       </c>
+      <c r="G300" s="1"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>43881</v>
       </c>
       <c r="B301" s="1">
-        <v>118910.82</v>
+        <v>118.91082</v>
       </c>
       <c r="C301">
         <v>-2.38</v>
       </c>
+      <c r="G301" s="1"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>43882</v>
       </c>
       <c r="B302" s="1">
-        <v>118337.43</v>
+        <v>118.33743</v>
       </c>
       <c r="C302">
         <v>-0.48</v>
       </c>
+      <c r="G302" s="1"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>43887</v>
       </c>
       <c r="B303" s="1">
-        <v>111216.76</v>
+        <v>111.21675999999999</v>
       </c>
       <c r="C303">
         <v>-6.02</v>
       </c>
+      <c r="G303" s="1"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>43888</v>
       </c>
       <c r="B304" s="1">
-        <v>108292.73</v>
+        <v>108.29272999999999</v>
       </c>
       <c r="C304">
         <v>-2.63</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G304" s="1"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>43889</v>
       </c>
       <c r="B305" s="1">
-        <v>108771.66</v>
+        <v>108.77166</v>
       </c>
       <c r="C305">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>43892</v>
       </c>
       <c r="B306" s="1">
-        <v>104721.4</v>
+        <v>104.72139999999999</v>
       </c>
       <c r="C306">
         <v>-3.7199999999999998</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G306" s="1"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>43893</v>
       </c>
       <c r="B307" s="1">
-        <v>103306.75</v>
+        <v>103.30674999999999</v>
       </c>
       <c r="C307">
         <v>-1.35</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G307" s="1"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>43894</v>
       </c>
       <c r="B308" s="1">
-        <v>104211.84</v>
+        <v>104.21184</v>
       </c>
       <c r="C308">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G308" s="1"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>43895</v>
       </c>
       <c r="B309" s="1">
-        <v>104630.66</v>
+        <v>104.63066000000001</v>
       </c>
       <c r="C309">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G309" s="1"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>43896</v>
       </c>
       <c r="B310" s="1">
-        <v>108196.83</v>
+        <v>108.19683000000001</v>
       </c>
       <c r="C310">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G310" s="1"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>43899</v>
       </c>
       <c r="B311" s="1">
-        <v>103906.3</v>
+        <v>103.9063</v>
       </c>
       <c r="C311">
         <v>-3.97</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G311" s="1"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>43900</v>
       </c>
       <c r="B312" s="1">
-        <v>104392.3</v>
+        <v>104.39230000000001</v>
       </c>
       <c r="C312">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G312" s="1"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>43901</v>
       </c>
       <c r="B313" s="1">
-        <v>103457.46</v>
+        <v>103.45746000000001</v>
       </c>
       <c r="C313">
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G313" s="1"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>43902</v>
       </c>
       <c r="B314" s="1">
-        <v>105710.6</v>
+        <v>105.7106</v>
       </c>
       <c r="C314">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G314" s="1"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>43903</v>
       </c>
       <c r="B315" s="1">
-        <v>105807.64</v>
+        <v>105.80764000000001</v>
       </c>
       <c r="C315">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G315" s="1"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>43906</v>
       </c>
       <c r="B316" s="1">
-        <v>103887.72</v>
+        <v>103.88772</v>
       </c>
       <c r="C316">
         <v>-1.81</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G316" s="1"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>43907</v>
       </c>
       <c r="B317" s="1">
-        <v>104070.67</v>
+        <v>104.07066999999999</v>
       </c>
       <c r="C317">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>43908</v>
       </c>
       <c r="B318" s="1">
-        <v>101251.93</v>
+        <v>101.25192999999999</v>
       </c>
       <c r="C318">
         <v>-2.71</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G318" s="1"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>43910</v>
       </c>
       <c r="B319" s="1">
-        <v>98326.88</v>
+        <v>98.326880000000003</v>
       </c>
       <c r="C319">
         <v>-2.89</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G319" s="1"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>43913</v>
       </c>
       <c r="B320" s="1">
-        <v>92347.48</v>
+        <v>92.34747999999999</v>
       </c>
       <c r="C320">
         <v>-6.08</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G320" s="1"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>43914</v>
       </c>
       <c r="B321" s="1">
-        <v>90145.86</v>
+        <v>90.145859999999999</v>
       </c>
       <c r="C321">
         <v>-2.38</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G321" s="1"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>43915</v>
       </c>
       <c r="B322" s="1">
-        <v>89857.35</v>
+        <v>89.857350000000011</v>
       </c>
       <c r="C322">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G322" s="1"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>43916</v>
       </c>
       <c r="B323" s="1">
-        <v>88548.06</v>
+        <v>88.548059999999992</v>
       </c>
       <c r="C323">
         <v>-1.46</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G323" s="1"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>43917</v>
       </c>
       <c r="B324" s="1">
-        <v>88643.18</v>
+        <v>88.643179999999987</v>
       </c>
       <c r="C324">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G324" s="1"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>43920</v>
       </c>
       <c r="B325" s="1">
-        <v>101194.94</v>
+        <v>101.19494</v>
       </c>
       <c r="C325">
         <v>14.16</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G325" s="1"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>43921</v>
       </c>
       <c r="B326" s="1">
-        <v>181346.41</v>
+        <v>181.34640999999999</v>
       </c>
       <c r="C326">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G326" s="1"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>43922</v>
       </c>
       <c r="B327" s="1">
-        <v>117920.12</v>
+        <v>117.92012</v>
       </c>
       <c r="C327">
         <v>11.65</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G327" s="1"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>43923</v>
       </c>
       <c r="B328" s="1">
-        <v>127331.47</v>
+        <v>127.33147</v>
       </c>
       <c r="C328">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G328" s="1"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>43924</v>
       </c>
       <c r="B329" s="1">
-        <v>133086.45000000001</v>
+        <v>133.08645000000001</v>
       </c>
       <c r="C329">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G329" s="1"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>43927</v>
       </c>
       <c r="B330" s="1">
-        <v>150484.88</v>
+        <v>150.48488</v>
       </c>
       <c r="C330">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>43928</v>
       </c>
       <c r="B331" s="1">
-        <v>164354.42000000001</v>
+        <v>164.35442</v>
       </c>
       <c r="C331">
         <v>9.2200000000000006</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G331" s="1"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>43929</v>
       </c>
       <c r="B332" s="1">
-        <v>191984.67</v>
+        <v>191.98467000000002</v>
       </c>
       <c r="C332">
         <v>16.809999999999999</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G332" s="1"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>43934</v>
       </c>
       <c r="B333" s="1">
-        <v>227597.09</v>
+        <v>227.59709000000001</v>
       </c>
       <c r="C333">
         <v>18.55</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G333" s="1"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>43935</v>
       </c>
       <c r="B334" s="1">
-        <v>249098.83</v>
+        <v>249.09882999999999</v>
       </c>
       <c r="C334">
         <v>9.4499999999999993</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>43936</v>
       </c>
       <c r="B335" s="1">
-        <v>248509.91</v>
+        <v>248.50990999999999</v>
       </c>
       <c r="C335">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G335" s="1"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>43937</v>
       </c>
       <c r="B336" s="1">
-        <v>241894.17</v>
+        <v>241.89417</v>
       </c>
       <c r="C336">
         <v>-2.66</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>43938</v>
       </c>
       <c r="B337" s="1">
-        <v>230742.89</v>
+        <v>230.74289000000002</v>
       </c>
       <c r="C337">
         <v>-4.6100000000000003</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G337" s="1"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>43941</v>
       </c>
       <c r="B338" s="1">
-        <v>247935.91</v>
+        <v>247.93591000000001</v>
       </c>
       <c r="C338">
         <v>7.45</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G338" s="1"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>43942</v>
       </c>
       <c r="B339" s="1">
-        <v>255322.23</v>
+        <v>255.32223000000002</v>
       </c>
       <c r="C339">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G339" s="1"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>43943</v>
       </c>
       <c r="B340" s="1">
-        <v>274761.78000000003</v>
+        <v>274.76178000000004</v>
       </c>
       <c r="C340">
         <v>7.61</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G340" s="1"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>43944</v>
       </c>
       <c r="B341" s="1">
-        <v>293792.44</v>
+        <v>293.79244</v>
       </c>
       <c r="C341">
         <v>6.93</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G341" s="1"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>43945</v>
       </c>
       <c r="B342" s="1">
-        <v>286273.03000000003</v>
+        <v>286.27303000000001</v>
       </c>
       <c r="C342">
         <v>-2.56</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G342" s="1"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>43948</v>
       </c>
       <c r="B343" s="1">
-        <v>282383.09000000003</v>
+        <v>282.38309000000004</v>
       </c>
       <c r="C343">
         <v>-1.36</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G343" s="1"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>43949</v>
       </c>
       <c r="B344" s="1">
-        <v>279952.12</v>
+        <v>279.95211999999998</v>
       </c>
       <c r="C344">
         <v>-0.86</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>43950</v>
       </c>
       <c r="B345" s="1">
-        <v>284439.19</v>
+        <v>284.43919</v>
       </c>
       <c r="C345">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G345" s="1"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>43951</v>
       </c>
       <c r="B346" s="1">
-        <v>289324.75</v>
+        <v>289.32474999999999</v>
       </c>
       <c r="C346">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G346" s="1"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>43955</v>
       </c>
       <c r="B347" s="1">
-        <v>297137.44</v>
+        <v>297.13744000000003</v>
       </c>
       <c r="C347">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G347" s="1"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>43956</v>
       </c>
       <c r="B348" s="1">
-        <v>303715.69</v>
+        <v>303.71569</v>
       </c>
       <c r="C348">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G348" s="1"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>43957</v>
       </c>
       <c r="B349" s="1">
-        <v>309885.15999999997</v>
+        <v>309.88515999999998</v>
       </c>
       <c r="C349">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G349" s="1"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>43958</v>
       </c>
       <c r="B350" s="1">
-        <v>316485.06</v>
+        <v>316.48505999999998</v>
       </c>
       <c r="C350">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G350" s="1"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>43959</v>
       </c>
       <c r="B351" s="1">
-        <v>327382.90999999997</v>
+        <v>327.38290999999998</v>
       </c>
       <c r="C351">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G351" s="1"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>43962</v>
       </c>
       <c r="B352" s="1">
-        <v>326819.12</v>
+        <v>326.81912</v>
       </c>
       <c r="C352">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G352" s="1"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>43963</v>
       </c>
       <c r="B353" s="1">
-        <v>324304.78000000003</v>
+        <v>324.30478000000005</v>
       </c>
       <c r="C353">
         <v>-0.77</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G353" s="1"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>43964</v>
       </c>
       <c r="B354" s="1">
-        <v>312238.59000000003</v>
+        <v>312.23859000000004</v>
       </c>
       <c r="C354">
         <v>-3.72</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G354" s="1"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>43965</v>
       </c>
       <c r="B355" s="1">
-        <v>288638.25</v>
+        <v>288.63825000000003</v>
       </c>
       <c r="C355" s="11">
         <v>-7.56</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G355" s="1"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>43966</v>
       </c>
       <c r="B356" s="1">
-        <v>293502.88</v>
+        <v>293.50288</v>
       </c>
       <c r="C356">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G356" s="1"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>43969</v>
       </c>
       <c r="B357" s="1">
-        <v>295525.06</v>
+        <v>295.52506</v>
       </c>
       <c r="C357">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G357" s="1"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>43970</v>
       </c>
       <c r="B358" s="1">
-        <v>298249.65999999997</v>
+        <v>298.24965999999995</v>
       </c>
       <c r="C358">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G358" s="1"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>43971</v>
       </c>
       <c r="B359" s="1">
-        <v>300028.75</v>
+        <v>300.02875</v>
       </c>
       <c r="C359">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G359" s="1"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>43972</v>
       </c>
       <c r="B360" s="1">
-        <v>297625.84000000003</v>
+        <v>297.62584000000004</v>
       </c>
       <c r="C360">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G360" s="1"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>43973</v>
       </c>
       <c r="B361" s="1">
-        <v>306374.12</v>
+        <v>306.37412</v>
       </c>
       <c r="C361">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G361" s="1"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>43977</v>
       </c>
       <c r="B362" s="12">
-        <v>297063.81</v>
+        <v>297.06380999999999</v>
       </c>
       <c r="C362" s="13">
         <v>-3.04E-2</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G362" s="1"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>43978</v>
       </c>
       <c r="B363" s="12">
-        <v>303685.34000000003</v>
+        <v>303.68534000000005</v>
       </c>
       <c r="C363" s="13">
         <v>2.23E-2</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G363" s="1"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>43979</v>
       </c>
       <c r="B364" s="12">
-        <v>323765.90999999997</v>
+        <v>323.76590999999996</v>
       </c>
       <c r="C364" s="13">
         <v>6.6100000000000006E-2</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G364" s="1"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>43980</v>
       </c>
       <c r="B365" s="12">
-        <v>324240</v>
+        <v>324.24</v>
       </c>
       <c r="C365" s="13">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G365" s="1"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>43983</v>
       </c>
       <c r="B366" s="12">
-        <v>330021.69</v>
+        <v>330.02168999999998</v>
       </c>
       <c r="C366" s="13">
         <v>1.78E-2</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G366" s="1"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>43984</v>
       </c>
       <c r="B367" s="12">
-        <v>343088.66</v>
+        <v>343.08865999999995</v>
       </c>
       <c r="C367" s="13">
         <v>3.9600000000000003E-2</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G367" s="1"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>43985</v>
       </c>
       <c r="B368" s="12">
-        <v>346890.28</v>
+        <v>346.89028000000002</v>
       </c>
       <c r="C368" s="13">
         <v>1.11E-2</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G368" s="1"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>43986</v>
       </c>
       <c r="B369" s="1">
-        <v>346862.03</v>
+        <v>346.86203</v>
       </c>
       <c r="C369" s="13">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G369" s="1"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>43987</v>
       </c>
       <c r="B370" s="1">
-        <v>344397.62</v>
+        <v>344.39762000000002</v>
       </c>
       <c r="C370" s="13">
         <v>-0.71</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G370" s="1"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>43990</v>
       </c>
       <c r="B371" s="1">
-        <v>337855.94</v>
+        <v>337.85593999999998</v>
       </c>
       <c r="C371" s="13">
         <v>-1.9</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G371" s="1"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>43991</v>
       </c>
       <c r="B372" s="1">
-        <v>332013.12</v>
+        <v>332.01312000000001</v>
       </c>
       <c r="C372" s="13">
         <v>-1.73</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G372" s="1"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>43992</v>
       </c>
       <c r="B373" s="1">
-        <v>329633.12</v>
+        <v>329.63312000000002</v>
       </c>
       <c r="C373" s="13">
         <v>-0.72</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G373" s="1"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>43993</v>
       </c>
       <c r="B374" s="1">
-        <v>328490.09000000003</v>
+        <v>328.49009000000001</v>
       </c>
       <c r="C374">
         <v>-0.35</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G374" s="1"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>43994</v>
       </c>
       <c r="B375" s="1">
-        <v>330454.56</v>
+        <v>330.45456000000001</v>
       </c>
       <c r="C375">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G375" s="1"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>43998</v>
       </c>
       <c r="B376" s="1">
-        <v>325844.53000000003</v>
+        <v>325.84453000000002</v>
       </c>
       <c r="C376">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G376" s="1"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>43999</v>
       </c>
       <c r="B377" s="1">
-        <v>322375.84000000003</v>
+        <v>322.37584000000004</v>
       </c>
       <c r="C377">
         <v>-1.06</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G377" s="1"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>44000</v>
       </c>
       <c r="B378" s="1">
-        <v>323282.31</v>
+        <v>323.28231</v>
       </c>
       <c r="C378">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G378" s="1"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>44001</v>
       </c>
       <c r="B379" s="1">
-        <v>321308.34000000003</v>
+        <v>321.30834000000004</v>
       </c>
       <c r="C379">
         <v>-0.61</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G379" s="1"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>44004</v>
       </c>
       <c r="B380" s="1">
-        <v>320724.19</v>
+        <v>320.72419000000002</v>
       </c>
       <c r="C380">
         <v>-0.18</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G380" s="1"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>44005</v>
       </c>
       <c r="B381" s="1">
-        <v>325185.46999999997</v>
+        <v>325.18546999999995</v>
       </c>
       <c r="C381">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G381" s="1"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>44007</v>
       </c>
       <c r="B382" s="1">
-        <v>312097.40000000002</v>
+        <v>312.09740000000005</v>
       </c>
       <c r="C382">
         <v>-4.0199999999999996</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G382" s="1"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>44012</v>
       </c>
       <c r="B383" s="1">
-        <v>321057.81</v>
+        <v>321.05781000000002</v>
       </c>
       <c r="C383">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G383" s="1"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>44013</v>
       </c>
       <c r="B384" s="1">
-        <v>317726</v>
+        <v>317.726</v>
       </c>
       <c r="C384">
         <v>-1.04</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G384" s="1"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>44014</v>
       </c>
       <c r="B385" s="1">
-        <v>313413.25</v>
+        <v>313.41325000000001</v>
       </c>
       <c r="C385">
         <v>-1.36</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G385" s="1"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>44015</v>
       </c>
       <c r="B386" s="1">
-        <v>301778.38</v>
+        <v>301.77838000000003</v>
       </c>
       <c r="C386">
         <v>-3.71</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G386" s="1"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>44018</v>
       </c>
       <c r="B387" s="1">
-        <v>305579.15999999997</v>
+        <v>305.57916</v>
       </c>
       <c r="C387">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G387" s="12"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>44019</v>
       </c>
       <c r="B388" s="1">
-        <v>333876.53000000003</v>
+        <v>333.87653</v>
       </c>
       <c r="C388">
         <v>9.26</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G388" s="12"/>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>44020</v>
       </c>
       <c r="B389" s="1">
-        <v>328014.44</v>
+        <v>328.01443999999998</v>
       </c>
       <c r="C389">
         <v>-1.76</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G389" s="12"/>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>44021</v>
       </c>
       <c r="B390" s="1">
-        <v>323604.71999999997</v>
+        <v>323.60471999999999</v>
       </c>
       <c r="C390" s="11">
         <v>-1.1339999999999999</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G390" s="12"/>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>44022</v>
       </c>
       <c r="B391" s="1">
-        <v>333994.31</v>
+        <v>333.99430999999998</v>
       </c>
       <c r="C391" s="11">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G391" s="12"/>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>44025</v>
       </c>
       <c r="B392" s="1">
-        <v>320322.59000000003</v>
+        <v>320.32259000000005</v>
       </c>
       <c r="C392">
         <v>-4.09</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G392" s="12"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>44026</v>
       </c>
       <c r="B393" s="1">
-        <v>316887.5</v>
+        <v>316.88749999999999</v>
       </c>
       <c r="C393">
         <v>-1.07</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G393" s="12"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>44027</v>
       </c>
       <c r="B394" s="1">
-        <v>316864.88</v>
+        <v>316.86488000000003</v>
       </c>
       <c r="C394">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G394" s="1"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>44028</v>
       </c>
       <c r="B395" s="1">
-        <v>317448.84000000003</v>
+        <v>317.44884000000002</v>
       </c>
       <c r="C395">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G395" s="1"/>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>44029</v>
       </c>
       <c r="B396" s="1">
-        <v>319082.25</v>
+        <v>319.08224999999999</v>
       </c>
       <c r="C396">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G396" s="1"/>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>44032</v>
       </c>
       <c r="B397" s="1">
-        <v>324307.34000000003</v>
+        <v>324.30734000000001</v>
       </c>
       <c r="C397">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G397" s="1"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>44033</v>
       </c>
       <c r="B398" s="1">
-        <v>326973.15999999997</v>
+        <v>326.97315999999995</v>
       </c>
       <c r="C398">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G398" s="1"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>44034</v>
       </c>
       <c r="B399" s="1">
-        <v>335868.47</v>
+        <v>335.86846999999995</v>
       </c>
       <c r="C399">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G399" s="1"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>44035</v>
       </c>
       <c r="B400" s="1">
-        <v>352332.44</v>
+        <v>352.33244000000002</v>
       </c>
       <c r="C400">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G400" s="1"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>44039</v>
       </c>
       <c r="B401" s="1">
-        <v>350557.12</v>
+        <v>350.55712</v>
       </c>
       <c r="C401">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G401" s="1"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>44040</v>
       </c>
       <c r="B402" s="1">
-        <v>351751.44</v>
+        <v>351.75144</v>
       </c>
       <c r="C402">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G402" s="1"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>44041</v>
       </c>
       <c r="B403" s="1">
-        <v>353319.28</v>
+        <v>353.31928000000005</v>
       </c>
       <c r="C403">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G403" s="1"/>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>44042</v>
       </c>
       <c r="B404" s="1">
-        <v>363143.91</v>
+        <v>363.14390999999995</v>
       </c>
       <c r="C404">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G404" s="1"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>44043</v>
       </c>
       <c r="B405" s="1">
-        <v>374208.25</v>
+        <v>374.20825000000002</v>
       </c>
       <c r="C405">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G405" s="1"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>44046</v>
       </c>
       <c r="B406" s="1">
-        <v>386805.69</v>
+        <v>386.80569000000003</v>
       </c>
       <c r="C406">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G406" s="1"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>44047</v>
       </c>
       <c r="B407" s="1">
-        <v>399219.75</v>
+        <v>399.21974999999998</v>
       </c>
       <c r="C407">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G407" s="1"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>44048</v>
       </c>
       <c r="B408" s="1">
-        <v>406865.03</v>
+        <v>406.86503000000005</v>
       </c>
       <c r="C408">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G408" s="1"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>44049</v>
       </c>
       <c r="B409" s="1">
-        <v>418496.28</v>
+        <v>418.49628000000001</v>
       </c>
       <c r="C409">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G409" s="1"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>44050</v>
       </c>
       <c r="B410" s="1">
-        <v>466698.66</v>
+        <v>466.69865999999996</v>
       </c>
       <c r="C410">
         <v>11.52</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G410" s="1"/>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>44053</v>
       </c>
       <c r="B411" s="1">
-        <v>479024.22</v>
+        <v>479.02421999999996</v>
       </c>
       <c r="C411">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G411" s="1"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>44054</v>
       </c>
       <c r="B412" s="1">
-        <v>450683.81</v>
+        <v>450.68380999999999</v>
       </c>
       <c r="C412">
         <v>-5.92</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G412" s="1"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>44055</v>
       </c>
       <c r="B413" s="1">
-        <v>463802.47</v>
+        <v>463.80246999999997</v>
       </c>
       <c r="C413">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G413" s="1"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>44056</v>
       </c>
       <c r="B414" s="1">
-        <v>491593.56</v>
+        <v>491.59356000000002</v>
       </c>
       <c r="C414">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G414" s="1"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>44057</v>
       </c>
       <c r="B415" s="1">
-        <v>497343.88</v>
+        <v>497.34388000000001</v>
       </c>
       <c r="C415">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G415" s="1"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>44060</v>
       </c>
       <c r="B416" s="1">
-        <v>487795.19</v>
+        <v>487.79518999999999</v>
       </c>
       <c r="C416">
         <v>-1.92</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G416" s="1"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>44061</v>
       </c>
       <c r="B417" s="1">
-        <v>486442.09</v>
+        <v>486.44209000000001</v>
       </c>
       <c r="C417">
         <v>-0.28000000000000003</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G417" s="1"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>44062</v>
       </c>
       <c r="B418" s="1">
-        <v>490779.88</v>
+        <v>490.77987999999999</v>
       </c>
       <c r="C418">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G418" s="1"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>44063</v>
       </c>
       <c r="B419" s="1">
-        <v>498633.72</v>
+        <v>498.63371999999998</v>
       </c>
       <c r="C419">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G419" s="1"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>44064</v>
       </c>
       <c r="B420" s="1">
-        <v>502578.91</v>
+        <v>502.57890999999995</v>
       </c>
       <c r="C420">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G420" s="1"/>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>44067</v>
       </c>
       <c r="B421" s="1">
-        <v>508911.78</v>
+        <v>508.91178000000002</v>
       </c>
       <c r="C421">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G421" s="1"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>44068</v>
       </c>
       <c r="B422" s="1">
-        <v>515316.41</v>
+        <v>515.31641000000002</v>
       </c>
       <c r="C422">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G422" s="1"/>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>44069</v>
       </c>
       <c r="B423" s="1">
-        <v>515882.72</v>
+        <v>515.88271999999995</v>
       </c>
       <c r="C423">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G423" s="1"/>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>44070</v>
       </c>
       <c r="B424" s="1">
-        <v>513620.69</v>
+        <v>513.62068999999997</v>
       </c>
       <c r="C424">
         <v>-0.44</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G424" s="1"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
         <v>44071</v>
       </c>
       <c r="B425" s="1">
-        <v>523875.56</v>
+        <v>523.87555999999995</v>
       </c>
       <c r="C425">
         <v>2</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G425" s="1"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
         <v>44074</v>
       </c>
       <c r="B426" s="1">
-        <v>522587.56</v>
+        <v>522.58756000000005</v>
       </c>
       <c r="C426">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G426" s="1"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>44075</v>
       </c>
       <c r="B427" s="1">
-        <v>518570.84</v>
+        <v>518.57083999999998</v>
       </c>
       <c r="C427">
         <v>-0.77</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G427" s="1"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>44076</v>
       </c>
       <c r="B428" s="1">
-        <v>517866.72</v>
+        <v>517.86671999999999</v>
       </c>
       <c r="C428">
         <v>-0.14000000000000001</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G428" s="1"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <v>44081</v>
       </c>
       <c r="B429" s="15">
-        <v>522114.5</v>
+        <v>522.11450000000002</v>
       </c>
       <c r="C429" s="14">
         <v>1E-4</v>
       </c>
       <c r="D429"/>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G429" s="1"/>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>44082</v>
       </c>
       <c r="B430" s="15">
-        <v>520968.38</v>
+        <v>520.96838000000002</v>
       </c>
       <c r="C430" s="14">
         <v>-2.2000000000000001E-3</v>
       </c>
       <c r="D430"/>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G430" s="1"/>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>44083</v>
       </c>
       <c r="B431" s="15">
-        <v>518466.53</v>
+        <v>518.46653000000003</v>
       </c>
       <c r="C431" s="14">
         <v>-4.7999999999999996E-3</v>
       </c>
       <c r="D431"/>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G431" s="1"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>44084</v>
       </c>
       <c r="B432" s="15">
-        <v>517252.97</v>
+        <v>517.25297</v>
       </c>
       <c r="C432" s="14">
         <v>-2.3E-3</v>
       </c>
       <c r="D432"/>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G432" s="1"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>44085</v>
       </c>
       <c r="B433" s="15">
-        <v>515007.44</v>
+        <v>515.00743999999997</v>
       </c>
       <c r="C433" s="14">
         <v>-4.3E-3</v>
       </c>
       <c r="D433"/>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G433" s="1"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>44089</v>
       </c>
       <c r="B434" s="15">
-        <v>502989.88</v>
+        <v>502.98988000000003</v>
       </c>
       <c r="C434" s="14">
         <v>-2.3300000000000001E-2</v>
       </c>
       <c r="D434"/>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G434" s="1"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>44090</v>
       </c>
       <c r="B435" s="15">
-        <v>512260.53</v>
+        <v>512.26053000000002</v>
       </c>
       <c r="C435" s="14">
         <v>1.84E-2</v>
       </c>
       <c r="D435"/>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G435" s="1"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>44091</v>
       </c>
       <c r="B436" s="15">
-        <v>511517.28</v>
+        <v>511.51728000000003</v>
       </c>
       <c r="C436" s="14">
         <v>-1.5E-3</v>
       </c>
       <c r="D436"/>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G436" s="1"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>44092</v>
       </c>
       <c r="B437" s="15">
-        <v>501814</v>
+        <v>501.81400000000002</v>
       </c>
       <c r="C437" s="14">
         <v>-1.9E-2</v>
       </c>
       <c r="D437"/>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G437" s="1"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>44095</v>
       </c>
       <c r="B438" s="12">
-        <v>509832.94</v>
+        <v>509.83294000000001</v>
       </c>
       <c r="C438" s="14">
         <v>1.6E-2</v>
       </c>
       <c r="D438"/>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G438" s="1"/>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>44096</v>
       </c>
       <c r="B439" s="12">
-        <v>500023.22</v>
+        <v>500.02321999999998</v>
       </c>
       <c r="C439" s="14">
         <v>-1.9199999999999998E-2</v>
       </c>
       <c r="D439"/>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G439" s="1"/>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>44097</v>
       </c>
       <c r="B440" s="12">
-        <v>504419.97</v>
+        <v>504.41996999999998</v>
       </c>
       <c r="C440" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="D440"/>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G440" s="1"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>44098</v>
       </c>
       <c r="B441" s="12">
-        <v>509008.97</v>
+        <v>509.00896999999998</v>
       </c>
       <c r="C441" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="D441"/>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G441" s="1"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>44099</v>
       </c>
       <c r="B442" s="12">
-        <v>519983.75</v>
+        <v>519.98374999999999</v>
       </c>
       <c r="C442" s="14">
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="D442"/>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G442" s="1"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>44102</v>
       </c>
       <c r="B443" s="12">
-        <v>522748.19</v>
+        <v>522.74819000000002</v>
       </c>
       <c r="C443" s="14">
         <v>5.3E-3</v>
       </c>
       <c r="D443"/>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G443" s="1"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>44103</v>
       </c>
       <c r="B444" s="12">
-        <v>531888.43999999994</v>
+        <v>531.88843999999995</v>
       </c>
       <c r="C444" s="14">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D444"/>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G444" s="1"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>44104</v>
       </c>
       <c r="B445" s="12">
-        <v>538853.88</v>
+        <v>538.85388</v>
       </c>
       <c r="C445" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="D445"/>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
         <v>44105</v>
       </c>
       <c r="B446" s="12">
-        <v>542611.63</v>
+        <v>542.61162999999999</v>
       </c>
       <c r="C446" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D446"/>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>44106</v>
       </c>
       <c r="B447" s="12">
-        <v>542702.31000000006</v>
+        <v>542.70231000000001</v>
       </c>
       <c r="C447" s="14">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D447"/>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
         <v>44109</v>
       </c>
       <c r="B448" s="16">
-        <v>542730.56000000006</v>
+        <v>542.73056000000008</v>
       </c>
       <c r="C448">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>44110</v>
       </c>
       <c r="B449" s="16">
-        <v>546806.88</v>
+        <v>546.80687999999998</v>
       </c>
       <c r="C449">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
         <v>44111</v>
       </c>
       <c r="B450" s="16">
-        <v>541102.56000000006</v>
+        <v>541.10256000000004</v>
       </c>
       <c r="C450">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
         <v>44112</v>
       </c>
       <c r="B451" s="16">
-        <v>546546.56000000006</v>
+        <v>546.54656</v>
       </c>
       <c r="C451">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>44113</v>
       </c>
       <c r="B452" s="20">
-        <v>545353.88</v>
+        <v>545.35388</v>
       </c>
       <c r="C452" s="17">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>44117</v>
       </c>
       <c r="B453" s="21">
-        <v>556163.5</v>
+        <v>556.1635</v>
       </c>
       <c r="C453" s="18">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>44118</v>
       </c>
       <c r="B454" s="20">
-        <v>554087.88</v>
+        <v>554.08788000000004</v>
       </c>
       <c r="C454" s="19">
         <v>-0.37</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G454" s="15"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>44119</v>
       </c>
       <c r="B455" s="1">
-        <v>551187.06000000006</v>
+        <v>551.18706000000009</v>
       </c>
       <c r="C455">
         <v>-0.52</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G455" s="15"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>44120</v>
       </c>
       <c r="B456" s="1">
-        <v>549667.5</v>
+        <v>549.66750000000002</v>
       </c>
       <c r="C456">
         <v>-0.28000000000000003</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G456" s="15"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>44124</v>
       </c>
       <c r="B457" s="1">
-        <v>557238.38</v>
+        <v>557.23838000000001</v>
       </c>
       <c r="C457">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G457" s="15"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>44125</v>
       </c>
       <c r="B458" s="1">
-        <v>555263.18999999994</v>
+        <v>555.2631899999999</v>
       </c>
       <c r="C458">
         <v>-0.35</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G458" s="15"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>44126</v>
       </c>
       <c r="B459" s="1">
-        <v>553045.88</v>
+        <v>553.04588000000001</v>
       </c>
       <c r="C459">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G459" s="15"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>44127</v>
       </c>
       <c r="B460" s="1">
-        <v>557704.31000000006</v>
+        <v>557.70431000000008</v>
       </c>
       <c r="C460">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G460" s="15"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>44131</v>
       </c>
       <c r="B461" s="1">
-        <v>556011.81000000006</v>
+        <v>556.01181000000008</v>
       </c>
       <c r="C461">
         <v>-1.68</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G461" s="15"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>44132</v>
       </c>
       <c r="B462" s="1">
-        <v>573980.38</v>
+        <v>573.98037999999997</v>
       </c>
       <c r="C462">
         <v>3.23</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G462" s="15"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>44133</v>
       </c>
       <c r="B463" s="1">
-        <v>576982.06000000006</v>
+        <v>576.98206000000005</v>
       </c>
       <c r="C463">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G463" s="12"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>44134</v>
       </c>
       <c r="B464" s="1">
-        <v>580091.62</v>
+        <v>580.09162000000003</v>
       </c>
       <c r="C464">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G464" s="12"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>44137</v>
       </c>
       <c r="B465" s="1">
-        <v>576075.18999999994</v>
+        <v>576.07518999999991</v>
       </c>
       <c r="C465">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G465" s="12"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
         <v>44138</v>
       </c>
       <c r="B466" s="1">
-        <v>579560</v>
+        <v>579.55999999999995</v>
       </c>
       <c r="C466">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G466" s="12"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>44139</v>
       </c>
       <c r="B467" s="1">
-        <v>577284</v>
+        <v>577.28399999999999</v>
       </c>
       <c r="C467">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G467" s="12"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>44140</v>
       </c>
       <c r="B468" s="1">
-        <v>580773.93999999994</v>
+        <v>580.77393999999993</v>
       </c>
       <c r="C468">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G468" s="12"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>44141</v>
       </c>
       <c r="B469" s="1">
-        <v>582302.18999999994</v>
+        <v>582.30219</v>
       </c>
       <c r="C469">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G469" s="12"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>44144</v>
       </c>
       <c r="B470" s="1">
-        <v>583980</v>
+        <v>583.98</v>
       </c>
       <c r="C470">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G470" s="12"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>44145</v>
       </c>
       <c r="B471" s="1">
-        <v>590654.75</v>
+        <v>590.65475000000004</v>
       </c>
       <c r="C471">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G471" s="12"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>44146</v>
       </c>
       <c r="B472" s="1">
-        <v>596108.06000000006</v>
+        <v>596.10806000000002</v>
       </c>
       <c r="C472">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G472" s="12"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
         <v>44147</v>
       </c>
       <c r="B473" s="1">
-        <v>609044.12</v>
+        <v>609.04412000000002</v>
       </c>
       <c r="C473">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G473" s="16"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>44148</v>
       </c>
       <c r="B474" s="1">
-        <v>632147</v>
+        <v>632.14700000000005</v>
       </c>
       <c r="C474" s="22">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G474" s="16"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>44151</v>
       </c>
       <c r="B475" s="1">
-        <v>622016</v>
+        <v>622.01599999999996</v>
       </c>
       <c r="C475">
         <v>-1.6</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G475" s="16"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <v>44152</v>
       </c>
       <c r="B476" s="1">
-        <v>622095.06000000006</v>
+        <v>622.0950600000001</v>
       </c>
       <c r="C476">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G476" s="16"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>44153</v>
       </c>
       <c r="B477" s="1">
-        <v>628845.38</v>
+        <v>628.84537999999998</v>
       </c>
       <c r="C477">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G477" s="20"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>44154</v>
       </c>
       <c r="B478" s="1">
-        <v>638019.43999999994</v>
+        <v>638.01943999999992</v>
       </c>
       <c r="C478">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G478" s="21"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
         <v>44155</v>
       </c>
       <c r="B479" s="1">
-        <v>699912.81</v>
+        <v>699.91281000000004</v>
       </c>
       <c r="C479">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G479" s="20"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>44159</v>
       </c>
       <c r="B480" s="1">
-        <v>794039</v>
+        <v>794.03899999999999</v>
       </c>
       <c r="C480">
         <v>13.45</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>44160</v>
       </c>
       <c r="B481" s="1">
-        <v>800859.94</v>
+        <v>800.85993999999994</v>
       </c>
       <c r="C481">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>44161</v>
       </c>
       <c r="B482" s="23">
-        <v>891463.56</v>
+        <v>891.46356000000003</v>
       </c>
       <c r="C482">
         <v>11.31</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>44162</v>
       </c>
       <c r="B483" s="1">
-        <v>1142802</v>
+        <v>1142.8019999999999</v>
       </c>
       <c r="C483">
         <v>28.19</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>44165</v>
       </c>
       <c r="B484" s="1">
-        <v>1273550.3799999999</v>
+        <v>1273.5503799999999</v>
       </c>
       <c r="C484">
         <v>11.44</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
         <v>44166</v>
       </c>
       <c r="B485" s="1">
-        <v>1265970.1200000001</v>
+        <v>1265.9701200000002</v>
       </c>
       <c r="C485">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
         <v>44167</v>
       </c>
       <c r="B486" s="1">
-        <v>1230764.6200000001</v>
+        <v>1230.7646200000001</v>
       </c>
       <c r="C486">
         <v>-2.78</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>44168</v>
       </c>
       <c r="B487" s="1">
-        <v>1291285.6200000001</v>
+        <v>1291.2856200000001</v>
       </c>
       <c r="C487">
         <v>4.92</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>44169</v>
       </c>
       <c r="B488" s="1">
-        <v>1376478.12</v>
+        <v>1376.4781200000002</v>
       </c>
       <c r="C488">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>44172</v>
       </c>
       <c r="B489" s="1">
-        <v>1344245.5</v>
+        <v>1344.2455</v>
       </c>
       <c r="C489">
         <v>-2.34</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>44173</v>
       </c>
       <c r="B490" s="1">
-        <v>1314862</v>
+        <v>1314.8620000000001</v>
       </c>
       <c r="C490">
         <v>-2.19</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
         <v>44174</v>
       </c>
       <c r="B491" s="1">
-        <v>1298415.3799999999</v>
+        <v>1298.4153799999999</v>
       </c>
       <c r="C491">
         <v>-1.25</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>44175</v>
       </c>
       <c r="B492" s="1">
-        <v>1279129.75</v>
+        <v>1279.1297500000001</v>
       </c>
       <c r="C492">
         <v>-1.49</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
         <v>44176</v>
       </c>
       <c r="B493" s="1">
-        <v>1288431.25</v>
+        <v>1288.4312500000001</v>
       </c>
       <c r="C493">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>44180</v>
       </c>
       <c r="B494" s="1">
-        <v>1331370.5</v>
+        <v>1331.3705</v>
       </c>
       <c r="C494">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>44181</v>
       </c>
       <c r="B495" s="1">
-        <v>1322428.3799999999</v>
+        <v>1322.4283799999998</v>
       </c>
       <c r="C495">
         <v>-0.67</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
         <v>44182</v>
       </c>
       <c r="B496" s="1">
-        <v>1270626.6200000001</v>
+        <v>1270.62662</v>
       </c>
       <c r="C496">
         <v>-3.92</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>44183</v>
       </c>
       <c r="B497" s="1">
-        <v>1267251.25</v>
+        <v>1267.25125</v>
       </c>
       <c r="C497">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>44186</v>
       </c>
       <c r="B498" s="1">
-        <v>1235117</v>
+        <v>1235.117</v>
       </c>
       <c r="C498">
         <v>-2.54</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>44187</v>
       </c>
       <c r="B499" s="1">
-        <v>1230221.8799999999</v>
+        <v>1230.2218799999998</v>
       </c>
       <c r="C499">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>44188</v>
       </c>
       <c r="B500" s="1">
-        <v>1229396.3799999999</v>
+        <v>1229.3963799999999</v>
       </c>
       <c r="C500">
         <v>-7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <v>44193</v>
       </c>
       <c r="B501" s="1">
-        <v>1238367.25</v>
+        <v>1238.36725</v>
       </c>
       <c r="C501">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G501" s="1"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
         <v>44194</v>
       </c>
       <c r="B502" s="1">
-        <v>1252254.5</v>
+        <v>1252.2545</v>
       </c>
       <c r="C502">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G502" s="1"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
         <v>44195</v>
       </c>
       <c r="B503" s="1">
-        <v>1332059.8799999999</v>
+        <v>1332.0598799999998</v>
       </c>
       <c r="C503">
         <v>6.37</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G503" s="1"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="4">
         <v>44200</v>
       </c>
       <c r="B504" s="1">
-        <v>1448283.62</v>
+        <v>1448.2836200000002</v>
       </c>
       <c r="C504">
         <v>8.73</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G504" s="1"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="4">
         <v>44201</v>
       </c>
       <c r="B505" s="1">
-        <v>1381986.75</v>
+        <v>1381.98675</v>
       </c>
       <c r="C505">
         <v>-4.58</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G505" s="1"/>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="4">
         <v>44202</v>
       </c>
       <c r="B506" s="1">
-        <v>1449892.5</v>
+        <v>1449.8924999999999</v>
       </c>
       <c r="C506">
         <v>4.91</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G506" s="1"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="4">
         <v>44203</v>
       </c>
       <c r="B507" s="1">
-        <v>1657941.12</v>
+        <v>1657.9411200000002</v>
       </c>
       <c r="C507">
         <v>14.35</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G507" s="23"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="4">
         <v>44204</v>
       </c>
       <c r="B508" s="1">
-        <v>1905696</v>
+        <v>1905.6959999999999</v>
       </c>
       <c r="C508">
         <v>14.94</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G508" s="1"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="4">
         <v>44208</v>
       </c>
       <c r="B509" s="1">
-        <v>1804195.75</v>
+        <v>1804.1957500000001</v>
       </c>
       <c r="C509">
         <v>-5.33</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G509" s="1"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="4">
         <v>44209</v>
       </c>
       <c r="B510" s="1">
-        <v>1745892</v>
+        <v>1745.8920000000001</v>
       </c>
       <c r="C510">
         <v>-3.23</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G510" s="1"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="4">
         <v>44210</v>
       </c>
       <c r="B511" s="1">
-        <v>1818485.62</v>
+        <v>1818.4856200000002</v>
       </c>
       <c r="C511">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G511" s="1"/>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
         <v>44211</v>
       </c>
       <c r="B512" s="1">
-        <v>1741966.12</v>
+        <v>1741.96612</v>
       </c>
       <c r="C512">
         <v>-4.21</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G512" s="1"/>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
         <v>44215</v>
       </c>
       <c r="B513" s="1">
-        <v>1799541.88</v>
+        <v>1799.54188</v>
       </c>
       <c r="C513">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G513" s="1"/>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
         <v>44216</v>
       </c>
       <c r="B514" s="1">
-        <v>1785018.75</v>
+        <v>1785.01875</v>
       </c>
       <c r="C514">
         <v>-0.81</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G514" s="1"/>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="4">
         <v>44217</v>
       </c>
       <c r="B515" s="1">
-        <v>1925396.5</v>
+        <v>1925.3965000000001</v>
       </c>
       <c r="C515">
         <v>7.86</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G515" s="1"/>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="4">
         <v>44218</v>
       </c>
       <c r="B516" s="1">
-        <v>1997191.88</v>
+        <v>1997.1918799999999</v>
       </c>
       <c r="C516">
         <v>3.73</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G516" s="1"/>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="4">
         <v>44221</v>
       </c>
       <c r="B517" s="1">
-        <v>1936237.25</v>
+        <v>1936.2372499999999</v>
       </c>
       <c r="C517">
         <v>-3.05</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G517" s="1"/>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>44222</v>
       </c>
       <c r="B518" s="1">
-        <v>1887118.88</v>
+        <v>1887.11888</v>
       </c>
       <c r="C518">
         <v>-2.54</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G518" s="1"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>44223</v>
       </c>
       <c r="B519" s="1">
-        <v>1909861.25</v>
+        <v>1909.8612499999999</v>
       </c>
       <c r="C519">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G519" s="1"/>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
         <v>44224</v>
       </c>
       <c r="B520" s="1">
-        <v>1921557.38</v>
+        <v>1921.55738</v>
       </c>
       <c r="C520">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G520" s="1"/>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
         <v>44225</v>
       </c>
       <c r="B521" s="1">
-        <v>1924354.75</v>
+        <v>1924.35475</v>
       </c>
       <c r="C521">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G521" s="1"/>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>44228</v>
       </c>
       <c r="B522" s="1">
-        <v>1905502.88</v>
+        <v>1905.5028799999998</v>
       </c>
       <c r="C522">
         <v>-0.98</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G522" s="1"/>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>44229</v>
       </c>
       <c r="B523" s="1">
-        <v>1887222.5</v>
+        <v>1887.2225000000001</v>
       </c>
       <c r="C523">
         <v>-0.96</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G523" s="1"/>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>44230</v>
       </c>
       <c r="B524" s="1">
-        <v>1937007.5</v>
+        <v>1937.0074999999999</v>
       </c>
       <c r="C524">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G524" s="1"/>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="4">
         <v>44231</v>
       </c>
       <c r="B525" s="1">
-        <v>1903205.5</v>
+        <v>1903.2055</v>
       </c>
       <c r="C525">
         <v>-1.75</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G525" s="1"/>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
         <v>44232</v>
       </c>
       <c r="B526" s="1">
-        <v>1877815.75</v>
+        <v>1877.81575</v>
       </c>
       <c r="C526">
         <v>-1.33</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G526" s="1"/>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
         <v>44235</v>
       </c>
       <c r="B527" s="1">
-        <v>1850033.25</v>
+        <v>1850.03325</v>
       </c>
       <c r="C527">
         <v>-1.48</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G527" s="1"/>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>44236</v>
       </c>
       <c r="B528" s="1">
-        <v>1870622.38</v>
+        <v>1870.6223799999998</v>
       </c>
       <c r="C528">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G528" s="1"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
         <v>44237</v>
       </c>
       <c r="B529" s="1">
-        <v>1874510.88</v>
+        <v>1874.5108799999998</v>
       </c>
       <c r="C529">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G529" s="1"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="4">
         <v>44238</v>
       </c>
       <c r="B530" s="1">
-        <v>1882781.5</v>
+        <v>1882.7815000000001</v>
       </c>
       <c r="C530">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G530" s="1"/>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="4">
         <v>44239</v>
       </c>
       <c r="B531" s="1">
-        <v>1870964.62</v>
+        <v>1870.9646200000002</v>
       </c>
       <c r="C531">
         <v>-0.63</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G531" s="1"/>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>44244</v>
       </c>
       <c r="B532" s="1">
-        <v>1859847.62</v>
+        <v>1859.84762</v>
       </c>
       <c r="C532">
         <v>-0.59</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G532" s="1"/>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>44245</v>
       </c>
       <c r="B533" s="1">
-        <v>1875271</v>
+        <v>1875.271</v>
       </c>
       <c r="C533">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G533" s="1"/>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>44246</v>
       </c>
       <c r="B534" s="1">
-        <v>1908051.88</v>
+        <v>1908.05188</v>
       </c>
       <c r="C534">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G534" s="1"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>44249</v>
       </c>
       <c r="B535" s="1">
-        <v>2014488.62</v>
+        <v>2014.4886200000001</v>
       </c>
       <c r="C535">
         <v>5.58</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G535" s="1"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>44250</v>
       </c>
       <c r="B536" s="1">
-        <v>2024784.5</v>
+        <v>2024.7845</v>
       </c>
       <c r="C536">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G536" s="1"/>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>44251</v>
       </c>
       <c r="B537" s="1">
-        <v>2053756.75</v>
+        <v>2053.75675</v>
       </c>
       <c r="C537">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G537" s="1"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
         <v>44252</v>
       </c>
       <c r="B538" s="1">
-        <v>2150334</v>
+        <v>2150.3339999999998</v>
       </c>
       <c r="C538">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G538" s="1"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>44253</v>
       </c>
       <c r="B539" s="1">
-        <v>2300775.75</v>
+        <v>2300.7757499999998</v>
       </c>
       <c r="C539">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G539" s="1"/>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="4">
         <v>44256</v>
       </c>
       <c r="B540" s="1">
-        <v>2350514.5</v>
+        <v>2350.5145000000002</v>
       </c>
       <c r="C540">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G540" s="1"/>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
         <v>44257</v>
       </c>
       <c r="B541" s="1">
-        <v>2493808.75</v>
+        <v>2493.8087500000001</v>
       </c>
       <c r="C541">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G541" s="1"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>44258</v>
       </c>
       <c r="B542" s="1">
-        <v>2343334.5</v>
+        <v>2343.3344999999999</v>
       </c>
       <c r="C542">
         <v>-6.03</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G542" s="1"/>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>44259</v>
       </c>
       <c r="B543" s="1">
-        <v>2393488.5</v>
+        <v>2393.4884999999999</v>
       </c>
       <c r="C543">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G543" s="1"/>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>44260</v>
       </c>
       <c r="B544" s="1">
-        <v>2441750</v>
+        <v>2441.75</v>
       </c>
       <c r="C544">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G544" s="1"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>44263</v>
       </c>
       <c r="B545" s="1">
-        <v>2511655.5</v>
+        <v>2511.6554999999998</v>
       </c>
       <c r="C545">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G545" s="1"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>44264</v>
       </c>
       <c r="B546" s="1">
-        <v>2615668.5</v>
+        <v>2615.6685000000002</v>
       </c>
       <c r="C546">
         <v>4.1399999999999997</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G546" s="1"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>44265</v>
       </c>
       <c r="B547" s="1">
-        <v>2576883.75</v>
+        <v>2576.88375</v>
       </c>
       <c r="C547">
         <v>-1.48</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G547" s="1"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>44266</v>
       </c>
       <c r="B548" s="1">
-        <v>2606643.75</v>
+        <v>2606.6437500000002</v>
       </c>
       <c r="C548">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G548" s="1"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>44267</v>
       </c>
       <c r="B549" s="1">
-        <v>2645283.75</v>
+        <v>2645.2837500000001</v>
       </c>
       <c r="C549">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G549" s="1"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>44270</v>
       </c>
       <c r="B550" s="1">
-        <v>2668313.5</v>
+        <v>2668.3135000000002</v>
       </c>
       <c r="C550">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G550" s="1"/>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>44271</v>
       </c>
       <c r="B551" s="1">
-        <v>2699170.75</v>
+        <v>2699.1707500000002</v>
       </c>
       <c r="C551">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G551" s="1"/>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>44272</v>
       </c>
       <c r="B552" s="1">
-        <v>2702129.5</v>
+        <v>2702.1295</v>
       </c>
       <c r="C552">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G552" s="1"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>44273</v>
       </c>
       <c r="B553" s="1">
-        <v>2694698.25</v>
+        <v>2694.6982499999999</v>
       </c>
       <c r="C553">
         <v>-0.28000000000000003</v>
       </c>
+      <c r="G553" s="1"/>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" s="4">
+        <v>44277</v>
+      </c>
+      <c r="B554" s="1">
+        <v>2661.18</v>
+      </c>
+      <c r="C554">
+        <v>-1.24</v>
+      </c>
+      <c r="G554" s="1"/>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A555" s="4">
+        <v>44278</v>
+      </c>
+      <c r="B555" s="1">
+        <v>2660.15</v>
+      </c>
+      <c r="C555">
+        <v>-0.04</v>
+      </c>
+      <c r="G555" s="1"/>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" s="4">
+        <v>44279</v>
+      </c>
+      <c r="B556" s="1">
+        <v>2689.28</v>
+      </c>
+      <c r="C556">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G556" s="1"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G557" s="1"/>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G558" s="1"/>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G559" s="1"/>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G560" s="1"/>
+    </row>
+    <row r="561" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G561" s="1"/>
+    </row>
+    <row r="562" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G562" s="1"/>
+    </row>
+    <row r="563" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G563" s="1"/>
+    </row>
+    <row r="564" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G564" s="1"/>
+    </row>
+    <row r="565" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G565" s="1"/>
+    </row>
+    <row r="566" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G566" s="1"/>
+    </row>
+    <row r="567" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G567" s="1"/>
+    </row>
+    <row r="568" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G568" s="1"/>
+    </row>
+    <row r="569" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G569" s="1"/>
+    </row>
+    <row r="570" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G570" s="1"/>
+    </row>
+    <row r="571" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G571" s="1"/>
+    </row>
+    <row r="572" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G572" s="1"/>
+    </row>
+    <row r="573" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G573" s="1"/>
+    </row>
+    <row r="574" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G574" s="1"/>
+    </row>
+    <row r="575" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G575" s="1"/>
+    </row>
+    <row r="576" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G576" s="1"/>
+    </row>
+    <row r="577" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G577" s="1"/>
+    </row>
+    <row r="578" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G578" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:D1619">

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M578"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="C559" sqref="C559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7617,12 +7617,39 @@
       <c r="G556" s="1"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" s="4">
+        <v>44280</v>
+      </c>
+      <c r="B557" s="1">
+        <v>2708.41</v>
+      </c>
+      <c r="C557">
+        <v>0.71</v>
+      </c>
       <c r="G557" s="1"/>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" s="4">
+        <v>44281</v>
+      </c>
+      <c r="B558" s="1">
+        <v>2792.74</v>
+      </c>
+      <c r="C558">
+        <v>3.11</v>
+      </c>
       <c r="G558" s="1"/>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A559" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B559" s="1">
+        <v>2749.33</v>
+      </c>
+      <c r="C559">
+        <v>-1.55</v>
+      </c>
       <c r="G559" s="1"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -929,7 +929,7 @@
   <dimension ref="A1:M578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="C559" sqref="C559"/>
+      <selection activeCell="C562" sqref="C562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7653,54 +7653,72 @@
       <c r="G559" s="1"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" s="4">
+        <v>44285</v>
+      </c>
+      <c r="B560" s="1">
+        <v>2744.78</v>
+      </c>
+      <c r="C560">
+        <v>-0.17</v>
+      </c>
       <c r="G560" s="1"/>
     </row>
-    <row r="561" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" s="4">
+        <v>44286</v>
+      </c>
+      <c r="B561" s="1">
+        <v>2837.63</v>
+      </c>
+      <c r="C561">
+        <v>3.38</v>
+      </c>
       <c r="G561" s="1"/>
     </row>
-    <row r="562" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G562" s="1"/>
     </row>
-    <row r="563" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G564" s="1"/>
     </row>
-    <row r="565" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G565" s="1"/>
     </row>
-    <row r="566" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G566" s="1"/>
     </row>
-    <row r="567" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G567" s="1"/>
     </row>
-    <row r="568" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G568" s="1"/>
     </row>
-    <row r="569" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G569" s="1"/>
     </row>
-    <row r="570" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G570" s="1"/>
     </row>
-    <row r="571" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G571" s="1"/>
     </row>
-    <row r="572" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G572" s="1"/>
     </row>
-    <row r="573" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G573" s="1"/>
     </row>
-    <row r="574" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G574" s="1"/>
     </row>
-    <row r="575" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G575" s="1"/>
     </row>
-    <row r="576" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G576" s="1"/>
     </row>
     <row r="577" spans="7:7" x14ac:dyDescent="0.25">

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -929,7 +929,7 @@
   <dimension ref="A1:M578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="C562" sqref="C562"/>
+      <selection activeCell="C564" sqref="C564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7677,9 +7677,27 @@
       <c r="G561" s="1"/>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" s="4">
+        <v>44291</v>
+      </c>
+      <c r="B562" s="1">
+        <v>2831.53</v>
+      </c>
+      <c r="C562">
+        <v>-0.21</v>
+      </c>
       <c r="G562" s="1"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A563" s="4">
+        <v>44292</v>
+      </c>
+      <c r="B563" s="1">
+        <v>2828.81</v>
+      </c>
+      <c r="C563">
+        <v>-0.1</v>
+      </c>
       <c r="G563" s="1"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -929,7 +929,7 @@
   <dimension ref="A1:M578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="C564" sqref="C564"/>
+      <selection activeCell="C566" sqref="C566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7701,9 +7701,27 @@
       <c r="G563" s="1"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A564" s="4">
+        <v>44293</v>
+      </c>
+      <c r="B564" s="1">
+        <v>2844.9</v>
+      </c>
+      <c r="C564">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="G564" s="1"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A565" s="4">
+        <v>44294</v>
+      </c>
+      <c r="B565" s="1">
+        <v>2920.81</v>
+      </c>
+      <c r="C565">
+        <v>2.67</v>
+      </c>
       <c r="G565" s="1"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M578"/>
+  <dimension ref="A1:M577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="C566" sqref="C566"/>
+      <selection activeCell="G561" sqref="G561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7725,18 +7725,63 @@
       <c r="G565" s="1"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A566" s="4">
+        <v>44295</v>
+      </c>
+      <c r="B566" s="1">
+        <v>2948.26</v>
+      </c>
+      <c r="C566">
+        <v>0.94</v>
+      </c>
       <c r="G566" s="1"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A567" s="4">
+        <v>44298</v>
+      </c>
+      <c r="B567" s="1">
+        <v>2970.18</v>
+      </c>
+      <c r="C567">
+        <v>0.74</v>
+      </c>
       <c r="G567" s="1"/>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A568" s="4">
+        <v>44299</v>
+      </c>
+      <c r="B568" s="1">
+        <v>3004.67</v>
+      </c>
+      <c r="C568">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="G568" s="1"/>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A569" s="4">
+        <v>44301</v>
+      </c>
+      <c r="B569" s="1">
+        <v>3093.95</v>
+      </c>
+      <c r="C569">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G569" s="1"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A570" s="4">
+        <v>44302</v>
+      </c>
+      <c r="B570" s="1">
+        <v>3084.91</v>
+      </c>
+      <c r="C570">
+        <v>-0.28999999999999998</v>
+      </c>
       <c r="G570" s="1"/>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
@@ -7759,9 +7804,6 @@
     </row>
     <row r="577" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G577" s="1"/>
-    </row>
-    <row r="578" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G578" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:D1619">

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="G561" sqref="G561"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="C572" sqref="C572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7785,6 +7785,15 @@
       <c r="G570" s="1"/>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A571" s="4">
+        <v>44306</v>
+      </c>
+      <c r="B571" s="1">
+        <v>3188.84</v>
+      </c>
+      <c r="C571">
+        <v>3.37</v>
+      </c>
       <c r="G571" s="1"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -929,7 +929,7 @@
   <dimension ref="A1:M577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="C572" sqref="C572"/>
+      <selection activeCell="C575" sqref="C575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7797,12 +7797,39 @@
       <c r="G571" s="1"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A572" s="4">
+        <v>44307</v>
+      </c>
+      <c r="B572" s="1">
+        <v>3236.4</v>
+      </c>
+      <c r="C572">
+        <v>1.49</v>
+      </c>
       <c r="G572" s="1"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A573" s="4">
+        <v>44249</v>
+      </c>
+      <c r="B573" s="1">
+        <v>3319.68</v>
+      </c>
+      <c r="C573">
+        <v>2.57</v>
+      </c>
       <c r="G573" s="1"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" s="4">
+        <v>44250</v>
+      </c>
+      <c r="B574" s="1">
+        <v>3738.93</v>
+      </c>
+      <c r="C574">
+        <v>12.63</v>
+      </c>
       <c r="G574" s="1"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="C575" sqref="C575"/>
+    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="J575" sqref="J575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -929,7 +929,7 @@
   <dimension ref="A1:M577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="J575" sqref="J575"/>
+      <selection activeCell="C576" sqref="C576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7833,9 +7833,27 @@
       <c r="G574" s="1"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A575" s="4">
+        <v>44253</v>
+      </c>
+      <c r="B575" s="1">
+        <v>4149.68</v>
+      </c>
+      <c r="C575">
+        <v>10.99</v>
+      </c>
       <c r="G575" s="1"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A576" s="4">
+        <v>44254</v>
+      </c>
+      <c r="B576" s="1">
+        <v>4364.42</v>
+      </c>
+      <c r="C576">
+        <v>5.17</v>
+      </c>
       <c r="G576" s="1"/>
     </row>
     <row r="577" spans="7:7" x14ac:dyDescent="0.25">

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -929,7 +929,7 @@
   <dimension ref="A1:M577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="C576" sqref="C576"/>
+      <selection activeCell="C578" sqref="C578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
-        <v>44249</v>
+        <v>44308</v>
       </c>
       <c r="B573" s="1">
         <v>3319.68</v>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
-        <v>44250</v>
+        <v>44309</v>
       </c>
       <c r="B574" s="1">
         <v>3738.93</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
-        <v>44253</v>
+        <v>44312</v>
       </c>
       <c r="B575" s="1">
         <v>4149.68</v>
@@ -7846,7 +7846,7 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="4">
-        <v>44254</v>
+        <v>44313</v>
       </c>
       <c r="B576" s="1">
         <v>4364.42</v>
@@ -7856,7 +7856,16 @@
       </c>
       <c r="G576" s="1"/>
     </row>
-    <row r="577" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A577" s="4">
+        <v>44314</v>
+      </c>
+      <c r="B577" s="1">
+        <v>4646.01</v>
+      </c>
+      <c r="C577">
+        <v>6.45</v>
+      </c>
       <c r="G577" s="1"/>
     </row>
   </sheetData>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M577"/>
+  <dimension ref="A1:M578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="C578" sqref="C578"/>
+      <selection activeCell="C579" sqref="C579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7868,6 +7868,17 @@
       </c>
       <c r="G577" s="1"/>
     </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A578" s="4">
+        <v>44315</v>
+      </c>
+      <c r="B578" s="1">
+        <v>4761.6400000000003</v>
+      </c>
+      <c r="C578">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M578"/>
+  <dimension ref="A1:M581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="C579" sqref="C579"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="B582" sqref="B582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7879,6 +7879,39 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A579" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B579" s="1">
+        <v>4691.34</v>
+      </c>
+      <c r="C579">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A580" s="4">
+        <v>44319</v>
+      </c>
+      <c r="B580" s="1">
+        <v>4667.24</v>
+      </c>
+      <c r="C580">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" s="4">
+        <v>44320</v>
+      </c>
+      <c r="B581" s="1">
+        <v>4754.97</v>
+      </c>
+      <c r="C581">
+        <v>1.88</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M581"/>
+  <dimension ref="A1:M583"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="B582" sqref="B582"/>
+      <selection activeCell="A584" sqref="A584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7912,6 +7912,28 @@
         <v>1.88</v>
       </c>
     </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" s="4">
+        <v>44321</v>
+      </c>
+      <c r="B582" s="1">
+        <v>4867.53</v>
+      </c>
+      <c r="C582">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A583" s="4">
+        <v>44322</v>
+      </c>
+      <c r="B583" s="1">
+        <v>5085.17</v>
+      </c>
+      <c r="C583">
+        <v>4.47</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M583"/>
+  <dimension ref="A1:M584"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="A584" sqref="A584"/>
+      <selection activeCell="C585" sqref="C585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7934,6 +7934,17 @@
         <v>4.47</v>
       </c>
     </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A584" s="4">
+        <v>44323</v>
+      </c>
+      <c r="B584" s="1">
+        <v>5560.69</v>
+      </c>
+      <c r="C584">
+        <v>9.35</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M584"/>
+  <dimension ref="A1:M586"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="C585" sqref="C585"/>
+      <selection activeCell="C587" sqref="C587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7945,6 +7945,28 @@
         <v>9.35</v>
       </c>
     </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A585" s="4">
+        <v>44326</v>
+      </c>
+      <c r="B585" s="1">
+        <v>5642.2</v>
+      </c>
+      <c r="C585">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A586" s="4">
+        <v>44327</v>
+      </c>
+      <c r="B586" s="1">
+        <v>5477.91</v>
+      </c>
+      <c r="C586">
+        <v>-2.91</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M586"/>
+  <dimension ref="A1:M588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="C587" sqref="C587"/>
+    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="C589" sqref="C589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7967,6 +7967,28 @@
         <v>-2.91</v>
       </c>
     </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A587" s="4">
+        <v>44328</v>
+      </c>
+      <c r="B587" s="1">
+        <v>5306.69</v>
+      </c>
+      <c r="C587">
+        <v>-3.13</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A588" s="4">
+        <v>44329</v>
+      </c>
+      <c r="B588" s="1">
+        <v>5231.7299999999996</v>
+      </c>
+      <c r="C588">
+        <v>-1.41</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M588"/>
+  <dimension ref="A1:M589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="C589" sqref="C589"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="C590" sqref="C590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7989,6 +7989,17 @@
         <v>-1.41</v>
       </c>
     </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A589" s="4">
+        <v>44330</v>
+      </c>
+      <c r="B589" s="1">
+        <v>5516.59</v>
+      </c>
+      <c r="C589">
+        <v>5.44</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M589"/>
+  <dimension ref="A1:M591"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="C590" sqref="C590"/>
+      <selection activeCell="B592" sqref="B592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8000,6 +8000,28 @@
         <v>5.44</v>
       </c>
     </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A590" s="4">
+        <v>44333</v>
+      </c>
+      <c r="B590" s="1">
+        <v>5582.01</v>
+      </c>
+      <c r="C590">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" s="4">
+        <v>44334</v>
+      </c>
+      <c r="B591" s="1">
+        <v>5522.56</v>
+      </c>
+      <c r="C591">
+        <v>-1.07</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M591"/>
+  <dimension ref="A1:M592"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="B592" sqref="B592"/>
+      <selection activeCell="C593" sqref="C593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8022,6 +8022,17 @@
         <v>-1.07</v>
       </c>
     </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" s="4">
+        <v>44335</v>
+      </c>
+      <c r="B592" s="1">
+        <v>5781.65</v>
+      </c>
+      <c r="C592">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M592"/>
+  <dimension ref="A1:M593"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="C593" sqref="C593"/>
+      <selection activeCell="G575" sqref="G575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8033,6 +8033,17 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="4">
+        <v>44336</v>
+      </c>
+      <c r="B593" s="1">
+        <v>5798.7</v>
+      </c>
+      <c r="C593">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M593"/>
+  <dimension ref="A1:M594"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="G575" sqref="G575"/>
+      <selection activeCell="B595" sqref="B595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8044,6 +8044,17 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="4">
+        <v>44337</v>
+      </c>
+      <c r="B594" s="1">
+        <v>5788.44</v>
+      </c>
+      <c r="C594">
+        <v>-0.18</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -929,7 +929,7 @@
   <dimension ref="A1:M594"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="B595" sqref="B595"/>
+      <selection activeCell="A595" sqref="A595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M594"/>
+  <dimension ref="A1:M597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="A595" sqref="A595"/>
+    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
+      <selection activeCell="C597" sqref="C597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8055,6 +8055,39 @@
         <v>-0.18</v>
       </c>
     </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="4">
+        <v>44341</v>
+      </c>
+      <c r="B595" s="1">
+        <v>5674.06</v>
+      </c>
+      <c r="C595">
+        <v>-1.98</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="4">
+        <v>44342</v>
+      </c>
+      <c r="B596" s="1">
+        <v>5514.67</v>
+      </c>
+      <c r="C596">
+        <v>-2.81</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="4">
+        <v>44343</v>
+      </c>
+      <c r="B597" s="1">
+        <v>5251.55</v>
+      </c>
+      <c r="C597">
+        <v>-4.7699999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M597"/>
+  <dimension ref="A1:M606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="C597" sqref="C597"/>
+    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
+      <selection activeCell="C607" sqref="C607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8088,6 +8088,105 @@
         <v>-4.7699999999999996</v>
       </c>
     </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="4">
+        <v>44344</v>
+      </c>
+      <c r="B598" s="1">
+        <v>5430.46</v>
+      </c>
+      <c r="C598">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B599" s="1">
+        <v>5262.08</v>
+      </c>
+      <c r="C599">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="4">
+        <v>44348</v>
+      </c>
+      <c r="B600" s="1">
+        <v>5185.49</v>
+      </c>
+      <c r="C600">
+        <v>-1.46</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="4">
+        <v>44349</v>
+      </c>
+      <c r="B601" s="1">
+        <v>4943.54</v>
+      </c>
+      <c r="C601">
+        <v>-4.67</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="4">
+        <v>44350</v>
+      </c>
+      <c r="B602" s="1">
+        <v>4996.88</v>
+      </c>
+      <c r="C602">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="4">
+        <v>44351</v>
+      </c>
+      <c r="B603" s="1">
+        <v>5095.25</v>
+      </c>
+      <c r="C603">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="4">
+        <v>44354</v>
+      </c>
+      <c r="B604" s="1">
+        <v>5103.3900000000003</v>
+      </c>
+      <c r="C604">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="4">
+        <v>44355</v>
+      </c>
+      <c r="B605" s="1">
+        <v>5073.6400000000003</v>
+      </c>
+      <c r="C605">
+        <v>-0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="4">
+        <v>44356</v>
+      </c>
+      <c r="B606" s="1">
+        <v>5077.7</v>
+      </c>
+      <c r="C606">
+        <v>0.08</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M606"/>
+  <dimension ref="A1:M611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="C607" sqref="C607"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="C612" sqref="C612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8187,6 +8187,61 @@
         <v>0.08</v>
       </c>
     </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="4">
+        <v>44357</v>
+      </c>
+      <c r="B607" s="1">
+        <v>4933.1099999999997</v>
+      </c>
+      <c r="C607">
+        <v>-2.85</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="4">
+        <v>44358</v>
+      </c>
+      <c r="B608" s="1">
+        <v>4946.24</v>
+      </c>
+      <c r="C608">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="4">
+        <v>44362</v>
+      </c>
+      <c r="B609" s="1">
+        <v>4925.01</v>
+      </c>
+      <c r="C609">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="4">
+        <v>44363</v>
+      </c>
+      <c r="B610" s="1">
+        <v>4776.43</v>
+      </c>
+      <c r="C610">
+        <v>-3.02</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="4">
+        <v>44364</v>
+      </c>
+      <c r="B611" s="1">
+        <v>4758.8999999999996</v>
+      </c>
+      <c r="C611">
+        <v>-0.37</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="C612" sqref="C612"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="L584" sqref="L584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +938,9 @@
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" style="3"/>
     <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="3"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7664,7 +7666,7 @@
       </c>
       <c r="G560" s="1"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>44286</v>
       </c>
@@ -7676,7 +7678,7 @@
       </c>
       <c r="G561" s="1"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
         <v>44291</v>
       </c>
@@ -7688,7 +7690,7 @@
       </c>
       <c r="G562" s="1"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="4">
         <v>44292</v>
       </c>
@@ -7700,7 +7702,7 @@
       </c>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
         <v>44293</v>
       </c>
@@ -7712,7 +7714,7 @@
       </c>
       <c r="G564" s="1"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" s="4">
         <v>44294</v>
       </c>
@@ -7724,7 +7726,7 @@
       </c>
       <c r="G565" s="1"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="4">
         <v>44295</v>
       </c>
@@ -7736,7 +7738,7 @@
       </c>
       <c r="G566" s="1"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" s="4">
         <v>44298</v>
       </c>
@@ -7748,7 +7750,7 @@
       </c>
       <c r="G567" s="1"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="4">
         <v>44299</v>
       </c>
@@ -7760,7 +7762,7 @@
       </c>
       <c r="G568" s="1"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" s="4">
         <v>44301</v>
       </c>
@@ -7772,7 +7774,7 @@
       </c>
       <c r="G569" s="1"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="4">
         <v>44302</v>
       </c>
@@ -7784,7 +7786,7 @@
       </c>
       <c r="G570" s="1"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" s="4">
         <v>44306</v>
       </c>
@@ -7796,7 +7798,7 @@
       </c>
       <c r="G571" s="1"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" s="4">
         <v>44307</v>
       </c>
@@ -7807,8 +7809,9 @@
         <v>1.49</v>
       </c>
       <c r="G572" s="1"/>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I572" s="1"/>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
         <v>44308</v>
       </c>
@@ -7819,8 +7822,9 @@
         <v>2.57</v>
       </c>
       <c r="G573" s="1"/>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I573" s="1"/>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
         <v>44309</v>
       </c>
@@ -7831,8 +7835,9 @@
         <v>12.63</v>
       </c>
       <c r="G574" s="1"/>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I574" s="1"/>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
         <v>44312</v>
       </c>
@@ -7843,8 +7848,9 @@
         <v>10.99</v>
       </c>
       <c r="G575" s="1"/>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I575" s="1"/>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" s="4">
         <v>44313</v>
       </c>
@@ -7855,8 +7861,9 @@
         <v>5.17</v>
       </c>
       <c r="G576" s="1"/>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I576" s="1"/>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" s="4">
         <v>44314</v>
       </c>
@@ -7867,8 +7874,9 @@
         <v>6.45</v>
       </c>
       <c r="G577" s="1"/>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I577" s="1"/>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="4">
         <v>44315</v>
       </c>
@@ -7878,8 +7886,9 @@
       <c r="C578">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I578" s="1"/>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" s="4">
         <v>44316</v>
       </c>
@@ -7889,8 +7898,10 @@
       <c r="C579">
         <v>-1.48</v>
       </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G579" s="24"/>
+      <c r="I579" s="1"/>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" s="4">
         <v>44319</v>
       </c>
@@ -7900,8 +7911,9 @@
       <c r="C580">
         <v>-0.51</v>
       </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I580" s="1"/>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" s="4">
         <v>44320</v>
       </c>
@@ -7911,8 +7923,9 @@
       <c r="C581">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I581" s="1"/>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="4">
         <v>44321</v>
       </c>
@@ -7922,8 +7935,9 @@
       <c r="C582">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I582" s="1"/>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" s="4">
         <v>44322</v>
       </c>
@@ -7933,8 +7947,9 @@
       <c r="C583">
         <v>4.47</v>
       </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I583" s="1"/>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" s="4">
         <v>44323</v>
       </c>
@@ -7944,8 +7959,9 @@
       <c r="C584">
         <v>9.35</v>
       </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I584" s="1"/>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" s="4">
         <v>44326</v>
       </c>
@@ -7955,8 +7971,9 @@
       <c r="C585">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I585" s="1"/>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="4">
         <v>44327</v>
       </c>
@@ -7966,8 +7983,9 @@
       <c r="C586">
         <v>-2.91</v>
       </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I586" s="1"/>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="4">
         <v>44328</v>
       </c>
@@ -7977,8 +7995,9 @@
       <c r="C587">
         <v>-3.13</v>
       </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I587" s="1"/>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="4">
         <v>44329</v>
       </c>
@@ -7988,8 +8007,9 @@
       <c r="C588">
         <v>-1.41</v>
       </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I588" s="1"/>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="4">
         <v>44330</v>
       </c>
@@ -7999,8 +8019,9 @@
       <c r="C589">
         <v>5.44</v>
       </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I589" s="1"/>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
         <v>44333</v>
       </c>
@@ -8010,8 +8031,9 @@
       <c r="C590">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I590" s="1"/>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" s="4">
         <v>44334</v>
       </c>
@@ -8021,8 +8043,9 @@
       <c r="C591">
         <v>-1.07</v>
       </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I591" s="1"/>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="4">
         <v>44335</v>
       </c>
@@ -8033,7 +8056,7 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" s="4">
         <v>44336</v>
       </c>
@@ -8043,8 +8066,9 @@
       <c r="C593">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I593" s="24"/>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" s="4">
         <v>44337</v>
       </c>
@@ -8055,7 +8079,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="4">
         <v>44341</v>
       </c>
@@ -8066,7 +8090,7 @@
         <v>-1.98</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="4">
         <v>44342</v>
       </c>
@@ -8077,7 +8101,7 @@
         <v>-2.81</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" s="4">
         <v>44343</v>
       </c>
@@ -8088,7 +8112,7 @@
         <v>-4.7699999999999996</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="4">
         <v>44344</v>
       </c>
@@ -8099,7 +8123,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" s="4">
         <v>44347</v>
       </c>
@@ -8110,7 +8134,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="4">
         <v>44348</v>
       </c>
@@ -8121,7 +8145,7 @@
         <v>-1.46</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="4">
         <v>44349</v>
       </c>
@@ -8132,7 +8156,7 @@
         <v>-4.67</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" s="4">
         <v>44350</v>
       </c>
@@ -8143,7 +8167,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" s="4">
         <v>44351</v>
       </c>
@@ -8154,7 +8178,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="4">
         <v>44354</v>
       </c>
@@ -8165,7 +8189,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" s="4">
         <v>44355</v>
       </c>
@@ -8176,7 +8200,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" s="4">
         <v>44356</v>
       </c>
@@ -8187,7 +8211,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" s="4">
         <v>44357</v>
       </c>
@@ -8198,7 +8222,7 @@
         <v>-2.85</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" s="4">
         <v>44358</v>
       </c>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M611"/>
+  <dimension ref="A1:M614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="L584" sqref="L584"/>
+    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="C614" sqref="C614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8266,6 +8266,39 @@
         <v>-0.37</v>
       </c>
     </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="4">
+        <v>44365</v>
+      </c>
+      <c r="B612" s="1">
+        <v>4915.43</v>
+      </c>
+      <c r="C612">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="4">
+        <v>44368</v>
+      </c>
+      <c r="B613" s="1">
+        <v>4894.22</v>
+      </c>
+      <c r="C613">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="4">
+        <v>44369</v>
+      </c>
+      <c r="B614" s="1">
+        <v>4897.32</v>
+      </c>
+      <c r="C614">
+        <v>0.06</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M614"/>
+  <dimension ref="A1:M618"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="C614" sqref="C614"/>
+      <selection activeCell="C619" sqref="C619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8299,6 +8299,50 @@
         <v>0.06</v>
       </c>
     </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="4">
+        <v>44370</v>
+      </c>
+      <c r="B615" s="1">
+        <v>4857.76</v>
+      </c>
+      <c r="C615">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="4">
+        <v>44372</v>
+      </c>
+      <c r="B616" s="1">
+        <v>5032.12</v>
+      </c>
+      <c r="C616">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="4">
+        <v>44376</v>
+      </c>
+      <c r="B617" s="1">
+        <v>5052.3900000000003</v>
+      </c>
+      <c r="C617">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B618" s="1">
+        <v>5137.84</v>
+      </c>
+      <c r="C618">
+        <v>1.69</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M618"/>
+  <dimension ref="A1:M621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="C619" sqref="C619"/>
+      <selection activeCell="C622" sqref="C622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8343,6 +8343,39 @@
         <v>1.69</v>
       </c>
     </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="4">
+        <v>44378</v>
+      </c>
+      <c r="B619" s="1">
+        <v>5168.51</v>
+      </c>
+      <c r="C619">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="4">
+        <v>44379</v>
+      </c>
+      <c r="B620" s="1">
+        <v>5099.13</v>
+      </c>
+      <c r="C620">
+        <v>-1.34</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="4">
+        <v>44383</v>
+      </c>
+      <c r="B621" s="1">
+        <v>5085.99</v>
+      </c>
+      <c r="C621">
+        <v>-0.26</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M621"/>
+  <dimension ref="A1:M625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="C622" sqref="C622"/>
+      <selection activeCell="A626" sqref="A626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8376,6 +8376,50 @@
         <v>-0.26</v>
       </c>
     </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="4">
+        <v>44384</v>
+      </c>
+      <c r="B622" s="1">
+        <v>4988.21</v>
+      </c>
+      <c r="C622">
+        <v>-1.92</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="4">
+        <v>44385</v>
+      </c>
+      <c r="B623" s="1">
+        <v>4881.1099999999997</v>
+      </c>
+      <c r="C623">
+        <v>-2.15</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="4">
+        <v>44386</v>
+      </c>
+      <c r="B624" s="1">
+        <v>4913.17</v>
+      </c>
+      <c r="C624">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="4">
+        <v>44389</v>
+      </c>
+      <c r="B625" s="1">
+        <v>4907.57</v>
+      </c>
+      <c r="C625">
+        <v>-0.11</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M625"/>
+  <dimension ref="A1:M631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="A626" sqref="A626"/>
+      <selection activeCell="I629" sqref="I629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8420,6 +8420,72 @@
         <v>-0.11</v>
       </c>
     </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="4">
+        <v>44390</v>
+      </c>
+      <c r="B626" s="1">
+        <v>4911.45</v>
+      </c>
+      <c r="C626">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="4">
+        <v>44391</v>
+      </c>
+      <c r="B627" s="1">
+        <v>5002.32</v>
+      </c>
+      <c r="C627">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="4">
+        <v>44392</v>
+      </c>
+      <c r="B628" s="1">
+        <v>5513.32</v>
+      </c>
+      <c r="C628">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="4">
+        <v>44393</v>
+      </c>
+      <c r="B629" s="1">
+        <v>5691.41</v>
+      </c>
+      <c r="C629">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="4">
+        <v>44396</v>
+      </c>
+      <c r="B630" s="1">
+        <v>5558.21</v>
+      </c>
+      <c r="C630">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="4">
+        <v>44397</v>
+      </c>
+      <c r="B631" s="1">
+        <v>5733.62</v>
+      </c>
+      <c r="C631">
+        <v>3.16</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>
